--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="6" r:id="rId1"/>
@@ -42,9 +42,9 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOG!$A$70:$A$88</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$CI$328</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$CJ$328</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="81">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -290,13 +290,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -417,9 +417,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +432,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,7 +447,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -847,19 +854,19 @@
   <dimension ref="A1:EY328"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BU84" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="CL99" sqref="CL99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
     <col min="2" max="81" width="10.1796875" style="1" customWidth="1"/>
-    <col min="82" max="87" width="10.1796875" style="20" customWidth="1"/>
-    <col min="88" max="16384" width="7.7265625" style="1"/>
+    <col min="82" max="88" width="12.36328125" style="20" customWidth="1"/>
+    <col min="89" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -1025,6 +1032,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
     </row>
     <row r="10" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1270,23 +1278,26 @@
       <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="22" t="s">
+      <c r="CD10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CE10" s="22" t="s">
+      <c r="CE10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CF10" s="22" t="s">
+      <c r="CF10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CG10" s="22" t="s">
+      <c r="CG10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="22" t="s">
+      <c r="CH10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CI10" s="22" t="s">
+      <c r="CI10" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ10" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,25 +1547,27 @@
       <c r="CC12" s="7">
         <v>284898.32985799143</v>
       </c>
-      <c r="CD12" s="23">
+      <c r="CD12" s="22">
         <v>248398.93155687832</v>
       </c>
-      <c r="CE12" s="23">
+      <c r="CE12" s="22">
         <v>221866.27488922211</v>
       </c>
-      <c r="CF12" s="23">
+      <c r="CF12" s="22">
         <v>261888.69504893597</v>
       </c>
-      <c r="CG12" s="23">
+      <c r="CG12" s="22">
         <v>288564.76783587795</v>
       </c>
-      <c r="CH12" s="23">
+      <c r="CH12" s="22">
         <v>273828.60075271985</v>
       </c>
-      <c r="CI12" s="23">
-        <v>319450.19775483391</v>
-      </c>
-      <c r="CJ12" s="8"/>
+      <c r="CI12" s="22">
+        <v>322220.26959904737</v>
+      </c>
+      <c r="CJ12" s="22">
+        <v>304383.86347770609</v>
+      </c>
       <c r="CK12" s="8"/>
       <c r="CL12" s="8"/>
       <c r="CM12" s="8"/>
@@ -1867,25 +1880,27 @@
       <c r="CC13" s="10">
         <v>123443.67093575792</v>
       </c>
-      <c r="CD13" s="24">
+      <c r="CD13" s="23">
         <v>130521.3173567137</v>
       </c>
-      <c r="CE13" s="24">
+      <c r="CE13" s="23">
         <v>129098.47391856331</v>
       </c>
-      <c r="CF13" s="24">
+      <c r="CF13" s="23">
         <v>127691.15660205125</v>
       </c>
-      <c r="CG13" s="24">
+      <c r="CG13" s="23">
         <v>134328.29576384585</v>
       </c>
-      <c r="CH13" s="24">
+      <c r="CH13" s="23">
         <v>140669.20576929973</v>
       </c>
-      <c r="CI13" s="24">
-        <v>160924.19094096826</v>
-      </c>
-      <c r="CJ13" s="8"/>
+      <c r="CI13" s="23">
+        <v>161583.30784961453</v>
+      </c>
+      <c r="CJ13" s="23">
+        <v>151492.59732417049</v>
+      </c>
       <c r="CK13" s="8"/>
       <c r="CL13" s="8"/>
       <c r="CM13" s="8"/>
@@ -2198,25 +2213,27 @@
       <c r="CC14" s="10">
         <v>68521.602698338087</v>
       </c>
-      <c r="CD14" s="24">
+      <c r="CD14" s="23">
         <v>49400.179534468109</v>
       </c>
-      <c r="CE14" s="24">
+      <c r="CE14" s="23">
         <v>43940.809661320425</v>
       </c>
-      <c r="CF14" s="24">
+      <c r="CF14" s="23">
         <v>63022.471262297782</v>
       </c>
-      <c r="CG14" s="24">
+      <c r="CG14" s="23">
         <v>72823.626298967531</v>
       </c>
-      <c r="CH14" s="24">
+      <c r="CH14" s="23">
         <v>60494.165055354912</v>
       </c>
-      <c r="CI14" s="24">
-        <v>73743.394359415164</v>
-      </c>
-      <c r="CJ14" s="8"/>
+      <c r="CI14" s="23">
+        <v>74734.182772925589</v>
+      </c>
+      <c r="CJ14" s="23">
+        <v>74903.991691733841</v>
+      </c>
       <c r="CK14" s="8"/>
       <c r="CL14" s="8"/>
       <c r="CM14" s="8"/>
@@ -2529,25 +2546,27 @@
       <c r="CC15" s="10">
         <v>3303.0477496516833</v>
       </c>
-      <c r="CD15" s="24">
+      <c r="CD15" s="23">
         <v>2787.3271407716593</v>
       </c>
-      <c r="CE15" s="24">
+      <c r="CE15" s="23">
         <v>2327.8750083378277</v>
       </c>
-      <c r="CF15" s="24">
+      <c r="CF15" s="23">
         <v>3001.0622079501841</v>
       </c>
-      <c r="CG15" s="24">
+      <c r="CG15" s="23">
         <v>2001.0615153882522</v>
       </c>
-      <c r="CH15" s="24">
+      <c r="CH15" s="23">
         <v>2235.4843904277645</v>
       </c>
-      <c r="CI15" s="24">
-        <v>3144.5258768862309</v>
-      </c>
-      <c r="CJ15" s="8"/>
+      <c r="CI15" s="23">
+        <v>3190.9406729294114</v>
+      </c>
+      <c r="CJ15" s="23">
+        <v>2294.431870449198</v>
+      </c>
       <c r="CK15" s="8"/>
       <c r="CL15" s="8"/>
       <c r="CM15" s="8"/>
@@ -2860,25 +2879,27 @@
       <c r="CC16" s="10">
         <v>19613.592403844177</v>
       </c>
-      <c r="CD16" s="24">
+      <c r="CD16" s="23">
         <v>12071.065337137785</v>
       </c>
-      <c r="CE16" s="24">
+      <c r="CE16" s="23">
         <v>8175.7643994113605</v>
       </c>
-      <c r="CF16" s="24">
+      <c r="CF16" s="23">
         <v>17897.393698863689</v>
       </c>
-      <c r="CG16" s="24">
+      <c r="CG16" s="23">
         <v>17878.647645497484</v>
       </c>
-      <c r="CH16" s="24">
+      <c r="CH16" s="23">
         <v>12495.660658198838</v>
       </c>
-      <c r="CI16" s="24">
-        <v>19994.681486430662</v>
-      </c>
-      <c r="CJ16" s="8"/>
+      <c r="CI16" s="23">
+        <v>20229.425599710943</v>
+      </c>
+      <c r="CJ16" s="23">
+        <v>17484.461381443092</v>
+      </c>
       <c r="CK16" s="8"/>
       <c r="CL16" s="8"/>
       <c r="CM16" s="8"/>
@@ -3191,25 +3212,27 @@
       <c r="CC17" s="10">
         <v>26129.400934016729</v>
       </c>
-      <c r="CD17" s="24">
+      <c r="CD17" s="23">
         <v>21679.276889394121</v>
       </c>
-      <c r="CE17" s="24">
+      <c r="CE17" s="23">
         <v>12058.653653010331</v>
       </c>
-      <c r="CF17" s="24">
+      <c r="CF17" s="23">
         <v>18394.186288617329</v>
       </c>
-      <c r="CG17" s="24">
+      <c r="CG17" s="23">
         <v>25681.690808283285</v>
       </c>
-      <c r="CH17" s="24">
+      <c r="CH17" s="23">
         <v>20950.62925509438</v>
       </c>
-      <c r="CI17" s="24">
-        <v>27326.600544113593</v>
-      </c>
-      <c r="CJ17" s="8"/>
+      <c r="CI17" s="23">
+        <v>27834.996812113422</v>
+      </c>
+      <c r="CJ17" s="23">
+        <v>24578.125712914094</v>
+      </c>
       <c r="CK17" s="8"/>
       <c r="CL17" s="8"/>
       <c r="CM17" s="8"/>
@@ -3522,25 +3545,27 @@
       <c r="CC18" s="10">
         <v>27659.176587628826</v>
       </c>
-      <c r="CD18" s="24">
+      <c r="CD18" s="23">
         <v>19793.214908196656</v>
       </c>
-      <c r="CE18" s="24">
+      <c r="CE18" s="23">
         <v>15764.414464545247</v>
       </c>
-      <c r="CF18" s="24">
+      <c r="CF18" s="23">
         <v>19791.3410333922</v>
       </c>
-      <c r="CG18" s="24">
+      <c r="CG18" s="23">
         <v>25007.539539894715</v>
       </c>
-      <c r="CH18" s="24">
+      <c r="CH18" s="23">
         <v>23331.792053112909</v>
       </c>
-      <c r="CI18" s="24">
-        <v>17731.751939116424</v>
-      </c>
-      <c r="CJ18" s="8"/>
+      <c r="CI18" s="23">
+        <v>17823.483115547046</v>
+      </c>
+      <c r="CJ18" s="23">
+        <v>15319.205106040812</v>
+      </c>
       <c r="CK18" s="8"/>
       <c r="CL18" s="8"/>
       <c r="CM18" s="8"/>
@@ -3853,25 +3878,27 @@
       <c r="CC19" s="10">
         <v>10392.762467227512</v>
       </c>
-      <c r="CD19" s="24">
+      <c r="CD19" s="23">
         <v>8169.3464339348657</v>
       </c>
-      <c r="CE19" s="24">
+      <c r="CE19" s="23">
         <v>7743.1935322091877</v>
       </c>
-      <c r="CF19" s="24">
+      <c r="CF19" s="23">
         <v>8749.0142845157297</v>
       </c>
-      <c r="CG19" s="24">
+      <c r="CG19" s="23">
         <v>8075.3502134746805</v>
       </c>
-      <c r="CH19" s="24">
+      <c r="CH19" s="23">
         <v>10012.48269965438</v>
       </c>
-      <c r="CI19" s="24">
-        <v>12968.189773558366</v>
-      </c>
-      <c r="CJ19" s="8"/>
+      <c r="CI19" s="23">
+        <v>13139.074288603837</v>
+      </c>
+      <c r="CJ19" s="23">
+        <v>13969.171341140072</v>
+      </c>
       <c r="CK19" s="8"/>
       <c r="CL19" s="8"/>
       <c r="CM19" s="8"/>
@@ -4184,25 +4211,27 @@
       <c r="CC20" s="10">
         <v>4762.3862111844819</v>
       </c>
-      <c r="CD20" s="24">
+      <c r="CD20" s="23">
         <v>3199.7977165991169</v>
       </c>
-      <c r="CE20" s="24">
+      <c r="CE20" s="23">
         <v>2344.6045282966625</v>
       </c>
-      <c r="CF20" s="24">
+      <c r="CF20" s="23">
         <v>2492.3838082862794</v>
       </c>
-      <c r="CG20" s="24">
+      <c r="CG20" s="23">
         <v>2025.139041409479</v>
       </c>
-      <c r="CH20" s="24">
+      <c r="CH20" s="23">
         <v>2967.7559202583934</v>
       </c>
-      <c r="CI20" s="24">
-        <v>2960.0060440387465</v>
-      </c>
-      <c r="CJ20" s="8"/>
+      <c r="CI20" s="23">
+        <v>3020.2307555629081</v>
+      </c>
+      <c r="CJ20" s="23">
+        <v>3760.3462491735258</v>
+      </c>
       <c r="CK20" s="8"/>
       <c r="CL20" s="8"/>
       <c r="CM20" s="8"/>
@@ -4515,25 +4544,27 @@
       <c r="CC21" s="10">
         <v>1072.6898703419802</v>
       </c>
-      <c r="CD21" s="24">
+      <c r="CD21" s="23">
         <v>777.40623966230794</v>
       </c>
-      <c r="CE21" s="24">
+      <c r="CE21" s="23">
         <v>412.48572352778274</v>
       </c>
-      <c r="CF21" s="24">
+      <c r="CF21" s="23">
         <v>849.68586296152705</v>
       </c>
-      <c r="CG21" s="24">
+      <c r="CG21" s="23">
         <v>743.41700911674559</v>
       </c>
-      <c r="CH21" s="24">
+      <c r="CH21" s="23">
         <v>671.42495131855264</v>
       </c>
-      <c r="CI21" s="24">
-        <v>656.85679030645076</v>
-      </c>
-      <c r="CJ21" s="8"/>
+      <c r="CI21" s="23">
+        <v>664.6277320396789</v>
+      </c>
+      <c r="CJ21" s="23">
+        <v>581.53280064095895</v>
+      </c>
       <c r="CK21" s="8"/>
       <c r="CL21" s="8"/>
       <c r="CM21" s="8"/>
@@ -4846,25 +4877,27 @@
       <c r="CC22" s="10">
         <v>203266.59404428519</v>
       </c>
-      <c r="CD22" s="24">
+      <c r="CD22" s="23">
         <v>162728.29773585848</v>
       </c>
-      <c r="CE22" s="24">
+      <c r="CE22" s="23">
         <v>69333.128132188649</v>
       </c>
-      <c r="CF22" s="24">
+      <c r="CF22" s="23">
         <v>104448.71488460159</v>
       </c>
-      <c r="CG22" s="24">
+      <c r="CG22" s="23">
         <v>121944.74352114175</v>
       </c>
-      <c r="CH22" s="24">
+      <c r="CH22" s="23">
         <v>139160.45235528308</v>
       </c>
-      <c r="CI22" s="24">
-        <v>217008.15402782531</v>
-      </c>
-      <c r="CJ22" s="8"/>
+      <c r="CI22" s="23">
+        <v>218681.38601755086</v>
+      </c>
+      <c r="CJ22" s="23">
+        <v>232085.16919174787</v>
+      </c>
       <c r="CK22" s="8"/>
       <c r="CL22" s="8"/>
       <c r="CM22" s="8"/>
@@ -5177,25 +5210,27 @@
       <c r="CC23" s="10">
         <v>89561.969538974721</v>
       </c>
-      <c r="CD23" s="24">
+      <c r="CD23" s="23">
         <v>84008.740957196758</v>
       </c>
-      <c r="CE23" s="24">
+      <c r="CE23" s="23">
         <v>53919.709496638978</v>
       </c>
-      <c r="CF23" s="24">
+      <c r="CF23" s="23">
         <v>67217.750463075223</v>
       </c>
-      <c r="CG23" s="24">
+      <c r="CG23" s="23">
         <v>63180.499828430075</v>
       </c>
-      <c r="CH23" s="24">
+      <c r="CH23" s="23">
         <v>73788.850877780962</v>
       </c>
-      <c r="CI23" s="24">
-        <v>81833.585103459147</v>
-      </c>
-      <c r="CJ23" s="8"/>
+      <c r="CI23" s="23">
+        <v>82836.406640195011</v>
+      </c>
+      <c r="CJ23" s="23">
+        <v>81004.270472295844</v>
+      </c>
       <c r="CK23" s="8"/>
       <c r="CL23" s="8"/>
       <c r="CM23" s="8"/>
@@ -5508,25 +5543,27 @@
       <c r="CC24" s="10">
         <v>21006.050837993582</v>
       </c>
-      <c r="CD24" s="24">
+      <c r="CD24" s="23">
         <v>14893.226161271417</v>
       </c>
-      <c r="CE24" s="24">
+      <c r="CE24" s="23">
         <v>13969.806540043342</v>
       </c>
-      <c r="CF24" s="24">
+      <c r="CF24" s="23">
         <v>13347.169252778935</v>
       </c>
-      <c r="CG24" s="24">
+      <c r="CG24" s="23">
         <v>12977.336435152418</v>
       </c>
-      <c r="CH24" s="24">
+      <c r="CH24" s="23">
         <v>13530.904914225604</v>
       </c>
-      <c r="CI24" s="24">
-        <v>13317.484664321206</v>
-      </c>
-      <c r="CJ24" s="8"/>
+      <c r="CI24" s="23">
+        <v>13572.909731947349</v>
+      </c>
+      <c r="CJ24" s="23">
+        <v>14879.51063913391</v>
+      </c>
       <c r="CK24" s="8"/>
       <c r="CL24" s="8"/>
       <c r="CM24" s="8"/>
@@ -5839,25 +5876,27 @@
       <c r="CC25" s="10">
         <v>66077.241097437945</v>
       </c>
-      <c r="CD25" s="24">
+      <c r="CD25" s="23">
         <v>74568.678031355594</v>
       </c>
-      <c r="CE25" s="24">
+      <c r="CE25" s="23">
         <v>48441.119990021631</v>
       </c>
-      <c r="CF25" s="24">
+      <c r="CF25" s="23">
         <v>70495.40584483245</v>
       </c>
-      <c r="CG25" s="24">
+      <c r="CG25" s="23">
         <v>65839.667102015708</v>
       </c>
-      <c r="CH25" s="24">
+      <c r="CH25" s="23">
         <v>74504.642155649868</v>
       </c>
-      <c r="CI25" s="24">
-        <v>101639.37962980793</v>
-      </c>
-      <c r="CJ25" s="8"/>
+      <c r="CI25" s="23">
+        <v>102533.13086815857</v>
+      </c>
+      <c r="CJ25" s="23">
+        <v>123312.54452526885</v>
+      </c>
       <c r="CK25" s="8"/>
       <c r="CL25" s="8"/>
       <c r="CM25" s="8"/>
@@ -6170,25 +6209,27 @@
       <c r="CC26" s="10">
         <v>137899.34126520547</v>
       </c>
-      <c r="CD26" s="24">
+      <c r="CD26" s="23">
         <v>200687.27516231438</v>
       </c>
-      <c r="CE26" s="24">
+      <c r="CE26" s="23">
         <v>36046.396745557191</v>
       </c>
-      <c r="CF26" s="24">
+      <c r="CF26" s="23">
         <v>60414.33425667401</v>
       </c>
-      <c r="CG26" s="24">
+      <c r="CG26" s="23">
         <v>86314.292554156636</v>
       </c>
-      <c r="CH26" s="24">
+      <c r="CH26" s="23">
         <v>182159.12751500998</v>
       </c>
-      <c r="CI26" s="24">
-        <v>89175.78515547057</v>
-      </c>
-      <c r="CJ26" s="8"/>
+      <c r="CI26" s="23">
+        <v>91449.139464255975</v>
+      </c>
+      <c r="CJ26" s="23">
+        <v>83248.508232938708</v>
+      </c>
       <c r="CK26" s="8"/>
       <c r="CL26" s="8"/>
       <c r="CM26" s="8"/>
@@ -6501,25 +6542,27 @@
       <c r="CC27" s="10">
         <v>17607.814415896981</v>
       </c>
-      <c r="CD27" s="24">
+      <c r="CD27" s="23">
         <v>15914.460123873831</v>
       </c>
-      <c r="CE27" s="24">
+      <c r="CE27" s="23">
         <v>11032.827500393912</v>
       </c>
-      <c r="CF27" s="24">
+      <c r="CF27" s="23">
         <v>14786.545346144645</v>
       </c>
-      <c r="CG27" s="24">
+      <c r="CG27" s="23">
         <v>15324.340137478965</v>
       </c>
-      <c r="CH27" s="24">
+      <c r="CH27" s="23">
         <v>18255.442453374508</v>
       </c>
-      <c r="CI27" s="24">
-        <v>17574.418321150682</v>
-      </c>
-      <c r="CJ27" s="8"/>
+      <c r="CI27" s="23">
+        <v>17853.899462482197</v>
+      </c>
+      <c r="CJ27" s="23">
+        <v>16143.651719724174</v>
+      </c>
       <c r="CK27" s="8"/>
       <c r="CL27" s="8"/>
       <c r="CM27" s="8"/>
@@ -6832,25 +6875,27 @@
       <c r="CC28" s="10">
         <v>50226.548486507185</v>
       </c>
-      <c r="CD28" s="24">
+      <c r="CD28" s="23">
         <v>40370.885301686707</v>
       </c>
-      <c r="CE28" s="24">
+      <c r="CE28" s="23">
         <v>28100.315644148061</v>
       </c>
-      <c r="CF28" s="24">
+      <c r="CF28" s="23">
         <v>33122.408535784467</v>
       </c>
-      <c r="CG28" s="24">
+      <c r="CG28" s="23">
         <v>47174.096015132047</v>
       </c>
-      <c r="CH28" s="24">
+      <c r="CH28" s="23">
         <v>46050.378238773708</v>
       </c>
-      <c r="CI28" s="24">
-        <v>38272.599754903742</v>
-      </c>
-      <c r="CJ28" s="8"/>
+      <c r="CI28" s="23">
+        <v>38844.383268205296</v>
+      </c>
+      <c r="CJ28" s="23">
+        <v>41155.47177004211</v>
+      </c>
       <c r="CK28" s="8"/>
       <c r="CL28" s="8"/>
       <c r="CM28" s="8"/>
@@ -7163,25 +7208,27 @@
       <c r="CC29" s="10">
         <v>67214.67177497728</v>
       </c>
-      <c r="CD29" s="24">
+      <c r="CD29" s="23">
         <v>60583.662833813731</v>
       </c>
-      <c r="CE29" s="24">
+      <c r="CE29" s="23">
         <v>54018.532817326362</v>
       </c>
-      <c r="CF29" s="24">
+      <c r="CF29" s="23">
         <v>64614.869260012914</v>
       </c>
-      <c r="CG29" s="24">
+      <c r="CG29" s="23">
         <v>64607.893978857799</v>
       </c>
-      <c r="CH29" s="24">
+      <c r="CH29" s="23">
         <v>65788.63666809295</v>
       </c>
-      <c r="CI29" s="24">
-        <v>80584.492069977088</v>
-      </c>
-      <c r="CJ29" s="8"/>
+      <c r="CI29" s="23">
+        <v>81467.119290670336</v>
+      </c>
+      <c r="CJ29" s="23">
+        <v>84975.527286364711</v>
+      </c>
       <c r="CK29" s="8"/>
       <c r="CL29" s="8"/>
       <c r="CM29" s="8"/>
@@ -7494,25 +7541,27 @@
       <c r="CC30" s="10">
         <v>43624.573415651001</v>
       </c>
-      <c r="CD30" s="24">
+      <c r="CD30" s="23">
         <v>29668.36195332032</v>
       </c>
-      <c r="CE30" s="24">
+      <c r="CE30" s="23">
         <v>33505.10569468981</v>
       </c>
-      <c r="CF30" s="24">
+      <c r="CF30" s="23">
         <v>35305.617636920964</v>
       </c>
-      <c r="CG30" s="24">
+      <c r="CG30" s="23">
         <v>38676.704722771494</v>
       </c>
-      <c r="CH30" s="24">
+      <c r="CH30" s="23">
         <v>27836.901728793113</v>
       </c>
-      <c r="CI30" s="24">
-        <v>34800.951016238549</v>
-      </c>
-      <c r="CJ30" s="8"/>
+      <c r="CI30" s="23">
+        <v>35453.329560488775</v>
+      </c>
+      <c r="CJ30" s="23">
+        <v>43819.985699302953</v>
+      </c>
       <c r="CK30" s="8"/>
       <c r="CL30" s="8"/>
       <c r="CM30" s="8"/>
@@ -7825,25 +7874,27 @@
       <c r="CC31" s="10">
         <v>16555.718834899973</v>
       </c>
-      <c r="CD31" s="24">
+      <c r="CD31" s="23">
         <v>16000.777220512946</v>
       </c>
-      <c r="CE31" s="24">
+      <c r="CE31" s="23">
         <v>13813.797797499376</v>
       </c>
-      <c r="CF31" s="24">
+      <c r="CF31" s="23">
         <v>14634.997826092775</v>
       </c>
-      <c r="CG31" s="24">
+      <c r="CG31" s="23">
         <v>16488.453832801129</v>
       </c>
-      <c r="CH31" s="24">
+      <c r="CH31" s="23">
         <v>15587.473615045399</v>
       </c>
-      <c r="CI31" s="24">
-        <v>14317.82993531984</v>
-      </c>
-      <c r="CJ31" s="8"/>
+      <c r="CI31" s="23">
+        <v>14352.20130650029</v>
+      </c>
+      <c r="CJ31" s="23">
+        <v>17389.79432888986</v>
+      </c>
       <c r="CK31" s="8"/>
       <c r="CL31" s="8"/>
       <c r="CM31" s="8"/>
@@ -8156,25 +8207,27 @@
       <c r="CC32" s="10">
         <v>34421.418599093326</v>
       </c>
-      <c r="CD32" s="24">
+      <c r="CD32" s="23">
         <v>28185.148269367524</v>
       </c>
-      <c r="CE32" s="24">
+      <c r="CE32" s="23">
         <v>22029.834960338376</v>
       </c>
-      <c r="CF32" s="24">
+      <c r="CF32" s="23">
         <v>23618.133323995222</v>
       </c>
-      <c r="CG32" s="24">
+      <c r="CG32" s="23">
         <v>29915.709434395223</v>
       </c>
-      <c r="CH32" s="24">
+      <c r="CH32" s="23">
         <v>27915.842047877213</v>
       </c>
-      <c r="CI32" s="24">
-        <v>26962.222779410269</v>
-      </c>
-      <c r="CJ32" s="8"/>
+      <c r="CI32" s="23">
+        <v>27217.635878118439</v>
+      </c>
+      <c r="CJ32" s="23">
+        <v>43785.40063453</v>
+      </c>
       <c r="CK32" s="8"/>
       <c r="CL32" s="8"/>
       <c r="CM32" s="8"/>
@@ -8487,25 +8540,27 @@
       <c r="CC33" s="10">
         <v>15675.135629467415</v>
       </c>
-      <c r="CD33" s="24">
+      <c r="CD33" s="23">
         <v>14729.194369986231</v>
       </c>
-      <c r="CE33" s="24">
+      <c r="CE33" s="23">
         <v>12183.496894354348</v>
       </c>
-      <c r="CF33" s="24">
+      <c r="CF33" s="23">
         <v>15763.417704756992</v>
       </c>
-      <c r="CG33" s="24">
+      <c r="CG33" s="23">
         <v>15398.070963156028</v>
       </c>
-      <c r="CH33" s="24">
+      <c r="CH33" s="23">
         <v>15396.74179894491</v>
       </c>
-      <c r="CI33" s="24">
-        <v>16082.326180153224</v>
-      </c>
-      <c r="CJ33" s="8"/>
+      <c r="CI33" s="23">
+        <v>16286.501965285763</v>
+      </c>
+      <c r="CJ33" s="23">
+        <v>15240.011923386968</v>
+      </c>
       <c r="CK33" s="8"/>
       <c r="CL33" s="8"/>
       <c r="CM33" s="8"/>
@@ -8818,25 +8873,27 @@
       <c r="CC34" s="10">
         <v>21181.057092868141</v>
       </c>
-      <c r="CD34" s="24">
+      <c r="CD34" s="23">
         <v>11935.428919045686</v>
       </c>
-      <c r="CE34" s="24">
+      <c r="CE34" s="23">
         <v>14517.874679098542</v>
       </c>
-      <c r="CF34" s="24">
+      <c r="CF34" s="23">
         <v>19048.382802920645</v>
       </c>
-      <c r="CG34" s="24">
+      <c r="CG34" s="23">
         <v>20376.311530589574</v>
       </c>
-      <c r="CH34" s="24">
+      <c r="CH34" s="23">
         <v>15908.518493296633</v>
       </c>
-      <c r="CI34" s="24">
-        <v>26719.982762752956</v>
-      </c>
-      <c r="CJ34" s="8"/>
+      <c r="CI34" s="23">
+        <v>27488.250865085694</v>
+      </c>
+      <c r="CJ34" s="23">
+        <v>20505.523900098968</v>
+      </c>
       <c r="CK34" s="8"/>
       <c r="CL34" s="8"/>
       <c r="CM34" s="8"/>
@@ -9149,25 +9206,27 @@
       <c r="CC35" s="10">
         <v>6521.7395878400621</v>
       </c>
-      <c r="CD35" s="24">
+      <c r="CD35" s="23">
         <v>1647.8793948259499</v>
       </c>
-      <c r="CE35" s="24">
+      <c r="CE35" s="23">
         <v>2532.192357935804</v>
       </c>
-      <c r="CF35" s="24">
+      <c r="CF35" s="23">
         <v>3778.7617690969141</v>
       </c>
-      <c r="CG35" s="24">
+      <c r="CG35" s="23">
         <v>5078.6829238322234</v>
       </c>
-      <c r="CH35" s="24">
+      <c r="CH35" s="23">
         <v>3691.962194192929</v>
       </c>
-      <c r="CI35" s="24">
-        <v>1781.4129994658272</v>
-      </c>
-      <c r="CJ35" s="8"/>
+      <c r="CI35" s="23">
+        <v>1784.869241988823</v>
+      </c>
+      <c r="CJ35" s="23">
+        <v>7625.9335506615962</v>
+      </c>
       <c r="CK35" s="8"/>
       <c r="CL35" s="8"/>
       <c r="CM35" s="8"/>
@@ -9480,25 +9539,27 @@
       <c r="CC36" s="10">
         <v>29174.369159591912</v>
       </c>
-      <c r="CD36" s="24">
+      <c r="CD36" s="23">
         <v>24892.881373902648</v>
       </c>
-      <c r="CE36" s="24">
+      <c r="CE36" s="23">
         <v>17776.835778242956</v>
       </c>
-      <c r="CF36" s="24">
+      <c r="CF36" s="23">
         <v>24697.592555088781</v>
       </c>
-      <c r="CG36" s="24">
+      <c r="CG36" s="23">
         <v>28198.231009323434</v>
       </c>
-      <c r="CH36" s="24">
+      <c r="CH36" s="23">
         <v>29440.455963467015</v>
       </c>
-      <c r="CI36" s="24">
-        <v>29102.463731799769</v>
-      </c>
-      <c r="CJ36" s="8"/>
+      <c r="CI36" s="23">
+        <v>29344.959424075478</v>
+      </c>
+      <c r="CJ36" s="23">
+        <v>31889.181302266545</v>
+      </c>
       <c r="CK36" s="8"/>
       <c r="CL36" s="8"/>
       <c r="CM36" s="8"/>
@@ -9811,25 +9872,27 @@
       <c r="CC37" s="10">
         <v>35737.161771441351</v>
       </c>
-      <c r="CD37" s="24">
+      <c r="CD37" s="23">
         <v>34898.04527395183</v>
       </c>
-      <c r="CE37" s="24">
+      <c r="CE37" s="23">
         <v>21405.424056284053</v>
       </c>
-      <c r="CF37" s="24">
+      <c r="CF37" s="23">
         <v>27366.607197225359</v>
       </c>
-      <c r="CG37" s="24">
+      <c r="CG37" s="23">
         <v>32062.447995421975</v>
       </c>
-      <c r="CH37" s="24">
+      <c r="CH37" s="23">
         <v>36857.376142553134</v>
       </c>
-      <c r="CI37" s="24">
-        <v>38595.424856507983</v>
-      </c>
-      <c r="CJ37" s="8"/>
+      <c r="CI37" s="23">
+        <v>39199.046830798528</v>
+      </c>
+      <c r="CJ37" s="23">
+        <v>40500.641321495124</v>
+      </c>
       <c r="CK37" s="8"/>
       <c r="CL37" s="8"/>
       <c r="CM37" s="8"/>
@@ -10142,25 +10205,27 @@
       <c r="CC38" s="10">
         <v>21834.112203054967</v>
       </c>
-      <c r="CD38" s="24">
+      <c r="CD38" s="23">
         <v>14573.10603689961</v>
       </c>
-      <c r="CE38" s="24">
+      <c r="CE38" s="23">
         <v>12633.487364535071</v>
       </c>
-      <c r="CF38" s="24">
+      <c r="CF38" s="23">
         <v>16086.342107008564</v>
       </c>
-      <c r="CG38" s="24">
+      <c r="CG38" s="23">
         <v>21812.922836339189</v>
       </c>
-      <c r="CH38" s="24">
+      <c r="CH38" s="23">
         <v>14778.2935216193</v>
       </c>
-      <c r="CI38" s="24">
-        <v>15433.943531732031</v>
-      </c>
-      <c r="CJ38" s="8"/>
+      <c r="CI38" s="23">
+        <v>15584.190792464557</v>
+      </c>
+      <c r="CJ38" s="23">
+        <v>19389.624943545932</v>
+      </c>
       <c r="CK38" s="8"/>
       <c r="CL38" s="8"/>
       <c r="CM38" s="8"/>
@@ -10473,25 +10538,27 @@
       <c r="CC39" s="10">
         <v>17615.338019523781</v>
       </c>
-      <c r="CD39" s="24">
+      <c r="CD39" s="23">
         <v>16828.354902448402</v>
       </c>
-      <c r="CE39" s="24">
+      <c r="CE39" s="23">
         <v>9711.455755002813</v>
       </c>
-      <c r="CF39" s="24">
+      <c r="CF39" s="23">
         <v>13545.21949529033</v>
       </c>
-      <c r="CG39" s="24">
+      <c r="CG39" s="23">
         <v>12634.158839717524</v>
       </c>
-      <c r="CH39" s="24">
+      <c r="CH39" s="23">
         <v>16163.848165311942</v>
       </c>
-      <c r="CI39" s="24">
-        <v>16406.273839714693</v>
-      </c>
-      <c r="CJ39" s="8"/>
+      <c r="CI39" s="23">
+        <v>16523.549213323069</v>
+      </c>
+      <c r="CJ39" s="23">
+        <v>18258.843256769687</v>
+      </c>
       <c r="CK39" s="8"/>
       <c r="CL39" s="8"/>
       <c r="CM39" s="8"/>
@@ -10804,25 +10871,27 @@
       <c r="CC40" s="10">
         <v>9439.118257189768</v>
       </c>
-      <c r="CD40" s="24">
+      <c r="CD40" s="23">
         <v>8025.8145714430875</v>
       </c>
-      <c r="CE40" s="24">
+      <c r="CE40" s="23">
         <v>5940.2785889050219</v>
       </c>
-      <c r="CF40" s="24">
+      <c r="CF40" s="23">
         <v>7586.9211926755779</v>
       </c>
-      <c r="CG40" s="24">
+      <c r="CG40" s="23">
         <v>6911.3225000449238</v>
       </c>
-      <c r="CH40" s="24">
+      <c r="CH40" s="23">
         <v>6836.3668606270639</v>
       </c>
-      <c r="CI40" s="24">
-        <v>6476.5859534431775</v>
-      </c>
-      <c r="CJ40" s="8"/>
+      <c r="CI40" s="23">
+        <v>6536.3406600132912</v>
+      </c>
+      <c r="CJ40" s="23">
+        <v>6266.7639567052092</v>
+      </c>
       <c r="CK40" s="8"/>
       <c r="CL40" s="8"/>
       <c r="CM40" s="8"/>
@@ -11135,25 +11204,27 @@
       <c r="CC41" s="10">
         <v>281688.41082624608</v>
       </c>
-      <c r="CD41" s="24">
+      <c r="CD41" s="23">
         <v>293495.46076133504</v>
       </c>
-      <c r="CE41" s="24">
+      <c r="CE41" s="23">
         <v>207337.60892260488</v>
       </c>
-      <c r="CF41" s="24">
+      <c r="CF41" s="23">
         <v>354448.88081460487</v>
       </c>
-      <c r="CG41" s="24">
+      <c r="CG41" s="23">
         <v>243172.44908372668</v>
       </c>
-      <c r="CH41" s="24">
+      <c r="CH41" s="23">
         <v>311775.76749676565</v>
       </c>
-      <c r="CI41" s="24">
-        <v>338959.90425973531</v>
-      </c>
-      <c r="CJ41" s="8"/>
+      <c r="CI41" s="23">
+        <v>345247.15396894142</v>
+      </c>
+      <c r="CJ41" s="23">
+        <v>435859.45158643991</v>
+      </c>
       <c r="CK41" s="8"/>
       <c r="CL41" s="8"/>
       <c r="CM41" s="8"/>
@@ -11303,13 +11374,13 @@
       <c r="CA42" s="8"/>
       <c r="CB42" s="8"/>
       <c r="CC42" s="8"/>
-      <c r="CD42" s="25"/>
-      <c r="CE42" s="25"/>
-      <c r="CF42" s="25"/>
-      <c r="CG42" s="25"/>
-      <c r="CH42" s="25"/>
-      <c r="CI42" s="25"/>
-      <c r="CJ42" s="8"/>
+      <c r="CD42" s="24"/>
+      <c r="CE42" s="24"/>
+      <c r="CF42" s="24"/>
+      <c r="CG42" s="24"/>
+      <c r="CH42" s="24"/>
+      <c r="CI42" s="24"/>
+      <c r="CJ42" s="24"/>
       <c r="CK42" s="8"/>
       <c r="CL42" s="8"/>
       <c r="CM42" s="8"/>
@@ -11622,25 +11693,27 @@
       <c r="CC43" s="7">
         <v>1471226.7147161376</v>
       </c>
-      <c r="CD43" s="23">
+      <c r="CD43" s="22">
         <v>1397034.6109112881</v>
       </c>
-      <c r="CE43" s="23">
+      <c r="CE43" s="22">
         <v>910115.50460503111</v>
       </c>
-      <c r="CF43" s="23">
+      <c r="CF43" s="22">
         <v>1246216.7673185172</v>
       </c>
-      <c r="CG43" s="23">
+      <c r="CG43" s="22">
         <v>1236653.1030803628</v>
       </c>
-      <c r="CH43" s="23">
+      <c r="CH43" s="22">
         <v>1409256.5839594046</v>
       </c>
-      <c r="CI43" s="23">
-        <v>1524495.418328023</v>
-      </c>
-      <c r="CJ43" s="8"/>
+      <c r="CI43" s="22">
+        <v>1544476.6740495972</v>
+      </c>
+      <c r="CJ43" s="22">
+        <v>1681719.6737193151</v>
+      </c>
       <c r="CK43" s="8"/>
       <c r="CL43" s="8"/>
       <c r="CM43" s="8"/>
@@ -11791,12 +11864,13 @@
       <c r="CA44" s="11"/>
       <c r="CB44" s="11"/>
       <c r="CC44" s="11"/>
-      <c r="CD44" s="26"/>
-      <c r="CE44" s="26"/>
-      <c r="CF44" s="26"/>
-      <c r="CG44" s="26"/>
-      <c r="CH44" s="26"/>
-      <c r="CI44" s="26"/>
+      <c r="CD44" s="25"/>
+      <c r="CE44" s="25"/>
+      <c r="CF44" s="25"/>
+      <c r="CG44" s="25"/>
+      <c r="CH44" s="25"/>
+      <c r="CI44" s="25"/>
+      <c r="CJ44" s="25"/>
     </row>
     <row r="45" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -11884,13 +11958,13 @@
       <c r="CA46" s="13"/>
       <c r="CB46" s="13"/>
       <c r="CC46" s="13"/>
-      <c r="CD46" s="27"/>
-      <c r="CE46" s="27"/>
-      <c r="CF46" s="27"/>
-      <c r="CG46" s="27"/>
-      <c r="CH46" s="27"/>
-      <c r="CI46" s="27"/>
-      <c r="CJ46" s="8"/>
+      <c r="CD46" s="26"/>
+      <c r="CE46" s="26"/>
+      <c r="CF46" s="26"/>
+      <c r="CG46" s="26"/>
+      <c r="CH46" s="26"/>
+      <c r="CI46" s="26"/>
+      <c r="CJ46" s="26"/>
       <c r="CK46" s="8"/>
       <c r="CL46" s="8"/>
       <c r="CM46" s="8"/>
@@ -12040,13 +12114,13 @@
       <c r="CA47" s="8"/>
       <c r="CB47" s="8"/>
       <c r="CC47" s="8"/>
-      <c r="CD47" s="25"/>
-      <c r="CE47" s="25"/>
-      <c r="CF47" s="25"/>
-      <c r="CG47" s="25"/>
-      <c r="CH47" s="25"/>
-      <c r="CI47" s="25"/>
-      <c r="CJ47" s="8"/>
+      <c r="CD47" s="24"/>
+      <c r="CE47" s="24"/>
+      <c r="CF47" s="24"/>
+      <c r="CG47" s="24"/>
+      <c r="CH47" s="24"/>
+      <c r="CI47" s="24"/>
+      <c r="CJ47" s="24"/>
       <c r="CK47" s="8"/>
       <c r="CL47" s="8"/>
       <c r="CM47" s="8"/>
@@ -12279,6 +12353,7 @@
       <c r="CI56" s="30">
         <v>0</v>
       </c>
+      <c r="CJ56" s="30"/>
     </row>
     <row r="57" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -12524,23 +12599,26 @@
       <c r="CC57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="CD57" s="28" t="s">
+      <c r="CD57" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CE57" s="28" t="s">
+      <c r="CE57" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF57" s="28" t="s">
+      <c r="CF57" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CG57" s="28" t="s">
+      <c r="CG57" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CH57" s="28" t="s">
+      <c r="CH57" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CI57" s="28" t="s">
+      <c r="CI57" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ57" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12790,25 +12868,27 @@
       <c r="CC59" s="7">
         <v>208973.23392997781</v>
       </c>
-      <c r="CD59" s="23">
+      <c r="CD59" s="22">
         <v>245315.4136512031</v>
       </c>
-      <c r="CE59" s="23">
+      <c r="CE59" s="22">
         <v>220879.02229737208</v>
       </c>
-      <c r="CF59" s="23">
+      <c r="CF59" s="22">
         <v>359513.30161860166</v>
       </c>
-      <c r="CG59" s="23">
+      <c r="CG59" s="22">
         <v>225780.42004310383</v>
       </c>
-      <c r="CH59" s="23">
+      <c r="CH59" s="22">
         <v>286306.78705964936</v>
       </c>
-      <c r="CI59" s="23">
-        <v>345832.11189875298</v>
-      </c>
-      <c r="CJ59" s="8"/>
+      <c r="CI59" s="22">
+        <v>349111.605551316</v>
+      </c>
+      <c r="CJ59" s="22">
+        <v>409048.57224098034</v>
+      </c>
       <c r="CK59" s="8"/>
       <c r="CL59" s="8"/>
       <c r="CM59" s="8"/>
@@ -13121,25 +13201,27 @@
       <c r="CC60" s="10">
         <v>93314.422819035506</v>
       </c>
-      <c r="CD60" s="24">
+      <c r="CD60" s="23">
         <v>144125.12617991699</v>
       </c>
-      <c r="CE60" s="24">
+      <c r="CE60" s="23">
         <v>109302.24383553864</v>
       </c>
-      <c r="CF60" s="24">
+      <c r="CF60" s="23">
         <v>178997.6802856056</v>
       </c>
-      <c r="CG60" s="24">
+      <c r="CG60" s="23">
         <v>104488.67086490923</v>
       </c>
-      <c r="CH60" s="24">
+      <c r="CH60" s="23">
         <v>160172.84904441197</v>
       </c>
-      <c r="CI60" s="24">
-        <v>142133.80487600635</v>
-      </c>
-      <c r="CJ60" s="8"/>
+      <c r="CI60" s="23">
+        <v>142715.95970018918</v>
+      </c>
+      <c r="CJ60" s="23">
+        <v>208574.4473248054</v>
+      </c>
       <c r="CK60" s="8"/>
       <c r="CL60" s="8"/>
       <c r="CM60" s="8"/>
@@ -13452,25 +13534,27 @@
       <c r="CC61" s="10">
         <v>55426.089177134454</v>
       </c>
-      <c r="CD61" s="24">
+      <c r="CD61" s="23">
         <v>42423.832470861962</v>
       </c>
-      <c r="CE61" s="24">
+      <c r="CE61" s="23">
         <v>50638.172186170435</v>
       </c>
-      <c r="CF61" s="24">
+      <c r="CF61" s="23">
         <v>83827.030158121255</v>
       </c>
-      <c r="CG61" s="24">
+      <c r="CG61" s="23">
         <v>64997.028026356165</v>
       </c>
-      <c r="CH61" s="24">
+      <c r="CH61" s="23">
         <v>59661.289788178896</v>
       </c>
-      <c r="CI61" s="24">
-        <v>93442.132053717374</v>
-      </c>
-      <c r="CJ61" s="8"/>
+      <c r="CI61" s="23">
+        <v>94697.585271958262</v>
+      </c>
+      <c r="CJ61" s="23">
+        <v>99230.21393239843</v>
+      </c>
       <c r="CK61" s="8"/>
       <c r="CL61" s="8"/>
       <c r="CM61" s="8"/>
@@ -13783,25 +13867,27 @@
       <c r="CC62" s="10">
         <v>1472.6735836480484</v>
       </c>
-      <c r="CD62" s="24">
+      <c r="CD62" s="23">
         <v>2181.3522213409633</v>
       </c>
-      <c r="CE62" s="24">
+      <c r="CE62" s="23">
         <v>4467.5005007063464</v>
       </c>
-      <c r="CF62" s="24">
+      <c r="CF62" s="23">
         <v>2434.2457324503998</v>
       </c>
-      <c r="CG62" s="24">
+      <c r="CG62" s="23">
         <v>950.51914479262462</v>
       </c>
-      <c r="CH62" s="24">
+      <c r="CH62" s="23">
         <v>1865.5212447310466</v>
       </c>
-      <c r="CI62" s="24">
-        <v>6224.9228141218646</v>
-      </c>
-      <c r="CJ62" s="8"/>
+      <c r="CI62" s="23">
+        <v>6316.805830549165</v>
+      </c>
+      <c r="CJ62" s="23">
+        <v>1744.9694464912186</v>
+      </c>
       <c r="CK62" s="8"/>
       <c r="CL62" s="8"/>
       <c r="CM62" s="8"/>
@@ -14114,25 +14200,27 @@
       <c r="CC63" s="10">
         <v>13417.014933408758</v>
       </c>
-      <c r="CD63" s="24">
+      <c r="CD63" s="23">
         <v>12169.37563466422</v>
       </c>
-      <c r="CE63" s="24">
+      <c r="CE63" s="23">
         <v>10906.175746696888</v>
       </c>
-      <c r="CF63" s="24">
+      <c r="CF63" s="23">
         <v>19225.988121421837</v>
       </c>
-      <c r="CG63" s="24">
+      <c r="CG63" s="23">
         <v>12913.728709175855</v>
       </c>
-      <c r="CH63" s="24">
+      <c r="CH63" s="23">
         <v>13277.048566524849</v>
       </c>
-      <c r="CI63" s="24">
-        <v>27316.151186253017</v>
-      </c>
-      <c r="CJ63" s="8"/>
+      <c r="CI63" s="23">
+        <v>27636.851753191218</v>
+      </c>
+      <c r="CJ63" s="23">
+        <v>17956.250763298507</v>
+      </c>
       <c r="CK63" s="8"/>
       <c r="CL63" s="8"/>
       <c r="CM63" s="8"/>
@@ -14445,25 +14533,27 @@
       <c r="CC64" s="10">
         <v>20199.567291836596</v>
       </c>
-      <c r="CD64" s="24">
+      <c r="CD64" s="23">
         <v>14410.606272986808</v>
       </c>
-      <c r="CE64" s="24">
+      <c r="CE64" s="23">
         <v>12085.14184141353</v>
       </c>
-      <c r="CF64" s="24">
+      <c r="CF64" s="23">
         <v>29370.510621745216</v>
       </c>
-      <c r="CG64" s="24">
+      <c r="CG64" s="23">
         <v>20890.51002903777</v>
       </c>
-      <c r="CH64" s="24">
+      <c r="CH64" s="23">
         <v>14774.475456318612</v>
       </c>
-      <c r="CI64" s="24">
-        <v>28951.740188452088</v>
-      </c>
-      <c r="CJ64" s="8"/>
+      <c r="CI64" s="23">
+        <v>29490.371279434254</v>
+      </c>
+      <c r="CJ64" s="23">
+        <v>38362.54666135156</v>
+      </c>
       <c r="CK64" s="8"/>
       <c r="CL64" s="8"/>
       <c r="CM64" s="8"/>
@@ -14776,25 +14866,27 @@
       <c r="CC65" s="10">
         <v>15764.589080191177</v>
       </c>
-      <c r="CD65" s="24">
+      <c r="CD65" s="23">
         <v>21037.684547790202</v>
       </c>
-      <c r="CE65" s="24">
+      <c r="CE65" s="23">
         <v>16946.481748464557</v>
       </c>
-      <c r="CF65" s="24">
+      <c r="CF65" s="23">
         <v>33214.933622018281</v>
       </c>
-      <c r="CG65" s="24">
+      <c r="CG65" s="23">
         <v>14997.787251932514</v>
       </c>
-      <c r="CH65" s="24">
+      <c r="CH65" s="23">
         <v>26309.175302658135</v>
       </c>
-      <c r="CI65" s="24">
-        <v>20150.669720442453</v>
-      </c>
-      <c r="CJ65" s="8"/>
+      <c r="CI65" s="23">
+        <v>20254.914616585142</v>
+      </c>
+      <c r="CJ65" s="23">
+        <v>25131.716346033863</v>
+      </c>
       <c r="CK65" s="8"/>
       <c r="CL65" s="8"/>
       <c r="CM65" s="8"/>
@@ -15107,25 +15199,27 @@
       <c r="CC66" s="10">
         <v>5709.3055353845102</v>
       </c>
-      <c r="CD66" s="24">
+      <c r="CD66" s="23">
         <v>4959.1057434094455</v>
       </c>
-      <c r="CE66" s="24">
+      <c r="CE66" s="23">
         <v>13450.304075100967</v>
       </c>
-      <c r="CF66" s="24">
+      <c r="CF66" s="23">
         <v>8124.4491866503422</v>
       </c>
-      <c r="CG66" s="24">
+      <c r="CG66" s="23">
         <v>4654.0678750227034</v>
       </c>
-      <c r="CH66" s="24">
+      <c r="CH66" s="23">
         <v>6331.7011521165659</v>
       </c>
-      <c r="CI66" s="24">
-        <v>23363.689574553915</v>
-      </c>
-      <c r="CJ66" s="8"/>
+      <c r="CI66" s="23">
+        <v>23671.557737523053</v>
+      </c>
+      <c r="CJ66" s="23">
+        <v>12484.037473657556</v>
+      </c>
       <c r="CK66" s="8"/>
       <c r="CL66" s="8"/>
       <c r="CM66" s="8"/>
@@ -15438,25 +15532,27 @@
       <c r="CC67" s="10">
         <v>2832.9025464752408</v>
       </c>
-      <c r="CD67" s="24">
+      <c r="CD67" s="23">
         <v>3381.6950423316594</v>
       </c>
-      <c r="CE67" s="24">
+      <c r="CE67" s="23">
         <v>2521.6939158090986</v>
       </c>
-      <c r="CF67" s="24">
+      <c r="CF67" s="23">
         <v>3347.8391740309835</v>
       </c>
-      <c r="CG67" s="24">
+      <c r="CG67" s="23">
         <v>1278.1552774301097</v>
       </c>
-      <c r="CH67" s="24">
+      <c r="CH67" s="23">
         <v>3348.1457316493074</v>
       </c>
-      <c r="CI67" s="24">
-        <v>3322.1287288704766</v>
-      </c>
-      <c r="CJ67" s="8"/>
+      <c r="CI67" s="23">
+        <v>3389.7212409686495</v>
+      </c>
+      <c r="CJ67" s="23">
+        <v>4926.6195878902045</v>
+      </c>
       <c r="CK67" s="8"/>
       <c r="CL67" s="8"/>
       <c r="CM67" s="8"/>
@@ -15769,25 +15865,27 @@
       <c r="CC68" s="10">
         <v>836.66896286349595</v>
       </c>
-      <c r="CD68" s="24">
+      <c r="CD68" s="23">
         <v>626.63553790084802</v>
       </c>
-      <c r="CE68" s="24">
+      <c r="CE68" s="23">
         <v>561.30844747163712</v>
       </c>
-      <c r="CF68" s="24">
+      <c r="CF68" s="23">
         <v>970.62471655778575</v>
       </c>
-      <c r="CG68" s="24">
+      <c r="CG68" s="23">
         <v>609.95286444683245</v>
       </c>
-      <c r="CH68" s="24">
+      <c r="CH68" s="23">
         <v>566.5807730600003</v>
       </c>
-      <c r="CI68" s="24">
-        <v>926.87275633548359</v>
-      </c>
-      <c r="CJ68" s="8"/>
+      <c r="CI68" s="23">
+        <v>937.83812091706807</v>
+      </c>
+      <c r="CJ68" s="23">
+        <v>637.77070505355039</v>
+      </c>
       <c r="CK68" s="8"/>
       <c r="CL68" s="8"/>
       <c r="CM68" s="8"/>
@@ -16100,25 +16198,27 @@
       <c r="CC69" s="10">
         <v>326772.80825839902</v>
       </c>
-      <c r="CD69" s="24">
+      <c r="CD69" s="23">
         <v>138675.14682971282</v>
       </c>
-      <c r="CE69" s="24">
+      <c r="CE69" s="23">
         <v>161127.24705708402</v>
       </c>
-      <c r="CF69" s="24">
+      <c r="CF69" s="23">
         <v>83221.418720440735</v>
       </c>
-      <c r="CG69" s="24">
+      <c r="CG69" s="23">
         <v>290208.51088057383</v>
       </c>
-      <c r="CH69" s="24">
+      <c r="CH69" s="23">
         <v>106251.41290698391</v>
       </c>
-      <c r="CI69" s="24">
-        <v>251401.15364052964</v>
-      </c>
-      <c r="CJ69" s="8"/>
+      <c r="CI69" s="23">
+        <v>253339.57136685756</v>
+      </c>
+      <c r="CJ69" s="23">
+        <v>110083.66012363324</v>
+      </c>
       <c r="CK69" s="8"/>
       <c r="CL69" s="8"/>
       <c r="CM69" s="8"/>
@@ -16431,25 +16531,27 @@
       <c r="CC70" s="10">
         <v>95475.174042970888</v>
       </c>
-      <c r="CD70" s="24">
+      <c r="CD70" s="23">
         <v>82108.386239529777</v>
       </c>
-      <c r="CE70" s="24">
+      <c r="CE70" s="23">
         <v>52242.942425048663</v>
       </c>
-      <c r="CF70" s="24">
+      <c r="CF70" s="23">
         <v>72825.126508158748</v>
       </c>
-      <c r="CG70" s="24">
+      <c r="CG70" s="23">
         <v>71125.447272703634</v>
       </c>
-      <c r="CH70" s="24">
+      <c r="CH70" s="23">
         <v>75697.813447762688</v>
       </c>
-      <c r="CI70" s="24">
-        <v>81918.968289804994</v>
-      </c>
-      <c r="CJ70" s="8"/>
+      <c r="CI70" s="23">
+        <v>82922.83614631329</v>
+      </c>
+      <c r="CJ70" s="23">
+        <v>83786.135778512631</v>
+      </c>
       <c r="CK70" s="8"/>
       <c r="CL70" s="8"/>
       <c r="CM70" s="8"/>
@@ -16762,25 +16864,27 @@
       <c r="CC71" s="10">
         <v>23967.98611466611</v>
       </c>
-      <c r="CD71" s="24">
+      <c r="CD71" s="23">
         <v>16256.022096520239</v>
       </c>
-      <c r="CE71" s="24">
+      <c r="CE71" s="23">
         <v>13953.712592408952</v>
       </c>
-      <c r="CF71" s="24">
+      <c r="CF71" s="23">
         <v>12082.997057079634</v>
       </c>
-      <c r="CG71" s="24">
+      <c r="CG71" s="23">
         <v>15236.823963109804</v>
       </c>
-      <c r="CH71" s="24">
+      <c r="CH71" s="23">
         <v>15439.007102068086</v>
       </c>
-      <c r="CI71" s="24">
-        <v>13788.833226163586</v>
-      </c>
-      <c r="CJ71" s="8"/>
+      <c r="CI71" s="23">
+        <v>14053.298607431436</v>
+      </c>
+      <c r="CJ71" s="23">
+        <v>12880.58783179007</v>
+      </c>
       <c r="CK71" s="8"/>
       <c r="CL71" s="8"/>
       <c r="CM71" s="8"/>
@@ -17093,25 +17197,27 @@
       <c r="CC72" s="10">
         <v>60961.367268083784</v>
       </c>
-      <c r="CD72" s="24">
+      <c r="CD72" s="23">
         <v>65087.714006240982</v>
       </c>
-      <c r="CE72" s="24">
+      <c r="CE72" s="23">
         <v>64941.742158622277</v>
       </c>
-      <c r="CF72" s="24">
+      <c r="CF72" s="23">
         <v>63739.855933381245</v>
       </c>
-      <c r="CG72" s="24">
+      <c r="CG72" s="23">
         <v>55177.468773866582</v>
       </c>
-      <c r="CH72" s="24">
+      <c r="CH72" s="23">
         <v>59193.391635186905</v>
       </c>
-      <c r="CI72" s="24">
-        <v>88650.583281592597</v>
-      </c>
-      <c r="CJ72" s="8"/>
+      <c r="CI72" s="23">
+        <v>89442.88337355644</v>
+      </c>
+      <c r="CJ72" s="23">
+        <v>82162.923629197423</v>
+      </c>
       <c r="CK72" s="8"/>
       <c r="CL72" s="8"/>
       <c r="CM72" s="8"/>
@@ -17424,25 +17530,27 @@
       <c r="CC73" s="10">
         <v>117600.87614895387</v>
       </c>
-      <c r="CD73" s="24">
+      <c r="CD73" s="23">
         <v>195927.04437146935</v>
       </c>
-      <c r="CE73" s="24">
+      <c r="CE73" s="23">
         <v>46551.565262210599</v>
       </c>
-      <c r="CF73" s="24">
+      <c r="CF73" s="23">
         <v>55905.549677696399</v>
       </c>
-      <c r="CG73" s="24">
+      <c r="CG73" s="23">
         <v>76652.41980992227</v>
       </c>
-      <c r="CH73" s="24">
+      <c r="CH73" s="23">
         <v>181748.01478876657</v>
       </c>
-      <c r="CI73" s="24">
-        <v>117295.85445754499</v>
-      </c>
-      <c r="CJ73" s="8"/>
+      <c r="CI73" s="23">
+        <v>120286.0724373344</v>
+      </c>
+      <c r="CJ73" s="23">
+        <v>72885.18259049725</v>
+      </c>
       <c r="CK73" s="8"/>
       <c r="CL73" s="8"/>
       <c r="CM73" s="8"/>
@@ -17755,25 +17863,27 @@
       <c r="CC74" s="10">
         <v>22065.759487151558</v>
       </c>
-      <c r="CD74" s="24">
+      <c r="CD74" s="23">
         <v>29215.361118284462</v>
       </c>
-      <c r="CE74" s="24">
+      <c r="CE74" s="23">
         <v>7387.0444871190848</v>
       </c>
-      <c r="CF74" s="24">
+      <c r="CF74" s="23">
         <v>11354.218477355966</v>
       </c>
-      <c r="CG74" s="24">
+      <c r="CG74" s="23">
         <v>20309.37171426537</v>
       </c>
-      <c r="CH74" s="24">
+      <c r="CH74" s="23">
         <v>34908.083189803729</v>
       </c>
-      <c r="CI74" s="24">
-        <v>11800.65173752651</v>
-      </c>
-      <c r="CJ74" s="8"/>
+      <c r="CI74" s="23">
+        <v>11988.314256751424</v>
+      </c>
+      <c r="CJ74" s="23">
+        <v>11259.054832493091</v>
+      </c>
       <c r="CK74" s="8"/>
       <c r="CL74" s="8"/>
       <c r="CM74" s="8"/>
@@ -18086,25 +18196,27 @@
       <c r="CC75" s="10">
         <v>46554.005902819554</v>
       </c>
-      <c r="CD75" s="24">
+      <c r="CD75" s="23">
         <v>37669.698490982541</v>
       </c>
-      <c r="CE75" s="24">
+      <c r="CE75" s="23">
         <v>26553.54756768217</v>
       </c>
-      <c r="CF75" s="24">
+      <c r="CF75" s="23">
         <v>41807.660235950498</v>
       </c>
-      <c r="CG75" s="24">
+      <c r="CG75" s="23">
         <v>44894.308439434128</v>
       </c>
-      <c r="CH75" s="24">
+      <c r="CH75" s="23">
         <v>44918.381667932532</v>
       </c>
-      <c r="CI75" s="24">
-        <v>37489.120214150054</v>
-      </c>
-      <c r="CJ75" s="8"/>
+      <c r="CI75" s="23">
+        <v>38049.198729952586</v>
+      </c>
+      <c r="CJ75" s="23">
+        <v>49673.306643189957</v>
+      </c>
       <c r="CK75" s="8"/>
       <c r="CL75" s="8"/>
       <c r="CM75" s="8"/>
@@ -18417,25 +18529,27 @@
       <c r="CC76" s="10">
         <v>71945.447157697083</v>
       </c>
-      <c r="CD76" s="24">
+      <c r="CD76" s="23">
         <v>56512.569796034906</v>
       </c>
-      <c r="CE76" s="24">
+      <c r="CE76" s="23">
         <v>62930.534601253908</v>
       </c>
-      <c r="CF76" s="24">
+      <c r="CF76" s="23">
         <v>76127.046916551844</v>
       </c>
-      <c r="CG76" s="24">
+      <c r="CG76" s="23">
         <v>73205.843858127846</v>
       </c>
-      <c r="CH76" s="24">
+      <c r="CH76" s="23">
         <v>61276.442487837099</v>
       </c>
-      <c r="CI76" s="24">
-        <v>78648.459724744098</v>
-      </c>
-      <c r="CJ76" s="8"/>
+      <c r="CI76" s="23">
+        <v>79511.383561243725</v>
+      </c>
+      <c r="CJ76" s="23">
+        <v>86698.157937697382</v>
+      </c>
       <c r="CK76" s="8"/>
       <c r="CL76" s="8"/>
       <c r="CM76" s="8"/>
@@ -18748,25 +18862,27 @@
       <c r="CC77" s="10">
         <v>42428.015998495619</v>
       </c>
-      <c r="CD77" s="24">
+      <c r="CD77" s="23">
         <v>17197.398975658387</v>
       </c>
-      <c r="CE77" s="24">
+      <c r="CE77" s="23">
         <v>20868.993258812916</v>
       </c>
-      <c r="CF77" s="24">
+      <c r="CF77" s="23">
         <v>41416.667446480118</v>
       </c>
-      <c r="CG77" s="24">
+      <c r="CG77" s="23">
         <v>27479.957967514856</v>
       </c>
-      <c r="CH77" s="24">
+      <c r="CH77" s="23">
         <v>13028.30099107282</v>
       </c>
-      <c r="CI77" s="24">
-        <v>17274.70952905183</v>
-      </c>
-      <c r="CJ77" s="8"/>
+      <c r="CI77" s="23">
+        <v>17598.541192435103</v>
+      </c>
+      <c r="CJ77" s="23">
+        <v>48248.298152221039</v>
+      </c>
       <c r="CK77" s="8"/>
       <c r="CL77" s="8"/>
       <c r="CM77" s="8"/>
@@ -19079,25 +19195,27 @@
       <c r="CC78" s="10">
         <v>15495.216259131052</v>
       </c>
-      <c r="CD78" s="24">
+      <c r="CD78" s="23">
         <v>14951.59104823216</v>
       </c>
-      <c r="CE78" s="24">
+      <c r="CE78" s="23">
         <v>13576.145132008358</v>
       </c>
-      <c r="CF78" s="24">
+      <c r="CF78" s="23">
         <v>14334.411468726656</v>
       </c>
-      <c r="CG78" s="24">
+      <c r="CG78" s="23">
         <v>15534.894349689021</v>
       </c>
-      <c r="CH78" s="24">
+      <c r="CH78" s="23">
         <v>15072.135254494697</v>
       </c>
-      <c r="CI78" s="24">
-        <v>12805.213774273461</v>
-      </c>
-      <c r="CJ78" s="8"/>
+      <c r="CI78" s="23">
+        <v>12835.95396029808</v>
+      </c>
+      <c r="CJ78" s="23">
+        <v>15619.295630607072</v>
+      </c>
       <c r="CK78" s="8"/>
       <c r="CL78" s="8"/>
       <c r="CM78" s="8"/>
@@ -19410,25 +19528,27 @@
       <c r="CC79" s="10">
         <v>28438.699786743149</v>
       </c>
-      <c r="CD79" s="24">
+      <c r="CD79" s="23">
         <v>20323.615091249663</v>
       </c>
-      <c r="CE79" s="24">
+      <c r="CE79" s="23">
         <v>31421.54082764202</v>
       </c>
-      <c r="CF79" s="24">
+      <c r="CF79" s="23">
         <v>27179.18247891291</v>
       </c>
-      <c r="CG79" s="24">
+      <c r="CG79" s="23">
         <v>25802.022218888611</v>
       </c>
-      <c r="CH79" s="24">
+      <c r="CH79" s="23">
         <v>21182.963089617166</v>
       </c>
-      <c r="CI79" s="24">
-        <v>39264.961635393847</v>
-      </c>
-      <c r="CJ79" s="8"/>
+      <c r="CI79" s="23">
+        <v>39636.918562090992</v>
+      </c>
+      <c r="CJ79" s="23">
+        <v>49678.185939083152</v>
+      </c>
       <c r="CK79" s="8"/>
       <c r="CL79" s="8"/>
       <c r="CM79" s="8"/>
@@ -19741,25 +19861,27 @@
       <c r="CC80" s="10">
         <v>11460.841443419306</v>
       </c>
-      <c r="CD80" s="24">
+      <c r="CD80" s="23">
         <v>17888.318674111797</v>
       </c>
-      <c r="CE80" s="24">
+      <c r="CE80" s="23">
         <v>17719.115352774767</v>
       </c>
-      <c r="CF80" s="24">
+      <c r="CF80" s="23">
         <v>13608.452820830271</v>
       </c>
-      <c r="CG80" s="24">
+      <c r="CG80" s="23">
         <v>11478.831851768706</v>
       </c>
-      <c r="CH80" s="24">
+      <c r="CH80" s="23">
         <v>17701.198513794145</v>
       </c>
-      <c r="CI80" s="24">
-        <v>20433.668711932303</v>
-      </c>
-      <c r="CJ80" s="8"/>
+      <c r="CI80" s="23">
+        <v>20693.087673198341</v>
+      </c>
+      <c r="CJ80" s="23">
+        <v>11297.872199778987</v>
+      </c>
       <c r="CK80" s="8"/>
       <c r="CL80" s="8"/>
       <c r="CM80" s="8"/>
@@ -20072,25 +20194,27 @@
       <c r="CC81" s="10">
         <v>14925.948983440388</v>
       </c>
-      <c r="CD81" s="24">
+      <c r="CD81" s="23">
         <v>10850.098636032002</v>
       </c>
-      <c r="CE81" s="24">
+      <c r="CE81" s="23">
         <v>14837.221327499843</v>
       </c>
-      <c r="CF81" s="24">
+      <c r="CF81" s="23">
         <v>29283.527614263505</v>
       </c>
-      <c r="CG81" s="24">
+      <c r="CG81" s="23">
         <v>13919.460217569618</v>
       </c>
-      <c r="CH81" s="24">
+      <c r="CH81" s="23">
         <v>11979.493570294624</v>
       </c>
-      <c r="CI81" s="24">
-        <v>17160.641236861382</v>
-      </c>
-      <c r="CJ81" s="8"/>
+      <c r="CI81" s="23">
+        <v>17654.053728737486</v>
+      </c>
+      <c r="CJ81" s="23">
+        <v>21648.198797541612</v>
+      </c>
       <c r="CK81" s="8"/>
       <c r="CL81" s="8"/>
       <c r="CM81" s="8"/>
@@ -20403,25 +20527,27 @@
       <c r="CC82" s="10">
         <v>5506.3510623934399</v>
       </c>
-      <c r="CD82" s="24">
+      <c r="CD82" s="23">
         <v>3748.2250752717268</v>
       </c>
-      <c r="CE82" s="24">
+      <c r="CE82" s="23">
         <v>3652.5767842412456</v>
       </c>
-      <c r="CF82" s="24">
+      <c r="CF82" s="23">
         <v>2009.7720130712034</v>
       </c>
-      <c r="CG82" s="24">
+      <c r="CG82" s="23">
         <v>3786.3721660715501</v>
       </c>
-      <c r="CH82" s="24">
+      <c r="CH82" s="23">
         <v>7166.8990526678226</v>
       </c>
-      <c r="CI82" s="24">
-        <v>1526.0874800304468</v>
-      </c>
-      <c r="CJ82" s="8"/>
+      <c r="CI82" s="23">
+        <v>1529.0483478605763</v>
+      </c>
+      <c r="CJ82" s="23">
+        <v>2800.0242184662934</v>
+      </c>
       <c r="CK82" s="8"/>
       <c r="CL82" s="8"/>
       <c r="CM82" s="8"/>
@@ -20734,25 +20860,27 @@
       <c r="CC83" s="10">
         <v>45425.694789158835</v>
       </c>
-      <c r="CD83" s="24">
+      <c r="CD83" s="23">
         <v>31839.354477363151</v>
       </c>
-      <c r="CE83" s="24">
+      <c r="CE83" s="23">
         <v>11154.338862628008</v>
       </c>
-      <c r="CF83" s="24">
+      <c r="CF83" s="23">
         <v>20954.687183757807</v>
       </c>
-      <c r="CG83" s="24">
+      <c r="CG83" s="23">
         <v>38769.814659756805</v>
       </c>
-      <c r="CH83" s="24">
+      <c r="CH83" s="23">
         <v>32137.154474701027</v>
       </c>
-      <c r="CI83" s="24">
-        <v>10845.043088334909</v>
-      </c>
-      <c r="CJ83" s="8"/>
+      <c r="CI83" s="23">
+        <v>10935.409191208601</v>
+      </c>
+      <c r="CJ83" s="23">
+        <v>20678.475180172431</v>
+      </c>
       <c r="CK83" s="8"/>
       <c r="CL83" s="8"/>
       <c r="CM83" s="8"/>
@@ -21065,25 +21193,27 @@
       <c r="CC84" s="10">
         <v>39462.884630012712</v>
       </c>
-      <c r="CD84" s="24">
+      <c r="CD84" s="23">
         <v>39850.118993128897</v>
       </c>
-      <c r="CE84" s="24">
+      <c r="CE84" s="23">
         <v>25027.335927106007</v>
       </c>
-      <c r="CF84" s="24">
+      <c r="CF84" s="23">
         <v>33424.417211199099</v>
       </c>
-      <c r="CG84" s="24">
+      <c r="CG84" s="23">
         <v>35240.109968315381</v>
       </c>
-      <c r="CH84" s="24">
+      <c r="CH84" s="23">
         <v>35393.440673491103</v>
       </c>
-      <c r="CI84" s="24">
-        <v>27256.949848163622</v>
-      </c>
-      <c r="CJ84" s="8"/>
+      <c r="CI84" s="23">
+        <v>27683.24114931282</v>
+      </c>
+      <c r="CJ84" s="23">
+        <v>34965.83554853544</v>
+      </c>
       <c r="CK84" s="8"/>
       <c r="CL84" s="8"/>
       <c r="CM84" s="8"/>
@@ -21396,25 +21526,27 @@
       <c r="CC85" s="10">
         <v>15650.173758233459</v>
       </c>
-      <c r="CD85" s="24">
+      <c r="CD85" s="23">
         <v>21074.220591674075</v>
       </c>
-      <c r="CE85" s="24">
+      <c r="CE85" s="23">
         <v>17885.384479620909</v>
       </c>
-      <c r="CF85" s="24">
+      <c r="CF85" s="23">
         <v>18047.836423683031</v>
       </c>
-      <c r="CG85" s="24">
+      <c r="CG85" s="23">
         <v>15228.588275178296</v>
       </c>
-      <c r="CH85" s="24">
+      <c r="CH85" s="23">
         <v>19425.532398994292</v>
       </c>
-      <c r="CI85" s="24">
-        <v>18649.724312894657</v>
-      </c>
-      <c r="CJ85" s="8"/>
+      <c r="CI85" s="23">
+        <v>18831.276745406034</v>
+      </c>
+      <c r="CJ85" s="23">
+        <v>18978.618988191738</v>
+      </c>
       <c r="CK85" s="8"/>
       <c r="CL85" s="8"/>
       <c r="CM85" s="8"/>
@@ -21727,25 +21859,27 @@
       <c r="CC86" s="10">
         <v>16241.253245197744</v>
       </c>
-      <c r="CD86" s="24">
+      <c r="CD86" s="23">
         <v>17954.089433145393</v>
       </c>
-      <c r="CE86" s="24">
+      <c r="CE86" s="23">
         <v>14483.731794523263</v>
       </c>
-      <c r="CF86" s="24">
+      <c r="CF86" s="23">
         <v>11233.710321608431</v>
       </c>
-      <c r="CG86" s="24">
+      <c r="CG86" s="23">
         <v>12359.378663918675</v>
       </c>
-      <c r="CH86" s="24">
+      <c r="CH86" s="23">
         <v>18409.02299025828</v>
       </c>
-      <c r="CI86" s="24">
-        <v>25533.313773530543</v>
-      </c>
-      <c r="CJ86" s="8"/>
+      <c r="CI86" s="23">
+        <v>25715.831080111278</v>
+      </c>
+      <c r="CJ86" s="23">
+        <v>14770.049865535149</v>
+      </c>
       <c r="CK86" s="8"/>
       <c r="CL86" s="8"/>
       <c r="CM86" s="8"/>
@@ -22058,25 +22192,27 @@
       <c r="CC87" s="10">
         <v>8599.1573356120534</v>
       </c>
-      <c r="CD87" s="24">
+      <c r="CD87" s="23">
         <v>9261.5837656236727</v>
       </c>
-      <c r="CE87" s="24">
+      <c r="CE87" s="23">
         <v>6133.0385753416167</v>
       </c>
-      <c r="CF87" s="24">
+      <c r="CF87" s="23">
         <v>7004.862618796652</v>
       </c>
-      <c r="CG87" s="24">
+      <c r="CG87" s="23">
         <v>6608.2800423842518</v>
       </c>
-      <c r="CH87" s="24">
+      <c r="CH87" s="23">
         <v>8315.7751570154378</v>
       </c>
-      <c r="CI87" s="24">
-        <v>6920.3209990300365</v>
-      </c>
-      <c r="CJ87" s="8"/>
+      <c r="CI87" s="23">
+        <v>6984.1697232870183</v>
+      </c>
+      <c r="CJ87" s="23">
+        <v>5343.9729895192877</v>
+      </c>
       <c r="CK87" s="8"/>
       <c r="CL87" s="8"/>
       <c r="CM87" s="8"/>
@@ -22389,25 +22525,27 @@
       <c r="CC88" s="10">
         <v>305207.85640696588</v>
       </c>
-      <c r="CD88" s="24">
+      <c r="CD88" s="23">
         <v>320774.70558568888</v>
       </c>
-      <c r="CE88" s="24">
+      <c r="CE88" s="23">
         <v>209356.35833337862</v>
       </c>
-      <c r="CF88" s="24">
+      <c r="CF88" s="23">
         <v>280567.87430099258</v>
       </c>
-      <c r="CG88" s="24">
+      <c r="CG88" s="23">
         <v>241255.70483993669</v>
       </c>
-      <c r="CH88" s="24">
+      <c r="CH88" s="23">
         <v>320002.82554483128</v>
       </c>
-      <c r="CI88" s="24">
-        <v>302113.85374590324</v>
-      </c>
-      <c r="CJ88" s="8"/>
+      <c r="CI88" s="23">
+        <v>307743.69495042867</v>
+      </c>
+      <c r="CJ88" s="23">
+        <v>321391.80340292631</v>
+      </c>
       <c r="CK88" s="8"/>
       <c r="CL88" s="8"/>
       <c r="CM88" s="8"/>
@@ -22557,13 +22695,13 @@
       <c r="CA89" s="8"/>
       <c r="CB89" s="8"/>
       <c r="CC89" s="8"/>
-      <c r="CD89" s="25"/>
-      <c r="CE89" s="25"/>
-      <c r="CF89" s="25"/>
-      <c r="CG89" s="25"/>
-      <c r="CH89" s="25"/>
-      <c r="CI89" s="25"/>
-      <c r="CJ89" s="8"/>
+      <c r="CD89" s="24"/>
+      <c r="CE89" s="24"/>
+      <c r="CF89" s="24"/>
+      <c r="CG89" s="24"/>
+      <c r="CH89" s="24"/>
+      <c r="CI89" s="24"/>
+      <c r="CJ89" s="24"/>
       <c r="CK89" s="8"/>
       <c r="CL89" s="8"/>
       <c r="CM89" s="8"/>
@@ -22876,25 +23014,27 @@
       <c r="CC90" s="7">
         <v>1523158.7520095231</v>
       </c>
-      <c r="CD90" s="23">
+      <c r="CD90" s="22">
         <v>1392480.6769471578</v>
       </c>
-      <c r="CE90" s="23">
+      <c r="CE90" s="22">
         <v>1042683.1391043793</v>
       </c>
-      <c r="CF90" s="23">
+      <c r="CF90" s="22">
         <v>1275642.5770475389</v>
       </c>
-      <c r="CG90" s="23">
+      <c r="CG90" s="22">
         <v>1320054.0299760995</v>
       </c>
-      <c r="CH90" s="23">
+      <c r="CH90" s="22">
         <v>1385554.0759972236</v>
       </c>
-      <c r="CI90" s="23">
-        <v>1526610.2246062099</v>
-      </c>
-      <c r="CJ90" s="8"/>
+      <c r="CI90" s="22">
+        <v>1546546.3903351319</v>
+      </c>
+      <c r="CJ90" s="22">
+        <v>1483898.21252057</v>
+      </c>
       <c r="CK90" s="8"/>
       <c r="CL90" s="8"/>
       <c r="CM90" s="8"/>
@@ -23045,12 +23185,13 @@
       <c r="CA91" s="11"/>
       <c r="CB91" s="11"/>
       <c r="CC91" s="11"/>
-      <c r="CD91" s="26"/>
-      <c r="CE91" s="26"/>
-      <c r="CF91" s="26"/>
-      <c r="CG91" s="26"/>
-      <c r="CH91" s="26"/>
-      <c r="CI91" s="26"/>
+      <c r="CD91" s="25"/>
+      <c r="CE91" s="25"/>
+      <c r="CF91" s="25"/>
+      <c r="CG91" s="25"/>
+      <c r="CH91" s="25"/>
+      <c r="CI91" s="25"/>
+      <c r="CJ91" s="25"/>
     </row>
     <row r="92" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
@@ -23138,13 +23279,13 @@
       <c r="CA93" s="8"/>
       <c r="CB93" s="8"/>
       <c r="CC93" s="8"/>
-      <c r="CD93" s="25"/>
-      <c r="CE93" s="25"/>
-      <c r="CF93" s="25"/>
-      <c r="CG93" s="25"/>
-      <c r="CH93" s="25"/>
-      <c r="CI93" s="25"/>
-      <c r="CJ93" s="8"/>
+      <c r="CD93" s="24"/>
+      <c r="CE93" s="24"/>
+      <c r="CF93" s="24"/>
+      <c r="CG93" s="24"/>
+      <c r="CH93" s="24"/>
+      <c r="CI93" s="24"/>
+      <c r="CJ93" s="24"/>
       <c r="CK93" s="8"/>
       <c r="CL93" s="8"/>
       <c r="CM93" s="8"/>
@@ -23294,13 +23435,13 @@
       <c r="CA94" s="8"/>
       <c r="CB94" s="8"/>
       <c r="CC94" s="8"/>
-      <c r="CD94" s="25"/>
-      <c r="CE94" s="25"/>
-      <c r="CF94" s="25"/>
-      <c r="CG94" s="25"/>
-      <c r="CH94" s="25"/>
-      <c r="CI94" s="25"/>
-      <c r="CJ94" s="8"/>
+      <c r="CD94" s="24"/>
+      <c r="CE94" s="24"/>
+      <c r="CF94" s="24"/>
+      <c r="CG94" s="24"/>
+      <c r="CH94" s="24"/>
+      <c r="CI94" s="24"/>
+      <c r="CJ94" s="24"/>
       <c r="CK94" s="8"/>
       <c r="CL94" s="8"/>
       <c r="CM94" s="8"/>
@@ -23527,10 +23668,11 @@
       <c r="CE103" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
-      <c r="CH103" s="21"/>
-      <c r="CI103" s="21"/>
+      <c r="CF103" s="29"/>
+      <c r="CG103" s="29"/>
+      <c r="CH103" s="29"/>
+      <c r="CI103" s="29"/>
+      <c r="CJ103" s="29"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -23776,16 +23918,19 @@
       <c r="CC104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD104" s="22" t="s">
+      <c r="CD104" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CE104" s="22" t="s">
+      <c r="CE104" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CF104" s="22"/>
-      <c r="CG104" s="22"/>
-      <c r="CH104" s="22"/>
-      <c r="CI104" s="22"/>
+      <c r="CF104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG104" s="21"/>
+      <c r="CH104" s="21"/>
+      <c r="CI104" s="21"/>
+      <c r="CJ104" s="21"/>
     </row>
     <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
@@ -24034,17 +24179,19 @@
       <c r="CC106" s="16">
         <v>1.2869285613973602</v>
       </c>
-      <c r="CD106" s="29">
+      <c r="CD106" s="28">
         <v>10.237430989117868</v>
       </c>
-      <c r="CE106" s="29">
-        <v>43.983215977433019</v>
-      </c>
-      <c r="CF106" s="25"/>
-      <c r="CG106" s="25"/>
-      <c r="CH106" s="25"/>
-      <c r="CI106" s="25"/>
-      <c r="CJ106" s="8"/>
+      <c r="CE106" s="28">
+        <v>45.231748159981521</v>
+      </c>
+      <c r="CF106" s="28">
+        <v>16.226423374567418</v>
+      </c>
+      <c r="CG106" s="24"/>
+      <c r="CH106" s="24"/>
+      <c r="CI106" s="24"/>
+      <c r="CJ106" s="24"/>
       <c r="CK106" s="8"/>
       <c r="CL106" s="8"/>
       <c r="CM106" s="8"/>
@@ -24353,17 +24500,19 @@
       <c r="CC107" s="16">
         <v>8.8174831042998107</v>
       </c>
-      <c r="CD107" s="29">
+      <c r="CD107" s="28">
         <v>7.7748896640783585</v>
       </c>
-      <c r="CE107" s="29">
-        <v>24.652279811209027</v>
-      </c>
-      <c r="CF107" s="25"/>
-      <c r="CG107" s="25"/>
-      <c r="CH107" s="25"/>
-      <c r="CI107" s="25"/>
-      <c r="CJ107" s="8"/>
+      <c r="CE107" s="28">
+        <v>25.16283341315328</v>
+      </c>
+      <c r="CF107" s="28">
+        <v>18.639850523318756</v>
+      </c>
+      <c r="CG107" s="24"/>
+      <c r="CH107" s="24"/>
+      <c r="CI107" s="24"/>
+      <c r="CJ107" s="24"/>
       <c r="CK107" s="8"/>
       <c r="CL107" s="8"/>
       <c r="CM107" s="8"/>
@@ -24672,17 +24821,19 @@
       <c r="CC108" s="16">
         <v>6.2783464356034102</v>
       </c>
-      <c r="CD108" s="29">
+      <c r="CD108" s="28">
         <v>22.457378951722575</v>
       </c>
-      <c r="CE108" s="29">
-        <v>67.82438677803637</v>
-      </c>
-      <c r="CF108" s="25"/>
-      <c r="CG108" s="25"/>
-      <c r="CH108" s="25"/>
-      <c r="CI108" s="25"/>
-      <c r="CJ108" s="8"/>
+      <c r="CE108" s="28">
+        <v>70.079211896524299</v>
+      </c>
+      <c r="CF108" s="28">
+        <v>18.852831682822298</v>
+      </c>
+      <c r="CG108" s="24"/>
+      <c r="CH108" s="24"/>
+      <c r="CI108" s="24"/>
+      <c r="CJ108" s="24"/>
       <c r="CK108" s="8"/>
       <c r="CL108" s="8"/>
       <c r="CM108" s="8"/>
@@ -24991,17 +25142,19 @@
       <c r="CC109" s="16">
         <v>-39.417723658422119</v>
       </c>
-      <c r="CD109" s="29">
+      <c r="CD109" s="28">
         <v>-19.798277075977509</v>
       </c>
-      <c r="CE109" s="29">
-        <v>35.081388202690334</v>
-      </c>
-      <c r="CF109" s="25"/>
-      <c r="CG109" s="25"/>
-      <c r="CH109" s="25"/>
-      <c r="CI109" s="25"/>
-      <c r="CJ109" s="8"/>
+      <c r="CE109" s="28">
+        <v>37.075257971339227</v>
+      </c>
+      <c r="CF109" s="28">
+        <v>-23.546007664520758</v>
+      </c>
+      <c r="CG109" s="24"/>
+      <c r="CH109" s="24"/>
+      <c r="CI109" s="24"/>
+      <c r="CJ109" s="24"/>
       <c r="CK109" s="8"/>
       <c r="CL109" s="8"/>
       <c r="CM109" s="8"/>
@@ -25310,17 +25463,19 @@
       <c r="CC110" s="16">
         <v>-8.8456246190098824</v>
       </c>
-      <c r="CD110" s="29">
+      <c r="CD110" s="28">
         <v>3.5174635311992404</v>
       </c>
-      <c r="CE110" s="29">
-        <v>144.56039227194756</v>
-      </c>
-      <c r="CF110" s="25"/>
-      <c r="CG110" s="25"/>
-      <c r="CH110" s="25"/>
-      <c r="CI110" s="25"/>
-      <c r="CJ110" s="8"/>
+      <c r="CE110" s="28">
+        <v>147.43161142421647</v>
+      </c>
+      <c r="CF110" s="28">
+        <v>-2.3072203940332088</v>
+      </c>
+      <c r="CG110" s="24"/>
+      <c r="CH110" s="24"/>
+      <c r="CI110" s="24"/>
+      <c r="CJ110" s="24"/>
       <c r="CK110" s="8"/>
       <c r="CL110" s="8"/>
       <c r="CM110" s="8"/>
@@ -25629,17 +25784,19 @@
       <c r="CC111" s="16">
         <v>-1.7134343296427801</v>
       </c>
-      <c r="CD111" s="29">
+      <c r="CD111" s="28">
         <v>-3.3610329256701732</v>
       </c>
-      <c r="CE111" s="29">
-        <v>126.61402616279437</v>
-      </c>
-      <c r="CF111" s="25"/>
-      <c r="CG111" s="25"/>
-      <c r="CH111" s="25"/>
-      <c r="CI111" s="25"/>
-      <c r="CJ111" s="8"/>
+      <c r="CE111" s="28">
+        <v>130.83005460700559</v>
+      </c>
+      <c r="CF111" s="28">
+        <v>33.618988778663748</v>
+      </c>
+      <c r="CG111" s="24"/>
+      <c r="CH111" s="24"/>
+      <c r="CI111" s="24"/>
+      <c r="CJ111" s="24"/>
       <c r="CK111" s="8"/>
       <c r="CL111" s="8"/>
       <c r="CM111" s="8"/>
@@ -25948,17 +26105,19 @@
       <c r="CC112" s="16">
         <v>-9.5868256935751077</v>
       </c>
-      <c r="CD112" s="29">
+      <c r="CD112" s="28">
         <v>17.877728106973052</v>
       </c>
-      <c r="CE112" s="29">
-        <v>12.47961019418635</v>
-      </c>
-      <c r="CF112" s="25"/>
-      <c r="CG112" s="25"/>
-      <c r="CH112" s="25"/>
-      <c r="CI112" s="25"/>
-      <c r="CJ112" s="8"/>
+      <c r="CE112" s="28">
+        <v>13.06149781606365</v>
+      </c>
+      <c r="CF112" s="28">
+        <v>-22.596426992016077</v>
+      </c>
+      <c r="CG112" s="24"/>
+      <c r="CH112" s="24"/>
+      <c r="CI112" s="24"/>
+      <c r="CJ112" s="24"/>
       <c r="CK112" s="8"/>
       <c r="CL112" s="8"/>
       <c r="CM112" s="8"/>
@@ -26267,17 +26426,19 @@
       <c r="CC113" s="16">
         <v>-22.298327909066998</v>
       </c>
-      <c r="CD113" s="29">
+      <c r="CD113" s="28">
         <v>22.561612249215685</v>
       </c>
-      <c r="CE113" s="29">
-        <v>67.478569657530556</v>
-      </c>
-      <c r="CF113" s="25"/>
-      <c r="CG113" s="25"/>
-      <c r="CH113" s="25"/>
-      <c r="CI113" s="25"/>
-      <c r="CJ113" s="8"/>
+      <c r="CE113" s="28">
+        <v>69.685469360277835</v>
+      </c>
+      <c r="CF113" s="28">
+        <v>59.665659317337429</v>
+      </c>
+      <c r="CG113" s="24"/>
+      <c r="CH113" s="24"/>
+      <c r="CI113" s="24"/>
+      <c r="CJ113" s="24"/>
       <c r="CK113" s="8"/>
       <c r="CL113" s="8"/>
       <c r="CM113" s="8"/>
@@ -26586,17 +26747,19 @@
       <c r="CC114" s="16">
         <v>-57.476379453362426</v>
       </c>
-      <c r="CD114" s="29">
+      <c r="CD114" s="28">
         <v>-7.2517645455209419</v>
       </c>
-      <c r="CE114" s="29">
-        <v>26.247561510476515</v>
-      </c>
-      <c r="CF114" s="25"/>
-      <c r="CG114" s="25"/>
-      <c r="CH114" s="25"/>
-      <c r="CI114" s="25"/>
-      <c r="CJ114" s="8"/>
+      <c r="CE114" s="28">
+        <v>28.816212675196141</v>
+      </c>
+      <c r="CF114" s="28">
+        <v>50.873482513877974</v>
+      </c>
+      <c r="CG114" s="24"/>
+      <c r="CH114" s="24"/>
+      <c r="CI114" s="24"/>
+      <c r="CJ114" s="24"/>
       <c r="CK114" s="8"/>
       <c r="CL114" s="8"/>
       <c r="CM114" s="8"/>
@@ -26905,17 +27068,19 @@
       <c r="CC115" s="16">
         <v>-30.695998007351406</v>
       </c>
-      <c r="CD115" s="29">
+      <c r="CD115" s="28">
         <v>-13.632677863479941</v>
       </c>
-      <c r="CE115" s="29">
-        <v>59.243521130546128</v>
-      </c>
-      <c r="CF115" s="25"/>
-      <c r="CG115" s="25"/>
-      <c r="CH115" s="25"/>
-      <c r="CI115" s="25"/>
-      <c r="CJ115" s="8"/>
+      <c r="CE115" s="28">
+        <v>61.127450995261739</v>
+      </c>
+      <c r="CF115" s="28">
+        <v>-31.559082480899164</v>
+      </c>
+      <c r="CG115" s="24"/>
+      <c r="CH115" s="24"/>
+      <c r="CI115" s="24"/>
+      <c r="CJ115" s="24"/>
       <c r="CK115" s="8"/>
       <c r="CL115" s="8"/>
       <c r="CM115" s="8"/>
@@ -27224,17 +27389,19 @@
       <c r="CC116" s="16">
         <v>-40.007484213282019</v>
       </c>
-      <c r="CD116" s="29">
+      <c r="CD116" s="28">
         <v>-14.482942246978368</v>
       </c>
-      <c r="CE116" s="29">
-        <v>212.99345619324066</v>
-      </c>
-      <c r="CF116" s="25"/>
-      <c r="CG116" s="25"/>
-      <c r="CH116" s="25"/>
-      <c r="CI116" s="25"/>
-      <c r="CJ116" s="8"/>
+      <c r="CE116" s="28">
+        <v>215.40677870558341</v>
+      </c>
+      <c r="CF116" s="28">
+        <v>122.20011940612508</v>
+      </c>
+      <c r="CG116" s="24"/>
+      <c r="CH116" s="24"/>
+      <c r="CI116" s="24"/>
+      <c r="CJ116" s="24"/>
       <c r="CK116" s="8"/>
       <c r="CL116" s="8"/>
       <c r="CM116" s="8"/>
@@ -27543,17 +27710,19 @@
       <c r="CC117" s="16">
         <v>-29.45610714720182</v>
       </c>
-      <c r="CD117" s="29">
+      <c r="CD117" s="28">
         <v>-12.165269902834183</v>
       </c>
-      <c r="CE117" s="29">
-        <v>51.769336050596024</v>
-      </c>
-      <c r="CF117" s="25"/>
-      <c r="CG117" s="25"/>
-      <c r="CH117" s="25"/>
-      <c r="CI117" s="25"/>
-      <c r="CJ117" s="8"/>
+      <c r="CE117" s="28">
+        <v>53.629178297703049</v>
+      </c>
+      <c r="CF117" s="28">
+        <v>20.510237123740069</v>
+      </c>
+      <c r="CG117" s="24"/>
+      <c r="CH117" s="24"/>
+      <c r="CI117" s="24"/>
+      <c r="CJ117" s="24"/>
       <c r="CK117" s="8"/>
       <c r="CL117" s="8"/>
       <c r="CM117" s="8"/>
@@ -27862,17 +28031,19 @@
       <c r="CC118" s="16">
         <v>-38.220960544947616</v>
       </c>
-      <c r="CD118" s="29">
+      <c r="CD118" s="28">
         <v>-9.1472541428828578</v>
       </c>
-      <c r="CE118" s="29">
-        <v>-4.66951259383805</v>
-      </c>
-      <c r="CF118" s="25"/>
-      <c r="CG118" s="25"/>
-      <c r="CH118" s="25"/>
-      <c r="CI118" s="25"/>
-      <c r="CJ118" s="8"/>
+      <c r="CE118" s="28">
+        <v>-2.841104541844004</v>
+      </c>
+      <c r="CF118" s="28">
+        <v>11.480646999632043</v>
+      </c>
+      <c r="CG118" s="24"/>
+      <c r="CH118" s="24"/>
+      <c r="CI118" s="24"/>
+      <c r="CJ118" s="24"/>
       <c r="CK118" s="8"/>
       <c r="CL118" s="8"/>
       <c r="CM118" s="8"/>
@@ -28181,17 +28352,19 @@
       <c r="CC119" s="16">
         <v>-0.35953982260231498</v>
       </c>
-      <c r="CD119" s="29">
+      <c r="CD119" s="28">
         <v>-8.5875031442554928E-2</v>
       </c>
-      <c r="CE119" s="29">
-        <v>109.82045760037047</v>
-      </c>
-      <c r="CF119" s="25"/>
-      <c r="CG119" s="25"/>
-      <c r="CH119" s="25"/>
-      <c r="CI119" s="25"/>
-      <c r="CJ119" s="8"/>
+      <c r="CE119" s="28">
+        <v>111.66548355876026</v>
+      </c>
+      <c r="CF119" s="28">
+        <v>74.922809575268332</v>
+      </c>
+      <c r="CG119" s="24"/>
+      <c r="CH119" s="24"/>
+      <c r="CI119" s="24"/>
+      <c r="CJ119" s="24"/>
       <c r="CK119" s="8"/>
       <c r="CL119" s="8"/>
       <c r="CM119" s="8"/>
@@ -28500,17 +28673,19 @@
       <c r="CC120" s="16">
         <v>-37.407755713525439</v>
       </c>
-      <c r="CD120" s="29">
+      <c r="CD120" s="28">
         <v>-9.232348006279409</v>
       </c>
-      <c r="CE120" s="29">
-        <v>147.39167630246345</v>
-      </c>
-      <c r="CF120" s="25"/>
-      <c r="CG120" s="25"/>
-      <c r="CH120" s="25"/>
-      <c r="CI120" s="25"/>
-      <c r="CJ120" s="8"/>
+      <c r="CE120" s="28">
+        <v>153.69842125906055</v>
+      </c>
+      <c r="CF120" s="28">
+        <v>37.795953985443759</v>
+      </c>
+      <c r="CG120" s="24"/>
+      <c r="CH120" s="24"/>
+      <c r="CI120" s="24"/>
+      <c r="CJ120" s="24"/>
       <c r="CK120" s="8"/>
       <c r="CL120" s="8"/>
       <c r="CM120" s="8"/>
@@ -28819,17 +28994,19 @@
       <c r="CC121" s="16">
         <v>-12.968527634846112</v>
       </c>
-      <c r="CD121" s="29">
+      <c r="CD121" s="28">
         <v>14.709781615456066</v>
       </c>
-      <c r="CE121" s="29">
-        <v>59.292061083373312</v>
-      </c>
-      <c r="CF121" s="25"/>
-      <c r="CG121" s="25"/>
-      <c r="CH121" s="25"/>
-      <c r="CI121" s="25"/>
-      <c r="CJ121" s="8"/>
+      <c r="CE121" s="28">
+        <v>61.825238923066138</v>
+      </c>
+      <c r="CF121" s="28">
+        <v>9.1779813459495614</v>
+      </c>
+      <c r="CG121" s="24"/>
+      <c r="CH121" s="24"/>
+      <c r="CI121" s="24"/>
+      <c r="CJ121" s="24"/>
       <c r="CK121" s="8"/>
       <c r="CL121" s="8"/>
       <c r="CM121" s="8"/>
@@ -29138,17 +29315,19 @@
       <c r="CC122" s="16">
         <v>-6.0773685697219406</v>
       </c>
-      <c r="CD122" s="29">
+      <c r="CD122" s="28">
         <v>14.068289299689212</v>
       </c>
-      <c r="CE122" s="29">
-        <v>36.199892697198493</v>
-      </c>
-      <c r="CF122" s="25"/>
-      <c r="CG122" s="25"/>
-      <c r="CH122" s="25"/>
-      <c r="CI122" s="25"/>
-      <c r="CJ122" s="8"/>
+      <c r="CE122" s="28">
+        <v>38.2346866139018</v>
+      </c>
+      <c r="CF122" s="28">
+        <v>24.2526542886486</v>
+      </c>
+      <c r="CG122" s="24"/>
+      <c r="CH122" s="24"/>
+      <c r="CI122" s="24"/>
+      <c r="CJ122" s="24"/>
       <c r="CK122" s="8"/>
       <c r="CL122" s="8"/>
       <c r="CM122" s="8"/>
@@ -29457,17 +29636,19 @@
       <c r="CC123" s="16">
         <v>-3.8782868788625535</v>
       </c>
-      <c r="CD123" s="29">
+      <c r="CD123" s="28">
         <v>8.5913818855042052</v>
       </c>
-      <c r="CE123" s="29">
-        <v>49.179342472126024</v>
-      </c>
-      <c r="CF123" s="25"/>
-      <c r="CG123" s="25"/>
-      <c r="CH123" s="25"/>
-      <c r="CI123" s="25"/>
-      <c r="CJ123" s="8"/>
+      <c r="CE123" s="28">
+        <v>50.813276558558954</v>
+      </c>
+      <c r="CF123" s="28">
+        <v>31.510793505469564</v>
+      </c>
+      <c r="CG123" s="24"/>
+      <c r="CH123" s="24"/>
+      <c r="CI123" s="24"/>
+      <c r="CJ123" s="24"/>
       <c r="CK123" s="8"/>
       <c r="CL123" s="8"/>
       <c r="CM123" s="8"/>
@@ -29776,17 +29957,19 @@
       <c r="CC124" s="16">
         <v>-11.341930259665034</v>
       </c>
-      <c r="CD124" s="29">
+      <c r="CD124" s="28">
         <v>-6.1731086718194774</v>
       </c>
-      <c r="CE124" s="29">
-        <v>3.86760553259235</v>
-      </c>
-      <c r="CF124" s="25"/>
-      <c r="CG124" s="25"/>
-      <c r="CH124" s="25"/>
-      <c r="CI124" s="25"/>
-      <c r="CJ124" s="8"/>
+      <c r="CE124" s="28">
+        <v>5.814707416690041</v>
+      </c>
+      <c r="CF124" s="28">
+        <v>24.116184993399074</v>
+      </c>
+      <c r="CG124" s="24"/>
+      <c r="CH124" s="24"/>
+      <c r="CI124" s="24"/>
+      <c r="CJ124" s="24"/>
       <c r="CK124" s="8"/>
       <c r="CL124" s="8"/>
       <c r="CM124" s="8"/>
@@ -30095,17 +30278,19 @@
       <c r="CC125" s="16">
         <v>-0.40629466331022002</v>
       </c>
-      <c r="CD125" s="29">
+      <c r="CD125" s="28">
         <v>-2.5830220605639909</v>
       </c>
-      <c r="CE125" s="29">
-        <v>3.648758619528266</v>
-      </c>
-      <c r="CF125" s="25"/>
-      <c r="CG125" s="25"/>
-      <c r="CH125" s="25"/>
-      <c r="CI125" s="25"/>
-      <c r="CJ125" s="8"/>
+      <c r="CE125" s="28">
+        <v>3.8975777472171984</v>
+      </c>
+      <c r="CF125" s="28">
+        <v>18.823347536721542</v>
+      </c>
+      <c r="CG125" s="24"/>
+      <c r="CH125" s="24"/>
+      <c r="CI125" s="24"/>
+      <c r="CJ125" s="24"/>
       <c r="CK125" s="8"/>
       <c r="CL125" s="8"/>
       <c r="CM125" s="8"/>
@@ -30414,17 +30599,19 @@
       <c r="CC126" s="16">
         <v>-13.089841581418099</v>
       </c>
-      <c r="CD126" s="29">
+      <c r="CD126" s="28">
         <v>-0.95548981653929843</v>
       </c>
-      <c r="CE126" s="29">
-        <v>22.389581347077552</v>
-      </c>
-      <c r="CF126" s="25"/>
-      <c r="CG126" s="25"/>
-      <c r="CH126" s="25"/>
-      <c r="CI126" s="25"/>
-      <c r="CJ126" s="8"/>
+      <c r="CE126" s="28">
+        <v>23.548977680132282</v>
+      </c>
+      <c r="CF126" s="28">
+        <v>85.388912975800338</v>
+      </c>
+      <c r="CG126" s="24"/>
+      <c r="CH126" s="24"/>
+      <c r="CI126" s="24"/>
+      <c r="CJ126" s="24"/>
       <c r="CK126" s="8"/>
       <c r="CL126" s="8"/>
       <c r="CM126" s="8"/>
@@ -30733,17 +30920,19 @@
       <c r="CC127" s="16">
         <v>-1.7675423859844557</v>
       </c>
-      <c r="CD127" s="29">
+      <c r="CD127" s="28">
         <v>4.5321380938454041</v>
       </c>
-      <c r="CE127" s="29">
-        <v>32.000905155608791</v>
-      </c>
-      <c r="CF127" s="25"/>
-      <c r="CG127" s="25"/>
-      <c r="CH127" s="25"/>
-      <c r="CI127" s="25"/>
-      <c r="CJ127" s="8"/>
+      <c r="CE127" s="28">
+        <v>33.676744094978886</v>
+      </c>
+      <c r="CF127" s="28">
+        <v>-3.3203826173563442</v>
+      </c>
+      <c r="CG127" s="24"/>
+      <c r="CH127" s="24"/>
+      <c r="CI127" s="24"/>
+      <c r="CJ127" s="24"/>
       <c r="CK127" s="8"/>
       <c r="CL127" s="8"/>
       <c r="CM127" s="8"/>
@@ -31052,17 +31241,19 @@
       <c r="CC128" s="16">
         <v>-3.7993644922921845</v>
       </c>
-      <c r="CD128" s="29">
+      <c r="CD128" s="28">
         <v>33.288201045803902</v>
       </c>
-      <c r="CE128" s="29">
-        <v>84.04885944649908</v>
-      </c>
-      <c r="CF128" s="25"/>
-      <c r="CG128" s="25"/>
-      <c r="CH128" s="25"/>
-      <c r="CI128" s="25"/>
-      <c r="CJ128" s="8"/>
+      <c r="CE128" s="28">
+        <v>89.340736662100198</v>
+      </c>
+      <c r="CF128" s="28">
+        <v>7.6496840296327093</v>
+      </c>
+      <c r="CG128" s="24"/>
+      <c r="CH128" s="24"/>
+      <c r="CI128" s="24"/>
+      <c r="CJ128" s="24"/>
       <c r="CK128" s="8"/>
       <c r="CL128" s="8"/>
       <c r="CM128" s="8"/>
@@ -31371,17 +31562,19 @@
       <c r="CC129" s="16">
         <v>-22.126867296241812</v>
       </c>
-      <c r="CD129" s="29">
+      <c r="CD129" s="28">
         <v>124.04322827174354</v>
       </c>
-      <c r="CE129" s="29">
-        <v>-29.64938094521375</v>
-      </c>
-      <c r="CF129" s="25"/>
-      <c r="CG129" s="25"/>
-      <c r="CH129" s="25"/>
-      <c r="CI129" s="25"/>
-      <c r="CJ129" s="8"/>
+      <c r="CE129" s="28">
+        <v>-29.51288884530814</v>
+      </c>
+      <c r="CF129" s="28">
+        <v>101.81038172417303</v>
+      </c>
+      <c r="CG129" s="24"/>
+      <c r="CH129" s="24"/>
+      <c r="CI129" s="24"/>
+      <c r="CJ129" s="24"/>
       <c r="CK129" s="8"/>
       <c r="CL129" s="8"/>
       <c r="CM129" s="8"/>
@@ -31690,17 +31883,19 @@
       <c r="CC130" s="16">
         <v>-3.345875775166661</v>
       </c>
-      <c r="CD130" s="29">
+      <c r="CD130" s="28">
         <v>18.2685745424874</v>
       </c>
-      <c r="CE130" s="29">
-        <v>63.710033072467468</v>
-      </c>
-      <c r="CF130" s="25"/>
-      <c r="CG130" s="25"/>
-      <c r="CH130" s="25"/>
-      <c r="CI130" s="25"/>
-      <c r="CJ130" s="8"/>
+      <c r="CE130" s="28">
+        <v>65.074143622290393</v>
+      </c>
+      <c r="CF130" s="28">
+        <v>29.118582028336135</v>
+      </c>
+      <c r="CG130" s="24"/>
+      <c r="CH130" s="24"/>
+      <c r="CI130" s="24"/>
+      <c r="CJ130" s="24"/>
       <c r="CK130" s="8"/>
       <c r="CL130" s="8"/>
       <c r="CM130" s="8"/>
@@ -32009,17 +32204,19 @@
       <c r="CC131" s="16">
         <v>-10.282612255335707</v>
       </c>
-      <c r="CD131" s="29">
+      <c r="CD131" s="28">
         <v>5.614443024589022</v>
       </c>
-      <c r="CE131" s="29">
-        <v>80.306751947656039</v>
-      </c>
-      <c r="CF131" s="25"/>
-      <c r="CG131" s="25"/>
-      <c r="CH131" s="25"/>
-      <c r="CI131" s="25"/>
-      <c r="CJ131" s="8"/>
+      <c r="CE131" s="28">
+        <v>83.126700633107731</v>
+      </c>
+      <c r="CF131" s="28">
+        <v>47.992920823599178</v>
+      </c>
+      <c r="CG131" s="24"/>
+      <c r="CH131" s="24"/>
+      <c r="CI131" s="24"/>
+      <c r="CJ131" s="24"/>
       <c r="CK131" s="8"/>
       <c r="CL131" s="8"/>
       <c r="CM131" s="8"/>
@@ -32328,17 +32525,19 @@
       <c r="CC132" s="16">
         <v>-9.7047072574866888E-2</v>
       </c>
-      <c r="CD132" s="29">
+      <c r="CD132" s="28">
         <v>1.4079873171865245</v>
       </c>
-      <c r="CE132" s="29">
-        <v>22.166928943614138</v>
-      </c>
-      <c r="CF132" s="25"/>
-      <c r="CG132" s="25"/>
-      <c r="CH132" s="25"/>
-      <c r="CI132" s="25"/>
-      <c r="CJ132" s="8"/>
+      <c r="CE132" s="28">
+        <v>23.356206744724716</v>
+      </c>
+      <c r="CF132" s="28">
+        <v>20.534704624354475</v>
+      </c>
+      <c r="CG132" s="24"/>
+      <c r="CH132" s="24"/>
+      <c r="CI132" s="24"/>
+      <c r="CJ132" s="24"/>
       <c r="CK132" s="8"/>
       <c r="CL132" s="8"/>
       <c r="CM132" s="8"/>
@@ -32647,17 +32846,19 @@
       <c r="CC133" s="16">
         <v>-28.2775111910167</v>
       </c>
-      <c r="CD133" s="29">
+      <c r="CD133" s="28">
         <v>-3.9487326062975967</v>
       </c>
-      <c r="CE133" s="29">
-        <v>68.937327766365769</v>
-      </c>
-      <c r="CF133" s="25"/>
-      <c r="CG133" s="25"/>
-      <c r="CH133" s="25"/>
-      <c r="CI133" s="25"/>
-      <c r="CJ133" s="8"/>
+      <c r="CE133" s="28">
+        <v>70.144926056127446</v>
+      </c>
+      <c r="CF133" s="28">
+        <v>34.79916854147902</v>
+      </c>
+      <c r="CG133" s="24"/>
+      <c r="CH133" s="24"/>
+      <c r="CI133" s="24"/>
+      <c r="CJ133" s="24"/>
       <c r="CK133" s="8"/>
       <c r="CL133" s="8"/>
       <c r="CM133" s="8"/>
@@ -32966,17 +33167,19 @@
       <c r="CC134" s="16">
         <v>-26.779998812065145</v>
       </c>
-      <c r="CD134" s="29">
+      <c r="CD134" s="28">
         <v>-14.820274007428935</v>
       </c>
-      <c r="CE134" s="29">
-        <v>9.0283200781162947</v>
-      </c>
-      <c r="CF134" s="25"/>
-      <c r="CG134" s="25"/>
-      <c r="CH134" s="25"/>
-      <c r="CI134" s="25"/>
-      <c r="CJ134" s="8"/>
+      <c r="CE134" s="28">
+        <v>10.034244390853431</v>
+      </c>
+      <c r="CF134" s="28">
+        <v>-17.400434279518421</v>
+      </c>
+      <c r="CG134" s="24"/>
+      <c r="CH134" s="24"/>
+      <c r="CI134" s="24"/>
+      <c r="CJ134" s="24"/>
       <c r="CK134" s="8"/>
       <c r="CL134" s="8"/>
       <c r="CM134" s="8"/>
@@ -33285,17 +33488,19 @@
       <c r="CC135" s="16">
         <v>-13.673250393775419</v>
       </c>
-      <c r="CD135" s="29">
+      <c r="CD135" s="28">
         <v>6.2284802252174529</v>
       </c>
-      <c r="CE135" s="29">
-        <v>63.482113072048833</v>
-      </c>
-      <c r="CF135" s="25"/>
-      <c r="CG135" s="25"/>
-      <c r="CH135" s="25"/>
-      <c r="CI135" s="25"/>
-      <c r="CJ135" s="8"/>
+      <c r="CE135" s="28">
+        <v>66.514486090082926</v>
+      </c>
+      <c r="CF135" s="28">
+        <v>22.968212111358596</v>
+      </c>
+      <c r="CG135" s="24"/>
+      <c r="CH135" s="24"/>
+      <c r="CI135" s="24"/>
+      <c r="CJ135" s="24"/>
       <c r="CK135" s="8"/>
       <c r="CL135" s="8"/>
       <c r="CM135" s="8"/>
@@ -33441,13 +33646,13 @@
       <c r="CA136" s="16"/>
       <c r="CB136" s="16"/>
       <c r="CC136" s="16"/>
-      <c r="CD136" s="29"/>
-      <c r="CE136" s="29"/>
-      <c r="CF136" s="25"/>
-      <c r="CG136" s="25"/>
-      <c r="CH136" s="25"/>
-      <c r="CI136" s="25"/>
-      <c r="CJ136" s="8"/>
+      <c r="CD136" s="28"/>
+      <c r="CE136" s="28"/>
+      <c r="CF136" s="28"/>
+      <c r="CG136" s="24"/>
+      <c r="CH136" s="24"/>
+      <c r="CI136" s="24"/>
+      <c r="CJ136" s="24"/>
       <c r="CK136" s="8"/>
       <c r="CL136" s="8"/>
       <c r="CM136" s="8"/>
@@ -33756,17 +33961,19 @@
       <c r="CC137" s="16">
         <v>-15.944083212289556</v>
       </c>
-      <c r="CD137" s="29">
+      <c r="CD137" s="28">
         <v>0.87485112771430806</v>
       </c>
-      <c r="CE137" s="29">
-        <v>67.505707859533572</v>
-      </c>
-      <c r="CF137" s="25"/>
-      <c r="CG137" s="25"/>
-      <c r="CH137" s="25"/>
-      <c r="CI137" s="25"/>
-      <c r="CJ137" s="8"/>
+      <c r="CE137" s="28">
+        <v>69.70117158039892</v>
+      </c>
+      <c r="CF137" s="28">
+        <v>34.945999590253365</v>
+      </c>
+      <c r="CG137" s="24"/>
+      <c r="CH137" s="24"/>
+      <c r="CI137" s="24"/>
+      <c r="CJ137" s="24"/>
       <c r="CK137" s="8"/>
       <c r="CL137" s="8"/>
       <c r="CM137" s="8"/>
@@ -33913,12 +34120,13 @@
       <c r="CA138" s="11"/>
       <c r="CB138" s="11"/>
       <c r="CC138" s="11"/>
-      <c r="CD138" s="26"/>
-      <c r="CE138" s="26"/>
-      <c r="CF138" s="26"/>
-      <c r="CG138" s="26"/>
-      <c r="CH138" s="26"/>
-      <c r="CI138" s="26"/>
+      <c r="CD138" s="25"/>
+      <c r="CE138" s="25"/>
+      <c r="CF138" s="25"/>
+      <c r="CG138" s="25"/>
+      <c r="CH138" s="25"/>
+      <c r="CI138" s="25"/>
+      <c r="CJ138" s="25"/>
     </row>
     <row r="139" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -34009,13 +34217,13 @@
       <c r="CA140" s="8"/>
       <c r="CB140" s="8"/>
       <c r="CC140" s="8"/>
-      <c r="CD140" s="25"/>
-      <c r="CE140" s="25"/>
-      <c r="CF140" s="25"/>
-      <c r="CG140" s="25"/>
-      <c r="CH140" s="25"/>
-      <c r="CI140" s="25"/>
-      <c r="CJ140" s="8"/>
+      <c r="CD140" s="24"/>
+      <c r="CE140" s="24"/>
+      <c r="CF140" s="24"/>
+      <c r="CG140" s="24"/>
+      <c r="CH140" s="24"/>
+      <c r="CI140" s="24"/>
+      <c r="CJ140" s="24"/>
       <c r="CK140" s="8"/>
       <c r="CL140" s="8"/>
       <c r="CM140" s="8"/>
@@ -34161,13 +34369,13 @@
       <c r="CA141" s="8"/>
       <c r="CB141" s="8"/>
       <c r="CC141" s="8"/>
-      <c r="CD141" s="25"/>
-      <c r="CE141" s="25"/>
-      <c r="CF141" s="25"/>
-      <c r="CG141" s="25"/>
-      <c r="CH141" s="25"/>
-      <c r="CI141" s="25"/>
-      <c r="CJ141" s="8"/>
+      <c r="CD141" s="24"/>
+      <c r="CE141" s="24"/>
+      <c r="CF141" s="24"/>
+      <c r="CG141" s="24"/>
+      <c r="CH141" s="24"/>
+      <c r="CI141" s="24"/>
+      <c r="CJ141" s="24"/>
       <c r="CK141" s="8"/>
       <c r="CL141" s="8"/>
       <c r="CM141" s="8"/>
@@ -34390,10 +34598,11 @@
       <c r="CE150" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="CF150" s="21"/>
-      <c r="CG150" s="21"/>
-      <c r="CH150" s="21"/>
-      <c r="CI150" s="21"/>
+      <c r="CF150" s="30"/>
+      <c r="CG150" s="29"/>
+      <c r="CH150" s="29"/>
+      <c r="CI150" s="29"/>
+      <c r="CJ150" s="29"/>
     </row>
     <row r="151" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
@@ -34639,16 +34848,19 @@
       <c r="CC151" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD151" s="22" t="s">
+      <c r="CD151" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CE151" s="22" t="s">
+      <c r="CE151" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CF151" s="22"/>
-      <c r="CG151" s="22"/>
-      <c r="CH151" s="22"/>
-      <c r="CI151" s="22"/>
+      <c r="CF151" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG151" s="21"/>
+      <c r="CH151" s="21"/>
+      <c r="CI151" s="21"/>
+      <c r="CJ151" s="21"/>
     </row>
     <row r="152" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
@@ -34897,17 +35109,19 @@
       <c r="CC153" s="16">
         <v>8.0427458565137186</v>
       </c>
-      <c r="CD153" s="29">
+      <c r="CD153" s="28">
         <v>16.709660758100213</v>
       </c>
-      <c r="CE153" s="29">
-        <v>56.570827008259329</v>
-      </c>
-      <c r="CF153" s="25"/>
-      <c r="CG153" s="25"/>
-      <c r="CH153" s="25"/>
-      <c r="CI153" s="25"/>
-      <c r="CJ153" s="8"/>
+      <c r="CE153" s="28">
+        <v>58.055573553428189</v>
+      </c>
+      <c r="CF153" s="28">
+        <v>13.778424998285431</v>
+      </c>
+      <c r="CG153" s="24"/>
+      <c r="CH153" s="24"/>
+      <c r="CI153" s="24"/>
+      <c r="CJ153" s="24"/>
       <c r="CK153" s="8"/>
       <c r="CL153" s="8"/>
       <c r="CM153" s="8"/>
@@ -35216,17 +35430,19 @@
       <c r="CC154" s="16">
         <v>11.974834873644255</v>
       </c>
-      <c r="CD154" s="29">
+      <c r="CD154" s="28">
         <v>11.134576801314978</v>
       </c>
-      <c r="CE154" s="29">
-        <v>30.03740809737414</v>
-      </c>
-      <c r="CF154" s="25"/>
-      <c r="CG154" s="25"/>
-      <c r="CH154" s="25"/>
-      <c r="CI154" s="25"/>
-      <c r="CJ154" s="8"/>
+      <c r="CE154" s="28">
+        <v>30.570018228469678</v>
+      </c>
+      <c r="CF154" s="28">
+        <v>16.523547675035559</v>
+      </c>
+      <c r="CG154" s="24"/>
+      <c r="CH154" s="24"/>
+      <c r="CI154" s="24"/>
+      <c r="CJ154" s="24"/>
       <c r="CK154" s="8"/>
       <c r="CL154" s="8"/>
       <c r="CM154" s="8"/>
@@ -35535,17 +35751,19 @@
       <c r="CC155" s="16">
         <v>17.267931025467547</v>
       </c>
-      <c r="CD155" s="29">
+      <c r="CD155" s="28">
         <v>40.63154202100003</v>
       </c>
-      <c r="CE155" s="29">
-        <v>84.529038114130316</v>
-      </c>
-      <c r="CF155" s="25"/>
-      <c r="CG155" s="25"/>
-      <c r="CH155" s="25"/>
-      <c r="CI155" s="25"/>
-      <c r="CJ155" s="8"/>
+      <c r="CE155" s="28">
+        <v>87.008300623103253</v>
+      </c>
+      <c r="CF155" s="28">
+        <v>18.374960612612014</v>
+      </c>
+      <c r="CG155" s="24"/>
+      <c r="CH155" s="24"/>
+      <c r="CI155" s="24"/>
+      <c r="CJ155" s="24"/>
       <c r="CK155" s="8"/>
       <c r="CL155" s="8"/>
       <c r="CM155" s="8"/>
@@ -35854,17 +36072,19 @@
       <c r="CC156" s="16">
         <v>-35.456223609441238</v>
       </c>
-      <c r="CD156" s="29">
+      <c r="CD156" s="28">
         <v>-14.478678570110191</v>
       </c>
-      <c r="CE156" s="29">
-        <v>39.337932097325023</v>
-      </c>
-      <c r="CF156" s="25"/>
-      <c r="CG156" s="25"/>
-      <c r="CH156" s="25"/>
-      <c r="CI156" s="25"/>
-      <c r="CJ156" s="8"/>
+      <c r="CE156" s="28">
+        <v>41.394630611690587</v>
+      </c>
+      <c r="CF156" s="28">
+        <v>-28.315805457542325</v>
+      </c>
+      <c r="CG156" s="24"/>
+      <c r="CH156" s="24"/>
+      <c r="CI156" s="24"/>
+      <c r="CJ156" s="24"/>
       <c r="CK156" s="8"/>
       <c r="CL156" s="8"/>
       <c r="CM156" s="8"/>
@@ -36173,17 +36393,19 @@
       <c r="CC157" s="16">
         <v>-3.7511043009999696</v>
       </c>
-      <c r="CD157" s="29">
+      <c r="CD157" s="28">
         <v>9.1021344489148959</v>
       </c>
-      <c r="CE157" s="29">
-        <v>150.4649825996629</v>
-      </c>
-      <c r="CF157" s="25"/>
-      <c r="CG157" s="25"/>
-      <c r="CH157" s="25"/>
-      <c r="CI157" s="25"/>
-      <c r="CJ157" s="8"/>
+      <c r="CE157" s="28">
+        <v>153.40552357742342</v>
+      </c>
+      <c r="CF157" s="28">
+        <v>-6.6042762021088208</v>
+      </c>
+      <c r="CG157" s="24"/>
+      <c r="CH157" s="24"/>
+      <c r="CI157" s="24"/>
+      <c r="CJ157" s="24"/>
       <c r="CK157" s="8"/>
       <c r="CL157" s="8"/>
       <c r="CM157" s="8"/>
@@ -36492,17 +36714,19 @@
       <c r="CC158" s="16">
         <v>3.4205818729612645</v>
       </c>
-      <c r="CD158" s="29">
+      <c r="CD158" s="28">
         <v>2.5250095411592213</v>
       </c>
-      <c r="CE158" s="29">
-        <v>139.56475288721782</v>
-      </c>
-      <c r="CF158" s="25"/>
-      <c r="CG158" s="25"/>
-      <c r="CH158" s="25"/>
-      <c r="CI158" s="25"/>
-      <c r="CJ158" s="8"/>
+      <c r="CE158" s="28">
+        <v>144.02172242924155</v>
+      </c>
+      <c r="CF158" s="28">
+        <v>30.615865537417164</v>
+      </c>
+      <c r="CG158" s="24"/>
+      <c r="CH158" s="24"/>
+      <c r="CI158" s="24"/>
+      <c r="CJ158" s="24"/>
       <c r="CK158" s="8"/>
       <c r="CL158" s="8"/>
       <c r="CM158" s="8"/>
@@ -36811,17 +37035,19 @@
       <c r="CC159" s="16">
         <v>-4.8640774863087302</v>
       </c>
-      <c r="CD159" s="29">
+      <c r="CD159" s="28">
         <v>25.057371417909451</v>
       </c>
-      <c r="CE159" s="29">
-        <v>18.907688448478169</v>
-      </c>
-      <c r="CF159" s="25"/>
-      <c r="CG159" s="25"/>
-      <c r="CH159" s="25"/>
-      <c r="CI159" s="25"/>
-      <c r="CJ159" s="8"/>
+      <c r="CE159" s="28">
+        <v>19.522830267824446</v>
+      </c>
+      <c r="CF159" s="28">
+        <v>-24.336093421020806</v>
+      </c>
+      <c r="CG159" s="24"/>
+      <c r="CH159" s="24"/>
+      <c r="CI159" s="24"/>
+      <c r="CJ159" s="24"/>
       <c r="CK159" s="8"/>
       <c r="CL159" s="8"/>
       <c r="CM159" s="8"/>
@@ -37130,17 +37356,19 @@
       <c r="CC160" s="16">
         <v>-18.482767366744866</v>
       </c>
-      <c r="CD160" s="29">
+      <c r="CD160" s="28">
         <v>27.678284749851784</v>
       </c>
-      <c r="CE160" s="29">
-        <v>73.70380211555576</v>
-      </c>
-      <c r="CF160" s="25"/>
-      <c r="CG160" s="25"/>
-      <c r="CH160" s="25"/>
-      <c r="CI160" s="25"/>
-      <c r="CJ160" s="8"/>
+      <c r="CE160" s="28">
+        <v>75.992732992137633</v>
+      </c>
+      <c r="CF160" s="28">
+        <v>53.66010897293387</v>
+      </c>
+      <c r="CG160" s="24"/>
+      <c r="CH160" s="24"/>
+      <c r="CI160" s="24"/>
+      <c r="CJ160" s="24"/>
       <c r="CK160" s="8"/>
       <c r="CL160" s="8"/>
       <c r="CM160" s="8"/>
@@ -37449,17 +37677,19 @@
       <c r="CC161" s="16">
         <v>-54.881777383397164</v>
       </c>
-      <c r="CD161" s="29">
+      <c r="CD161" s="28">
         <v>-0.99208563345854373</v>
       </c>
-      <c r="CE161" s="29">
-        <v>31.741949649133147</v>
-      </c>
-      <c r="CF161" s="25"/>
-      <c r="CG161" s="25"/>
-      <c r="CH161" s="25"/>
-      <c r="CI161" s="25"/>
-      <c r="CJ161" s="8"/>
+      <c r="CE161" s="28">
+        <v>34.422390430403993</v>
+      </c>
+      <c r="CF161" s="28">
+        <v>47.158191651072713</v>
+      </c>
+      <c r="CG161" s="24"/>
+      <c r="CH161" s="24"/>
+      <c r="CI161" s="24"/>
+      <c r="CJ161" s="24"/>
       <c r="CK161" s="8"/>
       <c r="CL161" s="8"/>
       <c r="CM161" s="8"/>
@@ -37768,17 +37998,19 @@
       <c r="CC162" s="16">
         <v>-27.097467275555275</v>
       </c>
-      <c r="CD162" s="29">
+      <c r="CD162" s="28">
         <v>-9.5836832111411638</v>
       </c>
-      <c r="CE162" s="29">
-        <v>65.12717036604343</v>
-      </c>
-      <c r="CF162" s="25"/>
-      <c r="CG162" s="25"/>
-      <c r="CH162" s="25"/>
-      <c r="CI162" s="25"/>
-      <c r="CJ162" s="8"/>
+      <c r="CE162" s="28">
+        <v>67.080706720427003</v>
+      </c>
+      <c r="CF162" s="28">
+        <v>-34.292760716486342</v>
+      </c>
+      <c r="CG162" s="24"/>
+      <c r="CH162" s="24"/>
+      <c r="CI162" s="24"/>
+      <c r="CJ162" s="24"/>
       <c r="CK162" s="8"/>
       <c r="CL162" s="8"/>
       <c r="CM162" s="8"/>
@@ -38087,17 +38319,19 @@
       <c r="CC163" s="16">
         <v>-11.189516524554762</v>
       </c>
-      <c r="CD163" s="29">
+      <c r="CD163" s="28">
         <v>-23.381070555161472</v>
       </c>
-      <c r="CE163" s="29">
-        <v>56.026468665143568</v>
-      </c>
-      <c r="CF163" s="25"/>
-      <c r="CG163" s="25"/>
-      <c r="CH163" s="25"/>
-      <c r="CI163" s="25"/>
-      <c r="CJ163" s="8"/>
+      <c r="CE163" s="28">
+        <v>57.229504006299237</v>
+      </c>
+      <c r="CF163" s="28">
+        <v>32.278038293757959</v>
+      </c>
+      <c r="CG163" s="24"/>
+      <c r="CH163" s="24"/>
+      <c r="CI163" s="24"/>
+      <c r="CJ163" s="24"/>
       <c r="CK163" s="8"/>
       <c r="CL163" s="8"/>
       <c r="CM163" s="8"/>
@@ -38406,17 +38640,19 @@
       <c r="CC164" s="16">
         <v>-25.503725983581944</v>
       </c>
-      <c r="CD164" s="29">
+      <c r="CD164" s="28">
         <v>-7.8074519368410336</v>
       </c>
-      <c r="CE164" s="29">
-        <v>56.803894434796831</v>
-      </c>
-      <c r="CF164" s="25"/>
-      <c r="CG164" s="25"/>
-      <c r="CH164" s="25"/>
-      <c r="CI164" s="25"/>
-      <c r="CJ164" s="8"/>
+      <c r="CE164" s="28">
+        <v>58.725432177332124</v>
+      </c>
+      <c r="CF164" s="28">
+        <v>15.051136600670233</v>
+      </c>
+      <c r="CG164" s="24"/>
+      <c r="CH164" s="24"/>
+      <c r="CI164" s="24"/>
+      <c r="CJ164" s="24"/>
       <c r="CK164" s="8"/>
       <c r="CL164" s="8"/>
       <c r="CM164" s="8"/>
@@ -38725,17 +38961,19 @@
       <c r="CC165" s="16">
         <v>-36.428434620185598</v>
       </c>
-      <c r="CD165" s="29">
+      <c r="CD165" s="28">
         <v>-5.0259220220120255</v>
       </c>
-      <c r="CE165" s="29">
-        <v>-1.1816164705518162</v>
-      </c>
-      <c r="CF165" s="25"/>
-      <c r="CG165" s="25"/>
-      <c r="CH165" s="25"/>
-      <c r="CI165" s="25"/>
-      <c r="CJ165" s="8"/>
+      <c r="CE165" s="28">
+        <v>0.71368830598288469</v>
+      </c>
+      <c r="CF165" s="28">
+        <v>6.6009349414110261</v>
+      </c>
+      <c r="CG165" s="24"/>
+      <c r="CH165" s="24"/>
+      <c r="CI165" s="24"/>
+      <c r="CJ165" s="24"/>
       <c r="CK165" s="8"/>
       <c r="CL165" s="8"/>
       <c r="CM165" s="8"/>
@@ -39044,17 +39282,19 @@
       <c r="CC166" s="16">
         <v>-9.487809662768754</v>
       </c>
-      <c r="CD166" s="29">
+      <c r="CD166" s="28">
         <v>-9.0559677214795045</v>
       </c>
-      <c r="CE166" s="29">
-        <v>36.507861253645956</v>
-      </c>
-      <c r="CF166" s="25"/>
-      <c r="CG166" s="25"/>
-      <c r="CH166" s="25"/>
-      <c r="CI166" s="25"/>
-      <c r="CJ166" s="8"/>
+      <c r="CE166" s="28">
+        <v>37.727877941878035</v>
+      </c>
+      <c r="CF166" s="28">
+        <v>28.903528923992781</v>
+      </c>
+      <c r="CG166" s="24"/>
+      <c r="CH166" s="24"/>
+      <c r="CI166" s="24"/>
+      <c r="CJ166" s="24"/>
       <c r="CK166" s="8"/>
       <c r="CL166" s="8"/>
       <c r="CM166" s="8"/>
@@ -39363,17 +39603,19 @@
       <c r="CC167" s="16">
         <v>-34.819856518046748</v>
       </c>
-      <c r="CD167" s="29">
+      <c r="CD167" s="28">
         <v>-7.2368925015884713</v>
       </c>
-      <c r="CE167" s="29">
-        <v>151.96973248236367</v>
-      </c>
-      <c r="CF167" s="25"/>
-      <c r="CG167" s="25"/>
-      <c r="CH167" s="25"/>
-      <c r="CI167" s="25"/>
-      <c r="CJ167" s="8"/>
+      <c r="CE167" s="28">
+        <v>158.39318562071992</v>
+      </c>
+      <c r="CF167" s="28">
+        <v>30.371998863602812</v>
+      </c>
+      <c r="CG167" s="24"/>
+      <c r="CH167" s="24"/>
+      <c r="CI167" s="24"/>
+      <c r="CJ167" s="24"/>
       <c r="CK167" s="8"/>
       <c r="CL167" s="8"/>
       <c r="CM167" s="8"/>
@@ -39682,17 +39924,19 @@
       <c r="CC168" s="16">
         <v>-7.9597884401345738</v>
       </c>
-      <c r="CD168" s="29">
+      <c r="CD168" s="28">
         <v>19.485372946345251</v>
       </c>
-      <c r="CE168" s="29">
-        <v>59.747944636092399</v>
-      </c>
-      <c r="CF168" s="25"/>
-      <c r="CG168" s="25"/>
-      <c r="CH168" s="25"/>
-      <c r="CI168" s="25"/>
-      <c r="CJ168" s="8"/>
+      <c r="CE168" s="28">
+        <v>62.288372266549231</v>
+      </c>
+      <c r="CF168" s="28">
+        <v>-0.83813469903421378</v>
+      </c>
+      <c r="CG168" s="24"/>
+      <c r="CH168" s="24"/>
+      <c r="CI168" s="24"/>
+      <c r="CJ168" s="24"/>
       <c r="CK168" s="8"/>
       <c r="CL168" s="8"/>
       <c r="CM168" s="8"/>
@@ -40001,17 +40245,19 @@
       <c r="CC169" s="16">
         <v>-3.5651012865573932</v>
       </c>
-      <c r="CD169" s="29">
+      <c r="CD169" s="28">
         <v>19.242742754326002</v>
       </c>
-      <c r="CE169" s="29">
-        <v>41.183094720561428</v>
-      </c>
-      <c r="CF169" s="25"/>
-      <c r="CG169" s="25"/>
-      <c r="CH169" s="25"/>
-      <c r="CI169" s="25"/>
-      <c r="CJ169" s="8"/>
+      <c r="CE169" s="28">
+        <v>43.292336487127471</v>
+      </c>
+      <c r="CF169" s="28">
+        <v>18.813888083781777</v>
+      </c>
+      <c r="CG169" s="24"/>
+      <c r="CH169" s="24"/>
+      <c r="CI169" s="24"/>
+      <c r="CJ169" s="24"/>
       <c r="CK169" s="8"/>
       <c r="CL169" s="8"/>
       <c r="CM169" s="8"/>
@@ -40320,17 +40566,19 @@
       <c r="CC170" s="16">
         <v>1.751878333132197</v>
       </c>
-      <c r="CD170" s="29">
+      <c r="CD170" s="28">
         <v>8.4297576786827193</v>
       </c>
-      <c r="CE170" s="29">
-        <v>24.976627360761384</v>
-      </c>
-      <c r="CF170" s="25"/>
-      <c r="CG170" s="25"/>
-      <c r="CH170" s="25"/>
-      <c r="CI170" s="25"/>
-      <c r="CJ170" s="8"/>
+      <c r="CE170" s="28">
+        <v>26.3478596917234</v>
+      </c>
+      <c r="CF170" s="28">
+        <v>13.886143557799201</v>
+      </c>
+      <c r="CG170" s="24"/>
+      <c r="CH170" s="24"/>
+      <c r="CI170" s="24"/>
+      <c r="CJ170" s="24"/>
       <c r="CK170" s="8"/>
       <c r="CL170" s="8"/>
       <c r="CM170" s="8"/>
@@ -40639,17 +40887,19 @@
       <c r="CC171" s="16">
         <v>-35.231574418918811</v>
       </c>
-      <c r="CD171" s="29">
+      <c r="CD171" s="28">
         <v>-24.24260779485671</v>
       </c>
-      <c r="CE171" s="29">
-        <v>-17.223081560214851</v>
-      </c>
-      <c r="CF171" s="25"/>
-      <c r="CG171" s="25"/>
-      <c r="CH171" s="25"/>
-      <c r="CI171" s="25"/>
-      <c r="CJ171" s="8"/>
+      <c r="CE171" s="28">
+        <v>-15.67134564575467</v>
+      </c>
+      <c r="CF171" s="28">
+        <v>16.494882681154778</v>
+      </c>
+      <c r="CG171" s="24"/>
+      <c r="CH171" s="24"/>
+      <c r="CI171" s="24"/>
+      <c r="CJ171" s="24"/>
       <c r="CK171" s="8"/>
       <c r="CL171" s="8"/>
       <c r="CM171" s="8"/>
@@ -40958,17 +41208,19 @@
       <c r="CC172" s="16">
         <v>0.25606671048936391</v>
       </c>
-      <c r="CD172" s="29">
+      <c r="CD172" s="28">
         <v>0.80622995822770349</v>
       </c>
-      <c r="CE172" s="29">
-        <v>-5.6785733375616161</v>
-      </c>
-      <c r="CF172" s="25"/>
-      <c r="CG172" s="25"/>
-      <c r="CH172" s="25"/>
-      <c r="CI172" s="25"/>
-      <c r="CJ172" s="8"/>
+      <c r="CE172" s="28">
+        <v>-5.4521453955669301</v>
+      </c>
+      <c r="CF172" s="28">
+        <v>8.96363387282166</v>
+      </c>
+      <c r="CG172" s="24"/>
+      <c r="CH172" s="24"/>
+      <c r="CI172" s="24"/>
+      <c r="CJ172" s="24"/>
       <c r="CK172" s="8"/>
       <c r="CL172" s="8"/>
       <c r="CM172" s="8"/>
@@ -41277,17 +41529,19 @@
       <c r="CC173" s="16">
         <v>-9.271442040692861</v>
       </c>
-      <c r="CD173" s="29">
+      <c r="CD173" s="28">
         <v>4.2283225425652375</v>
       </c>
-      <c r="CE173" s="29">
-        <v>24.961922939348185</v>
-      </c>
-      <c r="CF173" s="25"/>
-      <c r="CG173" s="25"/>
-      <c r="CH173" s="25"/>
-      <c r="CI173" s="25"/>
-      <c r="CJ173" s="8"/>
+      <c r="CE173" s="28">
+        <v>26.145687060711481</v>
+      </c>
+      <c r="CF173" s="28">
+        <v>82.780280376814829</v>
+      </c>
+      <c r="CG173" s="24"/>
+      <c r="CH173" s="24"/>
+      <c r="CI173" s="24"/>
+      <c r="CJ173" s="24"/>
       <c r="CK173" s="8"/>
       <c r="CL173" s="8"/>
       <c r="CM173" s="8"/>
@@ -41596,17 +41850,19 @@
       <c r="CC174" s="16">
         <v>0.15697284041679893</v>
       </c>
-      <c r="CD174" s="29">
+      <c r="CD174" s="28">
         <v>-1.0460466616600144</v>
       </c>
-      <c r="CE174" s="29">
-        <v>15.319914708566102</v>
-      </c>
-      <c r="CF174" s="25"/>
-      <c r="CG174" s="25"/>
-      <c r="CH174" s="25"/>
-      <c r="CI174" s="25"/>
-      <c r="CJ174" s="8"/>
+      <c r="CE174" s="28">
+        <v>16.783977423330327</v>
+      </c>
+      <c r="CF174" s="28">
+        <v>-16.979010409724964</v>
+      </c>
+      <c r="CG174" s="24"/>
+      <c r="CH174" s="24"/>
+      <c r="CI174" s="24"/>
+      <c r="CJ174" s="24"/>
       <c r="CK174" s="8"/>
       <c r="CL174" s="8"/>
       <c r="CM174" s="8"/>
@@ -41915,17 +42171,19 @@
       <c r="CC175" s="16">
         <v>-6.7432145653681346</v>
       </c>
-      <c r="CD175" s="29">
+      <c r="CD175" s="28">
         <v>10.409075273399111</v>
       </c>
-      <c r="CE175" s="29">
-        <v>15.659400490678308</v>
-      </c>
-      <c r="CF175" s="25"/>
-      <c r="CG175" s="25"/>
-      <c r="CH175" s="25"/>
-      <c r="CI175" s="25"/>
-      <c r="CJ175" s="8"/>
+      <c r="CE175" s="28">
+        <v>18.984905185830343</v>
+      </c>
+      <c r="CF175" s="28">
+        <v>-26.073801344216648</v>
+      </c>
+      <c r="CG175" s="24"/>
+      <c r="CH175" s="24"/>
+      <c r="CI175" s="24"/>
+      <c r="CJ175" s="24"/>
       <c r="CK175" s="8"/>
       <c r="CL175" s="8"/>
       <c r="CM175" s="8"/>
@@ -42234,17 +42492,19 @@
       <c r="CC176" s="16">
         <v>-31.236273837837516</v>
       </c>
-      <c r="CD176" s="29">
+      <c r="CD176" s="28">
         <v>91.207809262848485</v>
       </c>
-      <c r="CE176" s="29">
-        <v>-58.218880254218583</v>
-      </c>
-      <c r="CF176" s="25"/>
-      <c r="CG176" s="25"/>
-      <c r="CH176" s="25"/>
-      <c r="CI176" s="25"/>
-      <c r="CJ176" s="8"/>
+      <c r="CE176" s="28">
+        <v>-58.137817815150804</v>
+      </c>
+      <c r="CF176" s="28">
+        <v>39.320490098151851</v>
+      </c>
+      <c r="CG176" s="24"/>
+      <c r="CH176" s="24"/>
+      <c r="CI176" s="24"/>
+      <c r="CJ176" s="24"/>
       <c r="CK176" s="8"/>
       <c r="CL176" s="8"/>
       <c r="CM176" s="8"/>
@@ -42553,17 +42813,19 @@
       <c r="CC177" s="16">
         <v>-14.652236273534129</v>
       </c>
-      <c r="CD177" s="29">
+      <c r="CD177" s="28">
         <v>0.93532046181903183</v>
       </c>
-      <c r="CE177" s="29">
-        <v>-2.7728741084725073</v>
-      </c>
-      <c r="CF177" s="25"/>
-      <c r="CG177" s="25"/>
-      <c r="CH177" s="25"/>
-      <c r="CI177" s="25"/>
-      <c r="CJ177" s="8"/>
+      <c r="CE177" s="28">
+        <v>-1.9627310422934983</v>
+      </c>
+      <c r="CF177" s="28">
+        <v>-1.3181394747780928</v>
+      </c>
+      <c r="CG177" s="24"/>
+      <c r="CH177" s="24"/>
+      <c r="CI177" s="24"/>
+      <c r="CJ177" s="24"/>
       <c r="CK177" s="8"/>
       <c r="CL177" s="8"/>
       <c r="CM177" s="8"/>
@@ -42872,17 +43134,19 @@
       <c r="CC178" s="16">
         <v>-10.700623386476366</v>
       </c>
-      <c r="CD178" s="29">
+      <c r="CD178" s="28">
         <v>-11.183601033678798</v>
       </c>
-      <c r="CE178" s="29">
-        <v>8.9087145653517865</v>
-      </c>
-      <c r="CF178" s="25"/>
-      <c r="CG178" s="25"/>
-      <c r="CH178" s="25"/>
-      <c r="CI178" s="25"/>
-      <c r="CJ178" s="8"/>
+      <c r="CE178" s="28">
+        <v>10.612017315555832</v>
+      </c>
+      <c r="CF178" s="28">
+        <v>4.6116535932296756</v>
+      </c>
+      <c r="CG178" s="24"/>
+      <c r="CH178" s="24"/>
+      <c r="CI178" s="24"/>
+      <c r="CJ178" s="24"/>
       <c r="CK178" s="8"/>
       <c r="CL178" s="8"/>
       <c r="CM178" s="8"/>
@@ -43191,17 +43455,19 @@
       <c r="CC179" s="16">
         <v>-2.6938070437292794</v>
       </c>
-      <c r="CD179" s="29">
+      <c r="CD179" s="28">
         <v>-7.8232463473934644</v>
       </c>
-      <c r="CE179" s="29">
-        <v>4.2735443241080873</v>
-      </c>
-      <c r="CF179" s="25"/>
-      <c r="CG179" s="25"/>
-      <c r="CH179" s="25"/>
-      <c r="CI179" s="25"/>
-      <c r="CJ179" s="8"/>
+      <c r="CE179" s="28">
+        <v>5.2886325528137377</v>
+      </c>
+      <c r="CF179" s="28">
+        <v>5.1573082925735036</v>
+      </c>
+      <c r="CG179" s="24"/>
+      <c r="CH179" s="24"/>
+      <c r="CI179" s="24"/>
+      <c r="CJ179" s="24"/>
       <c r="CK179" s="8"/>
       <c r="CL179" s="8"/>
       <c r="CM179" s="8"/>
@@ -43510,17 +43776,19 @@
       <c r="CC180" s="16">
         <v>-23.901324132279456</v>
       </c>
-      <c r="CD180" s="29">
+      <c r="CD180" s="28">
         <v>2.5338715104817595</v>
       </c>
-      <c r="CE180" s="29">
-        <v>76.289606406447433</v>
-      </c>
-      <c r="CF180" s="25"/>
-      <c r="CG180" s="25"/>
-      <c r="CH180" s="25"/>
-      <c r="CI180" s="25"/>
-      <c r="CJ180" s="8"/>
+      <c r="CE180" s="28">
+        <v>77.549760275423012</v>
+      </c>
+      <c r="CF180" s="28">
+        <v>31.479711000954381</v>
+      </c>
+      <c r="CG180" s="24"/>
+      <c r="CH180" s="24"/>
+      <c r="CI180" s="24"/>
+      <c r="CJ180" s="24"/>
       <c r="CK180" s="8"/>
       <c r="CL180" s="8"/>
       <c r="CM180" s="8"/>
@@ -43829,17 +44097,19 @@
       <c r="CC181" s="16">
         <v>-23.152004499125709</v>
       </c>
-      <c r="CD181" s="29">
+      <c r="CD181" s="28">
         <v>-10.212169241710072</v>
       </c>
-      <c r="CE181" s="29">
-        <v>12.836743386121086</v>
-      </c>
-      <c r="CF181" s="25"/>
-      <c r="CG181" s="25"/>
-      <c r="CH181" s="25"/>
-      <c r="CI181" s="25"/>
-      <c r="CJ181" s="8"/>
+      <c r="CE181" s="28">
+        <v>13.877805226392084</v>
+      </c>
+      <c r="CF181" s="28">
+        <v>-23.710523955467437</v>
+      </c>
+      <c r="CG181" s="24"/>
+      <c r="CH181" s="24"/>
+      <c r="CI181" s="24"/>
+      <c r="CJ181" s="24"/>
       <c r="CK181" s="8"/>
       <c r="CL181" s="8"/>
       <c r="CM181" s="8"/>
@@ -44148,17 +44418,19 @@
       <c r="CC182" s="16">
         <v>-20.953638716873328</v>
       </c>
-      <c r="CD182" s="29">
+      <c r="CD182" s="28">
         <v>-0.24062995847764057</v>
       </c>
-      <c r="CE182" s="29">
-        <v>44.306032141052896</v>
-      </c>
-      <c r="CF182" s="25"/>
-      <c r="CG182" s="25"/>
-      <c r="CH182" s="25"/>
-      <c r="CI182" s="25"/>
-      <c r="CJ182" s="8"/>
+      <c r="CE182" s="28">
+        <v>46.995150947542868</v>
+      </c>
+      <c r="CF182" s="28">
+        <v>14.550464554661716</v>
+      </c>
+      <c r="CG182" s="24"/>
+      <c r="CH182" s="24"/>
+      <c r="CI182" s="24"/>
+      <c r="CJ182" s="24"/>
       <c r="CK182" s="8"/>
       <c r="CL182" s="8"/>
       <c r="CM182" s="8"/>
@@ -44304,13 +44576,13 @@
       <c r="CA183" s="16"/>
       <c r="CB183" s="16"/>
       <c r="CC183" s="16"/>
-      <c r="CD183" s="29"/>
-      <c r="CE183" s="29"/>
-      <c r="CF183" s="25"/>
-      <c r="CG183" s="25"/>
-      <c r="CH183" s="25"/>
-      <c r="CI183" s="25"/>
-      <c r="CJ183" s="8"/>
+      <c r="CD183" s="28"/>
+      <c r="CE183" s="28"/>
+      <c r="CF183" s="28"/>
+      <c r="CG183" s="24"/>
+      <c r="CH183" s="24"/>
+      <c r="CI183" s="24"/>
+      <c r="CJ183" s="24"/>
       <c r="CK183" s="8"/>
       <c r="CL183" s="8"/>
       <c r="CM183" s="8"/>
@@ -44619,17 +44891,19 @@
       <c r="CC184" s="16">
         <v>-13.334442110217665</v>
       </c>
-      <c r="CD184" s="29">
+      <c r="CD184" s="28">
         <v>-0.49742887385122003</v>
       </c>
-      <c r="CE184" s="29">
-        <v>46.411711032126533</v>
-      </c>
-      <c r="CF184" s="25"/>
-      <c r="CG184" s="25"/>
-      <c r="CH184" s="25"/>
-      <c r="CI184" s="25"/>
-      <c r="CJ184" s="8"/>
+      <c r="CE184" s="28">
+        <v>48.323717180614409</v>
+      </c>
+      <c r="CF184" s="28">
+        <v>16.32554754914473</v>
+      </c>
+      <c r="CG184" s="24"/>
+      <c r="CH184" s="24"/>
+      <c r="CI184" s="24"/>
+      <c r="CJ184" s="24"/>
       <c r="CK184" s="8"/>
       <c r="CL184" s="8"/>
       <c r="CM184" s="8"/>
@@ -44776,12 +45050,13 @@
       <c r="CA185" s="11"/>
       <c r="CB185" s="11"/>
       <c r="CC185" s="11"/>
-      <c r="CD185" s="26"/>
-      <c r="CE185" s="26"/>
-      <c r="CF185" s="26"/>
-      <c r="CG185" s="26"/>
-      <c r="CH185" s="26"/>
-      <c r="CI185" s="26"/>
+      <c r="CD185" s="25"/>
+      <c r="CE185" s="25"/>
+      <c r="CF185" s="25"/>
+      <c r="CG185" s="25"/>
+      <c r="CH185" s="25"/>
+      <c r="CI185" s="25"/>
+      <c r="CJ185" s="25"/>
     </row>
     <row r="186" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -44872,13 +45147,13 @@
       <c r="CA187" s="8"/>
       <c r="CB187" s="8"/>
       <c r="CC187" s="8"/>
-      <c r="CD187" s="25"/>
-      <c r="CE187" s="25"/>
-      <c r="CF187" s="25"/>
-      <c r="CG187" s="25"/>
-      <c r="CH187" s="25"/>
-      <c r="CI187" s="25"/>
-      <c r="CJ187" s="8"/>
+      <c r="CD187" s="24"/>
+      <c r="CE187" s="24"/>
+      <c r="CF187" s="24"/>
+      <c r="CG187" s="24"/>
+      <c r="CH187" s="24"/>
+      <c r="CI187" s="24"/>
+      <c r="CJ187" s="24"/>
       <c r="CK187" s="8"/>
       <c r="CL187" s="8"/>
       <c r="CM187" s="8"/>
@@ -45024,13 +45299,13 @@
       <c r="CA188" s="8"/>
       <c r="CB188" s="8"/>
       <c r="CC188" s="8"/>
-      <c r="CD188" s="25"/>
-      <c r="CE188" s="25"/>
-      <c r="CF188" s="25"/>
-      <c r="CG188" s="25"/>
-      <c r="CH188" s="25"/>
-      <c r="CI188" s="25"/>
-      <c r="CJ188" s="8"/>
+      <c r="CD188" s="24"/>
+      <c r="CE188" s="24"/>
+      <c r="CF188" s="24"/>
+      <c r="CG188" s="24"/>
+      <c r="CH188" s="24"/>
+      <c r="CI188" s="24"/>
+      <c r="CJ188" s="24"/>
       <c r="CK188" s="8"/>
       <c r="CL188" s="8"/>
       <c r="CM188" s="8"/>
@@ -45254,6 +45529,7 @@
       <c r="CI196" s="30">
         <v>0</v>
       </c>
+      <c r="CJ196" s="30"/>
     </row>
     <row r="197" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
@@ -45499,23 +45775,26 @@
       <c r="CC197" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="CD197" s="28" t="s">
+      <c r="CD197" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CE197" s="28" t="s">
+      <c r="CE197" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF197" s="28" t="s">
+      <c r="CF197" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CG197" s="28" t="s">
+      <c r="CG197" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CH197" s="28" t="s">
+      <c r="CH197" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CI197" s="28" t="s">
+      <c r="CI197" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ197" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -45765,25 +46044,27 @@
       <c r="CC199" s="16">
         <v>136.33245009428069</v>
       </c>
-      <c r="CD199" s="29">
+      <c r="CD199" s="28">
         <v>101.25696052269242</v>
       </c>
-      <c r="CE199" s="29">
+      <c r="CE199" s="28">
         <v>100.44696530326038</v>
       </c>
-      <c r="CF199" s="29">
+      <c r="CF199" s="28">
         <v>72.845342264072016</v>
       </c>
-      <c r="CG199" s="29">
+      <c r="CG199" s="28">
         <v>127.80770262575822</v>
       </c>
-      <c r="CH199" s="29">
+      <c r="CH199" s="28">
         <v>95.641672893933247</v>
       </c>
-      <c r="CI199" s="29">
-        <v>92.371467762472349</v>
-      </c>
-      <c r="CJ199" s="8"/>
+      <c r="CI199" s="28">
+        <v>92.297209395315889</v>
+      </c>
+      <c r="CJ199" s="28">
+        <v>74.412645376106155</v>
+      </c>
       <c r="CK199" s="8"/>
       <c r="CL199" s="8"/>
       <c r="CM199" s="8"/>
@@ -46096,25 +46377,27 @@
       <c r="CC200" s="16">
         <v>132.28787920078767</v>
       </c>
-      <c r="CD200" s="29">
+      <c r="CD200" s="28">
         <v>90.561112289177714</v>
       </c>
-      <c r="CE200" s="29">
+      <c r="CE200" s="28">
         <v>118.11145808937921</v>
       </c>
-      <c r="CF200" s="29">
+      <c r="CF200" s="28">
         <v>71.336766151555395</v>
       </c>
-      <c r="CG200" s="29">
+      <c r="CG200" s="28">
         <v>128.55776100120511</v>
       </c>
-      <c r="CH200" s="29">
+      <c r="CH200" s="28">
         <v>87.823377437892518</v>
       </c>
-      <c r="CI200" s="29">
+      <c r="CI200" s="28">
         <v>113.22020900049368</v>
       </c>
-      <c r="CJ200" s="8"/>
+      <c r="CJ200" s="28">
+        <v>72.632385830205067</v>
+      </c>
       <c r="CK200" s="8"/>
       <c r="CL200" s="8"/>
       <c r="CM200" s="8"/>
@@ -46427,25 +46710,27 @@
       <c r="CC201" s="16">
         <v>123.62698454035265</v>
       </c>
-      <c r="CD201" s="29">
+      <c r="CD201" s="28">
         <v>116.44440555529188</v>
       </c>
-      <c r="CE201" s="29">
+      <c r="CE201" s="28">
         <v>86.774083195129421</v>
       </c>
-      <c r="CF201" s="29">
+      <c r="CF201" s="28">
         <v>75.181562729133731</v>
       </c>
-      <c r="CG201" s="29">
+      <c r="CG201" s="28">
         <v>112.04147098762375</v>
       </c>
-      <c r="CH201" s="29">
+      <c r="CH201" s="28">
         <v>101.39600613753584</v>
       </c>
-      <c r="CI201" s="29">
+      <c r="CI201" s="28">
         <v>78.918783998873295</v>
       </c>
-      <c r="CJ201" s="8"/>
+      <c r="CJ201" s="28">
+        <v>75.485065206815875</v>
+      </c>
       <c r="CK201" s="8"/>
       <c r="CL201" s="8"/>
       <c r="CM201" s="8"/>
@@ -46758,25 +47043,27 @@
       <c r="CC202" s="16">
         <v>224.28919662356574</v>
       </c>
-      <c r="CD202" s="29">
+      <c r="CD202" s="28">
         <v>127.77978326939696</v>
       </c>
-      <c r="CE202" s="29">
+      <c r="CE202" s="28">
         <v>52.106877390831244</v>
       </c>
-      <c r="CF202" s="29">
+      <c r="CF202" s="28">
         <v>123.2850968143305</v>
       </c>
-      <c r="CG202" s="29">
+      <c r="CG202" s="28">
         <v>210.52301012041426</v>
       </c>
-      <c r="CH202" s="29">
+      <c r="CH202" s="28">
         <v>119.83162329250534</v>
       </c>
-      <c r="CI202" s="29">
+      <c r="CI202" s="28">
         <v>50.515098271621248</v>
       </c>
-      <c r="CJ202" s="8"/>
+      <c r="CJ202" s="28">
+        <v>131.48836932720153</v>
+      </c>
       <c r="CK202" s="8"/>
       <c r="CL202" s="8"/>
       <c r="CM202" s="8"/>
@@ -47089,25 +47376,27 @@
       <c r="CC203" s="16">
         <v>146.18447174121988</v>
       </c>
-      <c r="CD203" s="29">
+      <c r="CD203" s="28">
         <v>99.192150029074625</v>
       </c>
-      <c r="CE203" s="29">
+      <c r="CE203" s="28">
         <v>74.964539260129953</v>
       </c>
-      <c r="CF203" s="29">
+      <c r="CF203" s="28">
         <v>93.089590952790559</v>
       </c>
-      <c r="CG203" s="29">
+      <c r="CG203" s="28">
         <v>138.44682700197816</v>
       </c>
-      <c r="CH203" s="29">
+      <c r="CH203" s="28">
         <v>94.114746930307177</v>
       </c>
-      <c r="CI203" s="29">
+      <c r="CI203" s="28">
         <v>73.197286653227636</v>
       </c>
-      <c r="CJ203" s="8"/>
+      <c r="CJ203" s="28">
+        <v>97.372561855620091</v>
+      </c>
       <c r="CK203" s="8"/>
       <c r="CL203" s="8"/>
       <c r="CM203" s="8"/>
@@ -47420,25 +47709,27 @@
       <c r="CC204" s="16">
         <v>129.35624093579767</v>
       </c>
-      <c r="CD204" s="29">
+      <c r="CD204" s="28">
         <v>150.43972806357701</v>
       </c>
-      <c r="CE204" s="29">
+      <c r="CE204" s="28">
         <v>99.780820210877224</v>
       </c>
-      <c r="CF204" s="29">
+      <c r="CF204" s="28">
         <v>62.628077957210316</v>
       </c>
-      <c r="CG204" s="29">
+      <c r="CG204" s="28">
         <v>122.93472381758886</v>
       </c>
-      <c r="CH204" s="29">
+      <c r="CH204" s="28">
         <v>141.80286343860965</v>
       </c>
-      <c r="CI204" s="29">
+      <c r="CI204" s="28">
         <v>94.386728971176964</v>
       </c>
-      <c r="CJ204" s="8"/>
+      <c r="CJ204" s="28">
+        <v>64.068024289105367</v>
+      </c>
       <c r="CK204" s="8"/>
       <c r="CL204" s="8"/>
       <c r="CM204" s="8"/>
@@ -47751,25 +48042,27 @@
       <c r="CC205" s="16">
         <v>175.45130067731142</v>
       </c>
-      <c r="CD205" s="29">
+      <c r="CD205" s="28">
         <v>94.084569350935226</v>
       </c>
-      <c r="CE205" s="29">
+      <c r="CE205" s="28">
         <v>93.024703879751257</v>
       </c>
-      <c r="CF205" s="29">
+      <c r="CF205" s="28">
         <v>59.585670887123079</v>
       </c>
-      <c r="CG205" s="29">
+      <c r="CG205" s="28">
         <v>166.74152739879952</v>
       </c>
-      <c r="CH205" s="29">
+      <c r="CH205" s="28">
         <v>88.683099278887667</v>
       </c>
-      <c r="CI205" s="29">
+      <c r="CI205" s="28">
         <v>87.995844233047578</v>
       </c>
-      <c r="CJ205" s="8"/>
+      <c r="CJ205" s="28">
+        <v>60.955666119709321</v>
+      </c>
       <c r="CK205" s="8"/>
       <c r="CL205" s="8"/>
       <c r="CM205" s="8"/>
@@ -48082,25 +48375,27 @@
       <c r="CC206" s="16">
         <v>182.03198975455743</v>
       </c>
-      <c r="CD206" s="29">
+      <c r="CD206" s="28">
         <v>164.73426574522568</v>
       </c>
-      <c r="CE206" s="29">
+      <c r="CE206" s="28">
         <v>57.568910628149219</v>
       </c>
-      <c r="CF206" s="29">
+      <c r="CF206" s="28">
         <v>107.68747620320698</v>
       </c>
-      <c r="CG206" s="29">
+      <c r="CG206" s="28">
         <v>173.51165540178735</v>
       </c>
-      <c r="CH206" s="29">
+      <c r="CH206" s="28">
         <v>158.13258489477823</v>
       </c>
-      <c r="CI206" s="29">
+      <c r="CI206" s="28">
         <v>55.505744211232823</v>
       </c>
-      <c r="CJ206" s="8"/>
+      <c r="CJ206" s="28">
+        <v>111.89626249213272</v>
+      </c>
       <c r="CK206" s="8"/>
       <c r="CL206" s="8"/>
       <c r="CM206" s="8"/>
@@ -48413,25 +48708,27 @@
       <c r="CC207" s="16">
         <v>168.10977903599073</v>
       </c>
-      <c r="CD207" s="29">
+      <c r="CD207" s="28">
         <v>94.621119780004605</v>
       </c>
-      <c r="CE207" s="29">
+      <c r="CE207" s="28">
         <v>92.977363890112883</v>
       </c>
-      <c r="CF207" s="29">
+      <c r="CF207" s="28">
         <v>74.447537014907184</v>
       </c>
-      <c r="CG207" s="29">
+      <c r="CG207" s="28">
         <v>158.44233303806976</v>
       </c>
-      <c r="CH207" s="29">
+      <c r="CH207" s="28">
         <v>88.638791681163383</v>
       </c>
-      <c r="CI207" s="29">
+      <c r="CI207" s="28">
         <v>89.099679320528566</v>
       </c>
-      <c r="CJ207" s="8"/>
+      <c r="CJ207" s="28">
+        <v>76.327107910190236</v>
+      </c>
       <c r="CK207" s="8"/>
       <c r="CL207" s="8"/>
       <c r="CM207" s="8"/>
@@ -48744,25 +49041,27 @@
       <c r="CC208" s="16">
         <v>128.20959279649907</v>
       </c>
-      <c r="CD208" s="29">
+      <c r="CD208" s="28">
         <v>124.06034969968719</v>
       </c>
-      <c r="CE208" s="29">
+      <c r="CE208" s="28">
         <v>73.486462814836855</v>
       </c>
-      <c r="CF208" s="29">
+      <c r="CF208" s="28">
         <v>87.540101593007535</v>
       </c>
-      <c r="CG208" s="29">
+      <c r="CG208" s="28">
         <v>121.8810587586882</v>
       </c>
-      <c r="CH208" s="29">
+      <c r="CH208" s="28">
         <v>118.50471869920823</v>
       </c>
-      <c r="CI208" s="29">
+      <c r="CI208" s="28">
         <v>70.868065310649826</v>
       </c>
-      <c r="CJ208" s="8"/>
+      <c r="CJ208" s="28">
+        <v>91.182112322347976</v>
+      </c>
       <c r="CK208" s="8"/>
       <c r="CL208" s="8"/>
       <c r="CM208" s="8"/>
@@ -49075,25 +49374,27 @@
       <c r="CC209" s="16">
         <v>62.20425595619021</v>
       </c>
-      <c r="CD209" s="29">
+      <c r="CD209" s="28">
         <v>117.34496155658078</v>
       </c>
-      <c r="CE209" s="29">
+      <c r="CE209" s="28">
         <v>43.030045754847016</v>
       </c>
-      <c r="CF209" s="29">
+      <c r="CF209" s="28">
         <v>125.50701068371362</v>
       </c>
-      <c r="CG209" s="29">
+      <c r="CG209" s="28">
         <v>42.019699267649756</v>
       </c>
-      <c r="CH209" s="29">
+      <c r="CH209" s="28">
         <v>130.97280172368988</v>
       </c>
-      <c r="CI209" s="29">
+      <c r="CI209" s="28">
         <v>86.319474228872579</v>
       </c>
-      <c r="CJ209" s="8"/>
+      <c r="CJ209" s="28">
+        <v>210.82617432150843</v>
+      </c>
       <c r="CK209" s="8"/>
       <c r="CL209" s="8"/>
       <c r="CM209" s="8"/>
@@ -49406,25 +49707,27 @@
       <c r="CC210" s="16">
         <v>93.806552788963984</v>
       </c>
-      <c r="CD210" s="29">
+      <c r="CD210" s="28">
         <v>102.31444655619366</v>
       </c>
-      <c r="CE210" s="29">
+      <c r="CE210" s="28">
         <v>103.20955710715552</v>
       </c>
-      <c r="CF210" s="29">
+      <c r="CF210" s="28">
         <v>92.300217913860649</v>
       </c>
-      <c r="CG210" s="29">
+      <c r="CG210" s="28">
         <v>88.829669620478228</v>
       </c>
-      <c r="CH210" s="29">
+      <c r="CH210" s="28">
         <v>97.4781800384511</v>
       </c>
-      <c r="CI210" s="29">
+      <c r="CI210" s="28">
         <v>99.895771164934857</v>
       </c>
-      <c r="CJ210" s="8"/>
+      <c r="CJ210" s="28">
+        <v>96.679802355880682</v>
+      </c>
       <c r="CK210" s="8"/>
       <c r="CL210" s="8"/>
       <c r="CM210" s="8"/>
@@ -49737,25 +50040,27 @@
       <c r="CC211" s="16">
         <v>87.642118689062045</v>
       </c>
-      <c r="CD211" s="29">
+      <c r="CD211" s="28">
         <v>91.616670258214398</v>
       </c>
-      <c r="CE211" s="29">
+      <c r="CE211" s="28">
         <v>100.1153381046643</v>
       </c>
-      <c r="CF211" s="29">
+      <c r="CF211" s="28">
         <v>110.4624058892624</v>
       </c>
-      <c r="CG211" s="29">
+      <c r="CG211" s="28">
         <v>85.170875942205029</v>
       </c>
-      <c r="CH211" s="29">
+      <c r="CH211" s="28">
         <v>87.641030441738138</v>
       </c>
-      <c r="CI211" s="29">
+      <c r="CI211" s="28">
         <v>96.58166464042786</v>
       </c>
-      <c r="CJ211" s="8"/>
+      <c r="CJ211" s="28">
+        <v>115.5188787456608</v>
+      </c>
       <c r="CK211" s="8"/>
       <c r="CL211" s="8"/>
       <c r="CM211" s="8"/>
@@ -50068,25 +50373,27 @@
       <c r="CC212" s="16">
         <v>108.39199325509972</v>
       </c>
-      <c r="CD212" s="29">
+      <c r="CD212" s="28">
         <v>114.56644186982128</v>
       </c>
-      <c r="CE212" s="29">
+      <c r="CE212" s="28">
         <v>74.591654581274781</v>
       </c>
-      <c r="CF212" s="29">
+      <c r="CF212" s="28">
         <v>110.59862751888218</v>
       </c>
-      <c r="CG212" s="29">
+      <c r="CG212" s="28">
         <v>119.32346402450236</v>
       </c>
-      <c r="CH212" s="29">
+      <c r="CH212" s="28">
         <v>125.86648627067578</v>
       </c>
-      <c r="CI212" s="29">
-        <v>114.65167612824078</v>
-      </c>
-      <c r="CJ212" s="8"/>
+      <c r="CI212" s="28">
+        <v>114.63531474039243</v>
+      </c>
+      <c r="CJ212" s="28">
+        <v>150.08295600796816</v>
+      </c>
       <c r="CK212" s="8"/>
       <c r="CL212" s="8"/>
       <c r="CM212" s="8"/>
@@ -50399,25 +50706,27 @@
       <c r="CC213" s="16">
         <v>117.26047099389076</v>
       </c>
-      <c r="CD213" s="29">
+      <c r="CD213" s="28">
         <v>102.42959352860947</v>
       </c>
-      <c r="CE213" s="29">
+      <c r="CE213" s="28">
         <v>77.433264687275198</v>
       </c>
-      <c r="CF213" s="29">
+      <c r="CF213" s="28">
         <v>108.06500357293937</v>
       </c>
-      <c r="CG213" s="29">
+      <c r="CG213" s="28">
         <v>112.60478503900235</v>
       </c>
-      <c r="CH213" s="29">
+      <c r="CH213" s="28">
         <v>100.22619929396271</v>
       </c>
-      <c r="CI213" s="29">
+      <c r="CI213" s="28">
         <v>76.026374135624351</v>
       </c>
-      <c r="CJ213" s="8"/>
+      <c r="CJ213" s="28">
+        <v>114.21870025443638</v>
+      </c>
       <c r="CK213" s="8"/>
       <c r="CL213" s="8"/>
       <c r="CM213" s="8"/>
@@ -50730,25 +51039,27 @@
       <c r="CC214" s="16">
         <v>79.797001440850707</v>
       </c>
-      <c r="CD214" s="29">
+      <c r="CD214" s="28">
         <v>54.472919432489064</v>
       </c>
-      <c r="CE214" s="29">
+      <c r="CE214" s="28">
         <v>149.35374383668653</v>
       </c>
-      <c r="CF214" s="29">
+      <c r="CF214" s="28">
         <v>130.22952989352692</v>
       </c>
-      <c r="CG214" s="29">
+      <c r="CG214" s="28">
         <v>75.454525886269025</v>
       </c>
-      <c r="CH214" s="29">
+      <c r="CH214" s="28">
         <v>52.295745813699455</v>
       </c>
-      <c r="CI214" s="29">
+      <c r="CI214" s="28">
         <v>148.9275229203094</v>
       </c>
-      <c r="CJ214" s="8"/>
+      <c r="CJ214" s="28">
+        <v>143.38372056892709</v>
+      </c>
       <c r="CK214" s="8"/>
       <c r="CL214" s="8"/>
       <c r="CM214" s="8"/>
@@ -51061,25 +51372,27 @@
       <c r="CC215" s="16">
         <v>107.88877887620237</v>
       </c>
-      <c r="CD215" s="29">
+      <c r="CD215" s="28">
         <v>107.17071524039616</v>
       </c>
-      <c r="CE215" s="29">
+      <c r="CE215" s="28">
         <v>105.82509012222697</v>
       </c>
-      <c r="CF215" s="29">
+      <c r="CF215" s="28">
         <v>79.225692968348511</v>
       </c>
-      <c r="CG215" s="29">
+      <c r="CG215" s="28">
         <v>105.07812160370736</v>
       </c>
-      <c r="CH215" s="29">
+      <c r="CH215" s="28">
         <v>102.52011877722948</v>
       </c>
-      <c r="CI215" s="29">
+      <c r="CI215" s="28">
         <v>102.08988510874141</v>
       </c>
-      <c r="CJ215" s="8"/>
+      <c r="CJ215" s="28">
+        <v>82.852289390894384</v>
+      </c>
       <c r="CK215" s="8"/>
       <c r="CL215" s="8"/>
       <c r="CM215" s="8"/>
@@ -51392,25 +51705,27 @@
       <c r="CC216" s="16">
         <v>93.424496518382284</v>
       </c>
-      <c r="CD216" s="29">
+      <c r="CD216" s="28">
         <v>107.20387172707278</v>
       </c>
-      <c r="CE216" s="29">
+      <c r="CE216" s="28">
         <v>85.838350428140217</v>
       </c>
-      <c r="CF216" s="29">
+      <c r="CF216" s="28">
         <v>84.877677352757118</v>
       </c>
-      <c r="CG216" s="29">
+      <c r="CG216" s="28">
         <v>88.255104475084281</v>
       </c>
-      <c r="CH216" s="29">
+      <c r="CH216" s="28">
         <v>107.3636686417484</v>
       </c>
-      <c r="CI216" s="29">
-        <v>102.46162779539327</v>
-      </c>
-      <c r="CJ216" s="8"/>
+      <c r="CI216" s="28">
+        <v>102.45969274062526</v>
+      </c>
+      <c r="CJ216" s="28">
+        <v>98.013071220532069</v>
+      </c>
       <c r="CK216" s="8"/>
       <c r="CL216" s="8"/>
       <c r="CM216" s="8"/>
@@ -51723,25 +52038,27 @@
       <c r="CC217" s="16">
         <v>102.82020591582177</v>
       </c>
-      <c r="CD217" s="29">
+      <c r="CD217" s="28">
         <v>172.51656483235419</v>
       </c>
-      <c r="CE217" s="29">
+      <c r="CE217" s="28">
         <v>160.5496982013768</v>
       </c>
-      <c r="CF217" s="29">
+      <c r="CF217" s="28">
         <v>85.244950435821437</v>
       </c>
-      <c r="CG217" s="29">
+      <c r="CG217" s="28">
         <v>140.74513785098489</v>
       </c>
-      <c r="CH217" s="29">
+      <c r="CH217" s="28">
         <v>213.66486503395464</v>
       </c>
-      <c r="CI217" s="29">
+      <c r="CI217" s="28">
         <v>201.45607055048811</v>
       </c>
-      <c r="CJ217" s="8"/>
+      <c r="CJ217" s="28">
+        <v>90.821826629103114</v>
+      </c>
       <c r="CK217" s="8"/>
       <c r="CL217" s="8"/>
       <c r="CM217" s="8"/>
@@ -52054,25 +52371,27 @@
       <c r="CC218" s="16">
         <v>106.84406437466779</v>
       </c>
-      <c r="CD218" s="29">
+      <c r="CD218" s="28">
         <v>107.01722090241921</v>
       </c>
-      <c r="CE218" s="29">
+      <c r="CE218" s="28">
         <v>101.75051653602839</v>
       </c>
-      <c r="CF218" s="29">
+      <c r="CF218" s="28">
         <v>102.09695639072388</v>
       </c>
-      <c r="CG218" s="29">
+      <c r="CG218" s="28">
         <v>106.13817810181115</v>
       </c>
-      <c r="CH218" s="29">
+      <c r="CH218" s="28">
         <v>103.41914633759023</v>
       </c>
-      <c r="CI218" s="29">
+      <c r="CI218" s="28">
         <v>111.81250221753677</v>
       </c>
-      <c r="CJ218" s="8"/>
+      <c r="CJ218" s="28">
+        <v>111.33532996720656</v>
+      </c>
       <c r="CK218" s="8"/>
       <c r="CL218" s="8"/>
       <c r="CM218" s="8"/>
@@ -52385,25 +52704,27 @@
       <c r="CC219" s="16">
         <v>121.03724451966349</v>
       </c>
-      <c r="CD219" s="29">
+      <c r="CD219" s="28">
         <v>138.68176573321665</v>
       </c>
-      <c r="CE219" s="29">
+      <c r="CE219" s="28">
         <v>70.110613229248088</v>
       </c>
-      <c r="CF219" s="29">
+      <c r="CF219" s="28">
         <v>86.897879810474279</v>
       </c>
-      <c r="CG219" s="29">
+      <c r="CG219" s="28">
         <v>115.94327444805914</v>
       </c>
-      <c r="CH219" s="29">
+      <c r="CH219" s="28">
         <v>131.78440584433707</v>
       </c>
-      <c r="CI219" s="29">
+      <c r="CI219" s="28">
         <v>68.667386026696747</v>
       </c>
-      <c r="CJ219" s="8"/>
+      <c r="CJ219" s="28">
+        <v>88.138082755720873</v>
+      </c>
       <c r="CK219" s="8"/>
       <c r="CL219" s="8"/>
       <c r="CM219" s="8"/>
@@ -52716,25 +53037,27 @@
       <c r="CC220" s="16">
         <v>136.77124587102557</v>
       </c>
-      <c r="CD220" s="29">
+      <c r="CD220" s="28">
         <v>82.339735993760613</v>
       </c>
-      <c r="CE220" s="29">
+      <c r="CE220" s="28">
         <v>68.75905851838391</v>
       </c>
-      <c r="CF220" s="29">
+      <c r="CF220" s="28">
         <v>115.83548778321182</v>
       </c>
-      <c r="CG220" s="29">
+      <c r="CG220" s="28">
         <v>134.14318775636937</v>
       </c>
-      <c r="CH220" s="29">
+      <c r="CH220" s="28">
         <v>86.981352064644526</v>
       </c>
-      <c r="CI220" s="29">
+      <c r="CI220" s="28">
         <v>78.705035335930162</v>
       </c>
-      <c r="CJ220" s="8"/>
+      <c r="CJ220" s="28">
+        <v>134.89276258307382</v>
+      </c>
       <c r="CK220" s="8"/>
       <c r="CL220" s="8"/>
       <c r="CM220" s="8"/>
@@ -53047,25 +53370,27 @@
       <c r="CC221" s="16">
         <v>141.90760745844361</v>
       </c>
-      <c r="CD221" s="29">
+      <c r="CD221" s="28">
         <v>110.00295314744346</v>
       </c>
-      <c r="CE221" s="29">
+      <c r="CE221" s="28">
         <v>97.847665399387068</v>
       </c>
-      <c r="CF221" s="29">
+      <c r="CF221" s="28">
         <v>65.048115288004112</v>
       </c>
-      <c r="CG221" s="29">
+      <c r="CG221" s="28">
         <v>146.38722487866229</v>
       </c>
-      <c r="CH221" s="29">
+      <c r="CH221" s="28">
         <v>132.79792171469381</v>
       </c>
-      <c r="CI221" s="29">
-        <v>155.70503685700234</v>
-      </c>
-      <c r="CJ221" s="8"/>
+      <c r="CI221" s="28">
+        <v>155.70503685700231</v>
+      </c>
+      <c r="CJ221" s="28">
+        <v>94.72161675837711</v>
+      </c>
       <c r="CK221" s="8"/>
       <c r="CL221" s="8"/>
       <c r="CM221" s="8"/>
@@ -53378,25 +53703,27 @@
       <c r="CC222" s="16">
         <v>118.44031580880106</v>
       </c>
-      <c r="CD222" s="29">
+      <c r="CD222" s="28">
         <v>43.964259395668421</v>
       </c>
-      <c r="CE222" s="29">
+      <c r="CE222" s="28">
         <v>69.326191001945475</v>
       </c>
-      <c r="CF222" s="29">
+      <c r="CF222" s="28">
         <v>188.01942431880397</v>
       </c>
-      <c r="CG222" s="29">
+      <c r="CG222" s="28">
         <v>134.13057937993128</v>
       </c>
-      <c r="CH222" s="29">
+      <c r="CH222" s="28">
         <v>51.51408115367029</v>
       </c>
-      <c r="CI222" s="29">
+      <c r="CI222" s="28">
         <v>116.73072630346763</v>
       </c>
-      <c r="CJ222" s="8"/>
+      <c r="CJ222" s="28">
+        <v>272.3524139672864</v>
+      </c>
       <c r="CK222" s="8"/>
       <c r="CL222" s="8"/>
       <c r="CM222" s="8"/>
@@ -53709,25 +54036,27 @@
       <c r="CC223" s="16">
         <v>64.224376302890533</v>
       </c>
-      <c r="CD223" s="29">
+      <c r="CD223" s="28">
         <v>78.182745167150784</v>
       </c>
-      <c r="CE223" s="29">
+      <c r="CE223" s="28">
         <v>159.37148760831766</v>
       </c>
-      <c r="CF223" s="29">
+      <c r="CF223" s="28">
         <v>117.86190048321092</v>
       </c>
-      <c r="CG223" s="29">
+      <c r="CG223" s="28">
         <v>72.732436966208383</v>
       </c>
-      <c r="CH223" s="29">
+      <c r="CH223" s="28">
         <v>91.608782559274488</v>
       </c>
-      <c r="CI223" s="29">
+      <c r="CI223" s="28">
         <v>268.34806920318107</v>
       </c>
-      <c r="CJ223" s="8"/>
+      <c r="CJ223" s="28">
+        <v>154.21437521100933</v>
+      </c>
       <c r="CK223" s="8"/>
       <c r="CL223" s="8"/>
       <c r="CM223" s="8"/>
@@ -54040,25 +54369,27 @@
       <c r="CC224" s="16">
         <v>90.558919112218589</v>
       </c>
-      <c r="CD224" s="29">
+      <c r="CD224" s="28">
         <v>87.57325236586891</v>
       </c>
-      <c r="CE224" s="29">
+      <c r="CE224" s="28">
         <v>85.528176545154295</v>
       </c>
-      <c r="CF224" s="29">
+      <c r="CF224" s="28">
         <v>81.876093827766056</v>
       </c>
-      <c r="CG224" s="29">
+      <c r="CG224" s="28">
         <v>90.982826172363076</v>
       </c>
-      <c r="CH224" s="29">
+      <c r="CH224" s="28">
         <v>104.13617732892098</v>
       </c>
-      <c r="CI224" s="29">
+      <c r="CI224" s="28">
         <v>141.59847331233311</v>
       </c>
-      <c r="CJ224" s="8"/>
+      <c r="CJ224" s="28">
+        <v>115.82918207481963</v>
+      </c>
       <c r="CK224" s="8"/>
       <c r="CL224" s="8"/>
       <c r="CM224" s="8"/>
@@ -54371,25 +54702,27 @@
       <c r="CC225" s="16">
         <v>139.51354496347477</v>
       </c>
-      <c r="CD225" s="29">
+      <c r="CD225" s="28">
         <v>69.151340489702847</v>
       </c>
-      <c r="CE225" s="29">
+      <c r="CE225" s="28">
         <v>70.635816517838961</v>
       </c>
-      <c r="CF225" s="29">
+      <c r="CF225" s="28">
         <v>89.131692737969843</v>
       </c>
-      <c r="CG225" s="29">
+      <c r="CG225" s="28">
         <v>143.23667067611891</v>
       </c>
-      <c r="CH225" s="29">
+      <c r="CH225" s="28">
         <v>76.076646024818402</v>
       </c>
-      <c r="CI225" s="29">
+      <c r="CI225" s="28">
         <v>82.756952718388476</v>
       </c>
-      <c r="CJ225" s="8"/>
+      <c r="CJ225" s="28">
+        <v>102.16562625346933</v>
+      </c>
       <c r="CK225" s="8"/>
       <c r="CL225" s="8"/>
       <c r="CM225" s="8"/>
@@ -54702,25 +55035,27 @@
       <c r="CC226" s="16">
         <v>108.46046024639342</v>
       </c>
-      <c r="CD226" s="29">
+      <c r="CD226" s="28">
         <v>93.729926906687055</v>
       </c>
-      <c r="CE226" s="29">
+      <c r="CE226" s="28">
         <v>67.050784236939592</v>
       </c>
-      <c r="CF226" s="29">
+      <c r="CF226" s="28">
         <v>120.57654245575151</v>
       </c>
-      <c r="CG226" s="29">
+      <c r="CG226" s="28">
         <v>102.22325234359093</v>
       </c>
-      <c r="CH226" s="29">
+      <c r="CH226" s="28">
         <v>87.803943608878953</v>
       </c>
-      <c r="CI226" s="29">
+      <c r="CI226" s="28">
         <v>64.25438540892597</v>
       </c>
-      <c r="CJ226" s="8"/>
+      <c r="CJ226" s="28">
+        <v>123.62072858924726</v>
+      </c>
       <c r="CK226" s="8"/>
       <c r="CL226" s="8"/>
       <c r="CM226" s="8"/>
@@ -55033,25 +55368,27 @@
       <c r="CC227" s="16">
         <v>109.76794456474414</v>
       </c>
-      <c r="CD227" s="29">
+      <c r="CD227" s="28">
         <v>86.657042408152648</v>
       </c>
-      <c r="CE227" s="29">
+      <c r="CE227" s="28">
         <v>96.857023087844212</v>
       </c>
-      <c r="CF227" s="29">
+      <c r="CF227" s="28">
         <v>108.30935031212528</v>
       </c>
-      <c r="CG227" s="29">
+      <c r="CG227" s="28">
         <v>104.58579926572445</v>
       </c>
-      <c r="CH227" s="29">
+      <c r="CH227" s="28">
         <v>82.209616440383186</v>
       </c>
-      <c r="CI227" s="29">
+      <c r="CI227" s="28">
         <v>93.587941286985767</v>
       </c>
-      <c r="CJ227" s="8"/>
+      <c r="CJ227" s="28">
+        <v>117.26788232267862</v>
+      </c>
       <c r="CK227" s="8"/>
       <c r="CL227" s="8"/>
       <c r="CM227" s="8"/>
@@ -55364,25 +55701,27 @@
       <c r="CC228" s="16">
         <v>92.293958006979068</v>
       </c>
-      <c r="CD228" s="29">
+      <c r="CD228" s="28">
         <v>91.495824218887265</v>
       </c>
-      <c r="CE228" s="29">
+      <c r="CE228" s="28">
         <v>99.035735323806549</v>
       </c>
-      <c r="CF228" s="29">
+      <c r="CF228" s="28">
         <v>126.33266787855865</v>
       </c>
-      <c r="CG228" s="29">
+      <c r="CG228" s="28">
         <v>100.79448659879844</v>
       </c>
-      <c r="CH228" s="29">
+      <c r="CH228" s="28">
         <v>97.429067060874104</v>
       </c>
-      <c r="CI228" s="29">
-        <v>112.19608106578983</v>
-      </c>
-      <c r="CJ228" s="8"/>
+      <c r="CI228" s="28">
+        <v>112.18658891599836</v>
+      </c>
+      <c r="CJ228" s="28">
+        <v>135.61623133244828</v>
+      </c>
       <c r="CK228" s="8"/>
       <c r="CL228" s="8"/>
       <c r="CM228" s="8"/>
@@ -55532,13 +55871,13 @@
       <c r="CA229" s="16"/>
       <c r="CB229" s="16"/>
       <c r="CC229" s="16"/>
-      <c r="CD229" s="29"/>
-      <c r="CE229" s="29"/>
-      <c r="CF229" s="29"/>
-      <c r="CG229" s="29"/>
-      <c r="CH229" s="29"/>
-      <c r="CI229" s="29"/>
-      <c r="CJ229" s="8"/>
+      <c r="CD229" s="28"/>
+      <c r="CE229" s="28"/>
+      <c r="CF229" s="28"/>
+      <c r="CG229" s="28"/>
+      <c r="CH229" s="28"/>
+      <c r="CI229" s="28"/>
+      <c r="CJ229" s="28"/>
       <c r="CK229" s="8"/>
       <c r="CL229" s="8"/>
       <c r="CM229" s="8"/>
@@ -55851,25 +56190,27 @@
       <c r="CC230" s="16">
         <v>96.590503962579675</v>
       </c>
-      <c r="CD230" s="29">
+      <c r="CD230" s="28">
         <v>100.32703749786418</v>
       </c>
-      <c r="CE230" s="29">
+      <c r="CE230" s="28">
         <v>87.285913665658938</v>
       </c>
-      <c r="CF230" s="29">
+      <c r="CF230" s="28">
         <v>97.693255912081</v>
       </c>
-      <c r="CG230" s="29">
+      <c r="CG230" s="28">
         <v>93.682006569288163</v>
       </c>
-      <c r="CH230" s="29">
+      <c r="CH230" s="28">
         <v>101.71068804695491</v>
       </c>
-      <c r="CI230" s="29">
-        <v>99.861470449752005</v>
-      </c>
-      <c r="CJ230" s="8"/>
+      <c r="CI230" s="28">
+        <v>99.866171729573125</v>
+      </c>
+      <c r="CJ230" s="28">
+        <v>113.33120152916167</v>
+      </c>
       <c r="CK230" s="8"/>
       <c r="CL230" s="8"/>
       <c r="CM230" s="8"/>
@@ -56020,12 +56361,13 @@
       <c r="CA231" s="11"/>
       <c r="CB231" s="11"/>
       <c r="CC231" s="11"/>
-      <c r="CD231" s="26"/>
-      <c r="CE231" s="26"/>
-      <c r="CF231" s="26"/>
-      <c r="CG231" s="26"/>
-      <c r="CH231" s="26"/>
-      <c r="CI231" s="26"/>
+      <c r="CD231" s="25"/>
+      <c r="CE231" s="25"/>
+      <c r="CF231" s="25"/>
+      <c r="CG231" s="25"/>
+      <c r="CH231" s="25"/>
+      <c r="CI231" s="25"/>
+      <c r="CJ231" s="25"/>
     </row>
     <row r="232" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
@@ -56199,6 +56541,7 @@
       <c r="CI243" s="30">
         <v>0</v>
       </c>
+      <c r="CJ243" s="30"/>
     </row>
     <row r="244" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
@@ -56444,23 +56787,26 @@
       <c r="CC244" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="CD244" s="28" t="s">
+      <c r="CD244" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CE244" s="28" t="s">
+      <c r="CE244" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF244" s="28" t="s">
+      <c r="CF244" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CG244" s="28" t="s">
+      <c r="CG244" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CH244" s="28" t="s">
+      <c r="CH244" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CI244" s="28" t="s">
+      <c r="CI244" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ244" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -56710,25 +57056,27 @@
       <c r="CC246" s="16">
         <v>19.364678945009537</v>
       </c>
-      <c r="CD246" s="29">
+      <c r="CD246" s="28">
         <v>17.780442203564824</v>
       </c>
-      <c r="CE246" s="29">
+      <c r="CE246" s="28">
         <v>24.377815097821774</v>
       </c>
-      <c r="CF246" s="29">
+      <c r="CF246" s="28">
         <v>21.01469839893436</v>
       </c>
-      <c r="CG246" s="29">
+      <c r="CG246" s="28">
         <v>23.334334189361254</v>
       </c>
-      <c r="CH246" s="29">
+      <c r="CH246" s="28">
         <v>19.430712892848749</v>
       </c>
-      <c r="CI246" s="29">
-        <v>20.954487229957575</v>
-      </c>
-      <c r="CJ246" s="8"/>
+      <c r="CI246" s="28">
+        <v>20.862747557992581</v>
+      </c>
+      <c r="CJ246" s="28">
+        <v>18.099560124936069</v>
+      </c>
       <c r="CK246" s="8"/>
       <c r="CL246" s="8"/>
       <c r="CM246" s="8"/>
@@ -57041,25 +57389,27 @@
       <c r="CC247" s="16">
         <v>8.3905267421394996</v>
       </c>
-      <c r="CD247" s="29">
+      <c r="CD247" s="28">
         <v>9.3427404258491791</v>
       </c>
-      <c r="CE247" s="29">
+      <c r="CE247" s="28">
         <v>14.184845029597536</v>
       </c>
-      <c r="CF247" s="29">
+      <c r="CF247" s="28">
         <v>10.246303849434165</v>
       </c>
-      <c r="CG247" s="29">
+      <c r="CG247" s="28">
         <v>10.862245477672703</v>
       </c>
-      <c r="CH247" s="29">
+      <c r="CH247" s="28">
         <v>9.9818022757842861</v>
       </c>
-      <c r="CI247" s="29">
-        <v>10.555898627590528</v>
-      </c>
-      <c r="CJ247" s="8"/>
+      <c r="CI247" s="28">
+        <v>10.462010243634516</v>
+      </c>
+      <c r="CJ247" s="28">
+        <v>9.0081955804874028</v>
+      </c>
       <c r="CK247" s="8"/>
       <c r="CL247" s="8"/>
       <c r="CM247" s="8"/>
@@ -57372,25 +57722,27 @@
       <c r="CC248" s="16">
         <v>4.6574468783731149</v>
       </c>
-      <c r="CD248" s="29">
+      <c r="CD248" s="28">
         <v>3.5360741350741689</v>
       </c>
-      <c r="CE248" s="29">
+      <c r="CE248" s="28">
         <v>4.8280475872553898</v>
       </c>
-      <c r="CF248" s="29">
+      <c r="CF248" s="28">
         <v>5.0571034602513931</v>
       </c>
-      <c r="CG248" s="29">
+      <c r="CG248" s="28">
         <v>5.8887675224015634</v>
       </c>
-      <c r="CH248" s="29">
+      <c r="CH248" s="28">
         <v>4.2926295852663205</v>
       </c>
-      <c r="CI248" s="29">
-        <v>4.8372329278819732</v>
-      </c>
-      <c r="CJ248" s="8"/>
+      <c r="CI248" s="28">
+        <v>4.8388029439754217</v>
+      </c>
+      <c r="CJ248" s="28">
+        <v>4.4540117394283145</v>
+      </c>
       <c r="CK248" s="8"/>
       <c r="CL248" s="8"/>
       <c r="CM248" s="8"/>
@@ -57703,25 +58055,27 @@
       <c r="CC249" s="16">
         <v>0.22450977246487683</v>
       </c>
-      <c r="CD249" s="29">
+      <c r="CD249" s="28">
         <v>0.1995174005713059</v>
       </c>
-      <c r="CE249" s="29">
+      <c r="CE249" s="28">
         <v>0.25577797505472355</v>
       </c>
-      <c r="CF249" s="29">
+      <c r="CF249" s="28">
         <v>0.24081382040843224</v>
       </c>
-      <c r="CG249" s="29">
+      <c r="CG249" s="28">
         <v>0.16181267894802792</v>
       </c>
-      <c r="CH249" s="29">
+      <c r="CH249" s="28">
         <v>0.15862862844656828</v>
       </c>
-      <c r="CI249" s="29">
-        <v>0.20626666627407528</v>
-      </c>
-      <c r="CJ249" s="8"/>
+      <c r="CI249" s="28">
+        <v>0.20660335805284827</v>
+      </c>
+      <c r="CJ249" s="28">
+        <v>0.13643367002865583</v>
+      </c>
       <c r="CK249" s="8"/>
       <c r="CL249" s="8"/>
       <c r="CM249" s="8"/>
@@ -58034,25 +58388,27 @@
       <c r="CC250" s="16">
         <v>1.3331454770129345</v>
       </c>
-      <c r="CD250" s="29">
+      <c r="CD250" s="28">
         <v>0.86404912540168266</v>
       </c>
-      <c r="CE250" s="29">
+      <c r="CE250" s="28">
         <v>0.8983216259961917</v>
       </c>
-      <c r="CF250" s="29">
+      <c r="CF250" s="28">
         <v>1.4361380915595836</v>
       </c>
-      <c r="CG250" s="29">
+      <c r="CG250" s="28">
         <v>1.4457286041626223</v>
       </c>
-      <c r="CH250" s="29">
+      <c r="CH250" s="28">
         <v>0.88668456833399423</v>
       </c>
-      <c r="CI250" s="29">
-        <v>1.31156061514174</v>
-      </c>
-      <c r="CJ250" s="8"/>
+      <c r="CI250" s="28">
+        <v>1.3097915908739275</v>
+      </c>
+      <c r="CJ250" s="28">
+        <v>1.0396775190703578</v>
+      </c>
       <c r="CK250" s="8"/>
       <c r="CL250" s="8"/>
       <c r="CM250" s="8"/>
@@ -58365,25 +58721,27 @@
       <c r="CC251" s="16">
         <v>1.7760281724532307</v>
       </c>
-      <c r="CD251" s="29">
+      <c r="CD251" s="28">
         <v>1.5518067140264113</v>
       </c>
-      <c r="CE251" s="29">
+      <c r="CE251" s="28">
         <v>1.3249586005287872</v>
       </c>
-      <c r="CF251" s="29">
+      <c r="CF251" s="28">
         <v>1.4760021507491088</v>
       </c>
-      <c r="CG251" s="29">
+      <c r="CG251" s="28">
         <v>2.0767093653275204</v>
       </c>
-      <c r="CH251" s="29">
+      <c r="CH251" s="28">
         <v>1.4866440571263557</v>
       </c>
-      <c r="CI251" s="29">
-        <v>1.7925013230990094</v>
-      </c>
-      <c r="CJ251" s="8"/>
+      <c r="CI251" s="28">
+        <v>1.8022283715771785</v>
+      </c>
+      <c r="CJ251" s="28">
+        <v>1.4614876722323622</v>
+      </c>
       <c r="CK251" s="8"/>
       <c r="CL251" s="8"/>
       <c r="CM251" s="8"/>
@@ -58696,25 +59054,27 @@
       <c r="CC252" s="16">
         <v>1.8800077724910984</v>
       </c>
-      <c r="CD252" s="29">
+      <c r="CD252" s="28">
         <v>1.4168020429562234</v>
       </c>
-      <c r="CE252" s="29">
+      <c r="CE252" s="28">
         <v>1.7321333813982913</v>
       </c>
-      <c r="CF252" s="29">
+      <c r="CF252" s="28">
         <v>1.588113846034763</v>
       </c>
-      <c r="CG252" s="29">
+      <c r="CG252" s="28">
         <v>2.0221951877696149</v>
       </c>
-      <c r="CH252" s="29">
+      <c r="CH252" s="28">
         <v>1.6556099377985953</v>
       </c>
-      <c r="CI252" s="29">
-        <v>1.1631226782277619</v>
-      </c>
-      <c r="CJ252" s="8"/>
+      <c r="CI252" s="28">
+        <v>1.1540143930315316</v>
+      </c>
+      <c r="CJ252" s="28">
+        <v>0.9109250100024483</v>
+      </c>
       <c r="CK252" s="8"/>
       <c r="CL252" s="8"/>
       <c r="CM252" s="8"/>
@@ -59027,25 +59387,27 @@
       <c r="CC253" s="16">
         <v>0.70640115240381018</v>
       </c>
-      <c r="CD253" s="29">
+      <c r="CD253" s="28">
         <v>0.58476335304291338</v>
       </c>
-      <c r="CE253" s="29">
+      <c r="CE253" s="28">
         <v>0.85079239866038248</v>
       </c>
-      <c r="CF253" s="29">
+      <c r="CF253" s="28">
         <v>0.70204594529256503</v>
       </c>
-      <c r="CG253" s="29">
+      <c r="CG253" s="28">
         <v>0.65300044073474584</v>
       </c>
-      <c r="CH253" s="29">
+      <c r="CH253" s="28">
         <v>0.71047975319892509</v>
       </c>
-      <c r="CI253" s="29">
-        <v>0.85065455872482143</v>
-      </c>
-      <c r="CJ253" s="8"/>
+      <c r="CI253" s="28">
+        <v>0.85071367598925018</v>
+      </c>
+      <c r="CJ253" s="28">
+        <v>0.83064803007540811</v>
+      </c>
       <c r="CK253" s="8"/>
       <c r="CL253" s="8"/>
       <c r="CM253" s="8"/>
@@ -59358,25 +59720,27 @@
       <c r="CC254" s="16">
         <v>0.3237017220764204</v>
       </c>
-      <c r="CD254" s="29">
+      <c r="CD254" s="28">
         <v>0.22904212190647757</v>
       </c>
-      <c r="CE254" s="29">
+      <c r="CE254" s="28">
         <v>0.25761615052521997</v>
       </c>
-      <c r="CF254" s="29">
+      <c r="CF254" s="28">
         <v>0.19999600981530191</v>
       </c>
-      <c r="CG254" s="29">
+      <c r="CG254" s="28">
         <v>0.16375967006148184</v>
       </c>
-      <c r="CH254" s="29">
+      <c r="CH254" s="28">
         <v>0.21059017598628321</v>
       </c>
-      <c r="CI254" s="29">
-        <v>0.19416300032473086</v>
-      </c>
-      <c r="CJ254" s="8"/>
+      <c r="CI254" s="28">
+        <v>0.19555042858911578</v>
+      </c>
+      <c r="CJ254" s="28">
+        <v>0.22360125221447227</v>
+      </c>
       <c r="CK254" s="8"/>
       <c r="CL254" s="8"/>
       <c r="CM254" s="8"/>
@@ -59689,25 +60053,27 @@
       <c r="CC255" s="16">
         <v>7.2911255594549737E-2</v>
       </c>
-      <c r="CD255" s="29">
+      <c r="CD255" s="28">
         <v>5.5646884736463655E-2</v>
       </c>
-      <c r="CE255" s="29">
+      <c r="CE255" s="28">
         <v>4.5322348805253231E-2</v>
       </c>
-      <c r="CF255" s="29">
+      <c r="CF255" s="28">
         <v>6.8181225389046474E-2</v>
       </c>
-      <c r="CG255" s="29">
+      <c r="CG255" s="28">
         <v>6.0115242282979597E-2</v>
       </c>
-      <c r="CH255" s="29">
+      <c r="CH255" s="28">
         <v>4.7643910907418818E-2</v>
       </c>
-      <c r="CI255" s="29">
-        <v>4.3086832692934736E-2</v>
-      </c>
-      <c r="CJ255" s="8"/>
+      <c r="CI255" s="28">
+        <v>4.3032552268791074E-2</v>
+      </c>
+      <c r="CJ255" s="28">
+        <v>3.4579651396646434E-2</v>
+      </c>
       <c r="CK255" s="8"/>
       <c r="CL255" s="8"/>
       <c r="CM255" s="8"/>
@@ -60020,25 +60386,27 @@
       <c r="CC256" s="16">
         <v>13.816129901060419</v>
       </c>
-      <c r="CD256" s="29">
+      <c r="CD256" s="28">
         <v>11.6481221341904</v>
       </c>
-      <c r="CE256" s="29">
+      <c r="CE256" s="28">
         <v>7.6180581235430784</v>
       </c>
-      <c r="CF256" s="29">
+      <c r="CF256" s="28">
         <v>8.3812638076876258</v>
       </c>
-      <c r="CG256" s="29">
+      <c r="CG256" s="28">
         <v>9.8608690842558211</v>
       </c>
-      <c r="CH256" s="29">
+      <c r="CH256" s="28">
         <v>9.8747420405375781</v>
       </c>
-      <c r="CI256" s="29">
-        <v>14.234752785667739</v>
-      </c>
-      <c r="CJ256" s="8"/>
+      <c r="CI256" s="28">
+        <v>14.158930962950137</v>
+      </c>
+      <c r="CJ256" s="28">
+        <v>13.800467034940789</v>
+      </c>
       <c r="CK256" s="8"/>
       <c r="CL256" s="8"/>
       <c r="CM256" s="8"/>
@@ -60351,25 +60719,27 @@
       <c r="CC257" s="16">
         <v>6.0875709122951216</v>
       </c>
-      <c r="CD257" s="29">
+      <c r="CD257" s="28">
         <v>6.0133614658550023</v>
       </c>
-      <c r="CE257" s="29">
+      <c r="CE257" s="28">
         <v>5.9244908172440018</v>
       </c>
-      <c r="CF257" s="29">
+      <c r="CF257" s="28">
         <v>5.3937446699347147</v>
       </c>
-      <c r="CG257" s="29">
+      <c r="CG257" s="28">
         <v>5.1089913307987995</v>
       </c>
-      <c r="CH257" s="29">
+      <c r="CH257" s="28">
         <v>5.2360124989067671</v>
       </c>
-      <c r="CI257" s="29">
-        <v>5.3679128267377418</v>
-      </c>
-      <c r="CJ257" s="8"/>
+      <c r="CI257" s="28">
+        <v>5.3633964197723403</v>
+      </c>
+      <c r="CJ257" s="28">
+        <v>4.8167522648495664</v>
+      </c>
       <c r="CK257" s="8"/>
       <c r="CL257" s="8"/>
       <c r="CM257" s="8"/>
@@ -60682,25 +61052,27 @@
       <c r="CC258" s="16">
         <v>1.4277915584238521</v>
       </c>
-      <c r="CD258" s="29">
+      <c r="CD258" s="28">
         <v>1.0660599275744886</v>
       </c>
-      <c r="CE258" s="29">
+      <c r="CE258" s="28">
         <v>1.5349487476434007</v>
       </c>
-      <c r="CF258" s="29">
+      <c r="CF258" s="28">
         <v>1.0710150595628736</v>
       </c>
-      <c r="CG258" s="29">
+      <c r="CG258" s="28">
         <v>1.049391814311333</v>
       </c>
-      <c r="CH258" s="29">
+      <c r="CH258" s="28">
         <v>0.96014487838755269</v>
       </c>
-      <c r="CI258" s="29">
-        <v>0.87356672274732317</v>
-      </c>
-      <c r="CJ258" s="8"/>
+      <c r="CI258" s="28">
+        <v>0.8788031544924122</v>
+      </c>
+      <c r="CJ258" s="28">
+        <v>0.88477948326704026</v>
+      </c>
       <c r="CK258" s="8"/>
       <c r="CL258" s="8"/>
       <c r="CM258" s="8"/>
@@ -61013,25 +61385,27 @@
       <c r="CC259" s="16">
         <v>4.4913024237863342</v>
       </c>
-      <c r="CD259" s="29">
+      <c r="CD259" s="28">
         <v>5.3376399875099958</v>
       </c>
-      <c r="CE259" s="29">
+      <c r="CE259" s="28">
         <v>5.3225244207924955</v>
       </c>
-      <c r="CF259" s="29">
+      <c r="CF259" s="28">
         <v>5.6567531182008821</v>
       </c>
-      <c r="CG259" s="29">
+      <c r="CG259" s="28">
         <v>5.3240206924655391</v>
       </c>
-      <c r="CH259" s="29">
+      <c r="CH259" s="28">
         <v>5.2868046176746519</v>
       </c>
-      <c r="CI259" s="29">
-        <v>6.6670833121479642</v>
-      </c>
-      <c r="CJ259" s="8"/>
+      <c r="CI259" s="28">
+        <v>6.6386972746773871</v>
+      </c>
+      <c r="CJ259" s="28">
+        <v>7.3325267256075497</v>
+      </c>
       <c r="CK259" s="8"/>
       <c r="CL259" s="8"/>
       <c r="CM259" s="8"/>
@@ -61344,25 +61718,27 @@
       <c r="CC260" s="16">
         <v>9.3730857308291959</v>
       </c>
-      <c r="CD260" s="29">
+      <c r="CD260" s="28">
         <v>14.365232872176712</v>
       </c>
-      <c r="CE260" s="29">
+      <c r="CE260" s="28">
         <v>3.9606397828812381</v>
       </c>
-      <c r="CF260" s="29">
+      <c r="CF260" s="28">
         <v>4.8478190826036984</v>
       </c>
-      <c r="CG260" s="29">
+      <c r="CG260" s="28">
         <v>6.9796689418526112</v>
       </c>
-      <c r="CH260" s="29">
+      <c r="CH260" s="28">
         <v>12.925902180511459</v>
       </c>
-      <c r="CI260" s="29">
-        <v>5.8495279213940394</v>
-      </c>
-      <c r="CJ260" s="8"/>
+      <c r="CI260" s="28">
+        <v>5.9210437425692906</v>
+      </c>
+      <c r="CJ260" s="28">
+        <v>4.9502012454207138</v>
+      </c>
       <c r="CK260" s="8"/>
       <c r="CL260" s="8"/>
       <c r="CM260" s="8"/>
@@ -61675,25 +62051,27 @@
       <c r="CC261" s="16">
         <v>1.1968117652957573</v>
       </c>
-      <c r="CD261" s="29">
+      <c r="CD261" s="28">
         <v>1.139160046542641</v>
       </c>
-      <c r="CE261" s="29">
+      <c r="CE261" s="28">
         <v>1.2122447584476548</v>
       </c>
-      <c r="CF261" s="29">
+      <c r="CF261" s="28">
         <v>1.1865147166941779</v>
       </c>
-      <c r="CG261" s="29">
+      <c r="CG261" s="28">
         <v>1.2391785618220477</v>
       </c>
-      <c r="CH261" s="29">
+      <c r="CH261" s="28">
         <v>1.2953952219321603</v>
       </c>
-      <c r="CI261" s="29">
-        <v>1.1528023049374114</v>
-      </c>
-      <c r="CJ261" s="8"/>
+      <c r="CI261" s="28">
+        <v>1.1559837556930861</v>
+      </c>
+      <c r="CJ261" s="28">
+        <v>0.95994903145900901</v>
+      </c>
       <c r="CK261" s="8"/>
       <c r="CL261" s="8"/>
       <c r="CM261" s="8"/>
@@ -62006,25 +62384,27 @@
       <c r="CC262" s="16">
         <v>3.4139230877273752</v>
       </c>
-      <c r="CD262" s="29">
+      <c r="CD262" s="28">
         <v>2.8897555569759801</v>
       </c>
-      <c r="CE262" s="29">
+      <c r="CE262" s="28">
         <v>3.0875548764926206</v>
       </c>
-      <c r="CF262" s="29">
+      <c r="CF262" s="28">
         <v>2.6578368550644607</v>
       </c>
-      <c r="CG262" s="29">
+      <c r="CG262" s="28">
         <v>3.8146587670889049</v>
       </c>
-      <c r="CH262" s="29">
+      <c r="CH262" s="28">
         <v>3.2677071558815753</v>
       </c>
-      <c r="CI262" s="29">
-        <v>2.5105093327783745</v>
-      </c>
-      <c r="CJ262" s="8"/>
+      <c r="CI262" s="28">
+        <v>2.5150514682980507</v>
+      </c>
+      <c r="CJ262" s="28">
+        <v>2.4472254450720725</v>
+      </c>
       <c r="CK262" s="8"/>
       <c r="CL262" s="8"/>
       <c r="CM262" s="8"/>
@@ -62337,25 +62717,27 @@
       <c r="CC263" s="16">
         <v>4.568614143738265</v>
       </c>
-      <c r="CD263" s="29">
+      <c r="CD263" s="28">
         <v>4.3365899714034217</v>
       </c>
-      <c r="CE263" s="29">
+      <c r="CE263" s="28">
         <v>5.9353491445867785</v>
       </c>
-      <c r="CF263" s="29">
+      <c r="CF263" s="28">
         <v>5.1848820329263123</v>
       </c>
-      <c r="CG263" s="29">
+      <c r="CG263" s="28">
         <v>5.2244153043344861</v>
       </c>
-      <c r="CH263" s="29">
+      <c r="CH263" s="28">
         <v>4.668322108047577</v>
       </c>
-      <c r="CI263" s="29">
-        <v>5.2859779767890291</v>
-      </c>
-      <c r="CJ263" s="8"/>
+      <c r="CI263" s="28">
+        <v>5.2747393767407722</v>
+      </c>
+      <c r="CJ263" s="28">
+        <v>5.0528948798245095</v>
+      </c>
       <c r="CK263" s="8"/>
       <c r="CL263" s="8"/>
       <c r="CM263" s="8"/>
@@ -62668,25 +63050,27 @@
       <c r="CC264" s="16">
         <v>2.9651836103362248</v>
       </c>
-      <c r="CD264" s="29">
+      <c r="CD264" s="28">
         <v>2.1236669243267778</v>
       </c>
-      <c r="CE264" s="29">
+      <c r="CE264" s="28">
         <v>3.6814124718411696</v>
       </c>
-      <c r="CF264" s="29">
+      <c r="CF264" s="28">
         <v>2.8330238015404023</v>
       </c>
-      <c r="CG264" s="29">
+      <c r="CG264" s="28">
         <v>3.1275306410853783</v>
       </c>
-      <c r="CH264" s="29">
+      <c r="CH264" s="28">
         <v>1.9752898120641307</v>
       </c>
-      <c r="CI264" s="29">
-        <v>2.2827848872387024</v>
-      </c>
-      <c r="CJ264" s="8"/>
+      <c r="CI264" s="28">
+        <v>2.2954914215396092</v>
+      </c>
+      <c r="CJ264" s="28">
+        <v>2.6056652832270228</v>
+      </c>
       <c r="CK264" s="8"/>
       <c r="CL264" s="8"/>
       <c r="CM264" s="8"/>
@@ -62999,25 +63383,27 @@
       <c r="CC265" s="16">
         <v>1.1253003136293838</v>
       </c>
-      <c r="CD265" s="29">
+      <c r="CD265" s="28">
         <v>1.1453386405420272</v>
       </c>
-      <c r="CE265" s="29">
+      <c r="CE265" s="28">
         <v>1.5178071055381306</v>
       </c>
-      <c r="CF265" s="29">
+      <c r="CF265" s="28">
         <v>1.1743541099661881</v>
       </c>
-      <c r="CG265" s="29">
+      <c r="CG265" s="28">
         <v>1.3333127771830484</v>
       </c>
-      <c r="CH265" s="29">
+      <c r="CH265" s="28">
         <v>1.106077757057647</v>
       </c>
-      <c r="CI265" s="29">
-        <v>0.93918484524032186</v>
-      </c>
-      <c r="CJ265" s="8"/>
+      <c r="CI265" s="28">
+        <v>0.92925982940674723</v>
+      </c>
+      <c r="CJ265" s="28">
+        <v>1.0340483375823477</v>
+      </c>
       <c r="CK265" s="8"/>
       <c r="CL265" s="8"/>
       <c r="CM265" s="8"/>
@@ -63330,25 +63716,27 @@
       <c r="CC266" s="16">
         <v>2.3396406722899052</v>
       </c>
-      <c r="CD266" s="29">
+      <c r="CD266" s="28">
         <v>2.0174982100824477</v>
       </c>
-      <c r="CE266" s="29">
+      <c r="CE266" s="28">
         <v>2.4205537482738313</v>
       </c>
-      <c r="CF266" s="29">
+      <c r="CF266" s="28">
         <v>1.8951866114604063</v>
       </c>
-      <c r="CG266" s="29">
+      <c r="CG266" s="28">
         <v>2.4190865942824691</v>
       </c>
-      <c r="CH266" s="29">
+      <c r="CH266" s="28">
         <v>1.9808913696500681</v>
       </c>
-      <c r="CI266" s="29">
-        <v>1.7685997908069053</v>
-      </c>
-      <c r="CJ266" s="8"/>
+      <c r="CI266" s="28">
+        <v>1.7622561956053477</v>
+      </c>
+      <c r="CJ266" s="28">
+        <v>2.6036087535144063</v>
+      </c>
       <c r="CK266" s="8"/>
       <c r="CL266" s="8"/>
       <c r="CM266" s="8"/>
@@ -63661,25 +64049,27 @@
       <c r="CC267" s="16">
         <v>1.0654466420895448</v>
       </c>
-      <c r="CD267" s="29">
+      <c r="CD267" s="28">
         <v>1.0543185011270659</v>
       </c>
-      <c r="CE267" s="29">
+      <c r="CE267" s="28">
         <v>1.3386758969282369</v>
       </c>
-      <c r="CF267" s="29">
+      <c r="CF267" s="28">
         <v>1.2649017504936251</v>
       </c>
-      <c r="CG267" s="29">
+      <c r="CG267" s="28">
         <v>1.2451406885893204</v>
       </c>
-      <c r="CH267" s="29">
+      <c r="CH267" s="28">
         <v>1.0925435420487226</v>
       </c>
-      <c r="CI267" s="29">
-        <v>1.0549278132820743</v>
-      </c>
-      <c r="CJ267" s="8"/>
+      <c r="CI267" s="28">
+        <v>1.0544997045881419</v>
+      </c>
+      <c r="CJ267" s="28">
+        <v>0.90621595034813041</v>
+      </c>
       <c r="CK267" s="8"/>
       <c r="CL267" s="8"/>
       <c r="CM267" s="8"/>
@@ -63992,25 +64382,27 @@
       <c r="CC268" s="16">
         <v>1.4396868192374328</v>
       </c>
-      <c r="CD268" s="29">
+      <c r="CD268" s="28">
         <v>0.85434024510389084</v>
       </c>
-      <c r="CE268" s="29">
+      <c r="CE268" s="28">
         <v>1.5951683721066769</v>
       </c>
-      <c r="CF268" s="29">
+      <c r="CF268" s="28">
         <v>1.5284967513241714</v>
       </c>
-      <c r="CG268" s="29">
+      <c r="CG268" s="28">
         <v>1.6476982493986787</v>
       </c>
-      <c r="CH268" s="29">
+      <c r="CH268" s="28">
         <v>1.1288589086169489</v>
       </c>
-      <c r="CI268" s="29">
-        <v>1.7527099420251366</v>
-      </c>
-      <c r="CJ268" s="8"/>
+      <c r="CI268" s="28">
+        <v>1.7797776636543088</v>
+      </c>
+      <c r="CJ268" s="28">
+        <v>1.2193187854399454</v>
+      </c>
       <c r="CK268" s="8"/>
       <c r="CL268" s="8"/>
       <c r="CM268" s="8"/>
@@ -64323,25 +64715,27 @@
       <c r="CC269" s="16">
         <v>0.44328583233335211</v>
       </c>
-      <c r="CD269" s="29">
+      <c r="CD269" s="28">
         <v>0.11795551677499497</v>
       </c>
-      <c r="CE269" s="29">
+      <c r="CE269" s="28">
         <v>0.27822758156776117</v>
       </c>
-      <c r="CF269" s="29">
+      <c r="CF269" s="28">
         <v>0.30321865891980176</v>
       </c>
-      <c r="CG269" s="29">
+      <c r="CG269" s="28">
         <v>0.41067967332001187</v>
       </c>
-      <c r="CH269" s="29">
+      <c r="CH269" s="28">
         <v>0.26197941781617251</v>
       </c>
-      <c r="CI269" s="29">
-        <v>0.11685263058511361</v>
-      </c>
-      <c r="CJ269" s="8"/>
+      <c r="CI269" s="28">
+        <v>0.11556466160857706</v>
+      </c>
+      <c r="CJ269" s="28">
+        <v>0.453460447055125</v>
+      </c>
       <c r="CK269" s="8"/>
       <c r="CL269" s="8"/>
       <c r="CM269" s="8"/>
@@ -64654,25 +65048,27 @@
       <c r="CC270" s="16">
         <v>1.9829961533305147</v>
       </c>
-      <c r="CD270" s="29">
+      <c r="CD270" s="28">
         <v>1.7818371269746125</v>
       </c>
-      <c r="CE270" s="29">
+      <c r="CE270" s="28">
         <v>1.9532505147198527</v>
       </c>
-      <c r="CF270" s="29">
+      <c r="CF270" s="28">
         <v>1.981805509504623</v>
       </c>
-      <c r="CG270" s="29">
+      <c r="CG270" s="28">
         <v>2.2802054140392998</v>
       </c>
-      <c r="CH270" s="29">
+      <c r="CH270" s="28">
         <v>2.089077056553605</v>
       </c>
-      <c r="CI270" s="29">
-        <v>1.9089899111482826</v>
-      </c>
-      <c r="CJ270" s="8"/>
+      <c r="CI270" s="28">
+        <v>1.8999936947660974</v>
+      </c>
+      <c r="CJ270" s="28">
+        <v>1.8962245492282301</v>
+      </c>
       <c r="CK270" s="8"/>
       <c r="CL270" s="8"/>
       <c r="CM270" s="8"/>
@@ -64985,25 +65381,27 @@
       <c r="CC271" s="16">
         <v>2.4290723798022231</v>
       </c>
-      <c r="CD271" s="29">
+      <c r="CD271" s="28">
         <v>2.4980086392553851</v>
       </c>
-      <c r="CE271" s="29">
+      <c r="CE271" s="28">
         <v>2.3519458736804522</v>
       </c>
-      <c r="CF271" s="29">
+      <c r="CF271" s="28">
         <v>2.1959748829338936</v>
       </c>
-      <c r="CG271" s="29">
+      <c r="CG271" s="28">
         <v>2.5926792174424707</v>
       </c>
-      <c r="CH271" s="29">
+      <c r="CH271" s="28">
         <v>2.615377253658079</v>
       </c>
-      <c r="CI271" s="29">
-        <v>2.531685198426977</v>
-      </c>
-      <c r="CJ271" s="8"/>
+      <c r="CI271" s="28">
+        <v>2.5380148168906396</v>
+      </c>
+      <c r="CJ271" s="28">
+        <v>2.4082872998639147</v>
+      </c>
       <c r="CK271" s="8"/>
       <c r="CL271" s="8"/>
       <c r="CM271" s="8"/>
@@ -65316,25 +65714,27 @@
       <c r="CC272" s="16">
         <v>1.4840752947629625</v>
       </c>
-      <c r="CD272" s="29">
+      <c r="CD272" s="28">
         <v>1.0431456689103462</v>
       </c>
-      <c r="CE272" s="29">
+      <c r="CE272" s="28">
         <v>1.3881191234092545</v>
       </c>
-      <c r="CF272" s="29">
+      <c r="CF272" s="28">
         <v>1.2908141287186756</v>
       </c>
-      <c r="CG272" s="29">
+      <c r="CG272" s="28">
         <v>1.7638675536418149</v>
       </c>
-      <c r="CH272" s="29">
+      <c r="CH272" s="28">
         <v>1.0486588240800447</v>
       </c>
-      <c r="CI272" s="29">
-        <v>1.0123968459452029</v>
-      </c>
-      <c r="CJ272" s="8"/>
+      <c r="CI272" s="28">
+        <v>1.0090272682204398</v>
+      </c>
+      <c r="CJ272" s="28">
+        <v>1.1529641501228063</v>
+      </c>
       <c r="CK272" s="8"/>
       <c r="CL272" s="8"/>
       <c r="CM272" s="8"/>
@@ -65647,25 +66047,27 @@
       <c r="CC273" s="16">
         <v>1.1973231483172551</v>
       </c>
-      <c r="CD273" s="29">
+      <c r="CD273" s="28">
         <v>1.2045768065453466</v>
       </c>
-      <c r="CE273" s="29">
+      <c r="CE273" s="28">
         <v>1.0670575004891669</v>
       </c>
-      <c r="CF273" s="29">
+      <c r="CF273" s="28">
         <v>1.0869071778287462</v>
       </c>
-      <c r="CG273" s="29">
+      <c r="CG273" s="28">
         <v>1.0216413000741489</v>
       </c>
-      <c r="CH273" s="29">
+      <c r="CH273" s="28">
         <v>1.1469769486475263</v>
       </c>
-      <c r="CI273" s="29">
-        <v>1.0761773136522856</v>
-      </c>
-      <c r="CJ273" s="8"/>
+      <c r="CI273" s="28">
+        <v>1.0698477672698379</v>
+      </c>
+      <c r="CJ273" s="28">
+        <v>1.0857245438764578</v>
+      </c>
       <c r="CK273" s="8"/>
       <c r="CL273" s="8"/>
       <c r="CM273" s="8"/>
@@ -65978,25 +66380,27 @@
       <c r="CC274" s="16">
         <v>0.64158148861584374</v>
       </c>
-      <c r="CD274" s="29">
+      <c r="CD274" s="28">
         <v>0.57448931535116621</v>
       </c>
-      <c r="CE274" s="29">
+      <c r="CE274" s="28">
         <v>0.6526950215492664</v>
       </c>
-      <c r="CF274" s="29">
+      <c r="CF274" s="28">
         <v>0.60879626976937129</v>
       </c>
-      <c r="CG274" s="29">
+      <c r="CG274" s="28">
         <v>0.55887317816367432</v>
       </c>
-      <c r="CH274" s="29">
+      <c r="CH274" s="28">
         <v>0.48510448263578909</v>
       </c>
-      <c r="CI274" s="29">
-        <v>0.42483472731891286</v>
-      </c>
-      <c r="CJ274" s="8"/>
+      <c r="CI274" s="28">
+        <v>0.42320747019604338</v>
+      </c>
+      <c r="CJ274" s="28">
+        <v>0.37264022385166873</v>
+      </c>
       <c r="CK274" s="8"/>
       <c r="CL274" s="8"/>
       <c r="CM274" s="8"/>
@@ -66309,25 +66713,27 @@
       <c r="CC275" s="16">
         <v>19.146499177089492</v>
       </c>
-      <c r="CD275" s="29">
+      <c r="CD275" s="28">
         <v>21.0084602392125</v>
       </c>
-      <c r="CE275" s="29">
+      <c r="CE275" s="28">
         <v>22.781461020443174</v>
       </c>
-      <c r="CF275" s="29">
+      <c r="CF275" s="28">
         <v>28.441992605930988</v>
       </c>
-      <c r="CG275" s="29">
+      <c r="CG275" s="28">
         <v>19.663756026488887</v>
       </c>
-      <c r="CH275" s="29">
+      <c r="CH275" s="28">
         <v>22.123421032443211</v>
       </c>
-      <c r="CI275" s="29">
-        <v>22.234235681172894</v>
-      </c>
-      <c r="CJ275" s="8"/>
+      <c r="CI275" s="28">
+        <v>22.353665793068146</v>
+      </c>
+      <c r="CJ275" s="28">
+        <v>25.917485440512628</v>
+      </c>
       <c r="CK275" s="8"/>
       <c r="CL275" s="8"/>
       <c r="CM275" s="8"/>
@@ -66477,13 +66883,13 @@
       <c r="CA276" s="8"/>
       <c r="CB276" s="8"/>
       <c r="CC276" s="8"/>
-      <c r="CD276" s="25"/>
-      <c r="CE276" s="25"/>
-      <c r="CF276" s="25"/>
-      <c r="CG276" s="25"/>
-      <c r="CH276" s="25"/>
-      <c r="CI276" s="25"/>
-      <c r="CJ276" s="8"/>
+      <c r="CD276" s="24"/>
+      <c r="CE276" s="24"/>
+      <c r="CF276" s="24"/>
+      <c r="CG276" s="24"/>
+      <c r="CH276" s="24"/>
+      <c r="CI276" s="24"/>
+      <c r="CJ276" s="24"/>
       <c r="CK276" s="8"/>
       <c r="CL276" s="8"/>
       <c r="CM276" s="8"/>
@@ -66796,25 +67202,27 @@
       <c r="CC277" s="16">
         <v>100</v>
       </c>
-      <c r="CD277" s="29">
+      <c r="CD277" s="28">
         <v>100</v>
       </c>
-      <c r="CE277" s="29">
+      <c r="CE277" s="28">
         <v>100</v>
       </c>
-      <c r="CF277" s="29">
+      <c r="CF277" s="28">
         <v>100</v>
       </c>
-      <c r="CG277" s="29">
+      <c r="CG277" s="28">
         <v>100</v>
       </c>
-      <c r="CH277" s="29">
+      <c r="CH277" s="28">
         <v>100</v>
       </c>
-      <c r="CI277" s="29">
+      <c r="CI277" s="28">
         <v>100</v>
       </c>
-      <c r="CJ277" s="8"/>
+      <c r="CJ277" s="28">
+        <v>100</v>
+      </c>
       <c r="CK277" s="8"/>
       <c r="CL277" s="8"/>
       <c r="CM277" s="8"/>
@@ -66965,12 +67373,13 @@
       <c r="CA278" s="11"/>
       <c r="CB278" s="11"/>
       <c r="CC278" s="11"/>
-      <c r="CD278" s="26"/>
-      <c r="CE278" s="26"/>
-      <c r="CF278" s="26"/>
-      <c r="CG278" s="26"/>
-      <c r="CH278" s="26"/>
-      <c r="CI278" s="26"/>
+      <c r="CD278" s="25"/>
+      <c r="CE278" s="25"/>
+      <c r="CF278" s="25"/>
+      <c r="CG278" s="25"/>
+      <c r="CH278" s="25"/>
+      <c r="CI278" s="25"/>
+      <c r="CJ278" s="25"/>
     </row>
     <row r="279" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
@@ -67058,13 +67467,13 @@
       <c r="CA280" s="8"/>
       <c r="CB280" s="8"/>
       <c r="CC280" s="8"/>
-      <c r="CD280" s="25"/>
-      <c r="CE280" s="25"/>
-      <c r="CF280" s="25"/>
-      <c r="CG280" s="25"/>
-      <c r="CH280" s="25"/>
-      <c r="CI280" s="25"/>
-      <c r="CJ280" s="8"/>
+      <c r="CD280" s="24"/>
+      <c r="CE280" s="24"/>
+      <c r="CF280" s="24"/>
+      <c r="CG280" s="24"/>
+      <c r="CH280" s="24"/>
+      <c r="CI280" s="24"/>
+      <c r="CJ280" s="24"/>
       <c r="CK280" s="8"/>
       <c r="CL280" s="8"/>
       <c r="CM280" s="8"/>
@@ -67214,13 +67623,13 @@
       <c r="CA281" s="8"/>
       <c r="CB281" s="8"/>
       <c r="CC281" s="8"/>
-      <c r="CD281" s="25"/>
-      <c r="CE281" s="25"/>
-      <c r="CF281" s="25"/>
-      <c r="CG281" s="25"/>
-      <c r="CH281" s="25"/>
-      <c r="CI281" s="25"/>
-      <c r="CJ281" s="8"/>
+      <c r="CD281" s="24"/>
+      <c r="CE281" s="24"/>
+      <c r="CF281" s="24"/>
+      <c r="CG281" s="24"/>
+      <c r="CH281" s="24"/>
+      <c r="CI281" s="24"/>
+      <c r="CJ281" s="24"/>
       <c r="CK281" s="8"/>
       <c r="CL281" s="8"/>
       <c r="CM281" s="8"/>
@@ -67453,6 +67862,7 @@
       <c r="CI290" s="30">
         <v>0</v>
       </c>
+      <c r="CJ290" s="30"/>
     </row>
     <row r="291" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
@@ -67698,23 +68108,26 @@
       <c r="CC291" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="CD291" s="28" t="s">
+      <c r="CD291" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CE291" s="28" t="s">
+      <c r="CE291" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF291" s="28" t="s">
+      <c r="CF291" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CG291" s="28" t="s">
+      <c r="CG291" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CH291" s="28" t="s">
+      <c r="CH291" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CI291" s="28" t="s">
+      <c r="CI291" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ291" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -67964,25 +68377,27 @@
       <c r="CC293" s="16">
         <v>13.719727746978228</v>
       </c>
-      <c r="CD293" s="29">
+      <c r="CD293" s="28">
         <v>17.617150292456977</v>
       </c>
-      <c r="CE293" s="29">
+      <c r="CE293" s="28">
         <v>21.183714784828862</v>
       </c>
-      <c r="CF293" s="29">
+      <c r="CF293" s="28">
         <v>28.182918012245356</v>
       </c>
-      <c r="CG293" s="29">
+      <c r="CG293" s="28">
         <v>17.103877183511326</v>
       </c>
-      <c r="CH293" s="29">
+      <c r="CH293" s="28">
         <v>20.66370356953308</v>
       </c>
-      <c r="CI293" s="29">
-        <v>22.653595942471863</v>
-      </c>
-      <c r="CJ293" s="8"/>
+      <c r="CI293" s="28">
+        <v>22.573626483694717</v>
+      </c>
+      <c r="CJ293" s="28">
+        <v>27.565810699789495</v>
+      </c>
       <c r="CK293" s="8"/>
       <c r="CL293" s="8"/>
       <c r="CM293" s="8"/>
@@ -68295,25 +68710,27 @@
       <c r="CC294" s="16">
         <v>6.126375382469134</v>
       </c>
-      <c r="CD294" s="29">
+      <c r="CD294" s="28">
         <v>10.350242453338279</v>
       </c>
-      <c r="CE294" s="29">
+      <c r="CE294" s="28">
         <v>10.482786163534268</v>
       </c>
-      <c r="CF294" s="29">
+      <c r="CF294" s="28">
         <v>14.031961891699618</v>
       </c>
-      <c r="CG294" s="29">
+      <c r="CG294" s="28">
         <v>7.9154844038316421</v>
       </c>
-      <c r="CH294" s="29">
+      <c r="CH294" s="28">
         <v>11.560201930706379</v>
       </c>
-      <c r="CI294" s="29">
-        <v>9.3104187686591615</v>
-      </c>
-      <c r="CJ294" s="8"/>
+      <c r="CI294" s="28">
+        <v>9.2280425981443113</v>
+      </c>
+      <c r="CJ294" s="28">
+        <v>14.0558459849155</v>
+      </c>
       <c r="CK294" s="8"/>
       <c r="CL294" s="8"/>
       <c r="CM294" s="8"/>
@@ -68626,25 +69043,27 @@
       <c r="CC295" s="16">
         <v>3.6388911598354468</v>
       </c>
-      <c r="CD295" s="29">
+      <c r="CD295" s="28">
         <v>3.0466370681617629</v>
       </c>
-      <c r="CE295" s="29">
+      <c r="CE295" s="28">
         <v>4.8565254665637418</v>
       </c>
-      <c r="CF295" s="29">
+      <c r="CF295" s="28">
         <v>6.571357186284736</v>
       </c>
-      <c r="CG295" s="29">
+      <c r="CG295" s="28">
         <v>4.9238157340827167</v>
       </c>
-      <c r="CH295" s="29">
+      <c r="CH295" s="28">
         <v>4.305951735968077</v>
       </c>
-      <c r="CI295" s="29">
-        <v>6.1208899657291909</v>
-      </c>
-      <c r="CJ295" s="8"/>
+      <c r="CI295" s="28">
+        <v>6.1231648700455459</v>
+      </c>
+      <c r="CJ295" s="28">
+        <v>6.6871307678068179</v>
+      </c>
       <c r="CK295" s="8"/>
       <c r="CL295" s="8"/>
       <c r="CM295" s="8"/>
@@ -68957,25 +69376,27 @@
       <c r="CC296" s="16">
         <v>9.6685495304092969E-2</v>
       </c>
-      <c r="CD296" s="29">
+      <c r="CD296" s="28">
         <v>0.15665224354303495</v>
       </c>
-      <c r="CE296" s="29">
+      <c r="CE296" s="28">
         <v>0.42846194909641866</v>
       </c>
-      <c r="CF296" s="29">
+      <c r="CF296" s="28">
         <v>0.19082506152189083</v>
       </c>
-      <c r="CG296" s="29">
+      <c r="CG296" s="28">
         <v>7.2006078782232447E-2</v>
       </c>
-      <c r="CH296" s="29">
+      <c r="CH296" s="28">
         <v>0.13464081099746156</v>
       </c>
-      <c r="CI296" s="29">
-        <v>0.40776111110664071</v>
-      </c>
-      <c r="CJ296" s="8"/>
+      <c r="CI296" s="28">
+        <v>0.40844593282328456</v>
+      </c>
+      <c r="CJ296" s="28">
+        <v>0.11759360795557461</v>
+      </c>
       <c r="CK296" s="8"/>
       <c r="CL296" s="8"/>
       <c r="CM296" s="8"/>
@@ -69288,25 +69709,27 @@
       <c r="CC297" s="16">
         <v>0.88086779632835488</v>
       </c>
-      <c r="CD297" s="29">
+      <c r="CD297" s="28">
         <v>0.87393497347080429</v>
       </c>
-      <c r="CE297" s="29">
+      <c r="CE297" s="28">
         <v>1.0459721978495626</v>
       </c>
-      <c r="CF297" s="29">
+      <c r="CF297" s="28">
         <v>1.507161054934383</v>
       </c>
-      <c r="CG297" s="29">
+      <c r="CG297" s="28">
         <v>0.97827273853401797</v>
       </c>
-      <c r="CH297" s="29">
+      <c r="CH297" s="28">
         <v>0.95824831354698081</v>
       </c>
-      <c r="CI297" s="29">
-        <v>1.7893336980170715</v>
-      </c>
-      <c r="CJ297" s="8"/>
+      <c r="CI297" s="28">
+        <v>1.7870043812395695</v>
+      </c>
+      <c r="CJ297" s="28">
+        <v>1.2100729424559229</v>
+      </c>
       <c r="CK297" s="8"/>
       <c r="CL297" s="8"/>
       <c r="CM297" s="8"/>
@@ -69619,25 +70042,27 @@
       <c r="CC298" s="16">
         <v>1.3261629666104759</v>
       </c>
-      <c r="CD298" s="29">
+      <c r="CD298" s="28">
         <v>1.0348873425360763</v>
       </c>
-      <c r="CE298" s="29">
+      <c r="CE298" s="28">
         <v>1.1590426073058162</v>
       </c>
-      <c r="CF298" s="29">
+      <c r="CF298" s="28">
         <v>2.3024090877965948</v>
       </c>
-      <c r="CG298" s="29">
+      <c r="CG298" s="28">
         <v>1.5825496195345889</v>
       </c>
-      <c r="CH298" s="29">
+      <c r="CH298" s="28">
         <v>1.0663225428920911</v>
       </c>
-      <c r="CI298" s="29">
-        <v>1.8964723098143934</v>
-      </c>
-      <c r="CJ298" s="8"/>
+      <c r="CI298" s="28">
+        <v>1.9068533258186831</v>
+      </c>
+      <c r="CJ298" s="28">
+        <v>2.5852545907571658</v>
+      </c>
       <c r="CK298" s="8"/>
       <c r="CL298" s="8"/>
       <c r="CM298" s="8"/>
@@ -69950,25 +70375,27 @@
       <c r="CC299" s="16">
         <v>1.0349931718799994</v>
       </c>
-      <c r="CD299" s="29">
+      <c r="CD299" s="28">
         <v>1.5108062105330418</v>
       </c>
-      <c r="CE299" s="29">
+      <c r="CE299" s="28">
         <v>1.6252762812507804</v>
       </c>
-      <c r="CF299" s="29">
+      <c r="CF299" s="28">
         <v>2.6037805745629692</v>
       </c>
-      <c r="CG299" s="29">
+      <c r="CG299" s="28">
         <v>1.1361494992901207</v>
       </c>
-      <c r="CH299" s="29">
+      <c r="CH299" s="28">
         <v>1.8988198121190367</v>
       </c>
-      <c r="CI299" s="29">
-        <v>1.3199616637993061</v>
-      </c>
-      <c r="CJ299" s="8"/>
+      <c r="CI299" s="28">
+        <v>1.3096868443885452</v>
+      </c>
+      <c r="CJ299" s="28">
+        <v>1.6936280490118514</v>
+      </c>
       <c r="CK299" s="8"/>
       <c r="CL299" s="8"/>
       <c r="CM299" s="8"/>
@@ -70281,25 +70708,27 @@
       <c r="CC300" s="16">
         <v>0.3748332554208253</v>
       </c>
-      <c r="CD300" s="29">
+      <c r="CD300" s="28">
         <v>0.35613461827575754</v>
       </c>
-      <c r="CE300" s="29">
+      <c r="CE300" s="28">
         <v>1.2899704206068019</v>
       </c>
-      <c r="CF300" s="29">
+      <c r="CF300" s="28">
         <v>0.63689071945640863</v>
       </c>
-      <c r="CG300" s="29">
+      <c r="CG300" s="28">
         <v>0.35256646844273254</v>
       </c>
-      <c r="CH300" s="29">
+      <c r="CH300" s="28">
         <v>0.45697972109529222</v>
       </c>
-      <c r="CI300" s="29">
-        <v>1.5304292607224343</v>
-      </c>
-      <c r="CJ300" s="8"/>
+      <c r="CI300" s="28">
+        <v>1.530607674328702</v>
+      </c>
+      <c r="CJ300" s="28">
+        <v>0.84130012209206706</v>
+      </c>
       <c r="CK300" s="8"/>
       <c r="CL300" s="8"/>
       <c r="CM300" s="8"/>
@@ -70612,25 +71041,27 @@
       <c r="CC301" s="16">
         <v>0.18598865960214295</v>
       </c>
-      <c r="CD301" s="29">
+      <c r="CD301" s="28">
         <v>0.24285400137441107</v>
       </c>
-      <c r="CE301" s="29">
+      <c r="CE301" s="28">
         <v>0.24184661871248123</v>
       </c>
-      <c r="CF301" s="29">
+      <c r="CF301" s="28">
         <v>0.26244335476631092</v>
       </c>
-      <c r="CG301" s="29">
+      <c r="CG301" s="28">
         <v>9.6825981998119537E-2</v>
       </c>
-      <c r="CH301" s="29">
+      <c r="CH301" s="28">
         <v>0.24164670218587819</v>
       </c>
-      <c r="CI301" s="29">
-        <v>0.21761473068395187</v>
-      </c>
-      <c r="CJ301" s="8"/>
+      <c r="CI301" s="28">
+        <v>0.2191800557779652</v>
+      </c>
+      <c r="CJ301" s="28">
+        <v>0.3320052242344696</v>
+      </c>
       <c r="CK301" s="8"/>
       <c r="CL301" s="8"/>
       <c r="CM301" s="8"/>
@@ -70943,25 +71374,27 @@
       <c r="CC302" s="16">
         <v>5.4929859527752298E-2</v>
       </c>
-      <c r="CD302" s="29">
+      <c r="CD302" s="28">
         <v>4.500138122380766E-2</v>
       </c>
-      <c r="CE302" s="29">
+      <c r="CE302" s="28">
         <v>5.3833079908991076E-2</v>
       </c>
-      <c r="CF302" s="29">
+      <c r="CF302" s="28">
         <v>7.6089081222444482E-2</v>
       </c>
-      <c r="CG302" s="29">
+      <c r="CG302" s="28">
         <v>4.6206659015152286E-2</v>
       </c>
-      <c r="CH302" s="29">
+      <c r="CH302" s="28">
         <v>4.0892000021884069E-2</v>
       </c>
-      <c r="CI302" s="29">
-        <v>6.0714433939715748E-2</v>
-      </c>
-      <c r="CJ302" s="8"/>
+      <c r="CI302" s="28">
+        <v>6.0640801128108511E-2</v>
+      </c>
+      <c r="CJ302" s="28">
+        <v>4.297941056012354E-2</v>
+      </c>
       <c r="CK302" s="8"/>
       <c r="CL302" s="8"/>
       <c r="CM302" s="8"/>
@@ -71274,25 +71707,27 @@
       <c r="CC303" s="16">
         <v>21.453627721160608</v>
       </c>
-      <c r="CD303" s="29">
+      <c r="CD303" s="28">
         <v>9.958856099442686</v>
       </c>
-      <c r="CE303" s="29">
+      <c r="CE303" s="28">
         <v>15.453136337803016</v>
       </c>
-      <c r="CF303" s="29">
+      <c r="CF303" s="28">
         <v>6.5238821765463344</v>
       </c>
-      <c r="CG303" s="29">
+      <c r="CG303" s="28">
         <v>21.98459337954737</v>
       </c>
-      <c r="CH303" s="29">
+      <c r="CH303" s="28">
         <v>7.6685143328319159</v>
       </c>
-      <c r="CI303" s="29">
-        <v>16.467933306642088</v>
-      </c>
-      <c r="CJ303" s="8"/>
+      <c r="CI303" s="28">
+        <v>16.380987531318709</v>
+      </c>
+      <c r="CJ303" s="28">
+        <v>7.4185452340860767</v>
+      </c>
       <c r="CK303" s="8"/>
       <c r="CL303" s="8"/>
       <c r="CM303" s="8"/>
@@ -71605,25 +72040,27 @@
       <c r="CC304" s="16">
         <v>6.2682352654973919</v>
       </c>
-      <c r="CD304" s="29">
+      <c r="CD304" s="28">
         <v>5.8965548031547765</v>
       </c>
-      <c r="CE304" s="29">
+      <c r="CE304" s="28">
         <v>5.0104332242221865</v>
       </c>
-      <c r="CF304" s="29">
+      <c r="CF304" s="28">
         <v>5.7088974465489954</v>
       </c>
-      <c r="CG304" s="29">
+      <c r="CG304" s="28">
         <v>5.3880709166117553</v>
       </c>
-      <c r="CH304" s="29">
+      <c r="CH304" s="28">
         <v>5.4633604533464899</v>
       </c>
-      <c r="CI304" s="29">
-        <v>5.3660696731502666</v>
-      </c>
-      <c r="CJ304" s="8"/>
+      <c r="CI304" s="28">
+        <v>5.3618072283201386</v>
+      </c>
+      <c r="CJ304" s="28">
+        <v>5.6463533058775193</v>
+      </c>
       <c r="CK304" s="8"/>
       <c r="CL304" s="8"/>
       <c r="CM304" s="8"/>
@@ -71936,25 +72373,27 @@
       <c r="CC305" s="16">
         <v>1.5735711122064484</v>
       </c>
-      <c r="CD305" s="29">
+      <c r="CD305" s="28">
         <v>1.1674145548762345</v>
       </c>
-      <c r="CE305" s="29">
+      <c r="CE305" s="28">
         <v>1.3382505258879125</v>
       </c>
-      <c r="CF305" s="29">
+      <c r="CF305" s="28">
         <v>0.94720866757564659</v>
       </c>
-      <c r="CG305" s="29">
+      <c r="CG305" s="28">
         <v>1.154257599848824</v>
       </c>
-      <c r="CH305" s="29">
+      <c r="CH305" s="28">
         <v>1.1142839799273936</v>
       </c>
-      <c r="CI305" s="29">
-        <v>0.90323207613262413</v>
-      </c>
-      <c r="CJ305" s="8"/>
+      <c r="CI305" s="28">
+        <v>0.90868910853596374</v>
+      </c>
+      <c r="CJ305" s="28">
+        <v>0.86802367730539443</v>
+      </c>
       <c r="CK305" s="8"/>
       <c r="CL305" s="8"/>
       <c r="CM305" s="8"/>
@@ -72267,25 +72706,27 @@
       <c r="CC306" s="16">
         <v>4.0022989847681112</v>
       </c>
-      <c r="CD306" s="29">
+      <c r="CD306" s="28">
         <v>4.6742274477329024</v>
       </c>
-      <c r="CE306" s="29">
+      <c r="CE306" s="28">
         <v>6.228329558911299</v>
       </c>
-      <c r="CF306" s="29">
+      <c r="CF306" s="28">
         <v>4.9966861470637376</v>
       </c>
-      <c r="CG306" s="29">
+      <c r="CG306" s="28">
         <v>4.1799401782717638</v>
       </c>
-      <c r="CH306" s="29">
+      <c r="CH306" s="28">
         <v>4.2721819855774088</v>
       </c>
-      <c r="CI306" s="29">
-        <v>5.8070214552938735</v>
-      </c>
-      <c r="CJ306" s="8"/>
+      <c r="CI306" s="28">
+        <v>5.7833947906453966</v>
+      </c>
+      <c r="CJ306" s="28">
+        <v>5.5369649303394164</v>
+      </c>
       <c r="CK306" s="8"/>
       <c r="CL306" s="8"/>
       <c r="CM306" s="8"/>
@@ -72598,25 +73039,27 @@
       <c r="CC307" s="16">
         <v>7.7208548349803658</v>
       </c>
-      <c r="CD307" s="29">
+      <c r="CD307" s="28">
         <v>14.070360013972708</v>
       </c>
-      <c r="CE307" s="29">
+      <c r="CE307" s="28">
         <v>4.4645936542329077</v>
       </c>
-      <c r="CF307" s="29">
+      <c r="CF307" s="28">
         <v>4.382540272925759</v>
       </c>
-      <c r="CG307" s="29">
+      <c r="CG307" s="28">
         <v>5.8067638194559441</v>
       </c>
-      <c r="CH307" s="29">
+      <c r="CH307" s="28">
         <v>13.117352684914676</v>
       </c>
-      <c r="CI307" s="29">
-        <v>7.6834186334499064</v>
-      </c>
-      <c r="CJ307" s="8"/>
+      <c r="CI307" s="28">
+        <v>7.7777215859182069</v>
+      </c>
+      <c r="CJ307" s="28">
+        <v>4.9117373399010615</v>
+      </c>
       <c r="CK307" s="8"/>
       <c r="CL307" s="8"/>
       <c r="CM307" s="8"/>
@@ -72929,25 +73372,27 @@
       <c r="CC308" s="16">
         <v>1.448684154428415</v>
       </c>
-      <c r="CD308" s="29">
+      <c r="CD308" s="28">
         <v>2.0980801817900652</v>
       </c>
-      <c r="CE308" s="29">
+      <c r="CE308" s="28">
         <v>0.7084649410811652</v>
       </c>
-      <c r="CF308" s="29">
+      <c r="CF308" s="28">
         <v>0.89007835593220652</v>
       </c>
-      <c r="CG308" s="29">
+      <c r="CG308" s="28">
         <v>1.5385257916021122</v>
       </c>
-      <c r="CH308" s="29">
+      <c r="CH308" s="28">
         <v>2.5194313087115972</v>
       </c>
-      <c r="CI308" s="29">
-        <v>0.77299703272788556</v>
-      </c>
-      <c r="CJ308" s="8"/>
+      <c r="CI308" s="28">
+        <v>0.77516680596652476</v>
+      </c>
+      <c r="CJ308" s="28">
+        <v>0.7587484597995644</v>
+      </c>
       <c r="CK308" s="8"/>
       <c r="CL308" s="8"/>
       <c r="CM308" s="8"/>
@@ -73260,25 +73705,27 @@
       <c r="CC309" s="16">
         <v>3.0564119361425885</v>
       </c>
-      <c r="CD309" s="29">
+      <c r="CD309" s="28">
         <v>2.7052223499121517</v>
       </c>
-      <c r="CE309" s="29">
+      <c r="CE309" s="28">
         <v>2.546655505572915</v>
       </c>
-      <c r="CF309" s="29">
+      <c r="CF309" s="28">
         <v>3.2773804346287876</v>
       </c>
-      <c r="CG309" s="29">
+      <c r="CG309" s="28">
         <v>3.4009447658931791</v>
       </c>
-      <c r="CH309" s="29">
+      <c r="CH309" s="28">
         <v>3.2419075116648521</v>
       </c>
-      <c r="CI309" s="29">
-        <v>2.4557100175207065</v>
-      </c>
-      <c r="CJ309" s="8"/>
+      <c r="CI309" s="28">
+        <v>2.4602688265760615</v>
+      </c>
+      <c r="CJ309" s="28">
+        <v>3.3474874640366461</v>
+      </c>
       <c r="CK309" s="8"/>
       <c r="CL309" s="8"/>
       <c r="CM309" s="8"/>
@@ -73591,25 +74038,27 @@
       <c r="CC310" s="16">
         <v>4.7234372032973271</v>
       </c>
-      <c r="CD310" s="29">
+      <c r="CD310" s="28">
         <v>4.058409623315689</v>
       </c>
-      <c r="CE310" s="29">
+      <c r="CE310" s="28">
         <v>6.0354418558363347</v>
       </c>
-      <c r="CF310" s="29">
+      <c r="CF310" s="28">
         <v>5.9677411436632255</v>
       </c>
-      <c r="CG310" s="29">
+      <c r="CG310" s="28">
         <v>5.5456702677127003</v>
       </c>
-      <c r="CH310" s="29">
+      <c r="CH310" s="28">
         <v>4.4225226246571907</v>
       </c>
-      <c r="CI310" s="29">
-        <v>5.1518363009150896</v>
-      </c>
-      <c r="CJ310" s="8"/>
+      <c r="CI310" s="28">
+        <v>5.1412220194709999</v>
+      </c>
+      <c r="CJ310" s="28">
+        <v>5.8425946743631894</v>
+      </c>
       <c r="CK310" s="8"/>
       <c r="CL310" s="8"/>
       <c r="CM310" s="8"/>
@@ -73922,25 +74371,27 @@
       <c r="CC311" s="16">
         <v>2.7855281626107447</v>
       </c>
-      <c r="CD311" s="29">
+      <c r="CD311" s="28">
         <v>1.2350188595335889</v>
       </c>
-      <c r="CE311" s="29">
+      <c r="CE311" s="28">
         <v>2.0014702910357309</v>
       </c>
-      <c r="CF311" s="29">
+      <c r="CF311" s="28">
         <v>3.2467297808715787</v>
       </c>
-      <c r="CG311" s="29">
+      <c r="CG311" s="28">
         <v>2.0817297885914869</v>
       </c>
-      <c r="CH311" s="29">
+      <c r="CH311" s="28">
         <v>0.94029538195367601</v>
       </c>
-      <c r="CI311" s="29">
-        <v>1.1315730269989417</v>
-      </c>
-      <c r="CJ311" s="8"/>
+      <c r="CI311" s="28">
+        <v>1.1379252056332789</v>
+      </c>
+      <c r="CJ311" s="28">
+        <v>3.251456046319094</v>
+      </c>
       <c r="CK311" s="8"/>
       <c r="CL311" s="8"/>
       <c r="CM311" s="8"/>
@@ -74253,25 +74704,27 @@
       <c r="CC312" s="16">
         <v>1.0173080277212083</v>
       </c>
-      <c r="CD312" s="29">
+      <c r="CD312" s="28">
         <v>1.0737377757378781</v>
       </c>
-      <c r="CE312" s="29">
+      <c r="CE312" s="28">
         <v>1.3020393850110294</v>
       </c>
-      <c r="CF312" s="29">
+      <c r="CF312" s="28">
         <v>1.1237012409779781</v>
       </c>
-      <c r="CG312" s="29">
+      <c r="CG312" s="28">
         <v>1.1768377654943631</v>
       </c>
-      <c r="CH312" s="29">
+      <c r="CH312" s="28">
         <v>1.0878056306569515</v>
       </c>
-      <c r="CI312" s="29">
-        <v>0.83880047230632004</v>
-      </c>
-      <c r="CJ312" s="8"/>
+      <c r="CI312" s="28">
+        <v>0.82997535932411104</v>
+      </c>
+      <c r="CJ312" s="28">
+        <v>1.0525853794294908</v>
+      </c>
       <c r="CK312" s="8"/>
       <c r="CL312" s="8"/>
       <c r="CM312" s="8"/>
@@ -74584,25 +75037,27 @@
       <c r="CC313" s="16">
         <v>1.867087048492063</v>
       </c>
-      <c r="CD313" s="29">
+      <c r="CD313" s="28">
         <v>1.459525825220547</v>
       </c>
-      <c r="CE313" s="29">
+      <c r="CE313" s="28">
         <v>3.0135272787312735</v>
       </c>
-      <c r="CF313" s="29">
+      <c r="CF313" s="28">
         <v>2.130626789035126</v>
       </c>
-      <c r="CG313" s="29">
+      <c r="CG313" s="28">
         <v>1.9546186468864288</v>
       </c>
-      <c r="CH313" s="29">
+      <c r="CH313" s="28">
         <v>1.5288441971758606</v>
       </c>
-      <c r="CI313" s="29">
-        <v>2.572035808650651</v>
-      </c>
-      <c r="CJ313" s="8"/>
+      <c r="CI313" s="28">
+        <v>2.5629311095868124</v>
+      </c>
+      <c r="CJ313" s="28">
+        <v>3.3478162801139235</v>
+      </c>
       <c r="CK313" s="8"/>
       <c r="CL313" s="8"/>
       <c r="CM313" s="8"/>
@@ -74915,25 +75370,27 @@
       <c r="CC314" s="16">
         <v>0.75243906311793629</v>
       </c>
-      <c r="CD314" s="29">
+      <c r="CD314" s="28">
         <v>1.284636761590813</v>
       </c>
-      <c r="CE314" s="29">
+      <c r="CE314" s="28">
         <v>1.699376798976028</v>
       </c>
-      <c r="CF314" s="29">
+      <c r="CF314" s="28">
         <v>1.0667919890481306</v>
       </c>
-      <c r="CG314" s="29">
+      <c r="CG314" s="28">
         <v>0.86957288043554826</v>
       </c>
-      <c r="CH314" s="29">
+      <c r="CH314" s="28">
         <v>1.2775537830274921</v>
       </c>
-      <c r="CI314" s="29">
-        <v>1.3384994009982596</v>
-      </c>
-      <c r="CJ314" s="8"/>
+      <c r="CI314" s="28">
+        <v>1.3380192021730568</v>
+      </c>
+      <c r="CJ314" s="28">
+        <v>0.76136436478269387</v>
+      </c>
       <c r="CK314" s="8"/>
       <c r="CL314" s="8"/>
       <c r="CM314" s="8"/>
@@ -75246,25 +75703,27 @@
       <c r="CC315" s="16">
         <v>0.97993390142349834</v>
       </c>
-      <c r="CD315" s="29">
+      <c r="CD315" s="28">
         <v>0.77919204306802348</v>
       </c>
-      <c r="CE315" s="29">
+      <c r="CE315" s="28">
         <v>1.4229846797220091</v>
       </c>
-      <c r="CF315" s="29">
+      <c r="CF315" s="28">
         <v>2.2955903276637191</v>
       </c>
-      <c r="CG315" s="29">
+      <c r="CG315" s="28">
         <v>1.0544614009338422</v>
       </c>
-      <c r="CH315" s="29">
+      <c r="CH315" s="28">
         <v>0.86459949689604387</v>
       </c>
-      <c r="CI315" s="29">
-        <v>1.1241010285574355</v>
-      </c>
-      <c r="CJ315" s="8"/>
+      <c r="CI315" s="28">
+        <v>1.1415146573722827</v>
+      </c>
+      <c r="CJ315" s="28">
+        <v>1.4588735679362859</v>
+      </c>
       <c r="CK315" s="8"/>
       <c r="CL315" s="8"/>
       <c r="CM315" s="8"/>
@@ -75577,25 +76036,27 @@
       <c r="CC316" s="16">
         <v>0.36150867761675137</v>
       </c>
-      <c r="CD316" s="29">
+      <c r="CD316" s="28">
         <v>0.26917609251779695</v>
       </c>
-      <c r="CE316" s="29">
+      <c r="CE316" s="28">
         <v>0.35030553839958073</v>
       </c>
-      <c r="CF316" s="29">
+      <c r="CF316" s="28">
         <v>0.1575497752452571</v>
       </c>
-      <c r="CG316" s="29">
+      <c r="CG316" s="28">
         <v>0.28683463555958427</v>
       </c>
-      <c r="CH316" s="29">
+      <c r="CH316" s="28">
         <v>0.51725870370736682</v>
       </c>
-      <c r="CI316" s="29">
-        <v>9.9965757822963755E-2</v>
-      </c>
-      <c r="CJ316" s="8"/>
+      <c r="CI316" s="28">
+        <v>9.886857306163549E-2</v>
+      </c>
+      <c r="CJ316" s="28">
+        <v>0.18869381975399332</v>
+      </c>
       <c r="CK316" s="8"/>
       <c r="CL316" s="8"/>
       <c r="CM316" s="8"/>
@@ -75908,25 +76369,27 @@
       <c r="CC317" s="16">
         <v>2.9823348832961849</v>
       </c>
-      <c r="CD317" s="29">
+      <c r="CD317" s="28">
         <v>2.2865203808190007</v>
       </c>
-      <c r="CE317" s="29">
+      <c r="CE317" s="28">
         <v>1.0697726321928551</v>
       </c>
-      <c r="CF317" s="29">
+      <c r="CF317" s="28">
         <v>1.6426769975220807</v>
       </c>
-      <c r="CG317" s="29">
+      <c r="CG317" s="28">
         <v>2.9369869550308301</v>
       </c>
-      <c r="CH317" s="29">
+      <c r="CH317" s="28">
         <v>2.3194442592629221</v>
       </c>
-      <c r="CI317" s="29">
-        <v>0.71040026547263524</v>
-      </c>
-      <c r="CJ317" s="8"/>
+      <c r="CI317" s="28">
+        <v>0.70708575310430422</v>
+      </c>
+      <c r="CJ317" s="28">
+        <v>1.3935238283660769</v>
+      </c>
       <c r="CK317" s="8"/>
       <c r="CL317" s="8"/>
       <c r="CM317" s="8"/>
@@ -76239,25 +76702,27 @@
       <c r="CC318" s="16">
         <v>2.5908582790827821</v>
       </c>
-      <c r="CD318" s="29">
+      <c r="CD318" s="28">
         <v>2.8618076827102095</v>
       </c>
-      <c r="CE318" s="29">
+      <c r="CE318" s="28">
         <v>2.4002820213054785</v>
       </c>
-      <c r="CF318" s="29">
+      <c r="CF318" s="28">
         <v>2.6202023836927388</v>
       </c>
-      <c r="CG318" s="29">
+      <c r="CG318" s="28">
         <v>2.6695960292590017</v>
       </c>
-      <c r="CH318" s="29">
+      <c r="CH318" s="28">
         <v>2.5544611564884185</v>
       </c>
-      <c r="CI318" s="29">
-        <v>1.7854557377404288</v>
-      </c>
-      <c r="CJ318" s="8"/>
+      <c r="CI318" s="28">
+        <v>1.790003928903416</v>
+      </c>
+      <c r="CJ318" s="28">
+        <v>2.3563500012000143</v>
+      </c>
       <c r="CK318" s="8"/>
       <c r="CL318" s="8"/>
       <c r="CM318" s="8"/>
@@ -76570,25 +77035,27 @@
       <c r="CC319" s="16">
         <v>1.0274814583565883</v>
       </c>
-      <c r="CD319" s="29">
+      <c r="CD319" s="28">
         <v>1.5134300202913196</v>
       </c>
-      <c r="CE319" s="29">
+      <c r="CE319" s="28">
         <v>1.7153230745616255</v>
       </c>
-      <c r="CF319" s="29">
+      <c r="CF319" s="28">
         <v>1.4148035467312918</v>
       </c>
-      <c r="CG319" s="29">
+      <c r="CG319" s="28">
         <v>1.1536337096333866</v>
       </c>
-      <c r="CH319" s="29">
+      <c r="CH319" s="28">
         <v>1.402004637387622</v>
       </c>
-      <c r="CI319" s="29">
-        <v>1.2216428275072877</v>
-      </c>
-      <c r="CJ319" s="8"/>
+      <c r="CI319" s="28">
+        <v>1.2176341339056345</v>
+      </c>
+      <c r="CJ319" s="28">
+        <v>1.2789704056556812</v>
+      </c>
       <c r="CK319" s="8"/>
       <c r="CL319" s="8"/>
       <c r="CM319" s="8"/>
@@ -76901,25 +77368,27 @@
       <c r="CC320" s="16">
         <v>1.0662876225981335</v>
       </c>
-      <c r="CD320" s="29">
+      <c r="CD320" s="28">
         <v>1.2893600414267521</v>
       </c>
-      <c r="CE320" s="29">
+      <c r="CE320" s="28">
         <v>1.3890827665022161</v>
       </c>
-      <c r="CF320" s="29">
+      <c r="CF320" s="28">
         <v>0.88063149692045661</v>
       </c>
-      <c r="CG320" s="29">
+      <c r="CG320" s="28">
         <v>0.93627824189457232</v>
       </c>
-      <c r="CH320" s="29">
+      <c r="CH320" s="28">
         <v>1.3286398062095677</v>
       </c>
-      <c r="CI320" s="29">
-        <v>1.6725496372275952</v>
-      </c>
-      <c r="CJ320" s="8"/>
+      <c r="CI320" s="28">
+        <v>1.6627907989581052</v>
+      </c>
+      <c r="CJ320" s="28">
+        <v>0.99535465040061866</v>
+      </c>
       <c r="CK320" s="8"/>
       <c r="CL320" s="8"/>
       <c r="CM320" s="8"/>
@@ -77232,25 +77701,27 @@
       <c r="CC321" s="16">
         <v>0.56456080656511176</v>
       </c>
-      <c r="CD321" s="29">
+      <c r="CD321" s="28">
         <v>0.66511398821910783</v>
       </c>
-      <c r="CE321" s="29">
+      <c r="CE321" s="28">
         <v>0.58819773192166869</v>
       </c>
-      <c r="CF321" s="29">
+      <c r="CF321" s="28">
         <v>0.54912424097738499</v>
       </c>
-      <c r="CG321" s="29">
+      <c r="CG321" s="28">
         <v>0.50060678520135271</v>
       </c>
-      <c r="CH321" s="29">
+      <c r="CH321" s="28">
         <v>0.60017687516312435</v>
       </c>
-      <c r="CI321" s="29">
-        <v>0.45331289463983104</v>
-      </c>
-      <c r="CJ321" s="8"/>
+      <c r="CI321" s="28">
+        <v>0.45159781607156124</v>
+      </c>
+      <c r="CJ321" s="28">
+        <v>0.36013069794335428</v>
+      </c>
       <c r="CK321" s="8"/>
       <c r="CL321" s="8"/>
       <c r="CM321" s="8"/>
@@ -77563,25 +78034,27 @@
       <c r="CC322" s="16">
         <v>20.037823109659527</v>
       </c>
-      <c r="CD322" s="29">
+      <c r="CD322" s="28">
         <v>23.036205162210788</v>
       </c>
-      <c r="CE322" s="29">
+      <c r="CE322" s="28">
         <v>20.078617413263906</v>
       </c>
-      <c r="CF322" s="29">
+      <c r="CF322" s="28">
         <v>21.994238774184215</v>
       </c>
-      <c r="CG322" s="29">
+      <c r="CG322" s="28">
         <v>18.276199258624647</v>
       </c>
-      <c r="CH322" s="29">
+      <c r="CH322" s="28">
         <v>23.095657620906344</v>
       </c>
-      <c r="CI322" s="29">
-        <v>19.789848703773334</v>
-      </c>
-      <c r="CJ322" s="8"/>
+      <c r="CI322" s="28">
+        <v>19.898769081459079</v>
+      </c>
+      <c r="CJ322" s="28">
+        <v>21.658615172600403</v>
+      </c>
       <c r="CK322" s="8"/>
       <c r="CL322" s="8"/>
       <c r="CM322" s="8"/>
@@ -77731,13 +78204,13 @@
       <c r="CA323" s="8"/>
       <c r="CB323" s="8"/>
       <c r="CC323" s="8"/>
-      <c r="CD323" s="25"/>
-      <c r="CE323" s="25"/>
-      <c r="CF323" s="25"/>
-      <c r="CG323" s="25"/>
-      <c r="CH323" s="25"/>
-      <c r="CI323" s="25"/>
-      <c r="CJ323" s="8"/>
+      <c r="CD323" s="24"/>
+      <c r="CE323" s="24"/>
+      <c r="CF323" s="24"/>
+      <c r="CG323" s="24"/>
+      <c r="CH323" s="24"/>
+      <c r="CI323" s="24"/>
+      <c r="CJ323" s="24"/>
       <c r="CK323" s="8"/>
       <c r="CL323" s="8"/>
       <c r="CM323" s="8"/>
@@ -78050,25 +78523,27 @@
       <c r="CC324" s="16">
         <v>100</v>
       </c>
-      <c r="CD324" s="29">
+      <c r="CD324" s="28">
         <v>100</v>
       </c>
-      <c r="CE324" s="29">
+      <c r="CE324" s="28">
         <v>100</v>
       </c>
-      <c r="CF324" s="29">
+      <c r="CF324" s="28">
         <v>100</v>
       </c>
-      <c r="CG324" s="29">
+      <c r="CG324" s="28">
         <v>100</v>
       </c>
-      <c r="CH324" s="29">
+      <c r="CH324" s="28">
         <v>100</v>
       </c>
-      <c r="CI324" s="29">
+      <c r="CI324" s="28">
         <v>100</v>
       </c>
-      <c r="CJ324" s="8"/>
+      <c r="CJ324" s="28">
+        <v>100</v>
+      </c>
       <c r="CK324" s="8"/>
       <c r="CL324" s="8"/>
       <c r="CM324" s="8"/>
@@ -78219,12 +78694,13 @@
       <c r="CA325" s="11"/>
       <c r="CB325" s="11"/>
       <c r="CC325" s="11"/>
-      <c r="CD325" s="26"/>
-      <c r="CE325" s="26"/>
-      <c r="CF325" s="26"/>
-      <c r="CG325" s="26"/>
-      <c r="CH325" s="26"/>
-      <c r="CI325" s="26"/>
+      <c r="CD325" s="25"/>
+      <c r="CE325" s="25"/>
+      <c r="CF325" s="25"/>
+      <c r="CG325" s="25"/>
+      <c r="CH325" s="25"/>
+      <c r="CI325" s="25"/>
+      <c r="CJ325" s="25"/>
     </row>
     <row r="326" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
@@ -78319,7 +78795,7 @@
       <c r="CG327" s="20"/>
       <c r="CH327" s="20"/>
       <c r="CI327" s="20"/>
-      <c r="CJ327" s="18"/>
+      <c r="CJ327" s="20"/>
       <c r="CK327" s="18"/>
       <c r="CL327" s="18"/>
       <c r="CM327" s="18"/>
@@ -78476,7 +78952,7 @@
       <c r="CG328" s="20"/>
       <c r="CH328" s="20"/>
       <c r="CI328" s="20"/>
-      <c r="CJ328" s="18"/>
+      <c r="CJ328" s="20"/>
       <c r="CK328" s="18"/>
       <c r="CL328" s="18"/>
       <c r="CM328" s="18"/>
@@ -78576,6 +79052,7 @@
     <mergeCell ref="AP103:AS103"/>
     <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AL150:AO150"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
@@ -78585,6 +79062,11 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="AP56:AS56"/>
+    <mergeCell ref="AT56:AW56"/>
+    <mergeCell ref="AX56:BA56"/>
+    <mergeCell ref="BB56:BE56"/>
     <mergeCell ref="B196:E196"/>
     <mergeCell ref="F196:I196"/>
     <mergeCell ref="J196:M196"/>
@@ -78609,11 +79091,6 @@
     <mergeCell ref="V56:Y56"/>
     <mergeCell ref="Z56:AC56"/>
     <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="AP56:AS56"/>
-    <mergeCell ref="AT56:AW56"/>
-    <mergeCell ref="AX56:BA56"/>
-    <mergeCell ref="BB56:BE56"/>
     <mergeCell ref="B150:E150"/>
     <mergeCell ref="F150:I150"/>
     <mergeCell ref="J150:M150"/>
@@ -78632,7 +79109,6 @@
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="AD103:AG103"/>
     <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL150:AO150"/>
     <mergeCell ref="AL290:AO290"/>
     <mergeCell ref="AP290:AS290"/>
     <mergeCell ref="AT290:AW290"/>
@@ -78675,13 +79151,13 @@
     <mergeCell ref="BF243:BI243"/>
     <mergeCell ref="BJ243:BM243"/>
     <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH56:CI56"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH56:CJ56"/>
+    <mergeCell ref="CD150:CF150"/>
+    <mergeCell ref="CH196:CJ196"/>
+    <mergeCell ref="CH243:CJ243"/>
+    <mergeCell ref="CH290:CJ290"/>
     <mergeCell ref="CD103:CE103"/>
-    <mergeCell ref="CD150:CE150"/>
-    <mergeCell ref="CH196:CI196"/>
-    <mergeCell ref="CH243:CI243"/>
-    <mergeCell ref="CH290:CI290"/>
     <mergeCell ref="BN150:BQ150"/>
     <mergeCell ref="BB103:BE103"/>
     <mergeCell ref="BF103:BI103"/>
@@ -78701,51 +79177,56 @@
     <mergeCell ref="BR103:BU103"/>
   </mergeCells>
   <conditionalFormatting sqref="BR106:BU137 BR153:BU184 BR199:BU230">
-    <cfRule type="cellIs" dxfId="9" priority="31" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="36" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV106:BY137 BV153:BY184 BV199:BY230">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA199:CC230">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ106:CC137">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ153:CC184">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ199:BZ230">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD199:CE230 CH199:CI230">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD106:CF137">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD106:CE137">
+  <conditionalFormatting sqref="CD153:CF184">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD153:CE184">
+  <conditionalFormatting sqref="CF199:CG230">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF199:CG230">
+  <conditionalFormatting sqref="CJ199:CJ230">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -78754,12 +79235,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="47" max="86" man="1"/>
-    <brk id="94" max="86" man="1"/>
-    <brk id="141" max="86" man="1"/>
-    <brk id="188" max="86" man="1"/>
-    <brk id="234" max="86" man="1"/>
-    <brk id="281" max="86" man="1"/>
+    <brk id="47" max="87" man="1"/>
+    <brk id="94" max="87" man="1"/>
+    <brk id="141" max="87" man="1"/>
+    <brk id="188" max="87" man="1"/>
+    <brk id="234" max="87" man="1"/>
+    <brk id="281" max="87" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOG!$A$70:$A$88</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$CJ$328</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$CK$328</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="80">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -287,16 +287,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -447,7 +444,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -854,19 +858,19 @@
   <dimension ref="A1:EY328"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BU84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CL99" sqref="CL99"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
     <col min="2" max="81" width="10.1796875" style="1" customWidth="1"/>
-    <col min="82" max="88" width="12.36328125" style="20" customWidth="1"/>
-    <col min="89" max="16384" width="7.7265625" style="1"/>
+    <col min="82" max="89" width="10.81640625" style="20" customWidth="1"/>
+    <col min="90" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -882,7 +886,7 @@
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:155" x14ac:dyDescent="0.25">
@@ -892,7 +896,7 @@
     </row>
     <row r="6" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.25">
@@ -1033,6 +1037,7 @@
       </c>
       <c r="CI9" s="30"/>
       <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
     </row>
     <row r="10" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1298,6 +1303,9 @@
       </c>
       <c r="CJ10" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CK10" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,9 +1574,11 @@
         <v>322220.26959904737</v>
       </c>
       <c r="CJ12" s="22">
-        <v>304383.86347770609</v>
-      </c>
-      <c r="CK12" s="8"/>
+        <v>304292.39045977592</v>
+      </c>
+      <c r="CK12" s="22">
+        <v>305214.54955033824</v>
+      </c>
       <c r="CL12" s="8"/>
       <c r="CM12" s="8"/>
       <c r="CN12" s="8"/>
@@ -1899,9 +1909,11 @@
         <v>161583.30784961453</v>
       </c>
       <c r="CJ13" s="23">
-        <v>151492.59732417049</v>
-      </c>
-      <c r="CK13" s="8"/>
+        <v>151493.36576309256</v>
+      </c>
+      <c r="CK13" s="23">
+        <v>142697.98712788624</v>
+      </c>
       <c r="CL13" s="8"/>
       <c r="CM13" s="8"/>
       <c r="CN13" s="8"/>
@@ -2232,9 +2244,11 @@
         <v>74734.182772925589</v>
       </c>
       <c r="CJ14" s="23">
-        <v>74903.991691733841</v>
-      </c>
-      <c r="CK14" s="8"/>
+        <v>74749.630463433597</v>
+      </c>
+      <c r="CK14" s="23">
+        <v>76743.683186166323</v>
+      </c>
       <c r="CL14" s="8"/>
       <c r="CM14" s="8"/>
       <c r="CN14" s="8"/>
@@ -2565,9 +2579,11 @@
         <v>3190.9406729294114</v>
       </c>
       <c r="CJ15" s="23">
-        <v>2294.431870449198</v>
-      </c>
-      <c r="CK15" s="8"/>
+        <v>2314.9285085657198</v>
+      </c>
+      <c r="CK15" s="23">
+        <v>2099.0834371234073</v>
+      </c>
       <c r="CL15" s="8"/>
       <c r="CM15" s="8"/>
       <c r="CN15" s="8"/>
@@ -2898,9 +2914,11 @@
         <v>20229.425599710943</v>
       </c>
       <c r="CJ16" s="23">
-        <v>17484.461381443092</v>
-      </c>
-      <c r="CK16" s="8"/>
+        <v>17478.855396809522</v>
+      </c>
+      <c r="CK16" s="23">
+        <v>20216.910578627467</v>
+      </c>
       <c r="CL16" s="8"/>
       <c r="CM16" s="8"/>
       <c r="CN16" s="8"/>
@@ -3231,9 +3249,11 @@
         <v>27834.996812113422</v>
       </c>
       <c r="CJ17" s="23">
-        <v>24578.125712914094</v>
-      </c>
-      <c r="CK17" s="8"/>
+        <v>24585.608761189742</v>
+      </c>
+      <c r="CK17" s="23">
+        <v>25319.855947396198</v>
+      </c>
       <c r="CL17" s="8"/>
       <c r="CM17" s="8"/>
       <c r="CN17" s="8"/>
@@ -3564,9 +3584,11 @@
         <v>17823.483115547046</v>
       </c>
       <c r="CJ18" s="23">
-        <v>15319.205106040812</v>
-      </c>
-      <c r="CK18" s="8"/>
+        <v>15296.966703254566</v>
+      </c>
+      <c r="CK18" s="23">
+        <v>22324.365658090937</v>
+      </c>
       <c r="CL18" s="8"/>
       <c r="CM18" s="8"/>
       <c r="CN18" s="8"/>
@@ -3897,9 +3919,11 @@
         <v>13139.074288603837</v>
       </c>
       <c r="CJ19" s="23">
-        <v>13969.171341140072</v>
-      </c>
-      <c r="CK19" s="8"/>
+        <v>14012.644496302739</v>
+      </c>
+      <c r="CK19" s="23">
+        <v>12569.042439131694</v>
+      </c>
       <c r="CL19" s="8"/>
       <c r="CM19" s="8"/>
       <c r="CN19" s="8"/>
@@ -4230,9 +4254,11 @@
         <v>3020.2307555629081</v>
       </c>
       <c r="CJ20" s="23">
-        <v>3760.3462491735258</v>
-      </c>
-      <c r="CK20" s="8"/>
+        <v>3775.4190857793724</v>
+      </c>
+      <c r="CK20" s="23">
+        <v>2739.4903019978478</v>
+      </c>
       <c r="CL20" s="8"/>
       <c r="CM20" s="8"/>
       <c r="CN20" s="8"/>
@@ -4563,9 +4589,11 @@
         <v>664.6277320396789</v>
       </c>
       <c r="CJ21" s="23">
-        <v>581.53280064095895</v>
-      </c>
-      <c r="CK21" s="8"/>
+        <v>584.97128134807053</v>
+      </c>
+      <c r="CK21" s="23">
+        <v>504.13087391811808</v>
+      </c>
       <c r="CL21" s="8"/>
       <c r="CM21" s="8"/>
       <c r="CN21" s="8"/>
@@ -4896,9 +4924,11 @@
         <v>218681.38601755086</v>
       </c>
       <c r="CJ22" s="23">
-        <v>232085.16919174787</v>
-      </c>
-      <c r="CK22" s="8"/>
+        <v>232673.81492798679</v>
+      </c>
+      <c r="CK22" s="23">
+        <v>266850.19606705772</v>
+      </c>
       <c r="CL22" s="8"/>
       <c r="CM22" s="8"/>
       <c r="CN22" s="8"/>
@@ -5229,9 +5259,11 @@
         <v>82836.406640195011</v>
       </c>
       <c r="CJ23" s="23">
-        <v>81004.270472295844</v>
-      </c>
-      <c r="CK23" s="8"/>
+        <v>81006.543597052223</v>
+      </c>
+      <c r="CK23" s="23">
+        <v>81188.98611643289</v>
+      </c>
       <c r="CL23" s="8"/>
       <c r="CM23" s="8"/>
       <c r="CN23" s="8"/>
@@ -5562,9 +5594,11 @@
         <v>13572.909731947349</v>
       </c>
       <c r="CJ24" s="23">
-        <v>14879.51063913391</v>
-      </c>
-      <c r="CK24" s="8"/>
+        <v>14863.452911004788</v>
+      </c>
+      <c r="CK24" s="23">
+        <v>12488.204143661709</v>
+      </c>
       <c r="CL24" s="8"/>
       <c r="CM24" s="8"/>
       <c r="CN24" s="8"/>
@@ -5895,9 +5929,11 @@
         <v>102533.13086815857</v>
       </c>
       <c r="CJ25" s="23">
-        <v>123312.54452526885</v>
-      </c>
-      <c r="CK25" s="8"/>
+        <v>123309.09049014095</v>
+      </c>
+      <c r="CK25" s="23">
+        <v>80033.254166507249</v>
+      </c>
       <c r="CL25" s="8"/>
       <c r="CM25" s="8"/>
       <c r="CN25" s="8"/>
@@ -6228,9 +6264,11 @@
         <v>91449.139464255975</v>
       </c>
       <c r="CJ26" s="23">
-        <v>83248.508232938708</v>
-      </c>
-      <c r="CK26" s="8"/>
+        <v>83311.921141828381</v>
+      </c>
+      <c r="CK26" s="23">
+        <v>115200.01937449518</v>
+      </c>
       <c r="CL26" s="8"/>
       <c r="CM26" s="8"/>
       <c r="CN26" s="8"/>
@@ -6561,9 +6599,11 @@
         <v>17853.899462482197</v>
       </c>
       <c r="CJ27" s="23">
-        <v>16143.651719724174</v>
-      </c>
-      <c r="CK27" s="8"/>
+        <v>16125.904779900718</v>
+      </c>
+      <c r="CK27" s="23">
+        <v>17335.227362576101</v>
+      </c>
       <c r="CL27" s="8"/>
       <c r="CM27" s="8"/>
       <c r="CN27" s="8"/>
@@ -6894,9 +6934,11 @@
         <v>38844.383268205296</v>
       </c>
       <c r="CJ28" s="23">
-        <v>41155.47177004211</v>
-      </c>
-      <c r="CK28" s="8"/>
+        <v>41159.351300824259</v>
+      </c>
+      <c r="CK28" s="23">
+        <v>43475.532158573427</v>
+      </c>
       <c r="CL28" s="8"/>
       <c r="CM28" s="8"/>
       <c r="CN28" s="8"/>
@@ -7227,9 +7269,11 @@
         <v>81467.119290670336</v>
       </c>
       <c r="CJ29" s="23">
-        <v>84975.527286364711</v>
-      </c>
-      <c r="CK29" s="8"/>
+        <v>85136.451298551023</v>
+      </c>
+      <c r="CK29" s="23">
+        <v>80260.141901769268</v>
+      </c>
       <c r="CL29" s="8"/>
       <c r="CM29" s="8"/>
       <c r="CN29" s="8"/>
@@ -7560,9 +7604,11 @@
         <v>35453.329560488775</v>
       </c>
       <c r="CJ30" s="23">
-        <v>43819.985699302953</v>
-      </c>
-      <c r="CK30" s="8"/>
+        <v>44027.38440541731</v>
+      </c>
+      <c r="CK30" s="23">
+        <v>64635.946710878634</v>
+      </c>
       <c r="CL30" s="8"/>
       <c r="CM30" s="8"/>
       <c r="CN30" s="8"/>
@@ -7893,9 +7939,11 @@
         <v>14352.20130650029</v>
       </c>
       <c r="CJ31" s="23">
-        <v>17389.79432888986</v>
-      </c>
-      <c r="CK31" s="8"/>
+        <v>17401.60808186893</v>
+      </c>
+      <c r="CK31" s="23">
+        <v>17520.678123124133</v>
+      </c>
       <c r="CL31" s="8"/>
       <c r="CM31" s="8"/>
       <c r="CN31" s="8"/>
@@ -8226,9 +8274,11 @@
         <v>27217.635878118439</v>
       </c>
       <c r="CJ32" s="23">
-        <v>43785.40063453</v>
-      </c>
-      <c r="CK32" s="8"/>
+        <v>43798.069769085247</v>
+      </c>
+      <c r="CK32" s="23">
+        <v>128677.54667835846</v>
+      </c>
       <c r="CL32" s="8"/>
       <c r="CM32" s="8"/>
       <c r="CN32" s="8"/>
@@ -8559,9 +8609,11 @@
         <v>16286.501965285763</v>
       </c>
       <c r="CJ33" s="23">
-        <v>15240.011923386968</v>
-      </c>
-      <c r="CK33" s="8"/>
+        <v>15226.078803065626</v>
+      </c>
+      <c r="CK33" s="23">
+        <v>18046.43040044752</v>
+      </c>
       <c r="CL33" s="8"/>
       <c r="CM33" s="8"/>
       <c r="CN33" s="8"/>
@@ -8892,9 +8944,11 @@
         <v>27488.250865085694</v>
       </c>
       <c r="CJ34" s="23">
-        <v>20505.523900098968</v>
-      </c>
-      <c r="CK34" s="8"/>
+        <v>20507.17237039921</v>
+      </c>
+      <c r="CK34" s="23">
+        <v>24891.58617681505</v>
+      </c>
       <c r="CL34" s="8"/>
       <c r="CM34" s="8"/>
       <c r="CN34" s="8"/>
@@ -9225,9 +9279,11 @@
         <v>1784.869241988823</v>
       </c>
       <c r="CJ35" s="23">
-        <v>7625.9335506615962</v>
-      </c>
-      <c r="CK35" s="8"/>
+        <v>7625.6292227615977</v>
+      </c>
+      <c r="CK35" s="23">
+        <v>9372.0993074479884</v>
+      </c>
       <c r="CL35" s="8"/>
       <c r="CM35" s="8"/>
       <c r="CN35" s="8"/>
@@ -9558,9 +9614,11 @@
         <v>29344.959424075478</v>
       </c>
       <c r="CJ36" s="23">
-        <v>31889.181302266545</v>
-      </c>
-      <c r="CK36" s="8"/>
+        <v>31890.496685627473</v>
+      </c>
+      <c r="CK36" s="23">
+        <v>30744.05108662639</v>
+      </c>
       <c r="CL36" s="8"/>
       <c r="CM36" s="8"/>
       <c r="CN36" s="8"/>
@@ -9891,9 +9949,11 @@
         <v>39199.046830798528</v>
       </c>
       <c r="CJ37" s="23">
-        <v>40500.641321495124</v>
-      </c>
-      <c r="CK37" s="8"/>
+        <v>40500.98603325049</v>
+      </c>
+      <c r="CK37" s="23">
+        <v>39655.751685242722</v>
+      </c>
       <c r="CL37" s="8"/>
       <c r="CM37" s="8"/>
       <c r="CN37" s="8"/>
@@ -10224,9 +10284,11 @@
         <v>15584.190792464557</v>
       </c>
       <c r="CJ38" s="23">
-        <v>19389.624943545932</v>
-      </c>
-      <c r="CK38" s="8"/>
+        <v>19377.951849877674</v>
+      </c>
+      <c r="CK38" s="23">
+        <v>22764.759682898399</v>
+      </c>
       <c r="CL38" s="8"/>
       <c r="CM38" s="8"/>
       <c r="CN38" s="8"/>
@@ -10557,9 +10619,11 @@
         <v>16523.549213323069</v>
       </c>
       <c r="CJ39" s="23">
-        <v>18258.843256769687</v>
-      </c>
-      <c r="CK39" s="8"/>
+        <v>18359.94399651347</v>
+      </c>
+      <c r="CK39" s="23">
+        <v>17442.32378252146</v>
+      </c>
       <c r="CL39" s="8"/>
       <c r="CM39" s="8"/>
       <c r="CN39" s="8"/>
@@ -10890,9 +10954,11 @@
         <v>6536.3406600132912</v>
       </c>
       <c r="CJ40" s="23">
-        <v>6266.7639567052092</v>
-      </c>
-      <c r="CK40" s="8"/>
+        <v>6253.8347392826345</v>
+      </c>
+      <c r="CK40" s="23">
+        <v>7731.3613379156604</v>
+      </c>
       <c r="CL40" s="8"/>
       <c r="CM40" s="8"/>
       <c r="CN40" s="8"/>
@@ -11223,9 +11289,11 @@
         <v>345247.15396894142</v>
       </c>
       <c r="CJ41" s="23">
-        <v>435859.45158643991</v>
-      </c>
-      <c r="CK41" s="8"/>
+        <v>436881.1963504536</v>
+      </c>
+      <c r="CK41" s="23">
+        <v>278502.49644396908</v>
+      </c>
       <c r="CL41" s="8"/>
       <c r="CM41" s="8"/>
       <c r="CN41" s="8"/>
@@ -11381,7 +11449,7 @@
       <c r="CH42" s="24"/>
       <c r="CI42" s="24"/>
       <c r="CJ42" s="24"/>
-      <c r="CK42" s="8"/>
+      <c r="CK42" s="24"/>
       <c r="CL42" s="8"/>
       <c r="CM42" s="8"/>
       <c r="CN42" s="8"/>
@@ -11712,9 +11780,11 @@
         <v>1544476.6740495972</v>
       </c>
       <c r="CJ43" s="22">
-        <v>1681719.6737193151</v>
-      </c>
-      <c r="CK43" s="8"/>
+        <v>1683729.2732146685</v>
+      </c>
+      <c r="CK43" s="22">
+        <v>1662031.1422576569</v>
+      </c>
       <c r="CL43" s="8"/>
       <c r="CM43" s="8"/>
       <c r="CN43" s="8"/>
@@ -11871,6 +11941,7 @@
       <c r="CH44" s="25"/>
       <c r="CI44" s="25"/>
       <c r="CJ44" s="25"/>
+      <c r="CK44" s="25"/>
     </row>
     <row r="45" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -11965,7 +12036,7 @@
       <c r="CH46" s="26"/>
       <c r="CI46" s="26"/>
       <c r="CJ46" s="26"/>
-      <c r="CK46" s="8"/>
+      <c r="CK46" s="26"/>
       <c r="CL46" s="8"/>
       <c r="CM46" s="8"/>
       <c r="CN46" s="8"/>
@@ -12121,7 +12192,7 @@
       <c r="CH47" s="24"/>
       <c r="CI47" s="24"/>
       <c r="CJ47" s="24"/>
-      <c r="CK47" s="8"/>
+      <c r="CK47" s="24"/>
       <c r="CL47" s="8"/>
       <c r="CM47" s="8"/>
       <c r="CN47" s="8"/>
@@ -12201,7 +12272,7 @@
     </row>
     <row r="50" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:155" x14ac:dyDescent="0.25">
@@ -12211,7 +12282,7 @@
     </row>
     <row r="53" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:155" x14ac:dyDescent="0.25">
@@ -12350,10 +12421,9 @@
       <c r="CH56" s="30">
         <v>2021</v>
       </c>
-      <c r="CI56" s="30">
-        <v>0</v>
-      </c>
+      <c r="CI56" s="30"/>
       <c r="CJ56" s="30"/>
+      <c r="CK56" s="30"/>
     </row>
     <row r="57" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -12619,6 +12689,9 @@
       </c>
       <c r="CJ57" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CK57" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12887,9 +12960,11 @@
         <v>349111.605551316</v>
       </c>
       <c r="CJ59" s="22">
-        <v>409048.57224098034</v>
-      </c>
-      <c r="CK59" s="8"/>
+        <v>408892.53566462279</v>
+      </c>
+      <c r="CK59" s="22">
+        <v>228130.69894179911</v>
+      </c>
       <c r="CL59" s="8"/>
       <c r="CM59" s="8"/>
       <c r="CN59" s="8"/>
@@ -13220,9 +13295,11 @@
         <v>142715.95970018918</v>
       </c>
       <c r="CJ60" s="23">
-        <v>208574.4473248054</v>
-      </c>
-      <c r="CK60" s="8"/>
+        <v>208575.50530866932</v>
+      </c>
+      <c r="CK60" s="23">
+        <v>107498.62265753138</v>
+      </c>
       <c r="CL60" s="8"/>
       <c r="CM60" s="8"/>
       <c r="CN60" s="8"/>
@@ -13553,9 +13630,11 @@
         <v>94697.585271958262</v>
       </c>
       <c r="CJ61" s="23">
-        <v>99230.21393239843</v>
-      </c>
-      <c r="CK61" s="8"/>
+        <v>99025.72152336716</v>
+      </c>
+      <c r="CK61" s="23">
+        <v>65264.85813821679</v>
+      </c>
       <c r="CL61" s="8"/>
       <c r="CM61" s="8"/>
       <c r="CN61" s="8"/>
@@ -13886,9 +13965,11 @@
         <v>6316.805830549165</v>
       </c>
       <c r="CJ62" s="23">
-        <v>1744.9694464912186</v>
-      </c>
-      <c r="CK62" s="8"/>
+        <v>1760.5576222526179</v>
+      </c>
+      <c r="CK62" s="23">
+        <v>929.00453020652731</v>
+      </c>
       <c r="CL62" s="8"/>
       <c r="CM62" s="8"/>
       <c r="CN62" s="8"/>
@@ -14219,9 +14300,11 @@
         <v>27636.851753191218</v>
       </c>
       <c r="CJ63" s="23">
-        <v>17956.250763298507</v>
-      </c>
-      <c r="CK63" s="8"/>
+        <v>17950.493510406381</v>
+      </c>
+      <c r="CK63" s="23">
+        <v>13677.475037701681</v>
+      </c>
       <c r="CL63" s="8"/>
       <c r="CM63" s="8"/>
       <c r="CN63" s="8"/>
@@ -14552,9 +14635,11 @@
         <v>29490.371279434254</v>
       </c>
       <c r="CJ64" s="23">
-        <v>38362.54666135156</v>
-      </c>
-      <c r="CK64" s="8"/>
+        <v>38374.226510010361</v>
+      </c>
+      <c r="CK64" s="23">
+        <v>19330.816434508713</v>
+      </c>
       <c r="CL64" s="8"/>
       <c r="CM64" s="8"/>
       <c r="CN64" s="8"/>
@@ -14885,9 +14970,11 @@
         <v>20254.914616585142</v>
       </c>
       <c r="CJ65" s="23">
-        <v>25131.716346033863</v>
-      </c>
-      <c r="CK65" s="8"/>
+        <v>25095.233432792338</v>
+      </c>
+      <c r="CK65" s="23">
+        <v>12566.053027855642</v>
+      </c>
       <c r="CL65" s="8"/>
       <c r="CM65" s="8"/>
       <c r="CN65" s="8"/>
@@ -15218,9 +15305,11 @@
         <v>23671.557737523053</v>
       </c>
       <c r="CJ66" s="23">
-        <v>12484.037473657556</v>
-      </c>
-      <c r="CK66" s="8"/>
+        <v>12522.888775921314</v>
+      </c>
+      <c r="CK66" s="23">
+        <v>6827.6589530591218</v>
+      </c>
       <c r="CL66" s="8"/>
       <c r="CM66" s="8"/>
       <c r="CN66" s="8"/>
@@ -15551,9 +15640,11 @@
         <v>3389.7212409686495</v>
       </c>
       <c r="CJ67" s="23">
-        <v>4926.6195878902045</v>
-      </c>
-      <c r="CK67" s="8"/>
+        <v>4946.3672725838023</v>
+      </c>
+      <c r="CK67" s="23">
+        <v>1647.7370805337582</v>
+      </c>
       <c r="CL67" s="8"/>
       <c r="CM67" s="8"/>
       <c r="CN67" s="8"/>
@@ -15884,9 +15975,11 @@
         <v>937.83812091706807</v>
       </c>
       <c r="CJ68" s="23">
-        <v>637.77070505355039</v>
-      </c>
-      <c r="CK68" s="8"/>
+        <v>641.54170861942066</v>
+      </c>
+      <c r="CK68" s="23">
+        <v>388.47308218550052</v>
+      </c>
       <c r="CL68" s="8"/>
       <c r="CM68" s="8"/>
       <c r="CN68" s="8"/>
@@ -16217,9 +16310,11 @@
         <v>253339.57136685756</v>
       </c>
       <c r="CJ69" s="23">
-        <v>110083.66012363324</v>
-      </c>
-      <c r="CK69" s="8"/>
+        <v>110362.86916308639</v>
+      </c>
+      <c r="CK69" s="23">
+        <v>381389.42434246163</v>
+      </c>
       <c r="CL69" s="8"/>
       <c r="CM69" s="8"/>
       <c r="CN69" s="8"/>
@@ -16550,9 +16645,11 @@
         <v>82922.83614631329</v>
       </c>
       <c r="CJ70" s="23">
-        <v>83786.135778512631</v>
-      </c>
-      <c r="CK70" s="8"/>
+        <v>83788.48696738662</v>
+      </c>
+      <c r="CK70" s="23">
+        <v>84623.546035834821</v>
+      </c>
       <c r="CL70" s="8"/>
       <c r="CM70" s="8"/>
       <c r="CN70" s="8"/>
@@ -16883,9 +16980,11 @@
         <v>14053.298607431436</v>
       </c>
       <c r="CJ71" s="23">
-        <v>12880.58783179007</v>
-      </c>
-      <c r="CK71" s="8"/>
+        <v>12866.687308946113</v>
+      </c>
+      <c r="CK71" s="23">
+        <v>13197.707134132141</v>
+      </c>
       <c r="CL71" s="8"/>
       <c r="CM71" s="8"/>
       <c r="CN71" s="8"/>
@@ -17216,9 +17315,11 @@
         <v>89442.88337355644</v>
       </c>
       <c r="CJ72" s="23">
-        <v>82162.923629197423</v>
-      </c>
-      <c r="CK72" s="8"/>
+        <v>82160.622211888112</v>
+      </c>
+      <c r="CK72" s="23">
+        <v>49527.952579715828</v>
+      </c>
       <c r="CL72" s="8"/>
       <c r="CM72" s="8"/>
       <c r="CN72" s="8"/>
@@ -17549,9 +17650,11 @@
         <v>120286.0724373344</v>
       </c>
       <c r="CJ73" s="23">
-        <v>72885.18259049725</v>
-      </c>
-      <c r="CK73" s="8"/>
+        <v>72940.701440517791</v>
+      </c>
+      <c r="CK73" s="23">
+        <v>94578.546626035852</v>
+      </c>
       <c r="CL73" s="8"/>
       <c r="CM73" s="8"/>
       <c r="CN73" s="8"/>
@@ -17882,9 +17985,11 @@
         <v>11988.314256751424</v>
       </c>
       <c r="CJ74" s="23">
-        <v>11259.054832493091</v>
-      </c>
-      <c r="CK74" s="8"/>
+        <v>11246.67759764869</v>
+      </c>
+      <c r="CK74" s="23">
+        <v>20988.024752573088</v>
+      </c>
       <c r="CL74" s="8"/>
       <c r="CM74" s="8"/>
       <c r="CN74" s="8"/>
@@ -18215,9 +18320,11 @@
         <v>38049.198729952586</v>
       </c>
       <c r="CJ75" s="23">
-        <v>49673.306643189957</v>
-      </c>
-      <c r="CK75" s="8"/>
+        <v>49677.989109794893</v>
+      </c>
+      <c r="CK75" s="23">
+        <v>37241.075713240454</v>
+      </c>
       <c r="CL75" s="8"/>
       <c r="CM75" s="8"/>
       <c r="CN75" s="8"/>
@@ -18548,9 +18655,11 @@
         <v>79511.383561243725</v>
       </c>
       <c r="CJ76" s="23">
-        <v>86698.157937697382</v>
-      </c>
-      <c r="CK76" s="8"/>
+        <v>86862.344214264755</v>
+      </c>
+      <c r="CK76" s="23">
+        <v>70121.105038847993</v>
+      </c>
       <c r="CL76" s="8"/>
       <c r="CM76" s="8"/>
       <c r="CN76" s="8"/>
@@ -18881,9 +18990,11 @@
         <v>17598.541192435103</v>
       </c>
       <c r="CJ77" s="23">
-        <v>48248.298152221039</v>
-      </c>
-      <c r="CK77" s="8"/>
+        <v>48476.655931195608</v>
+      </c>
+      <c r="CK77" s="23">
+        <v>47656.110203508659</v>
+      </c>
       <c r="CL77" s="8"/>
       <c r="CM77" s="8"/>
       <c r="CN77" s="8"/>
@@ -19214,9 +19325,11 @@
         <v>12835.95396029808</v>
       </c>
       <c r="CJ78" s="23">
-        <v>15619.295630607072</v>
-      </c>
-      <c r="CK78" s="8"/>
+        <v>15629.906595682172</v>
+      </c>
+      <c r="CK78" s="23">
+        <v>12690.921993584045</v>
+      </c>
       <c r="CL78" s="8"/>
       <c r="CM78" s="8"/>
       <c r="CN78" s="8"/>
@@ -19547,9 +19660,11 @@
         <v>39636.918562090992</v>
       </c>
       <c r="CJ79" s="23">
-        <v>49678.185939083152</v>
-      </c>
-      <c r="CK79" s="8"/>
+        <v>49692.560128036588</v>
+      </c>
+      <c r="CK79" s="23">
+        <v>107562.18912749016</v>
+      </c>
       <c r="CL79" s="8"/>
       <c r="CM79" s="8"/>
       <c r="CN79" s="8"/>
@@ -19880,9 +19995,11 @@
         <v>20693.087673198341</v>
       </c>
       <c r="CJ80" s="23">
-        <v>11297.872199778987</v>
-      </c>
-      <c r="CK80" s="8"/>
+        <v>11287.543165029801</v>
+      </c>
+      <c r="CK80" s="23">
+        <v>10293.27685460632</v>
+      </c>
       <c r="CL80" s="8"/>
       <c r="CM80" s="8"/>
       <c r="CN80" s="8"/>
@@ -20213,9 +20330,11 @@
         <v>17654.053728737486</v>
       </c>
       <c r="CJ81" s="23">
-        <v>21648.198797541612</v>
-      </c>
-      <c r="CK81" s="8"/>
+        <v>21649.939129217379</v>
+      </c>
+      <c r="CK81" s="23">
+        <v>12552.93769426429</v>
+      </c>
       <c r="CL81" s="8"/>
       <c r="CM81" s="8"/>
       <c r="CN81" s="8"/>
@@ -20546,9 +20665,11 @@
         <v>1529.0483478605763</v>
       </c>
       <c r="CJ82" s="23">
-        <v>2800.0242184662934</v>
-      </c>
-      <c r="CK82" s="8"/>
+        <v>2799.9124779843328</v>
+      </c>
+      <c r="CK82" s="23">
+        <v>5227.1708216028874</v>
+      </c>
       <c r="CL82" s="8"/>
       <c r="CM82" s="8"/>
       <c r="CN82" s="8"/>
@@ -20879,9 +21000,11 @@
         <v>10935.409191208601</v>
       </c>
       <c r="CJ83" s="23">
-        <v>20678.475180172431</v>
-      </c>
-      <c r="CK83" s="8"/>
+        <v>20679.245640700297</v>
+      </c>
+      <c r="CK83" s="23">
+        <v>31622.089645481759</v>
+      </c>
       <c r="CL83" s="8"/>
       <c r="CM83" s="8"/>
       <c r="CN83" s="8"/>
@@ -21212,9 +21335,11 @@
         <v>27683.24114931282</v>
       </c>
       <c r="CJ84" s="23">
-        <v>34965.83554853544</v>
-      </c>
-      <c r="CK84" s="8"/>
+        <v>34966.116129550173</v>
+      </c>
+      <c r="CK84" s="23">
+        <v>29115.352793728372</v>
+      </c>
       <c r="CL84" s="8"/>
       <c r="CM84" s="8"/>
       <c r="CN84" s="8"/>
@@ -21545,9 +21670,11 @@
         <v>18831.276745406034</v>
       </c>
       <c r="CJ85" s="23">
-        <v>18978.618988191738</v>
-      </c>
-      <c r="CK85" s="8"/>
+        <v>18967.193331543484</v>
+      </c>
+      <c r="CK85" s="23">
+        <v>13609.712949322384</v>
+      </c>
       <c r="CL85" s="8"/>
       <c r="CM85" s="8"/>
       <c r="CN85" s="8"/>
@@ -21878,9 +22005,11 @@
         <v>25715.831080111278</v>
       </c>
       <c r="CJ86" s="23">
-        <v>14770.049865535149</v>
-      </c>
-      <c r="CK86" s="8"/>
+        <v>14851.832864954047</v>
+      </c>
+      <c r="CK86" s="23">
+        <v>16260.879299357279</v>
+      </c>
       <c r="CL86" s="8"/>
       <c r="CM86" s="8"/>
       <c r="CN86" s="8"/>
@@ -22211,9 +22340,11 @@
         <v>6984.1697232870183</v>
       </c>
       <c r="CJ87" s="23">
-        <v>5343.9729895192877</v>
-      </c>
-      <c r="CK87" s="8"/>
+        <v>5332.9476199411129</v>
+      </c>
+      <c r="CK87" s="23">
+        <v>6666.7624615002651</v>
+      </c>
       <c r="CL87" s="8"/>
       <c r="CM87" s="8"/>
       <c r="CN87" s="8"/>
@@ -22544,9 +22675,11 @@
         <v>307743.69495042867</v>
       </c>
       <c r="CJ88" s="23">
-        <v>321391.80340292631</v>
-      </c>
-      <c r="CK88" s="8"/>
+        <v>322133.49127347063</v>
+      </c>
+      <c r="CK88" s="23">
+        <v>238530.30129945843</v>
+      </c>
       <c r="CL88" s="8"/>
       <c r="CM88" s="8"/>
       <c r="CN88" s="8"/>
@@ -22702,7 +22835,7 @@
       <c r="CH89" s="24"/>
       <c r="CI89" s="24"/>
       <c r="CJ89" s="24"/>
-      <c r="CK89" s="8"/>
+      <c r="CK89" s="24"/>
       <c r="CL89" s="8"/>
       <c r="CM89" s="8"/>
       <c r="CN89" s="8"/>
@@ -23033,9 +23166,11 @@
         <v>1546546.3903351319</v>
       </c>
       <c r="CJ90" s="22">
-        <v>1483898.21252057</v>
-      </c>
-      <c r="CK90" s="8"/>
+        <v>1485266.2579654618</v>
+      </c>
+      <c r="CK90" s="22">
+        <v>1511585.7863085459</v>
+      </c>
       <c r="CL90" s="8"/>
       <c r="CM90" s="8"/>
       <c r="CN90" s="8"/>
@@ -23192,6 +23327,7 @@
       <c r="CH91" s="25"/>
       <c r="CI91" s="25"/>
       <c r="CJ91" s="25"/>
+      <c r="CK91" s="25"/>
     </row>
     <row r="92" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
@@ -23286,7 +23422,7 @@
       <c r="CH93" s="24"/>
       <c r="CI93" s="24"/>
       <c r="CJ93" s="24"/>
-      <c r="CK93" s="8"/>
+      <c r="CK93" s="24"/>
       <c r="CL93" s="8"/>
       <c r="CM93" s="8"/>
       <c r="CN93" s="8"/>
@@ -23442,7 +23578,7 @@
       <c r="CH94" s="24"/>
       <c r="CI94" s="24"/>
       <c r="CJ94" s="24"/>
-      <c r="CK94" s="8"/>
+      <c r="CK94" s="24"/>
       <c r="CL94" s="8"/>
       <c r="CM94" s="8"/>
       <c r="CN94" s="8"/>
@@ -23522,7 +23658,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.25">
@@ -23532,7 +23668,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.25">
@@ -23665,14 +23801,13 @@
       <c r="CD103" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CE103" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF103" s="29"/>
-      <c r="CG103" s="29"/>
+      <c r="CE103" s="30"/>
+      <c r="CF103" s="30"/>
+      <c r="CG103" s="30"/>
       <c r="CH103" s="29"/>
       <c r="CI103" s="29"/>
       <c r="CJ103" s="29"/>
+      <c r="CK103" s="29"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -23918,19 +24053,22 @@
       <c r="CC104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD104" s="21" t="s">
+      <c r="CD104" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CE104" s="21" t="s">
+      <c r="CE104" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF104" s="21" t="s">
+      <c r="CF104" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CG104" s="21"/>
+      <c r="CG104" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CH104" s="21"/>
       <c r="CI104" s="21"/>
       <c r="CJ104" s="21"/>
+      <c r="CK104" s="21"/>
     </row>
     <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
@@ -24186,13 +24324,15 @@
         <v>45.231748159981521</v>
       </c>
       <c r="CF106" s="28">
-        <v>16.226423374567418</v>
-      </c>
-      <c r="CG106" s="24"/>
+        <v>16.191495170464123</v>
+      </c>
+      <c r="CG106" s="28">
+        <v>5.7698595151885996</v>
+      </c>
       <c r="CH106" s="24"/>
       <c r="CI106" s="24"/>
       <c r="CJ106" s="24"/>
-      <c r="CK106" s="8"/>
+      <c r="CK106" s="24"/>
       <c r="CL106" s="8"/>
       <c r="CM106" s="8"/>
       <c r="CN106" s="8"/>
@@ -24507,13 +24647,15 @@
         <v>25.16283341315328</v>
       </c>
       <c r="CF107" s="28">
-        <v>18.639850523318756</v>
-      </c>
-      <c r="CG107" s="24"/>
+        <v>18.640452318260969</v>
+      </c>
+      <c r="CG107" s="28">
+        <v>6.2307731341687145</v>
+      </c>
       <c r="CH107" s="24"/>
       <c r="CI107" s="24"/>
       <c r="CJ107" s="24"/>
-      <c r="CK107" s="8"/>
+      <c r="CK107" s="24"/>
       <c r="CL107" s="8"/>
       <c r="CM107" s="8"/>
       <c r="CN107" s="8"/>
@@ -24828,13 +24970,15 @@
         <v>70.079211896524299</v>
       </c>
       <c r="CF108" s="28">
-        <v>18.852831682822298</v>
-      </c>
-      <c r="CG108" s="24"/>
+        <v>18.607901223561527</v>
+      </c>
+      <c r="CG108" s="28">
+        <v>5.3829465606471274</v>
+      </c>
       <c r="CH108" s="24"/>
       <c r="CI108" s="24"/>
       <c r="CJ108" s="24"/>
-      <c r="CK108" s="8"/>
+      <c r="CK108" s="24"/>
       <c r="CL108" s="8"/>
       <c r="CM108" s="8"/>
       <c r="CN108" s="8"/>
@@ -25149,13 +25293,15 @@
         <v>37.075257971339227</v>
       </c>
       <c r="CF109" s="28">
-        <v>-23.546007664520758</v>
-      </c>
-      <c r="CG109" s="24"/>
+        <v>-22.863028216036696</v>
+      </c>
+      <c r="CG109" s="28">
+        <v>4.8984961722246823</v>
+      </c>
       <c r="CH109" s="24"/>
       <c r="CI109" s="24"/>
       <c r="CJ109" s="24"/>
-      <c r="CK109" s="8"/>
+      <c r="CK109" s="24"/>
       <c r="CL109" s="8"/>
       <c r="CM109" s="8"/>
       <c r="CN109" s="8"/>
@@ -25470,13 +25616,15 @@
         <v>147.43161142421647</v>
       </c>
       <c r="CF110" s="28">
-        <v>-2.3072203940332088</v>
-      </c>
-      <c r="CG110" s="24"/>
+        <v>-2.338543304664185</v>
+      </c>
+      <c r="CG110" s="28">
+        <v>13.078522377607499</v>
+      </c>
       <c r="CH110" s="24"/>
       <c r="CI110" s="24"/>
       <c r="CJ110" s="24"/>
-      <c r="CK110" s="8"/>
+      <c r="CK110" s="24"/>
       <c r="CL110" s="8"/>
       <c r="CM110" s="8"/>
       <c r="CN110" s="8"/>
@@ -25791,13 +25939,15 @@
         <v>130.83005460700559</v>
       </c>
       <c r="CF111" s="28">
-        <v>33.618988778663748</v>
-      </c>
-      <c r="CG111" s="24"/>
+        <v>33.659670373153631</v>
+      </c>
+      <c r="CG111" s="28">
+        <v>-1.4089214903653584</v>
+      </c>
       <c r="CH111" s="24"/>
       <c r="CI111" s="24"/>
       <c r="CJ111" s="24"/>
-      <c r="CK111" s="8"/>
+      <c r="CK111" s="24"/>
       <c r="CL111" s="8"/>
       <c r="CM111" s="8"/>
       <c r="CN111" s="8"/>
@@ -26112,13 +26262,15 @@
         <v>13.06149781606365</v>
       </c>
       <c r="CF112" s="28">
-        <v>-22.596426992016077</v>
-      </c>
-      <c r="CG112" s="24"/>
+        <v>-22.708791296934706</v>
+      </c>
+      <c r="CG112" s="28">
+        <v>-10.729459719630924</v>
+      </c>
       <c r="CH112" s="24"/>
       <c r="CI112" s="24"/>
       <c r="CJ112" s="24"/>
-      <c r="CK112" s="8"/>
+      <c r="CK112" s="24"/>
       <c r="CL112" s="8"/>
       <c r="CM112" s="8"/>
       <c r="CN112" s="8"/>
@@ -26433,13 +26585,15 @@
         <v>69.685469360277835</v>
       </c>
       <c r="CF113" s="28">
-        <v>59.665659317337429</v>
-      </c>
-      <c r="CG113" s="24"/>
+        <v>60.162551352816308</v>
+      </c>
+      <c r="CG113" s="28">
+        <v>55.647025910514145</v>
+      </c>
       <c r="CH113" s="24"/>
       <c r="CI113" s="24"/>
       <c r="CJ113" s="24"/>
-      <c r="CK113" s="8"/>
+      <c r="CK113" s="24"/>
       <c r="CL113" s="8"/>
       <c r="CM113" s="8"/>
       <c r="CN113" s="8"/>
@@ -26754,13 +26908,15 @@
         <v>28.816212675196141</v>
       </c>
       <c r="CF114" s="28">
-        <v>50.873482513877974</v>
-      </c>
-      <c r="CG114" s="24"/>
+        <v>51.478238352675163</v>
+      </c>
+      <c r="CG114" s="28">
+        <v>35.274183450198393</v>
+      </c>
       <c r="CH114" s="24"/>
       <c r="CI114" s="24"/>
       <c r="CJ114" s="24"/>
-      <c r="CK114" s="8"/>
+      <c r="CK114" s="24"/>
       <c r="CL114" s="8"/>
       <c r="CM114" s="8"/>
       <c r="CN114" s="8"/>
@@ -27075,13 +27231,15 @@
         <v>61.127450995261739</v>
       </c>
       <c r="CF115" s="28">
-        <v>-31.559082480899164</v>
-      </c>
-      <c r="CG115" s="24"/>
+        <v>-31.15440578130962</v>
+      </c>
+      <c r="CG115" s="28">
+        <v>-32.187336617832244</v>
+      </c>
       <c r="CH115" s="24"/>
       <c r="CI115" s="24"/>
       <c r="CJ115" s="24"/>
-      <c r="CK115" s="8"/>
+      <c r="CK115" s="24"/>
       <c r="CL115" s="8"/>
       <c r="CM115" s="8"/>
       <c r="CN115" s="8"/>
@@ -27396,13 +27554,15 @@
         <v>215.40677870558341</v>
       </c>
       <c r="CF116" s="28">
-        <v>122.20011940612508</v>
-      </c>
-      <c r="CG116" s="24"/>
+        <v>122.76369334467404</v>
+      </c>
+      <c r="CG116" s="28">
+        <v>118.82878126747096</v>
+      </c>
       <c r="CH116" s="24"/>
       <c r="CI116" s="24"/>
       <c r="CJ116" s="24"/>
-      <c r="CK116" s="8"/>
+      <c r="CK116" s="24"/>
       <c r="CL116" s="8"/>
       <c r="CM116" s="8"/>
       <c r="CN116" s="8"/>
@@ -27717,13 +27877,15 @@
         <v>53.629178297703049</v>
       </c>
       <c r="CF117" s="28">
-        <v>20.510237123740069</v>
-      </c>
-      <c r="CG117" s="24"/>
+        <v>20.51361885660188</v>
+      </c>
+      <c r="CG117" s="28">
+        <v>28.503234917270021</v>
+      </c>
       <c r="CH117" s="24"/>
       <c r="CI117" s="24"/>
       <c r="CJ117" s="24"/>
-      <c r="CK117" s="8"/>
+      <c r="CK117" s="24"/>
       <c r="CL117" s="8"/>
       <c r="CM117" s="8"/>
       <c r="CN117" s="8"/>
@@ -28038,13 +28200,15 @@
         <v>-2.841104541844004</v>
       </c>
       <c r="CF118" s="28">
-        <v>11.480646999632043</v>
-      </c>
-      <c r="CG118" s="24"/>
+        <v>11.360338881670785</v>
+      </c>
+      <c r="CG118" s="28">
+        <v>-3.7691270002507622</v>
+      </c>
       <c r="CH118" s="24"/>
       <c r="CI118" s="24"/>
       <c r="CJ118" s="24"/>
-      <c r="CK118" s="8"/>
+      <c r="CK118" s="24"/>
       <c r="CL118" s="8"/>
       <c r="CM118" s="8"/>
       <c r="CN118" s="8"/>
@@ -28359,13 +28523,15 @@
         <v>111.66548355876026</v>
       </c>
       <c r="CF119" s="28">
-        <v>74.922809575268332</v>
-      </c>
-      <c r="CG119" s="24"/>
+        <v>74.917909915373485</v>
+      </c>
+      <c r="CG119" s="28">
+        <v>21.557805027323724</v>
+      </c>
       <c r="CH119" s="24"/>
       <c r="CI119" s="24"/>
       <c r="CJ119" s="24"/>
-      <c r="CK119" s="8"/>
+      <c r="CK119" s="24"/>
       <c r="CL119" s="8"/>
       <c r="CM119" s="8"/>
       <c r="CN119" s="8"/>
@@ -28680,13 +28846,15 @@
         <v>153.69842125906055</v>
       </c>
       <c r="CF120" s="28">
-        <v>37.795953985443759</v>
-      </c>
-      <c r="CG120" s="24"/>
+        <v>37.900917335069124</v>
+      </c>
+      <c r="CG120" s="28">
+        <v>33.465751691372105</v>
+      </c>
       <c r="CH120" s="24"/>
       <c r="CI120" s="24"/>
       <c r="CJ120" s="24"/>
-      <c r="CK120" s="8"/>
+      <c r="CK120" s="24"/>
       <c r="CL120" s="8"/>
       <c r="CM120" s="8"/>
       <c r="CN120" s="8"/>
@@ -29001,13 +29169,15 @@
         <v>61.825238923066138</v>
       </c>
       <c r="CF121" s="28">
-        <v>9.1779813459495614</v>
-      </c>
-      <c r="CG121" s="24"/>
+        <v>9.0579604796281217</v>
+      </c>
+      <c r="CG121" s="28">
+        <v>13.122178227949149</v>
+      </c>
       <c r="CH121" s="24"/>
       <c r="CI121" s="24"/>
       <c r="CJ121" s="24"/>
-      <c r="CK121" s="8"/>
+      <c r="CK121" s="24"/>
       <c r="CL121" s="8"/>
       <c r="CM121" s="8"/>
       <c r="CN121" s="8"/>
@@ -29322,13 +29492,15 @@
         <v>38.2346866139018</v>
       </c>
       <c r="CF122" s="28">
-        <v>24.2526542886486</v>
-      </c>
-      <c r="CG122" s="24"/>
+        <v>24.264366996007908</v>
+      </c>
+      <c r="CG122" s="28">
+        <v>-7.840243203329706</v>
+      </c>
       <c r="CH122" s="24"/>
       <c r="CI122" s="24"/>
       <c r="CJ122" s="24"/>
-      <c r="CK122" s="8"/>
+      <c r="CK122" s="24"/>
       <c r="CL122" s="8"/>
       <c r="CM122" s="8"/>
       <c r="CN122" s="8"/>
@@ -29643,13 +29815,15 @@
         <v>50.813276558558954</v>
       </c>
       <c r="CF123" s="28">
-        <v>31.510793505469564</v>
-      </c>
-      <c r="CG123" s="24"/>
+        <v>31.759844558314285</v>
+      </c>
+      <c r="CG123" s="28">
+        <v>24.226525520292455</v>
+      </c>
       <c r="CH123" s="24"/>
       <c r="CI123" s="24"/>
       <c r="CJ123" s="24"/>
-      <c r="CK123" s="8"/>
+      <c r="CK123" s="24"/>
       <c r="CL123" s="8"/>
       <c r="CM123" s="8"/>
       <c r="CN123" s="8"/>
@@ -29964,13 +30138,15 @@
         <v>5.814707416690041</v>
       </c>
       <c r="CF124" s="28">
-        <v>24.116184993399074</v>
-      </c>
-      <c r="CG124" s="24"/>
+        <v>24.703623253925258</v>
+      </c>
+      <c r="CG124" s="28">
+        <v>67.1185463554325</v>
+      </c>
       <c r="CH124" s="24"/>
       <c r="CI124" s="24"/>
       <c r="CJ124" s="24"/>
-      <c r="CK124" s="8"/>
+      <c r="CK124" s="24"/>
       <c r="CL124" s="8"/>
       <c r="CM124" s="8"/>
       <c r="CN124" s="8"/>
@@ -30285,13 +30461,15 @@
         <v>3.8975777472171984</v>
       </c>
       <c r="CF125" s="28">
-        <v>18.823347536721542</v>
-      </c>
-      <c r="CG125" s="24"/>
+        <v>18.904070151917324</v>
+      </c>
+      <c r="CG125" s="28">
+        <v>6.2602855355033995</v>
+      </c>
       <c r="CH125" s="24"/>
       <c r="CI125" s="24"/>
       <c r="CJ125" s="24"/>
-      <c r="CK125" s="8"/>
+      <c r="CK125" s="24"/>
       <c r="CL125" s="8"/>
       <c r="CM125" s="8"/>
       <c r="CN125" s="8"/>
@@ -30606,13 +30784,15 @@
         <v>23.548977680132282</v>
       </c>
       <c r="CF126" s="28">
-        <v>85.388912975800338</v>
-      </c>
-      <c r="CG126" s="24"/>
+        <v>85.442554533248796</v>
+      </c>
+      <c r="CG126" s="28">
+        <v>330.13369601194552</v>
+      </c>
       <c r="CH126" s="24"/>
       <c r="CI126" s="24"/>
       <c r="CJ126" s="24"/>
-      <c r="CK126" s="8"/>
+      <c r="CK126" s="24"/>
       <c r="CL126" s="8"/>
       <c r="CM126" s="8"/>
       <c r="CN126" s="8"/>
@@ -30927,13 +31107,15 @@
         <v>33.676744094978886</v>
       </c>
       <c r="CF127" s="28">
-        <v>-3.3203826173563442</v>
-      </c>
-      <c r="CG127" s="24"/>
+        <v>-3.4087715732433566</v>
+      </c>
+      <c r="CG127" s="28">
+        <v>17.199293623392137</v>
+      </c>
       <c r="CH127" s="24"/>
       <c r="CI127" s="24"/>
       <c r="CJ127" s="24"/>
-      <c r="CK127" s="8"/>
+      <c r="CK127" s="24"/>
       <c r="CL127" s="8"/>
       <c r="CM127" s="8"/>
       <c r="CN127" s="8"/>
@@ -31248,13 +31430,15 @@
         <v>89.340736662100198</v>
       </c>
       <c r="CF128" s="28">
-        <v>7.6496840296327093</v>
-      </c>
-      <c r="CG128" s="24"/>
+        <v>7.6583381517033189</v>
+      </c>
+      <c r="CG128" s="28">
+        <v>22.159430765705565</v>
+      </c>
       <c r="CH128" s="24"/>
       <c r="CI128" s="24"/>
       <c r="CJ128" s="24"/>
-      <c r="CK128" s="8"/>
+      <c r="CK128" s="24"/>
       <c r="CL128" s="8"/>
       <c r="CM128" s="8"/>
       <c r="CN128" s="8"/>
@@ -31569,13 +31753,15 @@
         <v>-29.51288884530814</v>
       </c>
       <c r="CF129" s="28">
-        <v>101.81038172417303</v>
-      </c>
-      <c r="CG129" s="24"/>
+        <v>101.80232808336172</v>
+      </c>
+      <c r="CG129" s="28">
+        <v>84.537988451070305</v>
+      </c>
       <c r="CH129" s="24"/>
       <c r="CI129" s="24"/>
       <c r="CJ129" s="24"/>
-      <c r="CK129" s="8"/>
+      <c r="CK129" s="24"/>
       <c r="CL129" s="8"/>
       <c r="CM129" s="8"/>
       <c r="CN129" s="8"/>
@@ -31890,13 +32076,15 @@
         <v>65.074143622290393</v>
       </c>
       <c r="CF130" s="28">
-        <v>29.118582028336135</v>
-      </c>
-      <c r="CG130" s="24"/>
+        <v>29.123907986151636</v>
+      </c>
+      <c r="CG130" s="28">
+        <v>9.0282971171532296</v>
+      </c>
       <c r="CH130" s="24"/>
       <c r="CI130" s="24"/>
       <c r="CJ130" s="24"/>
-      <c r="CK130" s="8"/>
+      <c r="CK130" s="24"/>
       <c r="CL130" s="8"/>
       <c r="CM130" s="8"/>
       <c r="CN130" s="8"/>
@@ -32211,13 +32399,15 @@
         <v>83.126700633107731</v>
       </c>
       <c r="CF131" s="28">
-        <v>47.992920823599178</v>
-      </c>
-      <c r="CG131" s="24"/>
+        <v>47.994180430801805</v>
+      </c>
+      <c r="CG131" s="28">
+        <v>23.682856938761972</v>
+      </c>
       <c r="CH131" s="24"/>
       <c r="CI131" s="24"/>
       <c r="CJ131" s="24"/>
-      <c r="CK131" s="8"/>
+      <c r="CK131" s="24"/>
       <c r="CL131" s="8"/>
       <c r="CM131" s="8"/>
       <c r="CN131" s="8"/>
@@ -32532,13 +32722,15 @@
         <v>23.356206744724716</v>
       </c>
       <c r="CF132" s="28">
-        <v>20.534704624354475</v>
-      </c>
-      <c r="CG132" s="24"/>
+        <v>20.46213937869075</v>
+      </c>
+      <c r="CG132" s="28">
+        <v>4.3636373433343749</v>
+      </c>
       <c r="CH132" s="24"/>
       <c r="CI132" s="24"/>
       <c r="CJ132" s="24"/>
-      <c r="CK132" s="8"/>
+      <c r="CK132" s="24"/>
       <c r="CL132" s="8"/>
       <c r="CM132" s="8"/>
       <c r="CN132" s="8"/>
@@ -32853,13 +33045,15 @@
         <v>70.144926056127446</v>
       </c>
       <c r="CF133" s="28">
-        <v>34.79916854147902</v>
-      </c>
-      <c r="CG133" s="24"/>
+        <v>35.545562793553984</v>
+      </c>
+      <c r="CG133" s="28">
+        <v>38.056866339915643</v>
+      </c>
       <c r="CH133" s="24"/>
       <c r="CI133" s="24"/>
       <c r="CJ133" s="24"/>
-      <c r="CK133" s="8"/>
+      <c r="CK133" s="24"/>
       <c r="CL133" s="8"/>
       <c r="CM133" s="8"/>
       <c r="CN133" s="8"/>
@@ -33174,13 +33368,15 @@
         <v>10.034244390853431</v>
       </c>
       <c r="CF134" s="28">
-        <v>-17.400434279518421</v>
-      </c>
-      <c r="CG134" s="24"/>
+        <v>-17.570848827056579</v>
+      </c>
+      <c r="CG134" s="28">
+        <v>11.865150813978161</v>
+      </c>
       <c r="CH134" s="24"/>
       <c r="CI134" s="24"/>
       <c r="CJ134" s="24"/>
-      <c r="CK134" s="8"/>
+      <c r="CK134" s="24"/>
       <c r="CL134" s="8"/>
       <c r="CM134" s="8"/>
       <c r="CN134" s="8"/>
@@ -33495,13 +33691,15 @@
         <v>66.514486090082926</v>
       </c>
       <c r="CF135" s="28">
-        <v>22.968212111358596</v>
-      </c>
-      <c r="CG135" s="24"/>
+        <v>23.256475051183784</v>
+      </c>
+      <c r="CG135" s="28">
+        <v>14.528803527441525</v>
+      </c>
       <c r="CH135" s="24"/>
       <c r="CI135" s="24"/>
       <c r="CJ135" s="24"/>
-      <c r="CK135" s="8"/>
+      <c r="CK135" s="24"/>
       <c r="CL135" s="8"/>
       <c r="CM135" s="8"/>
       <c r="CN135" s="8"/>
@@ -33649,11 +33847,11 @@
       <c r="CD136" s="28"/>
       <c r="CE136" s="28"/>
       <c r="CF136" s="28"/>
-      <c r="CG136" s="24"/>
+      <c r="CG136" s="28"/>
       <c r="CH136" s="24"/>
       <c r="CI136" s="24"/>
       <c r="CJ136" s="24"/>
-      <c r="CK136" s="8"/>
+      <c r="CK136" s="24"/>
       <c r="CL136" s="8"/>
       <c r="CM136" s="8"/>
       <c r="CN136" s="8"/>
@@ -33968,13 +34166,15 @@
         <v>69.70117158039892</v>
       </c>
       <c r="CF137" s="28">
-        <v>34.945999590253365</v>
-      </c>
-      <c r="CG137" s="24"/>
+        <v>35.107255605102011</v>
+      </c>
+      <c r="CG137" s="28">
+        <v>34.39752329232229</v>
+      </c>
       <c r="CH137" s="24"/>
       <c r="CI137" s="24"/>
       <c r="CJ137" s="24"/>
-      <c r="CK137" s="8"/>
+      <c r="CK137" s="24"/>
       <c r="CL137" s="8"/>
       <c r="CM137" s="8"/>
       <c r="CN137" s="8"/>
@@ -34127,6 +34327,7 @@
       <c r="CH138" s="25"/>
       <c r="CI138" s="25"/>
       <c r="CJ138" s="25"/>
+      <c r="CK138" s="25"/>
     </row>
     <row r="139" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -34224,7 +34425,7 @@
       <c r="CH140" s="24"/>
       <c r="CI140" s="24"/>
       <c r="CJ140" s="24"/>
-      <c r="CK140" s="8"/>
+      <c r="CK140" s="24"/>
       <c r="CL140" s="8"/>
       <c r="CM140" s="8"/>
       <c r="CN140" s="8"/>
@@ -34376,7 +34577,7 @@
       <c r="CH141" s="24"/>
       <c r="CI141" s="24"/>
       <c r="CJ141" s="24"/>
-      <c r="CK141" s="8"/>
+      <c r="CK141" s="24"/>
       <c r="CL141" s="8"/>
       <c r="CM141" s="8"/>
       <c r="CN141" s="8"/>
@@ -34452,7 +34653,7 @@
     </row>
     <row r="144" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:151" x14ac:dyDescent="0.25">
@@ -34462,7 +34663,7 @@
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:151" x14ac:dyDescent="0.25">
@@ -34595,14 +34796,13 @@
       <c r="CD150" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CE150" s="30" t="s">
-        <v>77</v>
-      </c>
+      <c r="CE150" s="30"/>
       <c r="CF150" s="30"/>
-      <c r="CG150" s="29"/>
+      <c r="CG150" s="30"/>
       <c r="CH150" s="29"/>
       <c r="CI150" s="29"/>
       <c r="CJ150" s="29"/>
+      <c r="CK150" s="29"/>
     </row>
     <row r="151" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
@@ -34857,10 +35057,13 @@
       <c r="CF151" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CG151" s="21"/>
+      <c r="CG151" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="CH151" s="21"/>
       <c r="CI151" s="21"/>
       <c r="CJ151" s="21"/>
+      <c r="CK151" s="21"/>
     </row>
     <row r="152" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
@@ -35116,13 +35319,15 @@
         <v>58.055573553428189</v>
       </c>
       <c r="CF153" s="28">
-        <v>13.778424998285431</v>
-      </c>
-      <c r="CG153" s="24"/>
+        <v>13.735022827724535</v>
+      </c>
+      <c r="CG153" s="28">
+        <v>1.0409578023845398</v>
+      </c>
       <c r="CH153" s="24"/>
       <c r="CI153" s="24"/>
       <c r="CJ153" s="24"/>
-      <c r="CK153" s="8"/>
+      <c r="CK153" s="24"/>
       <c r="CL153" s="8"/>
       <c r="CM153" s="8"/>
       <c r="CN153" s="8"/>
@@ -35437,13 +35642,15 @@
         <v>30.570018228469678</v>
       </c>
       <c r="CF154" s="28">
-        <v>16.523547675035559</v>
-      </c>
-      <c r="CG154" s="24"/>
+        <v>16.524138735133249</v>
+      </c>
+      <c r="CG154" s="28">
+        <v>2.88064894280609</v>
+      </c>
       <c r="CH154" s="24"/>
       <c r="CI154" s="24"/>
       <c r="CJ154" s="24"/>
-      <c r="CK154" s="8"/>
+      <c r="CK154" s="24"/>
       <c r="CL154" s="8"/>
       <c r="CM154" s="8"/>
       <c r="CN154" s="8"/>
@@ -35758,13 +35965,15 @@
         <v>87.008300623103253</v>
       </c>
       <c r="CF155" s="28">
-        <v>18.374960612612014</v>
-      </c>
-      <c r="CG155" s="24"/>
+        <v>18.131014944197489</v>
+      </c>
+      <c r="CG155" s="28">
+        <v>0.41206516665965864</v>
+      </c>
       <c r="CH155" s="24"/>
       <c r="CI155" s="24"/>
       <c r="CJ155" s="24"/>
-      <c r="CK155" s="8"/>
+      <c r="CK155" s="24"/>
       <c r="CL155" s="8"/>
       <c r="CM155" s="8"/>
       <c r="CN155" s="8"/>
@@ -36079,13 +36288,15 @@
         <v>41.394630611690587</v>
       </c>
       <c r="CF156" s="28">
-        <v>-28.315805457542325</v>
-      </c>
-      <c r="CG156" s="24"/>
+        <v>-27.675435606890147</v>
+      </c>
+      <c r="CG156" s="28">
+        <v>-2.2634593636502842</v>
+      </c>
       <c r="CH156" s="24"/>
       <c r="CI156" s="24"/>
       <c r="CJ156" s="24"/>
-      <c r="CK156" s="8"/>
+      <c r="CK156" s="24"/>
       <c r="CL156" s="8"/>
       <c r="CM156" s="8"/>
       <c r="CN156" s="8"/>
@@ -36400,13 +36611,15 @@
         <v>153.40552357742342</v>
       </c>
       <c r="CF157" s="28">
-        <v>-6.6042762021088208</v>
-      </c>
-      <c r="CG157" s="24"/>
+        <v>-6.6342213620442436</v>
+      </c>
+      <c r="CG157" s="28">
+        <v>5.9142200190650271</v>
+      </c>
       <c r="CH157" s="24"/>
       <c r="CI157" s="24"/>
       <c r="CJ157" s="24"/>
-      <c r="CK157" s="8"/>
+      <c r="CK157" s="24"/>
       <c r="CL157" s="8"/>
       <c r="CM157" s="8"/>
       <c r="CN157" s="8"/>
@@ -36721,13 +36934,15 @@
         <v>144.02172242924155</v>
       </c>
       <c r="CF158" s="28">
-        <v>30.615865537417164</v>
-      </c>
-      <c r="CG158" s="24"/>
+        <v>30.655632801967755</v>
+      </c>
+      <c r="CG158" s="28">
+        <v>-7.4660388490328131</v>
+      </c>
       <c r="CH158" s="24"/>
       <c r="CI158" s="24"/>
       <c r="CJ158" s="24"/>
-      <c r="CK158" s="8"/>
+      <c r="CK158" s="24"/>
       <c r="CL158" s="8"/>
       <c r="CM158" s="8"/>
       <c r="CN158" s="8"/>
@@ -37042,13 +37257,15 @@
         <v>19.522830267824446</v>
       </c>
       <c r="CF159" s="28">
-        <v>-24.336093421020806</v>
-      </c>
-      <c r="CG159" s="24"/>
+        <v>-24.445932307518959</v>
+      </c>
+      <c r="CG159" s="28">
+        <v>-16.213953320104167</v>
+      </c>
       <c r="CH159" s="24"/>
       <c r="CI159" s="24"/>
       <c r="CJ159" s="24"/>
-      <c r="CK159" s="8"/>
+      <c r="CK159" s="24"/>
       <c r="CL159" s="8"/>
       <c r="CM159" s="8"/>
       <c r="CN159" s="8"/>
@@ -37363,13 +37580,15 @@
         <v>75.992732992137633</v>
       </c>
       <c r="CF160" s="28">
-        <v>53.66010897293387</v>
-      </c>
-      <c r="CG160" s="24"/>
+        <v>54.1383112654363</v>
+      </c>
+      <c r="CG160" s="28">
+        <v>46.703037781240255</v>
+      </c>
       <c r="CH160" s="24"/>
       <c r="CI160" s="24"/>
       <c r="CJ160" s="24"/>
-      <c r="CK160" s="8"/>
+      <c r="CK160" s="24"/>
       <c r="CL160" s="8"/>
       <c r="CM160" s="8"/>
       <c r="CN160" s="8"/>
@@ -37684,13 +37903,15 @@
         <v>34.422390430403993</v>
       </c>
       <c r="CF161" s="28">
-        <v>47.158191651072713</v>
-      </c>
-      <c r="CG161" s="24"/>
+        <v>47.748055251653653</v>
+      </c>
+      <c r="CG161" s="28">
+        <v>28.915250723428443</v>
+      </c>
       <c r="CH161" s="24"/>
       <c r="CI161" s="24"/>
       <c r="CJ161" s="24"/>
-      <c r="CK161" s="8"/>
+      <c r="CK161" s="24"/>
       <c r="CL161" s="8"/>
       <c r="CM161" s="8"/>
       <c r="CN161" s="8"/>
@@ -38005,13 +38226,15 @@
         <v>67.080706720427003</v>
       </c>
       <c r="CF162" s="28">
-        <v>-34.292760716486342</v>
-      </c>
-      <c r="CG162" s="24"/>
+        <v>-33.904247679311311</v>
+      </c>
+      <c r="CG162" s="28">
+        <v>-36.310966825640278</v>
+      </c>
       <c r="CH162" s="24"/>
       <c r="CI162" s="24"/>
       <c r="CJ162" s="24"/>
-      <c r="CK162" s="8"/>
+      <c r="CK162" s="24"/>
       <c r="CL162" s="8"/>
       <c r="CM162" s="8"/>
       <c r="CN162" s="8"/>
@@ -38326,13 +38549,15 @@
         <v>57.229504006299237</v>
       </c>
       <c r="CF163" s="28">
-        <v>32.278038293757959</v>
-      </c>
-      <c r="CG163" s="24"/>
+        <v>32.613539711236854</v>
+      </c>
+      <c r="CG163" s="28">
+        <v>31.419103866120054</v>
+      </c>
       <c r="CH163" s="24"/>
       <c r="CI163" s="24"/>
       <c r="CJ163" s="24"/>
-      <c r="CK163" s="8"/>
+      <c r="CK163" s="24"/>
       <c r="CL163" s="8"/>
       <c r="CM163" s="8"/>
       <c r="CN163" s="8"/>
@@ -38647,13 +38872,15 @@
         <v>58.725432177332124</v>
       </c>
       <c r="CF164" s="28">
-        <v>15.051136600670233</v>
-      </c>
-      <c r="CG164" s="24"/>
+        <v>15.054365141404347</v>
+      </c>
+      <c r="CG164" s="28">
+        <v>18.977875402846792</v>
+      </c>
       <c r="CH164" s="24"/>
       <c r="CI164" s="24"/>
       <c r="CJ164" s="24"/>
-      <c r="CK164" s="8"/>
+      <c r="CK164" s="24"/>
       <c r="CL164" s="8"/>
       <c r="CM164" s="8"/>
       <c r="CN164" s="8"/>
@@ -38968,13 +39195,15 @@
         <v>0.71368830598288469</v>
       </c>
       <c r="CF165" s="28">
-        <v>6.6009349414110261</v>
-      </c>
-      <c r="CG165" s="24"/>
+        <v>6.4858929300764885</v>
+      </c>
+      <c r="CG165" s="28">
+        <v>-13.382820684380235</v>
+      </c>
       <c r="CH165" s="24"/>
       <c r="CI165" s="24"/>
       <c r="CJ165" s="24"/>
-      <c r="CK165" s="8"/>
+      <c r="CK165" s="24"/>
       <c r="CL165" s="8"/>
       <c r="CM165" s="8"/>
       <c r="CN165" s="8"/>
@@ -39289,13 +39518,15 @@
         <v>37.727877941878035</v>
       </c>
       <c r="CF166" s="28">
-        <v>28.903528923992781</v>
-      </c>
-      <c r="CG166" s="24"/>
+        <v>28.899918283090614</v>
+      </c>
+      <c r="CG166" s="28">
+        <v>-10.23881000649763</v>
+      </c>
       <c r="CH166" s="24"/>
       <c r="CI166" s="24"/>
       <c r="CJ166" s="24"/>
-      <c r="CK166" s="8"/>
+      <c r="CK166" s="24"/>
       <c r="CL166" s="8"/>
       <c r="CM166" s="8"/>
       <c r="CN166" s="8"/>
@@ -39610,13 +39841,15 @@
         <v>158.39318562071992</v>
       </c>
       <c r="CF167" s="28">
-        <v>30.371998863602812</v>
-      </c>
-      <c r="CG167" s="24"/>
+        <v>30.471307161867685</v>
+      </c>
+      <c r="CG167" s="28">
+        <v>23.386250376133773</v>
+      </c>
       <c r="CH167" s="24"/>
       <c r="CI167" s="24"/>
       <c r="CJ167" s="24"/>
-      <c r="CK167" s="8"/>
+      <c r="CK167" s="24"/>
       <c r="CL167" s="8"/>
       <c r="CM167" s="8"/>
       <c r="CN167" s="8"/>
@@ -39931,13 +40164,15 @@
         <v>62.288372266549231</v>
       </c>
       <c r="CF168" s="28">
-        <v>-0.83813469903421378</v>
-      </c>
-      <c r="CG168" s="24"/>
+        <v>-0.947144710327251</v>
+      </c>
+      <c r="CG168" s="28">
+        <v>3.3415757407750277</v>
+      </c>
       <c r="CH168" s="24"/>
       <c r="CI168" s="24"/>
       <c r="CJ168" s="24"/>
-      <c r="CK168" s="8"/>
+      <c r="CK168" s="24"/>
       <c r="CL168" s="8"/>
       <c r="CM168" s="8"/>
       <c r="CN168" s="8"/>
@@ -40252,13 +40487,15 @@
         <v>43.292336487127471</v>
       </c>
       <c r="CF169" s="28">
-        <v>18.813888083781777</v>
-      </c>
-      <c r="CG169" s="24"/>
+        <v>18.82508810449211</v>
+      </c>
+      <c r="CG169" s="28">
+        <v>-17.047222670816893</v>
+      </c>
       <c r="CH169" s="24"/>
       <c r="CI169" s="24"/>
       <c r="CJ169" s="24"/>
-      <c r="CK169" s="8"/>
+      <c r="CK169" s="24"/>
       <c r="CL169" s="8"/>
       <c r="CM169" s="8"/>
       <c r="CN169" s="8"/>
@@ -40573,13 +40810,15 @@
         <v>26.3478596917234</v>
       </c>
       <c r="CF170" s="28">
-        <v>13.886143557799201</v>
-      </c>
-      <c r="CG170" s="24"/>
+        <v>14.101817596419593</v>
+      </c>
+      <c r="CG170" s="28">
+        <v>-4.2137876659929532</v>
+      </c>
       <c r="CH170" s="24"/>
       <c r="CI170" s="24"/>
       <c r="CJ170" s="24"/>
-      <c r="CK170" s="8"/>
+      <c r="CK170" s="24"/>
       <c r="CL170" s="8"/>
       <c r="CM170" s="8"/>
       <c r="CN170" s="8"/>
@@ -40894,13 +41133,15 @@
         <v>-15.67134564575467</v>
       </c>
       <c r="CF171" s="28">
-        <v>16.494882681154778</v>
-      </c>
-      <c r="CG171" s="24"/>
+        <v>17.046249541536923</v>
+      </c>
+      <c r="CG171" s="28">
+        <v>73.421335869017099</v>
+      </c>
       <c r="CH171" s="24"/>
       <c r="CI171" s="24"/>
       <c r="CJ171" s="24"/>
-      <c r="CK171" s="8"/>
+      <c r="CK171" s="24"/>
       <c r="CL171" s="8"/>
       <c r="CM171" s="8"/>
       <c r="CN171" s="8"/>
@@ -41215,13 +41456,15 @@
         <v>-5.4521453955669301</v>
       </c>
       <c r="CF172" s="28">
-        <v>8.96363387282166</v>
-      </c>
-      <c r="CG172" s="24"/>
+        <v>9.0376582936934255</v>
+      </c>
+      <c r="CG172" s="28">
+        <v>-18.306995156113871</v>
+      </c>
       <c r="CH172" s="24"/>
       <c r="CI172" s="24"/>
       <c r="CJ172" s="24"/>
-      <c r="CK172" s="8"/>
+      <c r="CK172" s="24"/>
       <c r="CL172" s="8"/>
       <c r="CM172" s="8"/>
       <c r="CN172" s="8"/>
@@ -41536,13 +41779,15 @@
         <v>26.145687060711481</v>
       </c>
       <c r="CF173" s="28">
-        <v>82.780280376814829</v>
-      </c>
-      <c r="CG173" s="24"/>
+        <v>82.833167136615629</v>
+      </c>
+      <c r="CG173" s="28">
+        <v>316.87503489066938</v>
+      </c>
       <c r="CH173" s="24"/>
       <c r="CI173" s="24"/>
       <c r="CJ173" s="24"/>
-      <c r="CK173" s="8"/>
+      <c r="CK173" s="24"/>
       <c r="CL173" s="8"/>
       <c r="CM173" s="8"/>
       <c r="CN173" s="8"/>
@@ -41857,13 +42102,15 @@
         <v>16.783977423330327</v>
       </c>
       <c r="CF174" s="28">
-        <v>-16.979010409724964</v>
-      </c>
-      <c r="CG174" s="24"/>
+        <v>-17.054912019446363</v>
+      </c>
+      <c r="CG174" s="28">
+        <v>-10.328185066842934</v>
+      </c>
       <c r="CH174" s="24"/>
       <c r="CI174" s="24"/>
       <c r="CJ174" s="24"/>
-      <c r="CK174" s="8"/>
+      <c r="CK174" s="24"/>
       <c r="CL174" s="8"/>
       <c r="CM174" s="8"/>
       <c r="CN174" s="8"/>
@@ -42178,13 +42425,15 @@
         <v>18.984905185830343</v>
       </c>
       <c r="CF175" s="28">
-        <v>-26.073801344216648</v>
-      </c>
-      <c r="CG175" s="24"/>
+        <v>-26.067858304502693</v>
+      </c>
+      <c r="CG175" s="28">
+        <v>-9.8173528423211138</v>
+      </c>
       <c r="CH175" s="24"/>
       <c r="CI175" s="24"/>
       <c r="CJ175" s="24"/>
-      <c r="CK175" s="8"/>
+      <c r="CK175" s="24"/>
       <c r="CL175" s="8"/>
       <c r="CM175" s="8"/>
       <c r="CN175" s="8"/>
@@ -42499,13 +42748,15 @@
         <v>-58.137817815150804</v>
       </c>
       <c r="CF176" s="28">
-        <v>39.320490098151851</v>
-      </c>
-      <c r="CG176" s="24"/>
+        <v>39.31493023955926</v>
+      </c>
+      <c r="CG176" s="28">
+        <v>38.052219706289435</v>
+      </c>
       <c r="CH176" s="24"/>
       <c r="CI176" s="24"/>
       <c r="CJ176" s="24"/>
-      <c r="CK176" s="8"/>
+      <c r="CK176" s="24"/>
       <c r="CL176" s="8"/>
       <c r="CM176" s="8"/>
       <c r="CN176" s="8"/>
@@ -42820,13 +43071,15 @@
         <v>-1.9627310422934983</v>
       </c>
       <c r="CF177" s="28">
-        <v>-1.3181394747780928</v>
-      </c>
-      <c r="CG177" s="24"/>
+        <v>-1.3144626815093119</v>
+      </c>
+      <c r="CG177" s="28">
+        <v>-18.436314635505354</v>
+      </c>
       <c r="CH177" s="24"/>
       <c r="CI177" s="24"/>
       <c r="CJ177" s="24"/>
-      <c r="CK177" s="8"/>
+      <c r="CK177" s="24"/>
       <c r="CL177" s="8"/>
       <c r="CM177" s="8"/>
       <c r="CN177" s="8"/>
@@ -43141,13 +43394,15 @@
         <v>10.612017315555832</v>
       </c>
       <c r="CF178" s="28">
-        <v>4.6116535932296756</v>
-      </c>
-      <c r="CG178" s="24"/>
+        <v>4.6124930424651183</v>
+      </c>
+      <c r="CG178" s="28">
+        <v>-17.3800739557675</v>
+      </c>
       <c r="CH178" s="24"/>
       <c r="CI178" s="24"/>
       <c r="CJ178" s="24"/>
-      <c r="CK178" s="8"/>
+      <c r="CK178" s="24"/>
       <c r="CL178" s="8"/>
       <c r="CM178" s="8"/>
       <c r="CN178" s="8"/>
@@ -43462,13 +43717,15 @@
         <v>5.2886325528137377</v>
       </c>
       <c r="CF179" s="28">
-        <v>5.1573082925735036</v>
-      </c>
-      <c r="CG179" s="24"/>
+        <v>5.0940006673267533</v>
+      </c>
+      <c r="CG179" s="28">
+        <v>-10.63050163681018</v>
+      </c>
       <c r="CH179" s="24"/>
       <c r="CI179" s="24"/>
       <c r="CJ179" s="24"/>
-      <c r="CK179" s="8"/>
+      <c r="CK179" s="24"/>
       <c r="CL179" s="8"/>
       <c r="CM179" s="8"/>
       <c r="CN179" s="8"/>
@@ -43783,13 +44040,15 @@
         <v>77.549760275423012</v>
       </c>
       <c r="CF180" s="28">
-        <v>31.479711000954381</v>
-      </c>
-      <c r="CG180" s="24"/>
+        <v>32.207725139449536</v>
+      </c>
+      <c r="CG180" s="28">
+        <v>31.567125998238396</v>
+      </c>
       <c r="CH180" s="24"/>
       <c r="CI180" s="24"/>
       <c r="CJ180" s="24"/>
-      <c r="CK180" s="8"/>
+      <c r="CK180" s="24"/>
       <c r="CL180" s="8"/>
       <c r="CM180" s="8"/>
       <c r="CN180" s="8"/>
@@ -44104,13 +44363,15 @@
         <v>13.877805226392084</v>
       </c>
       <c r="CF181" s="28">
-        <v>-23.710523955467437</v>
-      </c>
-      <c r="CG181" s="24"/>
+        <v>-23.867919898516902</v>
+      </c>
+      <c r="CG181" s="28">
+        <v>0.88498699723555774</v>
+      </c>
       <c r="CH181" s="24"/>
       <c r="CI181" s="24"/>
       <c r="CJ181" s="24"/>
-      <c r="CK181" s="8"/>
+      <c r="CK181" s="24"/>
       <c r="CL181" s="8"/>
       <c r="CM181" s="8"/>
       <c r="CN181" s="8"/>
@@ -44425,13 +44686,15 @@
         <v>46.995150947542868</v>
       </c>
       <c r="CF182" s="28">
-        <v>14.550464554661716</v>
-      </c>
-      <c r="CG182" s="24"/>
+        <v>14.814816940832841</v>
+      </c>
+      <c r="CG182" s="28">
+        <v>-1.1296742360088246</v>
+      </c>
       <c r="CH182" s="24"/>
       <c r="CI182" s="24"/>
       <c r="CJ182" s="24"/>
-      <c r="CK182" s="8"/>
+      <c r="CK182" s="24"/>
       <c r="CL182" s="8"/>
       <c r="CM182" s="8"/>
       <c r="CN182" s="8"/>
@@ -44579,11 +44842,11 @@
       <c r="CD183" s="28"/>
       <c r="CE183" s="28"/>
       <c r="CF183" s="28"/>
-      <c r="CG183" s="24"/>
+      <c r="CG183" s="28"/>
       <c r="CH183" s="24"/>
       <c r="CI183" s="24"/>
       <c r="CJ183" s="24"/>
-      <c r="CK183" s="8"/>
+      <c r="CK183" s="24"/>
       <c r="CL183" s="8"/>
       <c r="CM183" s="8"/>
       <c r="CN183" s="8"/>
@@ -44898,13 +45161,15 @@
         <v>48.323717180614409</v>
       </c>
       <c r="CF184" s="28">
-        <v>16.32554754914473</v>
-      </c>
-      <c r="CG184" s="24"/>
+        <v>16.432791182236528</v>
+      </c>
+      <c r="CG184" s="28">
+        <v>14.509387644982553</v>
+      </c>
       <c r="CH184" s="24"/>
       <c r="CI184" s="24"/>
       <c r="CJ184" s="24"/>
-      <c r="CK184" s="8"/>
+      <c r="CK184" s="24"/>
       <c r="CL184" s="8"/>
       <c r="CM184" s="8"/>
       <c r="CN184" s="8"/>
@@ -45057,6 +45322,7 @@
       <c r="CH185" s="25"/>
       <c r="CI185" s="25"/>
       <c r="CJ185" s="25"/>
+      <c r="CK185" s="25"/>
     </row>
     <row r="186" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -45154,7 +45420,7 @@
       <c r="CH187" s="24"/>
       <c r="CI187" s="24"/>
       <c r="CJ187" s="24"/>
-      <c r="CK187" s="8"/>
+      <c r="CK187" s="24"/>
       <c r="CL187" s="8"/>
       <c r="CM187" s="8"/>
       <c r="CN187" s="8"/>
@@ -45306,7 +45572,7 @@
       <c r="CH188" s="24"/>
       <c r="CI188" s="24"/>
       <c r="CJ188" s="24"/>
-      <c r="CK188" s="8"/>
+      <c r="CK188" s="24"/>
       <c r="CL188" s="8"/>
       <c r="CM188" s="8"/>
       <c r="CN188" s="8"/>
@@ -45377,7 +45643,7 @@
     </row>
     <row r="190" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:151" x14ac:dyDescent="0.25">
@@ -45387,7 +45653,7 @@
     </row>
     <row r="193" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194" spans="1:155" x14ac:dyDescent="0.25">
@@ -45526,10 +45792,9 @@
       <c r="CH196" s="30">
         <v>2021</v>
       </c>
-      <c r="CI196" s="30">
-        <v>0</v>
-      </c>
+      <c r="CI196" s="30"/>
       <c r="CJ196" s="30"/>
+      <c r="CK196" s="30"/>
     </row>
     <row r="197" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
@@ -45795,6 +46060,9 @@
       </c>
       <c r="CJ197" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CK197" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46063,9 +46331,11 @@
         <v>92.297209395315889</v>
       </c>
       <c r="CJ199" s="28">
-        <v>74.412645376106155</v>
-      </c>
-      <c r="CK199" s="8"/>
+        <v>74.418670902165644</v>
+      </c>
+      <c r="CK199" s="28">
+        <v>133.78933697485616</v>
+      </c>
       <c r="CL199" s="8"/>
       <c r="CM199" s="8"/>
       <c r="CN199" s="8"/>
@@ -46398,7 +46668,9 @@
       <c r="CJ200" s="28">
         <v>72.632385830205067</v>
       </c>
-      <c r="CK200" s="8"/>
+      <c r="CK200" s="28">
+        <v>132.7440143884381</v>
+      </c>
       <c r="CL200" s="8"/>
       <c r="CM200" s="8"/>
       <c r="CN200" s="8"/>
@@ -46731,7 +47003,9 @@
       <c r="CJ201" s="28">
         <v>75.485065206815875</v>
       </c>
-      <c r="CK201" s="8"/>
+      <c r="CK201" s="28">
+        <v>117.58806404457339</v>
+      </c>
       <c r="CL201" s="8"/>
       <c r="CM201" s="8"/>
       <c r="CN201" s="8"/>
@@ -47064,7 +47338,9 @@
       <c r="CJ202" s="28">
         <v>131.48836932720153</v>
       </c>
-      <c r="CK202" s="8"/>
+      <c r="CK202" s="28">
+        <v>225.94975254391488</v>
+      </c>
       <c r="CL202" s="8"/>
       <c r="CM202" s="8"/>
       <c r="CN202" s="8"/>
@@ -47397,7 +47673,9 @@
       <c r="CJ203" s="28">
         <v>97.372561855620091</v>
       </c>
-      <c r="CK203" s="8"/>
+      <c r="CK203" s="28">
+        <v>147.81171614570647</v>
+      </c>
       <c r="CL203" s="8"/>
       <c r="CM203" s="8"/>
       <c r="CN203" s="8"/>
@@ -47728,9 +48006,11 @@
         <v>94.386728971176964</v>
       </c>
       <c r="CJ204" s="28">
-        <v>64.068024289105367</v>
-      </c>
-      <c r="CK204" s="8"/>
+        <v>64.068024289105352</v>
+      </c>
+      <c r="CK204" s="28">
+        <v>130.9818239347411</v>
+      </c>
       <c r="CL204" s="8"/>
       <c r="CM204" s="8"/>
       <c r="CN204" s="8"/>
@@ -48063,7 +48343,9 @@
       <c r="CJ205" s="28">
         <v>60.955666119709321</v>
       </c>
-      <c r="CK205" s="8"/>
+      <c r="CK205" s="28">
+        <v>177.65614714981447</v>
+      </c>
       <c r="CL205" s="8"/>
       <c r="CM205" s="8"/>
       <c r="CN205" s="8"/>
@@ -48396,7 +48678,9 @@
       <c r="CJ206" s="28">
         <v>111.89626249213272</v>
       </c>
-      <c r="CK206" s="8"/>
+      <c r="CK206" s="28">
+        <v>184.09007429259708</v>
+      </c>
       <c r="CL206" s="8"/>
       <c r="CM206" s="8"/>
       <c r="CN206" s="8"/>
@@ -48729,7 +49013,9 @@
       <c r="CJ207" s="28">
         <v>76.327107910190236</v>
       </c>
-      <c r="CK207" s="8"/>
+      <c r="CK207" s="28">
+        <v>166.25773215654246</v>
+      </c>
       <c r="CL207" s="8"/>
       <c r="CM207" s="8"/>
       <c r="CN207" s="8"/>
@@ -49062,7 +49348,9 @@
       <c r="CJ208" s="28">
         <v>91.182112322347976</v>
       </c>
-      <c r="CK208" s="8"/>
+      <c r="CK208" s="28">
+        <v>129.77240818898994</v>
+      </c>
       <c r="CL208" s="8"/>
       <c r="CM208" s="8"/>
       <c r="CN208" s="8"/>
@@ -49395,7 +49683,9 @@
       <c r="CJ209" s="28">
         <v>210.82617432150843</v>
       </c>
-      <c r="CK209" s="8"/>
+      <c r="CK209" s="28">
+        <v>69.967906563514077</v>
+      </c>
       <c r="CL209" s="8"/>
       <c r="CM209" s="8"/>
       <c r="CN209" s="8"/>
@@ -49726,9 +50016,11 @@
         <v>99.895771164934857</v>
       </c>
       <c r="CJ210" s="28">
-        <v>96.679802355880682</v>
-      </c>
-      <c r="CK210" s="8"/>
+        <v>96.679802355880668</v>
+      </c>
+      <c r="CK210" s="28">
+        <v>95.941366108733462</v>
+      </c>
       <c r="CL210" s="8"/>
       <c r="CM210" s="8"/>
       <c r="CN210" s="8"/>
@@ -50061,7 +50353,9 @@
       <c r="CJ211" s="28">
         <v>115.5188787456608</v>
       </c>
-      <c r="CK211" s="8"/>
+      <c r="CK211" s="28">
+        <v>94.624043530747073</v>
+      </c>
       <c r="CL211" s="8"/>
       <c r="CM211" s="8"/>
       <c r="CN211" s="8"/>
@@ -50392,9 +50686,11 @@
         <v>114.63531474039243</v>
       </c>
       <c r="CJ212" s="28">
-        <v>150.08295600796816</v>
-      </c>
-      <c r="CK212" s="8"/>
+        <v>150.08295600796814</v>
+      </c>
+      <c r="CK212" s="28">
+        <v>161.59209092621541</v>
+      </c>
       <c r="CL212" s="8"/>
       <c r="CM212" s="8"/>
       <c r="CN212" s="8"/>
@@ -50727,7 +51023,9 @@
       <c r="CJ213" s="28">
         <v>114.21870025443638</v>
       </c>
-      <c r="CK213" s="8"/>
+      <c r="CK213" s="28">
+        <v>121.80354158961309</v>
+      </c>
       <c r="CL213" s="8"/>
       <c r="CM213" s="8"/>
       <c r="CN213" s="8"/>
@@ -51060,7 +51358,9 @@
       <c r="CJ214" s="28">
         <v>143.38372056892709</v>
       </c>
-      <c r="CK214" s="8"/>
+      <c r="CK214" s="28">
+        <v>82.595801972507388</v>
+      </c>
       <c r="CL214" s="8"/>
       <c r="CM214" s="8"/>
       <c r="CN214" s="8"/>
@@ -51391,9 +51691,11 @@
         <v>102.08988510874141</v>
       </c>
       <c r="CJ215" s="28">
-        <v>82.852289390894384</v>
-      </c>
-      <c r="CK215" s="8"/>
+        <v>82.85228939089437</v>
+      </c>
+      <c r="CK215" s="28">
+        <v>116.740806558164</v>
+      </c>
       <c r="CL215" s="8"/>
       <c r="CM215" s="8"/>
       <c r="CN215" s="8"/>
@@ -51724,9 +52026,11 @@
         <v>102.45969274062526</v>
       </c>
       <c r="CJ216" s="28">
-        <v>98.013071220532069</v>
-      </c>
-      <c r="CK216" s="8"/>
+        <v>98.013071220532055</v>
+      </c>
+      <c r="CK216" s="28">
+        <v>114.45932270648633</v>
+      </c>
       <c r="CL216" s="8"/>
       <c r="CM216" s="8"/>
       <c r="CN216" s="8"/>
@@ -52059,7 +52363,9 @@
       <c r="CJ217" s="28">
         <v>90.821826629103114</v>
       </c>
-      <c r="CK217" s="8"/>
+      <c r="CK217" s="28">
+        <v>135.62992538597882</v>
+      </c>
       <c r="CL217" s="8"/>
       <c r="CM217" s="8"/>
       <c r="CN217" s="8"/>
@@ -52392,7 +52698,9 @@
       <c r="CJ218" s="28">
         <v>111.33532996720656</v>
       </c>
-      <c r="CK218" s="8"/>
+      <c r="CK218" s="28">
+        <v>138.0567789478321</v>
+      </c>
       <c r="CL218" s="8"/>
       <c r="CM218" s="8"/>
       <c r="CN218" s="8"/>
@@ -52723,9 +53031,11 @@
         <v>68.667386026696747</v>
       </c>
       <c r="CJ219" s="28">
-        <v>88.138082755720873</v>
-      </c>
-      <c r="CK219" s="8"/>
+        <v>88.138082755720887</v>
+      </c>
+      <c r="CK219" s="28">
+        <v>119.63083656268924</v>
+      </c>
       <c r="CL219" s="8"/>
       <c r="CM219" s="8"/>
       <c r="CN219" s="8"/>
@@ -53058,7 +53368,9 @@
       <c r="CJ220" s="28">
         <v>134.89276258307382</v>
       </c>
-      <c r="CK220" s="8"/>
+      <c r="CK220" s="28">
+        <v>175.32250084550677</v>
+      </c>
       <c r="CL220" s="8"/>
       <c r="CM220" s="8"/>
       <c r="CN220" s="8"/>
@@ -53391,7 +53703,9 @@
       <c r="CJ221" s="28">
         <v>94.72161675837711</v>
       </c>
-      <c r="CK221" s="8"/>
+      <c r="CK221" s="28">
+        <v>198.29291583426368</v>
+      </c>
       <c r="CL221" s="8"/>
       <c r="CM221" s="8"/>
       <c r="CN221" s="8"/>
@@ -53724,7 +54038,9 @@
       <c r="CJ222" s="28">
         <v>272.3524139672864</v>
       </c>
-      <c r="CK222" s="8"/>
+      <c r="CK222" s="28">
+        <v>179.29582994905985</v>
+      </c>
       <c r="CL222" s="8"/>
       <c r="CM222" s="8"/>
       <c r="CN222" s="8"/>
@@ -54055,9 +54371,11 @@
         <v>268.34806920318107</v>
       </c>
       <c r="CJ223" s="28">
-        <v>154.21437521100933</v>
-      </c>
-      <c r="CK223" s="8"/>
+        <v>154.21499042915528</v>
+      </c>
+      <c r="CK223" s="28">
+        <v>97.223337961851527</v>
+      </c>
       <c r="CL223" s="8"/>
       <c r="CM223" s="8"/>
       <c r="CN223" s="8"/>
@@ -54388,9 +54706,11 @@
         <v>141.59847331233311</v>
       </c>
       <c r="CJ224" s="28">
-        <v>115.82918207481963</v>
-      </c>
-      <c r="CK224" s="8"/>
+        <v>115.82923846387033</v>
+      </c>
+      <c r="CK224" s="28">
+        <v>136.20220220647582</v>
+      </c>
       <c r="CL224" s="8"/>
       <c r="CM224" s="8"/>
       <c r="CN224" s="8"/>
@@ -54721,9 +55041,11 @@
         <v>82.756952718388476</v>
       </c>
       <c r="CJ225" s="28">
-        <v>102.16562625346933</v>
-      </c>
-      <c r="CK225" s="8"/>
+        <v>102.16562625346934</v>
+      </c>
+      <c r="CK225" s="28">
+        <v>167.2684777971885</v>
+      </c>
       <c r="CL225" s="8"/>
       <c r="CM225" s="8"/>
       <c r="CN225" s="8"/>
@@ -55056,7 +55378,9 @@
       <c r="CJ226" s="28">
         <v>123.62072858924726</v>
       </c>
-      <c r="CK226" s="8"/>
+      <c r="CK226" s="28">
+        <v>107.26556332787538</v>
+      </c>
       <c r="CL226" s="8"/>
       <c r="CM226" s="8"/>
       <c r="CN226" s="8"/>
@@ -55389,7 +55713,9 @@
       <c r="CJ227" s="28">
         <v>117.26788232267862</v>
       </c>
-      <c r="CK227" s="8"/>
+      <c r="CK227" s="28">
+        <v>115.96875368761559</v>
+      </c>
       <c r="CL227" s="8"/>
       <c r="CM227" s="8"/>
       <c r="CN227" s="8"/>
@@ -55720,9 +56046,11 @@
         <v>112.18658891599836</v>
       </c>
       <c r="CJ228" s="28">
-        <v>135.61623133244828</v>
-      </c>
-      <c r="CK228" s="8"/>
+        <v>135.62116581649363</v>
+      </c>
+      <c r="CK228" s="28">
+        <v>116.75770119215517</v>
+      </c>
       <c r="CL228" s="8"/>
       <c r="CM228" s="8"/>
       <c r="CN228" s="8"/>
@@ -55878,7 +56206,7 @@
       <c r="CH229" s="28"/>
       <c r="CI229" s="28"/>
       <c r="CJ229" s="28"/>
-      <c r="CK229" s="8"/>
+      <c r="CK229" s="28"/>
       <c r="CL229" s="8"/>
       <c r="CM229" s="8"/>
       <c r="CN229" s="8"/>
@@ -56209,9 +56537,11 @@
         <v>99.866171729573125</v>
       </c>
       <c r="CJ230" s="28">
-        <v>113.33120152916167</v>
-      </c>
-      <c r="CK230" s="8"/>
+        <v>113.36211700662102</v>
+      </c>
+      <c r="CK230" s="28">
+        <v>109.95281626168996</v>
+      </c>
       <c r="CL230" s="8"/>
       <c r="CM230" s="8"/>
       <c r="CN230" s="8"/>
@@ -56368,6 +56698,7 @@
       <c r="CH231" s="25"/>
       <c r="CI231" s="25"/>
       <c r="CJ231" s="25"/>
+      <c r="CK231" s="25"/>
     </row>
     <row r="232" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
@@ -56389,7 +56720,7 @@
     </row>
     <row r="237" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:155" x14ac:dyDescent="0.25">
@@ -56399,7 +56730,7 @@
     </row>
     <row r="240" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:155" x14ac:dyDescent="0.25">
@@ -56538,10 +56869,9 @@
       <c r="CH243" s="30">
         <v>2021</v>
       </c>
-      <c r="CI243" s="30">
-        <v>0</v>
-      </c>
+      <c r="CI243" s="30"/>
       <c r="CJ243" s="30"/>
+      <c r="CK243" s="30"/>
     </row>
     <row r="244" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
@@ -56807,6 +57137,9 @@
       </c>
       <c r="CJ244" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CK244" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -57075,9 +57408,11 @@
         <v>20.862747557992581</v>
       </c>
       <c r="CJ246" s="28">
-        <v>18.099560124936069</v>
-      </c>
-      <c r="CK246" s="8"/>
+        <v>18.07252479959585</v>
+      </c>
+      <c r="CK246" s="28">
+        <v>18.363948893023945</v>
+      </c>
       <c r="CL246" s="8"/>
       <c r="CM246" s="8"/>
       <c r="CN246" s="8"/>
@@ -57408,9 +57743,11 @@
         <v>10.462010243634516</v>
       </c>
       <c r="CJ247" s="28">
-        <v>9.0081955804874028</v>
-      </c>
-      <c r="CK247" s="8"/>
+        <v>8.997489571102669</v>
+      </c>
+      <c r="CK247" s="28">
+        <v>8.5857589247124011</v>
+      </c>
       <c r="CL247" s="8"/>
       <c r="CM247" s="8"/>
       <c r="CN247" s="8"/>
@@ -57741,9 +58078,11 @@
         <v>4.8388029439754217</v>
       </c>
       <c r="CJ248" s="28">
-        <v>4.4540117394283145</v>
-      </c>
-      <c r="CK248" s="8"/>
+        <v>4.4395278773479712</v>
+      </c>
+      <c r="CK248" s="28">
+        <v>4.6174636103340303</v>
+      </c>
       <c r="CL248" s="8"/>
       <c r="CM248" s="8"/>
       <c r="CN248" s="8"/>
@@ -58074,9 +58413,11 @@
         <v>0.20660335805284827</v>
       </c>
       <c r="CJ249" s="28">
-        <v>0.13643367002865583</v>
-      </c>
-      <c r="CK249" s="8"/>
+        <v>0.13748816661873026</v>
+      </c>
+      <c r="CK249" s="28">
+        <v>0.12629627590925105</v>
+      </c>
       <c r="CL249" s="8"/>
       <c r="CM249" s="8"/>
       <c r="CN249" s="8"/>
@@ -58407,9 +58748,11 @@
         <v>1.3097915908739275</v>
       </c>
       <c r="CJ250" s="28">
-        <v>1.0396775190703578</v>
-      </c>
-      <c r="CK250" s="8"/>
+        <v>1.0381036711108509</v>
+      </c>
+      <c r="CK250" s="28">
+        <v>1.2163978197884653</v>
+      </c>
       <c r="CL250" s="8"/>
       <c r="CM250" s="8"/>
       <c r="CN250" s="8"/>
@@ -58740,9 +59083,11 @@
         <v>1.8022283715771785</v>
       </c>
       <c r="CJ251" s="28">
-        <v>1.4614876722323622</v>
-      </c>
-      <c r="CK251" s="8"/>
+        <v>1.460187760129011</v>
+      </c>
+      <c r="CK251" s="28">
+        <v>1.5234284908165083</v>
+      </c>
       <c r="CL251" s="8"/>
       <c r="CM251" s="8"/>
       <c r="CN251" s="8"/>
@@ -59073,9 +59418,11 @@
         <v>1.1540143930315316</v>
       </c>
       <c r="CJ252" s="28">
-        <v>0.9109250100024483</v>
-      </c>
-      <c r="CK252" s="8"/>
+        <v>0.90851700131391999</v>
+      </c>
+      <c r="CK252" s="28">
+        <v>1.3431977951848808</v>
+      </c>
       <c r="CL252" s="8"/>
       <c r="CM252" s="8"/>
       <c r="CN252" s="8"/>
@@ -59406,9 +59753,11 @@
         <v>0.85071367598925018</v>
       </c>
       <c r="CJ253" s="28">
-        <v>0.83064803007540811</v>
-      </c>
-      <c r="CK253" s="8"/>
+        <v>0.83223857417107361</v>
+      </c>
+      <c r="CK253" s="28">
+        <v>0.75624590415666071</v>
+      </c>
       <c r="CL253" s="8"/>
       <c r="CM253" s="8"/>
       <c r="CN253" s="8"/>
@@ -59739,9 +60088,11 @@
         <v>0.19555042858911578</v>
       </c>
       <c r="CJ254" s="28">
-        <v>0.22360125221447227</v>
-      </c>
-      <c r="CK254" s="8"/>
+        <v>0.22422958048185113</v>
+      </c>
+      <c r="CK254" s="28">
+        <v>0.16482785625043106</v>
+      </c>
       <c r="CL254" s="8"/>
       <c r="CM254" s="8"/>
       <c r="CN254" s="8"/>
@@ -60072,9 +60423,11 @@
         <v>4.3032552268791074E-2</v>
       </c>
       <c r="CJ255" s="28">
-        <v>3.4579651396646434E-2</v>
-      </c>
-      <c r="CK255" s="8"/>
+        <v>3.4742597319770488E-2</v>
+      </c>
+      <c r="CK255" s="28">
+        <v>3.0332215871317594E-2</v>
+      </c>
       <c r="CL255" s="8"/>
       <c r="CM255" s="8"/>
       <c r="CN255" s="8"/>
@@ -60405,9 +60758,11 @@
         <v>14.158930962950137</v>
       </c>
       <c r="CJ256" s="28">
-        <v>13.800467034940789</v>
-      </c>
-      <c r="CK256" s="8"/>
+        <v>13.818956445637673</v>
+      </c>
+      <c r="CK256" s="28">
+        <v>16.055667627537705</v>
+      </c>
       <c r="CL256" s="8"/>
       <c r="CM256" s="8"/>
       <c r="CN256" s="8"/>
@@ -60738,9 +61093,11 @@
         <v>5.3633964197723403</v>
       </c>
       <c r="CJ257" s="28">
-        <v>4.8167522648495664</v>
-      </c>
-      <c r="CK257" s="8"/>
+        <v>4.8111382801102032</v>
+      </c>
+      <c r="CK257" s="28">
+        <v>4.8849256823279514</v>
+      </c>
       <c r="CL257" s="8"/>
       <c r="CM257" s="8"/>
       <c r="CN257" s="8"/>
@@ -61071,9 +61428,11 @@
         <v>0.8788031544924122</v>
       </c>
       <c r="CJ258" s="28">
-        <v>0.88477948326704026</v>
-      </c>
-      <c r="CK258" s="8"/>
+        <v>0.88276976277942043</v>
+      </c>
+      <c r="CK258" s="28">
+        <v>0.75138207859920603</v>
+      </c>
       <c r="CL258" s="8"/>
       <c r="CM258" s="8"/>
       <c r="CN258" s="8"/>
@@ -61404,9 +61763,11 @@
         <v>6.6386972746773871</v>
       </c>
       <c r="CJ259" s="28">
-        <v>7.3325267256075497</v>
-      </c>
-      <c r="CK259" s="8"/>
+        <v>7.3235699142245387</v>
+      </c>
+      <c r="CK259" s="28">
+        <v>4.815388360159865</v>
+      </c>
       <c r="CL259" s="8"/>
       <c r="CM259" s="8"/>
       <c r="CN259" s="8"/>
@@ -61737,9 +62098,11 @@
         <v>5.9210437425692906</v>
       </c>
       <c r="CJ260" s="28">
-        <v>4.9502012454207138</v>
-      </c>
-      <c r="CK260" s="8"/>
+        <v>4.9480591961654667</v>
+      </c>
+      <c r="CK260" s="28">
+        <v>6.9312792309060276</v>
+      </c>
       <c r="CL260" s="8"/>
       <c r="CM260" s="8"/>
       <c r="CN260" s="8"/>
@@ -62070,9 +62433,11 @@
         <v>1.1559837556930861</v>
       </c>
       <c r="CJ261" s="28">
-        <v>0.95994903145900901</v>
-      </c>
-      <c r="CK261" s="8"/>
+        <v>0.95774926744085498</v>
+      </c>
+      <c r="CK261" s="28">
+        <v>1.0430145935188921</v>
+      </c>
       <c r="CL261" s="8"/>
       <c r="CM261" s="8"/>
       <c r="CN261" s="8"/>
@@ -62403,9 +62768,11 @@
         <v>2.5150514682980507</v>
       </c>
       <c r="CJ262" s="28">
-        <v>2.4472254450720725</v>
-      </c>
-      <c r="CK262" s="8"/>
+        <v>2.4445349947643638</v>
+      </c>
+      <c r="CK262" s="28">
+        <v>2.6158073127027857</v>
+      </c>
       <c r="CL262" s="8"/>
       <c r="CM262" s="8"/>
       <c r="CN262" s="8"/>
@@ -62736,9 +63103,11 @@
         <v>5.2747393767407722</v>
       </c>
       <c r="CJ263" s="28">
-        <v>5.0528948798245095</v>
-      </c>
-      <c r="CK263" s="8"/>
+        <v>5.0564216381416136</v>
+      </c>
+      <c r="CK263" s="28">
+        <v>4.8290395926484342</v>
+      </c>
       <c r="CL263" s="8"/>
       <c r="CM263" s="8"/>
       <c r="CN263" s="8"/>
@@ -63069,9 +63438,11 @@
         <v>2.2954914215396092</v>
       </c>
       <c r="CJ264" s="28">
-        <v>2.6056652832270228</v>
-      </c>
-      <c r="CK264" s="8"/>
+        <v>2.6148731334555824</v>
+      </c>
+      <c r="CK264" s="28">
+        <v>3.8889732609389589</v>
+      </c>
       <c r="CL264" s="8"/>
       <c r="CM264" s="8"/>
       <c r="CN264" s="8"/>
@@ -63402,9 +63773,11 @@
         <v>0.92925982940674723</v>
       </c>
       <c r="CJ265" s="28">
-        <v>1.0340483375823477</v>
-      </c>
-      <c r="CK265" s="8"/>
+        <v>1.0335158008297156</v>
+      </c>
+      <c r="CK265" s="28">
+        <v>1.054172673282435</v>
+      </c>
       <c r="CL265" s="8"/>
       <c r="CM265" s="8"/>
       <c r="CN265" s="8"/>
@@ -63735,9 +64108,11 @@
         <v>1.7622561956053477</v>
       </c>
       <c r="CJ266" s="28">
-        <v>2.6036087535144063</v>
-      </c>
-      <c r="CK266" s="8"/>
+        <v>2.6012536852473653</v>
+      </c>
+      <c r="CK266" s="28">
+        <v>7.7421862567247963</v>
+      </c>
       <c r="CL266" s="8"/>
       <c r="CM266" s="8"/>
       <c r="CN266" s="8"/>
@@ -64068,9 +64443,11 @@
         <v>1.0544997045881419</v>
       </c>
       <c r="CJ267" s="28">
-        <v>0.90621595034813041</v>
-      </c>
-      <c r="CK267" s="8"/>
+        <v>0.90430682920866257</v>
+      </c>
+      <c r="CK267" s="28">
+        <v>1.0858057915770309</v>
+      </c>
       <c r="CL267" s="8"/>
       <c r="CM267" s="8"/>
       <c r="CN267" s="8"/>
@@ -64401,9 +64778,11 @@
         <v>1.7797776636543088</v>
       </c>
       <c r="CJ268" s="28">
-        <v>1.2193187854399454</v>
-      </c>
-      <c r="CK268" s="8"/>
+        <v>1.2179613846854245</v>
+      </c>
+      <c r="CK268" s="28">
+        <v>1.4976606360698519</v>
+      </c>
       <c r="CL268" s="8"/>
       <c r="CM268" s="8"/>
       <c r="CN268" s="8"/>
@@ -64734,9 +65113,11 @@
         <v>0.11556466160857706</v>
       </c>
       <c r="CJ269" s="28">
-        <v>0.453460447055125</v>
-      </c>
-      <c r="CK269" s="8"/>
+        <v>0.45290114890040051</v>
+      </c>
+      <c r="CK269" s="28">
+        <v>0.5638943259942284</v>
+      </c>
       <c r="CL269" s="8"/>
       <c r="CM269" s="8"/>
       <c r="CN269" s="8"/>
@@ -65067,9 +65448,11 @@
         <v>1.8999936947660974</v>
       </c>
       <c r="CJ270" s="28">
-        <v>1.8962245492282301</v>
-      </c>
-      <c r="CK270" s="8"/>
+        <v>1.8940394511725978</v>
+      </c>
+      <c r="CK270" s="28">
+        <v>1.8497879073953167</v>
+      </c>
       <c r="CL270" s="8"/>
       <c r="CM270" s="8"/>
       <c r="CN270" s="8"/>
@@ -65400,9 +65783,11 @@
         <v>2.5380148168906396</v>
       </c>
       <c r="CJ271" s="28">
-        <v>2.4082872998639147</v>
-      </c>
-      <c r="CK271" s="8"/>
+        <v>2.4054333839503652</v>
+      </c>
+      <c r="CK271" s="28">
+        <v>2.3859812657526653</v>
+      </c>
       <c r="CL271" s="8"/>
       <c r="CM271" s="8"/>
       <c r="CN271" s="8"/>
@@ -65733,9 +66118,11 @@
         <v>1.0090272682204398</v>
       </c>
       <c r="CJ272" s="28">
-        <v>1.1529641501228063</v>
-      </c>
-      <c r="CK272" s="8"/>
+        <v>1.1508947523897486</v>
+      </c>
+      <c r="CK272" s="28">
+        <v>1.3696951341101458</v>
+      </c>
       <c r="CL272" s="8"/>
       <c r="CM272" s="8"/>
       <c r="CN272" s="8"/>
@@ -66066,9 +66453,11 @@
         <v>1.0698477672698379</v>
       </c>
       <c r="CJ273" s="28">
-        <v>1.0857245438764578</v>
-      </c>
-      <c r="CK273" s="8"/>
+        <v>1.0904332595857085</v>
+      </c>
+      <c r="CK273" s="28">
+        <v>1.0494583006927471</v>
+      </c>
       <c r="CL273" s="8"/>
       <c r="CM273" s="8"/>
       <c r="CN273" s="8"/>
@@ -66399,9 +66788,11 @@
         <v>0.42320747019604338</v>
       </c>
       <c r="CJ274" s="28">
-        <v>0.37264022385166873</v>
-      </c>
-      <c r="CK274" s="8"/>
+        <v>0.37142757085540656</v>
+      </c>
+      <c r="CK274" s="28">
+        <v>0.46517547964917155</v>
+      </c>
       <c r="CL274" s="8"/>
       <c r="CM274" s="8"/>
       <c r="CN274" s="8"/>
@@ -66732,9 +67123,11 @@
         <v>22.353665793068146</v>
       </c>
       <c r="CJ275" s="28">
-        <v>25.917485440512628</v>
-      </c>
-      <c r="CK275" s="8"/>
+        <v>25.947235300859028</v>
+      </c>
+      <c r="CK275" s="28">
+        <v>16.756755596387865</v>
+      </c>
       <c r="CL275" s="8"/>
       <c r="CM275" s="8"/>
       <c r="CN275" s="8"/>
@@ -66890,7 +67283,7 @@
       <c r="CH276" s="24"/>
       <c r="CI276" s="24"/>
       <c r="CJ276" s="24"/>
-      <c r="CK276" s="8"/>
+      <c r="CK276" s="24"/>
       <c r="CL276" s="8"/>
       <c r="CM276" s="8"/>
       <c r="CN276" s="8"/>
@@ -67223,7 +67616,9 @@
       <c r="CJ277" s="28">
         <v>100</v>
       </c>
-      <c r="CK277" s="8"/>
+      <c r="CK277" s="28">
+        <v>100</v>
+      </c>
       <c r="CL277" s="8"/>
       <c r="CM277" s="8"/>
       <c r="CN277" s="8"/>
@@ -67380,6 +67775,7 @@
       <c r="CH278" s="25"/>
       <c r="CI278" s="25"/>
       <c r="CJ278" s="25"/>
+      <c r="CK278" s="25"/>
     </row>
     <row r="279" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
@@ -67474,7 +67870,7 @@
       <c r="CH280" s="24"/>
       <c r="CI280" s="24"/>
       <c r="CJ280" s="24"/>
-      <c r="CK280" s="8"/>
+      <c r="CK280" s="24"/>
       <c r="CL280" s="8"/>
       <c r="CM280" s="8"/>
       <c r="CN280" s="8"/>
@@ -67630,7 +68026,7 @@
       <c r="CH281" s="24"/>
       <c r="CI281" s="24"/>
       <c r="CJ281" s="24"/>
-      <c r="CK281" s="8"/>
+      <c r="CK281" s="24"/>
       <c r="CL281" s="8"/>
       <c r="CM281" s="8"/>
       <c r="CN281" s="8"/>
@@ -67710,7 +68106,7 @@
     </row>
     <row r="284" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:155" x14ac:dyDescent="0.25">
@@ -67720,7 +68116,7 @@
     </row>
     <row r="287" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288" spans="1:155" x14ac:dyDescent="0.25">
@@ -67859,10 +68255,9 @@
       <c r="CH290" s="30">
         <v>2021</v>
       </c>
-      <c r="CI290" s="30">
-        <v>0</v>
-      </c>
+      <c r="CI290" s="30"/>
       <c r="CJ290" s="30"/>
+      <c r="CK290" s="30"/>
     </row>
     <row r="291" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
@@ -68128,6 +68523,9 @@
       </c>
       <c r="CJ291" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CK291" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -68396,9 +68794,11 @@
         <v>22.573626483694717</v>
       </c>
       <c r="CJ293" s="28">
-        <v>27.565810699789495</v>
-      </c>
-      <c r="CK293" s="8"/>
+        <v>27.529914819766351</v>
+      </c>
+      <c r="CK293" s="28">
+        <v>15.092143694928403</v>
+      </c>
       <c r="CL293" s="8"/>
       <c r="CM293" s="8"/>
       <c r="CN293" s="8"/>
@@ -68729,9 +69129,11 @@
         <v>9.2280425981443113</v>
       </c>
       <c r="CJ294" s="28">
-        <v>14.0558459849155</v>
-      </c>
-      <c r="CK294" s="8"/>
+        <v>14.042970692297214</v>
+      </c>
+      <c r="CK294" s="28">
+        <v>7.1116455070707243</v>
+      </c>
       <c r="CL294" s="8"/>
       <c r="CM294" s="8"/>
       <c r="CN294" s="8"/>
@@ -69062,9 +69464,11 @@
         <v>6.1231648700455459</v>
       </c>
       <c r="CJ295" s="28">
-        <v>6.6871307678068179</v>
-      </c>
-      <c r="CK295" s="8"/>
+        <v>6.6672033376031825</v>
+      </c>
+      <c r="CK295" s="28">
+        <v>4.3176416932048927</v>
+      </c>
       <c r="CL295" s="8"/>
       <c r="CM295" s="8"/>
       <c r="CN295" s="8"/>
@@ -69395,9 +69799,11 @@
         <v>0.40844593282328456</v>
       </c>
       <c r="CJ296" s="28">
-        <v>0.11759360795557461</v>
-      </c>
-      <c r="CK296" s="8"/>
+        <v>0.11853481574840689</v>
+      </c>
+      <c r="CK296" s="28">
+        <v>6.1458935286448788E-2</v>
+      </c>
       <c r="CL296" s="8"/>
       <c r="CM296" s="8"/>
       <c r="CN296" s="8"/>
@@ -69728,9 +70134,11 @@
         <v>1.7870043812395695</v>
       </c>
       <c r="CJ297" s="28">
-        <v>1.2100729424559229</v>
-      </c>
-      <c r="CK297" s="8"/>
+        <v>1.2085707471059912</v>
+      </c>
+      <c r="CK297" s="28">
+        <v>0.90484279235673004</v>
+      </c>
       <c r="CL297" s="8"/>
       <c r="CM297" s="8"/>
       <c r="CN297" s="8"/>
@@ -70061,9 +70469,11 @@
         <v>1.9068533258186831</v>
       </c>
       <c r="CJ298" s="28">
-        <v>2.5852545907571658</v>
-      </c>
-      <c r="CK298" s="8"/>
+        <v>2.5836597515233333</v>
+      </c>
+      <c r="CK298" s="28">
+        <v>1.2788434906970536</v>
+      </c>
       <c r="CL298" s="8"/>
       <c r="CM298" s="8"/>
       <c r="CN298" s="8"/>
@@ -70394,9 +70804,11 @@
         <v>1.3096868443885452</v>
       </c>
       <c r="CJ299" s="28">
-        <v>1.6936280490118514</v>
-      </c>
-      <c r="CK299" s="8"/>
+        <v>1.6896117647732827</v>
+      </c>
+      <c r="CK299" s="28">
+        <v>0.83131590291962765</v>
+      </c>
       <c r="CL299" s="8"/>
       <c r="CM299" s="8"/>
       <c r="CN299" s="8"/>
@@ -70727,9 +71139,11 @@
         <v>1.530607674328702</v>
       </c>
       <c r="CJ300" s="28">
-        <v>0.84130012209206706</v>
-      </c>
-      <c r="CK300" s="8"/>
+        <v>0.84314099972050394</v>
+      </c>
+      <c r="CK300" s="28">
+        <v>0.45168848601924177</v>
+      </c>
       <c r="CL300" s="8"/>
       <c r="CM300" s="8"/>
       <c r="CN300" s="8"/>
@@ -71060,9 +71474,11 @@
         <v>0.2191800557779652</v>
       </c>
       <c r="CJ301" s="28">
-        <v>0.3320052242344696</v>
-      </c>
-      <c r="CK301" s="8"/>
+        <v>0.33302899369432959</v>
+      </c>
+      <c r="CK301" s="28">
+        <v>0.10900718275194346</v>
+      </c>
       <c r="CL301" s="8"/>
       <c r="CM301" s="8"/>
       <c r="CN301" s="8"/>
@@ -71393,9 +71809,11 @@
         <v>6.0640801128108511E-2</v>
       </c>
       <c r="CJ302" s="28">
-        <v>4.297941056012354E-2</v>
-      </c>
-      <c r="CK302" s="8"/>
+        <v>4.3193717300103032E-2</v>
+      </c>
+      <c r="CK302" s="28">
+        <v>2.5699704621739886E-2</v>
+      </c>
       <c r="CL302" s="8"/>
       <c r="CM302" s="8"/>
       <c r="CN302" s="8"/>
@@ -71726,9 +72144,11 @@
         <v>16.380987531318709</v>
       </c>
       <c r="CJ303" s="28">
-        <v>7.4185452340860767</v>
-      </c>
-      <c r="CK303" s="8"/>
+        <v>7.4305107633875007</v>
+      </c>
+      <c r="CK303" s="28">
+        <v>25.231080352631217</v>
+      </c>
       <c r="CL303" s="8"/>
       <c r="CM303" s="8"/>
       <c r="CN303" s="8"/>
@@ -72059,9 +72479,11 @@
         <v>5.3618072283201386</v>
       </c>
       <c r="CJ304" s="28">
-        <v>5.6463533058775193</v>
-      </c>
-      <c r="CK304" s="8"/>
+        <v>5.6413108772942335</v>
+      </c>
+      <c r="CK304" s="28">
+        <v>5.5983290397625778</v>
+      </c>
       <c r="CL304" s="8"/>
       <c r="CM304" s="8"/>
       <c r="CN304" s="8"/>
@@ -72392,9 +72814,11 @@
         <v>0.90868910853596374</v>
       </c>
       <c r="CJ305" s="28">
-        <v>0.86802367730539443</v>
-      </c>
-      <c r="CK305" s="8"/>
+        <v>0.86628826582050533</v>
+      </c>
+      <c r="CK305" s="28">
+        <v>0.87310341587442108</v>
+      </c>
       <c r="CL305" s="8"/>
       <c r="CM305" s="8"/>
       <c r="CN305" s="8"/>
@@ -72725,9 +73149,11 @@
         <v>5.7833947906453966</v>
       </c>
       <c r="CJ306" s="28">
-        <v>5.5369649303394164</v>
-      </c>
-      <c r="CK306" s="8"/>
+        <v>5.5317100062875504</v>
+      </c>
+      <c r="CK306" s="28">
+        <v>3.2765558546742084</v>
+      </c>
       <c r="CL306" s="8"/>
       <c r="CM306" s="8"/>
       <c r="CN306" s="8"/>
@@ -73058,9 +73484,11 @@
         <v>7.7777215859182069</v>
       </c>
       <c r="CJ307" s="28">
-        <v>4.9117373399010615</v>
-      </c>
-      <c r="CK307" s="8"/>
+        <v>4.9109512216639839</v>
+      </c>
+      <c r="CK307" s="28">
+        <v>6.2569089682304293</v>
+      </c>
       <c r="CL307" s="8"/>
       <c r="CM307" s="8"/>
       <c r="CN307" s="8"/>
@@ -73391,9 +73819,11 @@
         <v>0.77516680596652476</v>
       </c>
       <c r="CJ308" s="28">
-        <v>0.7587484597995644</v>
-      </c>
-      <c r="CK308" s="8"/>
+        <v>0.75721625919480218</v>
+      </c>
+      <c r="CK308" s="28">
+        <v>1.3884772496986817</v>
+      </c>
       <c r="CL308" s="8"/>
       <c r="CM308" s="8"/>
       <c r="CN308" s="8"/>
@@ -73724,9 +74154,11 @@
         <v>2.4602688265760615</v>
       </c>
       <c r="CJ309" s="28">
-        <v>3.3474874640366461</v>
-      </c>
-      <c r="CK309" s="8"/>
+        <v>3.3447194294876454</v>
+      </c>
+      <c r="CK309" s="28">
+        <v>2.4637090432152808</v>
+      </c>
       <c r="CL309" s="8"/>
       <c r="CM309" s="8"/>
       <c r="CN309" s="8"/>
@@ -74057,9 +74489,11 @@
         <v>5.1412220194709999</v>
       </c>
       <c r="CJ310" s="28">
-        <v>5.8425946743631894</v>
-      </c>
-      <c r="CK310" s="8"/>
+        <v>5.8482675243191746</v>
+      </c>
+      <c r="CK310" s="28">
+        <v>4.6389100555180018</v>
+      </c>
       <c r="CL310" s="8"/>
       <c r="CM310" s="8"/>
       <c r="CN310" s="8"/>
@@ -74390,9 +74824,11 @@
         <v>1.1379252056332789</v>
       </c>
       <c r="CJ311" s="28">
-        <v>3.251456046319094</v>
-      </c>
-      <c r="CK311" s="8"/>
+        <v>3.2638360745903969</v>
+      </c>
+      <c r="CK311" s="28">
+        <v>3.1527228315562548</v>
+      </c>
       <c r="CL311" s="8"/>
       <c r="CM311" s="8"/>
       <c r="CN311" s="8"/>
@@ -74723,9 +75159,11 @@
         <v>0.82997535932411104</v>
       </c>
       <c r="CJ312" s="28">
-        <v>1.0525853794294908</v>
-      </c>
-      <c r="CK312" s="8"/>
+        <v>1.0523302816487754</v>
+      </c>
+      <c r="CK312" s="28">
+        <v>0.83957669545018898</v>
+      </c>
       <c r="CL312" s="8"/>
       <c r="CM312" s="8"/>
       <c r="CN312" s="8"/>
@@ -75056,9 +75494,11 @@
         <v>2.5629311095868124</v>
       </c>
       <c r="CJ313" s="28">
-        <v>3.3478162801139235</v>
-      </c>
-      <c r="CK313" s="8"/>
+        <v>3.3457004669389141</v>
+      </c>
+      <c r="CK313" s="28">
+        <v>7.1158507907228028</v>
+      </c>
       <c r="CL313" s="8"/>
       <c r="CM313" s="8"/>
       <c r="CN313" s="8"/>
@@ -75389,9 +75829,11 @@
         <v>1.3380192021730568</v>
       </c>
       <c r="CJ314" s="28">
-        <v>0.76136436478269387</v>
-      </c>
-      <c r="CK314" s="8"/>
+        <v>0.75996765593339699</v>
+      </c>
+      <c r="CK314" s="28">
+        <v>0.68095882799636542</v>
+      </c>
       <c r="CL314" s="8"/>
       <c r="CM314" s="8"/>
       <c r="CN314" s="8"/>
@@ -75722,9 +76164,11 @@
         <v>1.1415146573722827</v>
       </c>
       <c r="CJ315" s="28">
-        <v>1.4588735679362859</v>
-      </c>
-      <c r="CK315" s="8"/>
+        <v>1.4576470052496691</v>
+      </c>
+      <c r="CK315" s="28">
+        <v>0.8304482489822762</v>
+      </c>
       <c r="CL315" s="8"/>
       <c r="CM315" s="8"/>
       <c r="CN315" s="8"/>
@@ -76055,9 +76499,11 @@
         <v>9.886857306163549E-2</v>
       </c>
       <c r="CJ316" s="28">
-        <v>0.18869381975399332</v>
-      </c>
-      <c r="CK316" s="8"/>
+        <v>0.18851249484517957</v>
+      </c>
+      <c r="CK316" s="28">
+        <v>0.345807090073809</v>
+      </c>
       <c r="CL316" s="8"/>
       <c r="CM316" s="8"/>
       <c r="CN316" s="8"/>
@@ -76388,9 +76834,11 @@
         <v>0.70708575310430422</v>
       </c>
       <c r="CJ317" s="28">
-        <v>1.3935238283660769</v>
-      </c>
-      <c r="CK317" s="8"/>
+        <v>1.3922921583788628</v>
+      </c>
+      <c r="CK317" s="28">
+        <v>2.0919811453577029</v>
+      </c>
       <c r="CL317" s="8"/>
       <c r="CM317" s="8"/>
       <c r="CN317" s="8"/>
@@ -76721,9 +77169,11 @@
         <v>1.790003928903416</v>
       </c>
       <c r="CJ318" s="28">
-        <v>2.3563500012000143</v>
-      </c>
-      <c r="CK318" s="8"/>
+        <v>2.3541985110095509</v>
+      </c>
+      <c r="CK318" s="28">
+        <v>1.9261462404215361</v>
+      </c>
       <c r="CL318" s="8"/>
       <c r="CM318" s="8"/>
       <c r="CN318" s="8"/>
@@ -77054,9 +77504,11 @@
         <v>1.2176341339056345</v>
       </c>
       <c r="CJ319" s="28">
-        <v>1.2789704056556812</v>
-      </c>
-      <c r="CK319" s="8"/>
+        <v>1.2770231081344974</v>
+      </c>
+      <c r="CK319" s="28">
+        <v>0.90035994467497338</v>
+      </c>
       <c r="CL319" s="8"/>
       <c r="CM319" s="8"/>
       <c r="CN319" s="8"/>
@@ -77387,9 +77839,11 @@
         <v>1.6627907989581052</v>
       </c>
       <c r="CJ320" s="28">
-        <v>0.99535465040061866</v>
-      </c>
-      <c r="CK320" s="8"/>
+        <v>0.99994413697233608</v>
+      </c>
+      <c r="CK320" s="28">
+        <v>1.0757496826606239</v>
+      </c>
       <c r="CL320" s="8"/>
       <c r="CM320" s="8"/>
       <c r="CN320" s="8"/>
@@ -77720,9 +78174,11 @@
         <v>0.45159781607156124</v>
       </c>
       <c r="CJ321" s="28">
-        <v>0.36013069794335428</v>
-      </c>
-      <c r="CK321" s="8"/>
+        <v>0.35905667359913357</v>
+      </c>
+      <c r="CK321" s="28">
+        <v>0.44104426767475846</v>
+      </c>
       <c r="CL321" s="8"/>
       <c r="CM321" s="8"/>
       <c r="CN321" s="8"/>
@@ -78053,9 +78509,11 @@
         <v>19.898769081459079</v>
       </c>
       <c r="CJ322" s="28">
-        <v>21.658615172600403</v>
-      </c>
-      <c r="CK322" s="8"/>
+        <v>21.688602265477538</v>
+      </c>
+      <c r="CK322" s="28">
+        <v>15.78013655989548</v>
+      </c>
       <c r="CL322" s="8"/>
       <c r="CM322" s="8"/>
       <c r="CN322" s="8"/>
@@ -78211,7 +78669,7 @@
       <c r="CH323" s="24"/>
       <c r="CI323" s="24"/>
       <c r="CJ323" s="24"/>
-      <c r="CK323" s="8"/>
+      <c r="CK323" s="24"/>
       <c r="CL323" s="8"/>
       <c r="CM323" s="8"/>
       <c r="CN323" s="8"/>
@@ -78544,7 +79002,9 @@
       <c r="CJ324" s="28">
         <v>100</v>
       </c>
-      <c r="CK324" s="8"/>
+      <c r="CK324" s="28">
+        <v>100</v>
+      </c>
       <c r="CL324" s="8"/>
       <c r="CM324" s="8"/>
       <c r="CN324" s="8"/>
@@ -78701,6 +79161,7 @@
       <c r="CH325" s="25"/>
       <c r="CI325" s="25"/>
       <c r="CJ325" s="25"/>
+      <c r="CK325" s="25"/>
     </row>
     <row r="326" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
@@ -78796,7 +79257,7 @@
       <c r="CH327" s="20"/>
       <c r="CI327" s="20"/>
       <c r="CJ327" s="20"/>
-      <c r="CK327" s="18"/>
+      <c r="CK327" s="20"/>
       <c r="CL327" s="18"/>
       <c r="CM327" s="18"/>
       <c r="CN327" s="18"/>
@@ -78953,7 +79414,7 @@
       <c r="CH328" s="20"/>
       <c r="CI328" s="20"/>
       <c r="CJ328" s="20"/>
-      <c r="CK328" s="18"/>
+      <c r="CK328" s="20"/>
       <c r="CL328" s="18"/>
       <c r="CM328" s="18"/>
       <c r="CN328" s="18"/>
@@ -79151,13 +79612,13 @@
     <mergeCell ref="BF243:BI243"/>
     <mergeCell ref="BJ243:BM243"/>
     <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH56:CJ56"/>
-    <mergeCell ref="CD150:CF150"/>
-    <mergeCell ref="CH196:CJ196"/>
-    <mergeCell ref="CH243:CJ243"/>
-    <mergeCell ref="CH290:CJ290"/>
-    <mergeCell ref="CD103:CE103"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH56:CK56"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD150:CG150"/>
+    <mergeCell ref="CH196:CK196"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CH290:CK290"/>
     <mergeCell ref="BN150:BQ150"/>
     <mergeCell ref="BB103:BE103"/>
     <mergeCell ref="BF103:BI103"/>
@@ -79177,56 +79638,61 @@
     <mergeCell ref="BR103:BU103"/>
   </mergeCells>
   <conditionalFormatting sqref="BR106:BU137 BR153:BU184 BR199:BU230">
-    <cfRule type="cellIs" dxfId="10" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="42" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV106:BY137 BV153:BY184 BV199:BY230">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA199:CC230">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ106:CC137">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ153:CC184">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ199:BZ230">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD199:CE230 CH199:CI230">
+  <conditionalFormatting sqref="CD199:CE230">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF199:CG230">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD106:CF137">
+  <conditionalFormatting sqref="CH199:CI230">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD153:CF184">
+  <conditionalFormatting sqref="CJ199:CK230">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF199:CG230">
+  <conditionalFormatting sqref="CD106:CG137">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ199:CJ230">
+  <conditionalFormatting sqref="CD153:CG184">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -79235,12 +79701,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="47" max="87" man="1"/>
-    <brk id="94" max="87" man="1"/>
-    <brk id="141" max="87" man="1"/>
-    <brk id="188" max="87" man="1"/>
-    <brk id="234" max="87" man="1"/>
-    <brk id="281" max="87" man="1"/>
+    <brk id="47" max="88" man="1"/>
+    <brk id="94" max="88" man="1"/>
+    <brk id="141" max="88" man="1"/>
+    <brk id="188" max="88" man="1"/>
+    <brk id="234" max="88" man="1"/>
+    <brk id="281" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A029FA31-D60E-44AC-902C-4CBAD3FA8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCA1F9-4E38-41DF-A247-625820D7C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOG!$A$70:$A$88</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$CM$328</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$CN$328</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="81">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -291,13 +291,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -381,12 +381,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,34 +400,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +435,21 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{5F2D9EC3-8200-4B7F-A8B7-D7C9FC807A9F}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -828,22 +839,22 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CU25" sqref="CU25"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="10.1796875" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.7265625" style="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
+    <col min="2" max="92" width="10.21875" style="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -851,27 +862,27 @@
       <c r="CC2" s="2"/>
       <c r="CG2" s="2"/>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="23">
         <v>2000</v>
@@ -1009,8 +1020,9 @@
         <v>2022</v>
       </c>
       <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
     </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1284,11 +1296,14 @@
       <c r="CM10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,25 +1559,27 @@
       <c r="CG12" s="7">
         <v>288564.76783587795</v>
       </c>
-      <c r="CH12" s="21">
+      <c r="CH12" s="20">
         <v>273835.45902561187</v>
       </c>
-      <c r="CI12" s="21">
+      <c r="CI12" s="20">
         <v>322507.34232149238</v>
       </c>
-      <c r="CJ12" s="21">
+      <c r="CJ12" s="20">
         <v>304318.33275751665</v>
       </c>
-      <c r="CK12" s="21">
+      <c r="CK12" s="20">
         <v>301478.6557278111</v>
       </c>
-      <c r="CL12" s="21">
+      <c r="CL12" s="20">
         <v>304356.26360144396</v>
       </c>
-      <c r="CM12" s="21">
-        <v>364916.78823830019</v>
-      </c>
-      <c r="CN12" s="8"/>
+      <c r="CM12" s="20">
+        <v>365034.29062277096</v>
+      </c>
+      <c r="CN12" s="20">
+        <v>354784.45870224229</v>
+      </c>
       <c r="CO12" s="8"/>
       <c r="CP12" s="8"/>
       <c r="CQ12" s="8"/>
@@ -1627,7 +1644,7 @@
       <c r="EX12" s="8"/>
       <c r="EY12" s="8"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1883,25 +1900,27 @@
       <c r="CG13" s="10">
         <v>134328.29576384585</v>
       </c>
-      <c r="CH13" s="22">
+      <c r="CH13" s="21">
         <v>140669.20576929973</v>
       </c>
-      <c r="CI13" s="22">
+      <c r="CI13" s="21">
         <v>161649.90523015955</v>
       </c>
-      <c r="CJ13" s="22">
+      <c r="CJ13" s="21">
         <v>151494.2464643433</v>
       </c>
-      <c r="CK13" s="22">
+      <c r="CK13" s="21">
         <v>155346.15307765506</v>
       </c>
-      <c r="CL13" s="22">
+      <c r="CL13" s="21">
         <v>163249.08819685053</v>
       </c>
-      <c r="CM13" s="22">
-        <v>198796.27005648453</v>
-      </c>
-      <c r="CN13" s="8"/>
+      <c r="CM13" s="21">
+        <v>198731.50696850879</v>
+      </c>
+      <c r="CN13" s="21">
+        <v>200393.78113461859</v>
+      </c>
       <c r="CO13" s="8"/>
       <c r="CP13" s="8"/>
       <c r="CQ13" s="8"/>
@@ -1966,7 +1985,7 @@
       <c r="EX13" s="8"/>
       <c r="EY13" s="8"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -2222,25 +2241,27 @@
       <c r="CG14" s="10">
         <v>72823.626298967531</v>
       </c>
-      <c r="CH14" s="22">
+      <c r="CH14" s="21">
         <v>60499.080850149039</v>
       </c>
-      <c r="CI14" s="22">
+      <c r="CI14" s="21">
         <v>74841.732620649986</v>
       </c>
-      <c r="CJ14" s="22">
+      <c r="CJ14" s="21">
         <v>74755.036511684957</v>
       </c>
-      <c r="CK14" s="22">
+      <c r="CK14" s="21">
         <v>71427.312150340149</v>
       </c>
-      <c r="CL14" s="22">
+      <c r="CL14" s="21">
         <v>57449.672767212061</v>
       </c>
-      <c r="CM14" s="22">
-        <v>69225.172603858213</v>
-      </c>
-      <c r="CN14" s="8"/>
+      <c r="CM14" s="21">
+        <v>69188.075605717022</v>
+      </c>
+      <c r="CN14" s="21">
+        <v>61796.19053272008</v>
+      </c>
       <c r="CO14" s="8"/>
       <c r="CP14" s="8"/>
       <c r="CQ14" s="8"/>
@@ -2305,7 +2326,7 @@
       <c r="EX14" s="8"/>
       <c r="EY14" s="8"/>
     </row>
-    <row r="15" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -2561,25 +2582,27 @@
       <c r="CG15" s="10">
         <v>2001.0615153882522</v>
       </c>
-      <c r="CH15" s="22">
+      <c r="CH15" s="21">
         <v>2235.4843904277645</v>
       </c>
-      <c r="CI15" s="22">
+      <c r="CI15" s="21">
         <v>3195.5821525337296</v>
       </c>
-      <c r="CJ15" s="22">
+      <c r="CJ15" s="21">
         <v>2314.9285085657198</v>
       </c>
-      <c r="CK15" s="22">
+      <c r="CK15" s="21">
         <v>2423.6238544854286</v>
       </c>
-      <c r="CL15" s="22">
+      <c r="CL15" s="21">
         <v>1941.6035247538621</v>
       </c>
-      <c r="CM15" s="22">
-        <v>3161.2047318388013</v>
-      </c>
-      <c r="CN15" s="8"/>
+      <c r="CM15" s="21">
+        <v>3139.6580600487109</v>
+      </c>
+      <c r="CN15" s="21">
+        <v>2689.6466196650176</v>
+      </c>
       <c r="CO15" s="8"/>
       <c r="CP15" s="8"/>
       <c r="CQ15" s="8"/>
@@ -2644,7 +2667,7 @@
       <c r="EX15" s="8"/>
       <c r="EY15" s="8"/>
     </row>
-    <row r="16" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
@@ -2900,25 +2923,27 @@
       <c r="CG16" s="10">
         <v>17878.647645497484</v>
       </c>
-      <c r="CH16" s="22">
+      <c r="CH16" s="21">
         <v>12495.660658198838</v>
       </c>
-      <c r="CI16" s="22">
+      <c r="CI16" s="21">
         <v>20253.135353698595</v>
       </c>
-      <c r="CJ16" s="22">
+      <c r="CJ16" s="21">
         <v>17480.225063837664</v>
       </c>
-      <c r="CK16" s="22">
+      <c r="CK16" s="21">
         <v>17566.800517775144</v>
       </c>
-      <c r="CL16" s="22">
+      <c r="CL16" s="21">
         <v>13880.004787857766</v>
       </c>
-      <c r="CM16" s="22">
-        <v>21896.065818988245</v>
-      </c>
-      <c r="CN16" s="8"/>
+      <c r="CM16" s="21">
+        <v>21919.241329175824</v>
+      </c>
+      <c r="CN16" s="21">
+        <v>21188.046130261428</v>
+      </c>
       <c r="CO16" s="8"/>
       <c r="CP16" s="8"/>
       <c r="CQ16" s="8"/>
@@ -2983,7 +3008,7 @@
       <c r="EX16" s="8"/>
       <c r="EY16" s="8"/>
     </row>
-    <row r="17" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -3239,25 +3264,27 @@
       <c r="CG17" s="10">
         <v>25681.690808283285</v>
       </c>
-      <c r="CH17" s="22">
+      <c r="CH17" s="21">
         <v>20950.644438804815</v>
       </c>
-      <c r="CI17" s="22">
+      <c r="CI17" s="21">
         <v>27886.134519429193</v>
       </c>
-      <c r="CJ17" s="22">
+      <c r="CJ17" s="21">
         <v>24587.006215317164</v>
       </c>
-      <c r="CK17" s="22">
+      <c r="CK17" s="21">
         <v>21163.531246982147</v>
       </c>
-      <c r="CL17" s="22">
+      <c r="CL17" s="21">
         <v>27228.551122034947</v>
       </c>
-      <c r="CM17" s="22">
-        <v>28814.61842487902</v>
-      </c>
-      <c r="CN17" s="8"/>
+      <c r="CM17" s="21">
+        <v>28830.811244808545</v>
+      </c>
+      <c r="CN17" s="21">
+        <v>24857.169238875897</v>
+      </c>
       <c r="CO17" s="8"/>
       <c r="CP17" s="8"/>
       <c r="CQ17" s="8"/>
@@ -3322,7 +3349,7 @@
       <c r="EX17" s="8"/>
       <c r="EY17" s="8"/>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -3578,25 +3605,27 @@
       <c r="CG18" s="10">
         <v>25007.539539894715</v>
       </c>
-      <c r="CH18" s="22">
+      <c r="CH18" s="21">
         <v>23333.719347500344</v>
       </c>
-      <c r="CI18" s="22">
+      <c r="CI18" s="21">
         <v>17832.656233190108</v>
       </c>
-      <c r="CJ18" s="22">
+      <c r="CJ18" s="21">
         <v>15296.98623970345</v>
       </c>
-      <c r="CK18" s="22">
+      <c r="CK18" s="21">
         <v>20096.058513120857</v>
       </c>
-      <c r="CL18" s="22">
+      <c r="CL18" s="21">
         <v>22360.092304341728</v>
       </c>
-      <c r="CM18" s="22">
-        <v>21571.605007681479</v>
-      </c>
-      <c r="CN18" s="8"/>
+      <c r="CM18" s="21">
+        <v>21708.885373908415</v>
+      </c>
+      <c r="CN18" s="21">
+        <v>22451.621971366458</v>
+      </c>
       <c r="CO18" s="8"/>
       <c r="CP18" s="8"/>
       <c r="CQ18" s="8"/>
@@ -3661,7 +3690,7 @@
       <c r="EX18" s="8"/>
       <c r="EY18" s="8"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -3917,25 +3946,27 @@
       <c r="CG19" s="10">
         <v>8075.3502134746805</v>
       </c>
-      <c r="CH19" s="22">
+      <c r="CH19" s="21">
         <v>10012.48269965438</v>
       </c>
-      <c r="CI19" s="22">
+      <c r="CI19" s="21">
         <v>13156.165508276728</v>
       </c>
-      <c r="CJ19" s="22">
+      <c r="CJ19" s="21">
         <v>14022.985194161909</v>
       </c>
-      <c r="CK19" s="22">
+      <c r="CK19" s="21">
         <v>10496.936482135716</v>
       </c>
-      <c r="CL19" s="22">
+      <c r="CL19" s="21">
         <v>14353.047425855106</v>
       </c>
-      <c r="CM19" s="22">
-        <v>17165.575954870394</v>
-      </c>
-      <c r="CN19" s="8"/>
+      <c r="CM19" s="21">
+        <v>17222.165060103496</v>
+      </c>
+      <c r="CN19" s="21">
+        <v>16441.052401700337</v>
+      </c>
       <c r="CO19" s="8"/>
       <c r="CP19" s="8"/>
       <c r="CQ19" s="8"/>
@@ -4000,7 +4031,7 @@
       <c r="EX19" s="8"/>
       <c r="EY19" s="8"/>
     </row>
-    <row r="20" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
@@ -4256,25 +4287,27 @@
       <c r="CG20" s="10">
         <v>2025.139041409479</v>
       </c>
-      <c r="CH20" s="22">
+      <c r="CH20" s="21">
         <v>2967.7559202583934</v>
       </c>
-      <c r="CI20" s="22">
+      <c r="CI20" s="21">
         <v>3026.6209897042459</v>
       </c>
-      <c r="CJ20" s="22">
+      <c r="CJ20" s="21">
         <v>3781.9405691394472</v>
       </c>
-      <c r="CK20" s="22">
+      <c r="CK20" s="21">
         <v>2492.6872245408572</v>
       </c>
-      <c r="CL20" s="22">
+      <c r="CL20" s="21">
         <v>3303.8780089509796</v>
       </c>
-      <c r="CM20" s="22">
-        <v>3501.0671934874108</v>
-      </c>
-      <c r="CN20" s="8"/>
+      <c r="CM20" s="21">
+        <v>3506.2646980555492</v>
+      </c>
+      <c r="CN20" s="21">
+        <v>3959.6592724280245</v>
+      </c>
       <c r="CO20" s="8"/>
       <c r="CP20" s="8"/>
       <c r="CQ20" s="8"/>
@@ -4339,7 +4372,7 @@
       <c r="EX20" s="8"/>
       <c r="EY20" s="8"/>
     </row>
-    <row r="21" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -4595,25 +4628,27 @@
       <c r="CG21" s="10">
         <v>743.41700911674559</v>
       </c>
-      <c r="CH21" s="22">
+      <c r="CH21" s="21">
         <v>671.42495131855264</v>
       </c>
-      <c r="CI21" s="22">
+      <c r="CI21" s="21">
         <v>665.4097138502508</v>
       </c>
-      <c r="CJ21" s="22">
+      <c r="CJ21" s="21">
         <v>584.97799076308024</v>
       </c>
-      <c r="CK21" s="22">
+      <c r="CK21" s="21">
         <v>465.55266077571434</v>
       </c>
-      <c r="CL21" s="22">
+      <c r="CL21" s="21">
         <v>590.32546358702871</v>
       </c>
-      <c r="CM21" s="22">
-        <v>785.20844621211563</v>
-      </c>
-      <c r="CN21" s="8"/>
+      <c r="CM21" s="21">
+        <v>787.68228244451336</v>
+      </c>
+      <c r="CN21" s="21">
+        <v>1007.2914006063661</v>
+      </c>
       <c r="CO21" s="8"/>
       <c r="CP21" s="8"/>
       <c r="CQ21" s="8"/>
@@ -4678,7 +4713,7 @@
       <c r="EX21" s="8"/>
       <c r="EY21" s="8"/>
     </row>
-    <row r="22" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -4934,25 +4969,27 @@
       <c r="CG22" s="10">
         <v>121944.74352114175</v>
       </c>
-      <c r="CH22" s="22">
+      <c r="CH22" s="21">
         <v>139160.45235528308</v>
       </c>
-      <c r="CI22" s="22">
+      <c r="CI22" s="21">
         <v>218684.26610585846</v>
       </c>
-      <c r="CJ22" s="22">
+      <c r="CJ22" s="21">
         <v>233262.7529562694</v>
       </c>
-      <c r="CK22" s="22">
+      <c r="CK22" s="21">
         <v>266850.19606705772</v>
       </c>
-      <c r="CL22" s="22">
+      <c r="CL22" s="21">
         <v>306206.94385378074</v>
       </c>
-      <c r="CM22" s="22">
-        <v>516223.58832834772</v>
-      </c>
-      <c r="CN22" s="8"/>
+      <c r="CM22" s="21">
+        <v>518488.54527366627</v>
+      </c>
+      <c r="CN22" s="21">
+        <v>465778.11076097499</v>
+      </c>
       <c r="CO22" s="8"/>
       <c r="CP22" s="8"/>
       <c r="CQ22" s="8"/>
@@ -5017,7 +5054,7 @@
       <c r="EX22" s="8"/>
       <c r="EY22" s="8"/>
     </row>
-    <row r="23" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5273,25 +5310,27 @@
       <c r="CG23" s="10">
         <v>63180.499828430075</v>
       </c>
-      <c r="CH23" s="22">
+      <c r="CH23" s="21">
         <v>73794.985949646347</v>
       </c>
-      <c r="CI23" s="22">
+      <c r="CI23" s="21">
         <v>82841.785013786081</v>
       </c>
-      <c r="CJ23" s="22">
+      <c r="CJ23" s="21">
         <v>81019.650072535893</v>
       </c>
-      <c r="CK23" s="22">
+      <c r="CK23" s="21">
         <v>84736.673750852278</v>
       </c>
-      <c r="CL23" s="22">
+      <c r="CL23" s="21">
         <v>83560.836061565802</v>
       </c>
-      <c r="CM23" s="22">
-        <v>91720.088262096062</v>
-      </c>
-      <c r="CN23" s="8"/>
+      <c r="CM23" s="21">
+        <v>92074.831884175001</v>
+      </c>
+      <c r="CN23" s="21">
+        <v>95601.804655487475</v>
+      </c>
       <c r="CO23" s="8"/>
       <c r="CP23" s="8"/>
       <c r="CQ23" s="8"/>
@@ -5356,7 +5395,7 @@
       <c r="EX23" s="8"/>
       <c r="EY23" s="8"/>
     </row>
-    <row r="24" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5612,25 +5651,27 @@
       <c r="CG24" s="10">
         <v>12977.336435152418</v>
       </c>
-      <c r="CH24" s="22">
+      <c r="CH24" s="21">
         <v>13530.904914225604</v>
       </c>
-      <c r="CI24" s="22">
+      <c r="CI24" s="21">
         <v>13573.054372829138</v>
       </c>
-      <c r="CJ24" s="22">
+      <c r="CJ24" s="21">
         <v>14874.131720572143</v>
       </c>
-      <c r="CK24" s="22">
+      <c r="CK24" s="21">
         <v>12576.058248945985</v>
       </c>
-      <c r="CL24" s="22">
+      <c r="CL24" s="21">
         <v>14074.232300404274</v>
       </c>
-      <c r="CM24" s="22">
-        <v>15421.822482614207</v>
-      </c>
-      <c r="CN24" s="8"/>
+      <c r="CM24" s="21">
+        <v>15441.697246506892</v>
+      </c>
+      <c r="CN24" s="21">
+        <v>20844.930168613209</v>
+      </c>
       <c r="CO24" s="8"/>
       <c r="CP24" s="8"/>
       <c r="CQ24" s="8"/>
@@ -5695,7 +5736,7 @@
       <c r="EX24" s="8"/>
       <c r="EY24" s="8"/>
     </row>
-    <row r="25" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -5951,25 +5992,27 @@
       <c r="CG25" s="10">
         <v>65839.667102015708</v>
       </c>
-      <c r="CH25" s="22">
+      <c r="CH25" s="21">
         <v>74504.642155649868</v>
       </c>
-      <c r="CI25" s="22">
+      <c r="CI25" s="21">
         <v>102534.74606413138</v>
       </c>
-      <c r="CJ25" s="22">
+      <c r="CJ25" s="21">
         <v>123310.55880029916</v>
       </c>
-      <c r="CK25" s="22">
+      <c r="CK25" s="21">
         <v>80061.279543499608</v>
       </c>
-      <c r="CL25" s="22">
+      <c r="CL25" s="21">
         <v>84173.799718470211</v>
       </c>
-      <c r="CM25" s="22">
-        <v>129045.11266059878</v>
-      </c>
-      <c r="CN25" s="8"/>
+      <c r="CM25" s="21">
+        <v>128881.63772760621</v>
+      </c>
+      <c r="CN25" s="21">
+        <v>138362.53666576036</v>
+      </c>
       <c r="CO25" s="8"/>
       <c r="CP25" s="8"/>
       <c r="CQ25" s="8"/>
@@ -6034,7 +6077,7 @@
       <c r="EX25" s="8"/>
       <c r="EY25" s="8"/>
     </row>
-    <row r="26" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -6290,25 +6333,27 @@
       <c r="CG26" s="10">
         <v>86314.292554156636</v>
       </c>
-      <c r="CH26" s="22">
+      <c r="CH26" s="21">
         <v>182159.12751500998</v>
       </c>
-      <c r="CI26" s="22">
+      <c r="CI26" s="21">
         <v>91459.976021418377</v>
       </c>
-      <c r="CJ26" s="22">
+      <c r="CJ26" s="21">
         <v>83429.942796240488</v>
       </c>
-      <c r="CK26" s="22">
+      <c r="CK26" s="21">
         <v>115672.18344580619</v>
       </c>
-      <c r="CL26" s="22">
+      <c r="CL26" s="21">
         <v>254753.61223306973</v>
       </c>
-      <c r="CM26" s="22">
-        <v>146835.64568197067</v>
-      </c>
-      <c r="CN26" s="8"/>
+      <c r="CM26" s="21">
+        <v>146912.66669694675</v>
+      </c>
+      <c r="CN26" s="21">
+        <v>147519.49530313307</v>
+      </c>
       <c r="CO26" s="8"/>
       <c r="CP26" s="8"/>
       <c r="CQ26" s="8"/>
@@ -6373,7 +6418,7 @@
       <c r="EX26" s="8"/>
       <c r="EY26" s="8"/>
     </row>
-    <row r="27" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6629,25 +6674,27 @@
       <c r="CG27" s="10">
         <v>15324.340137478965</v>
       </c>
-      <c r="CH27" s="22">
+      <c r="CH27" s="21">
         <v>18255.442453374508</v>
       </c>
-      <c r="CI27" s="22">
+      <c r="CI27" s="21">
         <v>17857.325747790444</v>
       </c>
-      <c r="CJ27" s="22">
+      <c r="CJ27" s="21">
         <v>16126.06409522711</v>
       </c>
-      <c r="CK27" s="22">
+      <c r="CK27" s="21">
         <v>17343.218892092162</v>
       </c>
-      <c r="CL27" s="22">
+      <c r="CL27" s="21">
         <v>21644.965086808741</v>
       </c>
-      <c r="CM27" s="22">
-        <v>19978.455370504191</v>
-      </c>
-      <c r="CN27" s="8"/>
+      <c r="CM27" s="21">
+        <v>19990.458439891267</v>
+      </c>
+      <c r="CN27" s="21">
+        <v>17947.53160349232</v>
+      </c>
       <c r="CO27" s="8"/>
       <c r="CP27" s="8"/>
       <c r="CQ27" s="8"/>
@@ -6712,7 +6759,7 @@
       <c r="EX27" s="8"/>
       <c r="EY27" s="8"/>
     </row>
-    <row r="28" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6968,25 +7015,27 @@
       <c r="CG28" s="10">
         <v>47174.096015132047</v>
       </c>
-      <c r="CH28" s="22">
+      <c r="CH28" s="21">
         <v>46472.32871427435</v>
       </c>
-      <c r="CI28" s="22">
+      <c r="CI28" s="21">
         <v>38846.190432280397</v>
       </c>
-      <c r="CJ28" s="22">
+      <c r="CJ28" s="21">
         <v>41167.977808222786</v>
       </c>
-      <c r="CK28" s="22">
+      <c r="CK28" s="21">
         <v>43205.684087034468</v>
       </c>
-      <c r="CL28" s="22">
+      <c r="CL28" s="21">
         <v>51867.402305139323</v>
       </c>
-      <c r="CM28" s="22">
-        <v>47967.418360286072</v>
-      </c>
-      <c r="CN28" s="8"/>
+      <c r="CM28" s="21">
+        <v>47954.081260492254</v>
+      </c>
+      <c r="CN28" s="21">
+        <v>54162.366415387907</v>
+      </c>
       <c r="CO28" s="8"/>
       <c r="CP28" s="8"/>
       <c r="CQ28" s="8"/>
@@ -7051,7 +7100,7 @@
       <c r="EX28" s="8"/>
       <c r="EY28" s="8"/>
     </row>
-    <row r="29" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -7307,25 +7356,27 @@
       <c r="CG29" s="10">
         <v>64607.893978857799</v>
       </c>
-      <c r="CH29" s="22">
+      <c r="CH29" s="21">
         <v>65800.566477000277</v>
       </c>
-      <c r="CI29" s="22">
+      <c r="CI29" s="21">
         <v>81467.204885803381</v>
       </c>
-      <c r="CJ29" s="22">
+      <c r="CJ29" s="21">
         <v>85154.677848521576</v>
       </c>
-      <c r="CK29" s="22">
+      <c r="CK29" s="21">
         <v>80398.763099108051</v>
       </c>
-      <c r="CL29" s="22">
+      <c r="CL29" s="21">
         <v>82604.970924414956</v>
       </c>
-      <c r="CM29" s="22">
-        <v>102454.12931777224</v>
-      </c>
-      <c r="CN29" s="8"/>
+      <c r="CM29" s="21">
+        <v>102090.58749692909</v>
+      </c>
+      <c r="CN29" s="21">
+        <v>106438.67162773256</v>
+      </c>
       <c r="CO29" s="8"/>
       <c r="CP29" s="8"/>
       <c r="CQ29" s="8"/>
@@ -7390,7 +7441,7 @@
       <c r="EX29" s="8"/>
       <c r="EY29" s="8"/>
     </row>
-    <row r="30" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -7646,25 +7697,27 @@
       <c r="CG30" s="10">
         <v>38676.704722771494</v>
       </c>
-      <c r="CH30" s="22">
+      <c r="CH30" s="21">
         <v>27846.228468368245</v>
       </c>
-      <c r="CI30" s="22">
+      <c r="CI30" s="21">
         <v>35453.329560488775</v>
       </c>
-      <c r="CJ30" s="22">
+      <c r="CJ30" s="21">
         <v>44027.38440541731</v>
       </c>
-      <c r="CK30" s="22">
+      <c r="CK30" s="21">
         <v>65485.140231097837</v>
       </c>
-      <c r="CL30" s="22">
+      <c r="CL30" s="21">
         <v>45903.534307883136</v>
       </c>
-      <c r="CM30" s="22">
-        <v>51224.675076927415</v>
-      </c>
-      <c r="CN30" s="8"/>
+      <c r="CM30" s="21">
+        <v>51263.898002459369</v>
+      </c>
+      <c r="CN30" s="21">
+        <v>59582.605287031882</v>
+      </c>
       <c r="CO30" s="8"/>
       <c r="CP30" s="8"/>
       <c r="CQ30" s="8"/>
@@ -7729,7 +7782,7 @@
       <c r="EX30" s="8"/>
       <c r="EY30" s="8"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -7985,25 +8038,27 @@
       <c r="CG31" s="10">
         <v>16488.453832801129</v>
       </c>
-      <c r="CH31" s="22">
+      <c r="CH31" s="21">
         <v>15588.873126701164</v>
       </c>
-      <c r="CI31" s="22">
+      <c r="CI31" s="21">
         <v>14352.20130650029</v>
       </c>
-      <c r="CJ31" s="22">
+      <c r="CJ31" s="21">
         <v>17405.986298052921</v>
       </c>
-      <c r="CK31" s="22">
+      <c r="CK31" s="21">
         <v>17533.995577748192</v>
       </c>
-      <c r="CL31" s="22">
+      <c r="CL31" s="21">
         <v>21093.906479344325</v>
       </c>
-      <c r="CM31" s="22">
-        <v>25126.65600725709</v>
-      </c>
-      <c r="CN31" s="8"/>
+      <c r="CM31" s="21">
+        <v>25127.538435388924</v>
+      </c>
+      <c r="CN31" s="21">
+        <v>24773.786562356312</v>
+      </c>
       <c r="CO31" s="8"/>
       <c r="CP31" s="8"/>
       <c r="CQ31" s="8"/>
@@ -8068,7 +8123,7 @@
       <c r="EX31" s="8"/>
       <c r="EY31" s="8"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -8324,25 +8379,27 @@
       <c r="CG32" s="10">
         <v>29915.709434395223</v>
       </c>
-      <c r="CH32" s="22">
+      <c r="CH32" s="21">
         <v>27915.842047877213</v>
       </c>
-      <c r="CI32" s="22">
+      <c r="CI32" s="21">
         <v>27217.64036053995</v>
       </c>
-      <c r="CJ32" s="22">
+      <c r="CJ32" s="21">
         <v>43823.725573559292</v>
       </c>
-      <c r="CK32" s="22">
+      <c r="CK32" s="21">
         <v>128633.51980133043</v>
       </c>
-      <c r="CL32" s="22">
+      <c r="CL32" s="21">
         <v>75386.473203916263</v>
       </c>
-      <c r="CM32" s="22">
-        <v>25122.570414430702</v>
-      </c>
-      <c r="CN32" s="8"/>
+      <c r="CM32" s="21">
+        <v>25101.183019009957</v>
+      </c>
+      <c r="CN32" s="21">
+        <v>32908.865896325304</v>
+      </c>
       <c r="CO32" s="8"/>
       <c r="CP32" s="8"/>
       <c r="CQ32" s="8"/>
@@ -8407,7 +8464,7 @@
       <c r="EX32" s="8"/>
       <c r="EY32" s="8"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -8663,25 +8720,27 @@
       <c r="CG33" s="10">
         <v>15398.070963156028</v>
       </c>
-      <c r="CH33" s="22">
+      <c r="CH33" s="21">
         <v>15396.74179894491</v>
       </c>
-      <c r="CI33" s="22">
+      <c r="CI33" s="21">
         <v>16287.052725925907</v>
       </c>
-      <c r="CJ33" s="22">
+      <c r="CJ33" s="21">
         <v>15226.537976273637</v>
       </c>
-      <c r="CK33" s="22">
+      <c r="CK33" s="21">
         <v>18050.838375359253</v>
       </c>
-      <c r="CL33" s="22">
+      <c r="CL33" s="21">
         <v>18093.400401521281</v>
       </c>
-      <c r="CM33" s="22">
-        <v>21732.180164401172</v>
-      </c>
-      <c r="CN33" s="8"/>
+      <c r="CM33" s="21">
+        <v>21702.370942005415</v>
+      </c>
+      <c r="CN33" s="21">
+        <v>20892.033974059312</v>
+      </c>
       <c r="CO33" s="8"/>
       <c r="CP33" s="8"/>
       <c r="CQ33" s="8"/>
@@ -8746,7 +8805,7 @@
       <c r="EX33" s="8"/>
       <c r="EY33" s="8"/>
     </row>
-    <row r="34" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -9002,25 +9061,27 @@
       <c r="CG34" s="10">
         <v>20376.311530589574</v>
       </c>
-      <c r="CH34" s="22">
+      <c r="CH34" s="21">
         <v>15908.518493296633</v>
       </c>
-      <c r="CI34" s="22">
+      <c r="CI34" s="21">
         <v>27492.872263920795</v>
       </c>
-      <c r="CJ34" s="22">
+      <c r="CJ34" s="21">
         <v>20508.820840699453</v>
       </c>
-      <c r="CK34" s="22">
+      <c r="CK34" s="21">
         <v>25136.936992910109</v>
       </c>
-      <c r="CL34" s="22">
+      <c r="CL34" s="21">
         <v>29652.460865208861</v>
       </c>
-      <c r="CM34" s="22">
-        <v>35341.098908469168</v>
-      </c>
-      <c r="CN34" s="8"/>
+      <c r="CM34" s="21">
+        <v>35352.384428108548</v>
+      </c>
+      <c r="CN34" s="21">
+        <v>27554.627326626738</v>
+      </c>
       <c r="CO34" s="8"/>
       <c r="CP34" s="8"/>
       <c r="CQ34" s="8"/>
@@ -9085,7 +9146,7 @@
       <c r="EX34" s="8"/>
       <c r="EY34" s="8"/>
     </row>
-    <row r="35" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -9341,25 +9402,27 @@
       <c r="CG35" s="10">
         <v>5078.6829238322234</v>
       </c>
-      <c r="CH35" s="22">
+      <c r="CH35" s="21">
         <v>3291.962194192929</v>
       </c>
-      <c r="CI35" s="22">
+      <c r="CI35" s="21">
         <v>1784.869241988823</v>
       </c>
-      <c r="CJ35" s="22">
+      <c r="CJ35" s="21">
         <v>7625.6292227615977</v>
       </c>
-      <c r="CK35" s="22">
+      <c r="CK35" s="21">
         <v>9380.9609421534824</v>
       </c>
-      <c r="CL35" s="22">
+      <c r="CL35" s="21">
         <v>1797.0416555085737</v>
       </c>
-      <c r="CM35" s="22">
-        <v>2187.2580661341062</v>
-      </c>
-      <c r="CN35" s="8"/>
+      <c r="CM35" s="21">
+        <v>2218.1624987776813</v>
+      </c>
+      <c r="CN35" s="21">
+        <v>24722.912775974721</v>
+      </c>
       <c r="CO35" s="8"/>
       <c r="CP35" s="8"/>
       <c r="CQ35" s="8"/>
@@ -9424,7 +9487,7 @@
       <c r="EX35" s="8"/>
       <c r="EY35" s="8"/>
     </row>
-    <row r="36" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9680,25 +9743,27 @@
       <c r="CG36" s="10">
         <v>28198.231009323434</v>
       </c>
-      <c r="CH36" s="22">
+      <c r="CH36" s="21">
         <v>29441.955302842016</v>
       </c>
-      <c r="CI36" s="22">
+      <c r="CI36" s="21">
         <v>29346.583015868116</v>
       </c>
-      <c r="CJ36" s="22">
+      <c r="CJ36" s="21">
         <v>31916.687660613468</v>
       </c>
-      <c r="CK36" s="22">
+      <c r="CK36" s="21">
         <v>30791.402620066066</v>
       </c>
-      <c r="CL36" s="22">
+      <c r="CL36" s="21">
         <v>33161.188445551903</v>
       </c>
-      <c r="CM36" s="22">
-        <v>33042.006797759044</v>
-      </c>
-      <c r="CN36" s="8"/>
+      <c r="CM36" s="21">
+        <v>32841.63443313069</v>
+      </c>
+      <c r="CN36" s="21">
+        <v>37158.742785677357</v>
+      </c>
       <c r="CO36" s="8"/>
       <c r="CP36" s="8"/>
       <c r="CQ36" s="8"/>
@@ -9763,7 +9828,7 @@
       <c r="EX36" s="8"/>
       <c r="EY36" s="8"/>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -10019,25 +10084,27 @@
       <c r="CG37" s="10">
         <v>32062.447995421975</v>
       </c>
-      <c r="CH37" s="22">
+      <c r="CH37" s="21">
         <v>36857.376142553134</v>
       </c>
-      <c r="CI37" s="22">
+      <c r="CI37" s="21">
         <v>39199.225861425693</v>
       </c>
-      <c r="CJ37" s="22">
+      <c r="CJ37" s="21">
         <v>40502.291046651117</v>
       </c>
-      <c r="CK37" s="22">
+      <c r="CK37" s="21">
         <v>39600.72924887963</v>
       </c>
-      <c r="CL37" s="22">
+      <c r="CL37" s="21">
         <v>42521.44176774416</v>
       </c>
-      <c r="CM37" s="22">
-        <v>45908.344728053526</v>
-      </c>
-      <c r="CN37" s="8"/>
+      <c r="CM37" s="21">
+        <v>45929.850359221593</v>
+      </c>
+      <c r="CN37" s="21">
+        <v>47711.364741220008</v>
+      </c>
       <c r="CO37" s="8"/>
       <c r="CP37" s="8"/>
       <c r="CQ37" s="8"/>
@@ -10102,7 +10169,7 @@
       <c r="EX37" s="8"/>
       <c r="EY37" s="8"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -10358,25 +10425,27 @@
       <c r="CG38" s="10">
         <v>21812.922836339189</v>
       </c>
-      <c r="CH38" s="22">
+      <c r="CH38" s="21">
         <v>14780.6607391175</v>
       </c>
-      <c r="CI38" s="22">
+      <c r="CI38" s="21">
         <v>15584.190792464557</v>
       </c>
-      <c r="CJ38" s="22">
+      <c r="CJ38" s="21">
         <v>19379.022598802814</v>
       </c>
-      <c r="CK38" s="22">
+      <c r="CK38" s="21">
         <v>22721.143819206794</v>
       </c>
-      <c r="CL38" s="22">
+      <c r="CL38" s="21">
         <v>15008.423747181909</v>
       </c>
-      <c r="CM38" s="22">
-        <v>17054.274093557808</v>
-      </c>
-      <c r="CN38" s="8"/>
+      <c r="CM38" s="21">
+        <v>17038.743741307284</v>
+      </c>
+      <c r="CN38" s="21">
+        <v>20777.522766569644</v>
+      </c>
       <c r="CO38" s="8"/>
       <c r="CP38" s="8"/>
       <c r="CQ38" s="8"/>
@@ -10441,7 +10510,7 @@
       <c r="EX38" s="8"/>
       <c r="EY38" s="8"/>
     </row>
-    <row r="39" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -10697,25 +10766,27 @@
       <c r="CG39" s="10">
         <v>12634.158839717524</v>
       </c>
-      <c r="CH39" s="22">
+      <c r="CH39" s="21">
         <v>16163.848165311942</v>
       </c>
-      <c r="CI39" s="22">
+      <c r="CI39" s="21">
         <v>16525.944493794788</v>
       </c>
-      <c r="CJ39" s="22">
+      <c r="CJ39" s="21">
         <v>18361.826605763985</v>
       </c>
-      <c r="CK39" s="22">
+      <c r="CK39" s="21">
         <v>17571.124948451732</v>
       </c>
-      <c r="CL39" s="22">
+      <c r="CL39" s="21">
         <v>20892.136479410769</v>
       </c>
-      <c r="CM39" s="22">
-        <v>19380.607375619784</v>
-      </c>
-      <c r="CN39" s="8"/>
+      <c r="CM39" s="21">
+        <v>19382.886361197638</v>
+      </c>
+      <c r="CN39" s="21">
+        <v>25136.456627698492</v>
+      </c>
       <c r="CO39" s="8"/>
       <c r="CP39" s="8"/>
       <c r="CQ39" s="8"/>
@@ -10780,7 +10851,7 @@
       <c r="EX39" s="8"/>
       <c r="EY39" s="8"/>
     </row>
-    <row r="40" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -11036,25 +11107,27 @@
       <c r="CG40" s="10">
         <v>6911.3225000449238</v>
       </c>
-      <c r="CH40" s="22">
+      <c r="CH40" s="21">
         <v>6836.3668606270639</v>
       </c>
-      <c r="CI40" s="22">
+      <c r="CI40" s="21">
         <v>6536.4435802212556</v>
       </c>
-      <c r="CJ40" s="22">
+      <c r="CJ40" s="21">
         <v>6254.7060596951324</v>
       </c>
-      <c r="CK40" s="22">
+      <c r="CK40" s="21">
         <v>7709.1583513480609</v>
       </c>
-      <c r="CL40" s="22">
+      <c r="CL40" s="21">
         <v>7194.845904779474</v>
       </c>
-      <c r="CM40" s="22">
-        <v>8496.585630848067</v>
-      </c>
-      <c r="CN40" s="8"/>
+      <c r="CM40" s="21">
+        <v>8482.0437585093605</v>
+      </c>
+      <c r="CN40" s="21">
+        <v>13640.555416029696</v>
+      </c>
       <c r="CO40" s="8"/>
       <c r="CP40" s="8"/>
       <c r="CQ40" s="8"/>
@@ -11119,7 +11192,7 @@
       <c r="EX40" s="8"/>
       <c r="EY40" s="8"/>
     </row>
-    <row r="41" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -11375,25 +11448,27 @@
       <c r="CG41" s="10">
         <v>243172.44908372668</v>
       </c>
-      <c r="CH41" s="22">
+      <c r="CH41" s="21">
         <v>312902.99033171689</v>
       </c>
-      <c r="CI41" s="22">
+      <c r="CI41" s="21">
         <v>346262.56608664972</v>
       </c>
-      <c r="CJ41" s="22">
+      <c r="CJ41" s="21">
         <v>438046.59611958422</v>
       </c>
-      <c r="CK41" s="22">
+      <c r="CK41" s="21">
         <v>280054.50620419648</v>
       </c>
-      <c r="CL41" s="22">
+      <c r="CL41" s="21">
         <v>377208.69577755156</v>
       </c>
-      <c r="CM41" s="22">
-        <v>394649.69902997365</v>
-      </c>
-      <c r="CN41" s="8"/>
+      <c r="CM41" s="21">
+        <v>395338.27489809284</v>
+      </c>
+      <c r="CN41" s="21">
+        <v>585533.89849277027</v>
+      </c>
       <c r="CO41" s="8"/>
       <c r="CP41" s="8"/>
       <c r="CQ41" s="8"/>
@@ -11458,7 +11533,7 @@
       <c r="EX41" s="8"/>
       <c r="EY41" s="8"/>
     </row>
-    <row r="42" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -11614,7 +11689,7 @@
       <c r="EX42" s="8"/>
       <c r="EY42" s="8"/>
     </row>
-    <row r="43" spans="1:155" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -11870,25 +11945,27 @@
       <c r="CG43" s="7">
         <v>1236653.1030803628</v>
       </c>
-      <c r="CH43" s="21">
+      <c r="CH43" s="20">
         <v>1410445.2732316253</v>
       </c>
-      <c r="CI43" s="21">
+      <c r="CI43" s="20">
         <v>1545814.8102551785</v>
       </c>
-      <c r="CJ43" s="21">
+      <c r="CJ43" s="20">
         <v>1685743.3032632801</v>
       </c>
-      <c r="CK43" s="21">
+      <c r="CK43" s="20">
         <v>1664992.1699749557</v>
       </c>
-      <c r="CL43" s="21">
+      <c r="CL43" s="20">
         <v>1891156.5751206996</v>
       </c>
-      <c r="CM43" s="21">
-        <v>2113829.0049959216</v>
-      </c>
-      <c r="CN43" s="8"/>
+      <c r="CM43" s="20">
+        <v>2116647.767526194</v>
+      </c>
+      <c r="CN43" s="20">
+        <v>2321833.2785551641</v>
+      </c>
       <c r="CO43" s="8"/>
       <c r="CP43" s="8"/>
       <c r="CQ43" s="8"/>
@@ -11953,7 +12030,7 @@
       <c r="EX43" s="8"/>
       <c r="EY43" s="8"/>
     </row>
-    <row r="44" spans="1:155" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -12045,13 +12122,14 @@
       <c r="CK44" s="11"/>
       <c r="CL44" s="11"/>
       <c r="CM44" s="11"/>
+      <c r="CN44" s="11"/>
     </row>
-    <row r="45" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -12142,7 +12220,7 @@
       <c r="CK46" s="13"/>
       <c r="CL46" s="13"/>
       <c r="CM46" s="13"/>
-      <c r="CN46" s="8"/>
+      <c r="CN46" s="13"/>
       <c r="CO46" s="8"/>
       <c r="CP46" s="8"/>
       <c r="CQ46" s="8"/>
@@ -12207,7 +12285,7 @@
       <c r="EX46" s="8"/>
       <c r="EY46" s="8"/>
     </row>
-    <row r="47" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -12363,164 +12441,164 @@
       <c r="EX47" s="8"/>
       <c r="EY47" s="8"/>
     </row>
-    <row r="48" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="24">
+      <c r="B56" s="22">
         <v>2000</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22">
         <v>2001</v>
       </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24">
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22">
         <v>2002</v>
       </c>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24">
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22">
         <v>2003</v>
       </c>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24">
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22">
         <v>2004</v>
       </c>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24">
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22">
         <v>2005</v>
       </c>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24">
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22">
         <v>2006</v>
       </c>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24">
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22">
         <v>2007</v>
       </c>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="24">
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22">
         <v>2008</v>
       </c>
-      <c r="AI56" s="24"/>
-      <c r="AJ56" s="24"/>
-      <c r="AK56" s="24"/>
-      <c r="AL56" s="24">
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22">
         <v>2009</v>
       </c>
-      <c r="AM56" s="24"/>
-      <c r="AN56" s="24"/>
-      <c r="AO56" s="24"/>
-      <c r="AP56" s="24">
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ56" s="24"/>
-      <c r="AR56" s="24"/>
-      <c r="AS56" s="24"/>
-      <c r="AT56" s="24">
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22">
         <v>2011</v>
       </c>
-      <c r="AU56" s="24"/>
-      <c r="AV56" s="24"/>
-      <c r="AW56" s="24"/>
-      <c r="AX56" s="24">
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22">
         <v>2012</v>
       </c>
-      <c r="AY56" s="24"/>
-      <c r="AZ56" s="24"/>
-      <c r="BA56" s="24"/>
-      <c r="BB56" s="24">
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22">
         <v>2013</v>
       </c>
-      <c r="BC56" s="24"/>
-      <c r="BD56" s="24"/>
-      <c r="BE56" s="24"/>
-      <c r="BF56" s="24">
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22">
         <v>2014</v>
       </c>
-      <c r="BG56" s="24"/>
-      <c r="BH56" s="24"/>
-      <c r="BI56" s="24"/>
-      <c r="BJ56" s="24">
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22">
         <v>2015</v>
       </c>
-      <c r="BK56" s="24"/>
-      <c r="BL56" s="24"/>
-      <c r="BM56" s="24"/>
-      <c r="BN56" s="24">
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22">
         <v>2016</v>
       </c>
-      <c r="BO56" s="24"/>
-      <c r="BP56" s="24"/>
-      <c r="BQ56" s="24"/>
-      <c r="BR56" s="24">
+      <c r="BO56" s="22"/>
+      <c r="BP56" s="22"/>
+      <c r="BQ56" s="22"/>
+      <c r="BR56" s="22">
         <v>2017</v>
       </c>
-      <c r="BS56" s="24"/>
-      <c r="BT56" s="24"/>
-      <c r="BU56" s="24"/>
-      <c r="BV56" s="24">
+      <c r="BS56" s="22"/>
+      <c r="BT56" s="22"/>
+      <c r="BU56" s="22"/>
+      <c r="BV56" s="22">
         <v>2018</v>
       </c>
-      <c r="BW56" s="24"/>
-      <c r="BX56" s="24"/>
-      <c r="BY56" s="24"/>
-      <c r="BZ56" s="24">
+      <c r="BW56" s="22"/>
+      <c r="BX56" s="22"/>
+      <c r="BY56" s="22"/>
+      <c r="BZ56" s="22">
         <v>2019</v>
       </c>
-      <c r="CA56" s="24"/>
-      <c r="CB56" s="24"/>
-      <c r="CC56" s="24"/>
-      <c r="CD56" s="24">
+      <c r="CA56" s="22"/>
+      <c r="CB56" s="22"/>
+      <c r="CC56" s="22"/>
+      <c r="CD56" s="22">
         <v>2020</v>
       </c>
-      <c r="CE56" s="24"/>
-      <c r="CF56" s="24"/>
-      <c r="CG56" s="24"/>
+      <c r="CE56" s="22"/>
+      <c r="CF56" s="22"/>
+      <c r="CG56" s="22"/>
       <c r="CH56" s="23">
         <v>2021</v>
       </c>
@@ -12531,8 +12609,9 @@
         <v>2022</v>
       </c>
       <c r="CM56" s="23"/>
+      <c r="CN56" s="23"/>
     </row>
-    <row r="57" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
@@ -12806,11 +12885,14 @@
       <c r="CM57" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="CN57" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="58" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:155" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -13066,25 +13148,27 @@
       <c r="CG59" s="7">
         <v>225780.42004310383</v>
       </c>
-      <c r="CH59" s="21">
+      <c r="CH59" s="20">
         <v>286313.81911960215</v>
       </c>
-      <c r="CI59" s="21">
+      <c r="CI59" s="20">
         <v>349451.95633366774</v>
       </c>
-      <c r="CJ59" s="21">
+      <c r="CJ59" s="20">
         <v>408922.32264412649</v>
       </c>
-      <c r="CK59" s="21">
+      <c r="CK59" s="20">
         <v>225757.23738730751</v>
       </c>
-      <c r="CL59" s="21">
+      <c r="CL59" s="20">
         <v>302254.60948751756</v>
       </c>
-      <c r="CM59" s="21">
-        <v>357331.31064099277</v>
-      </c>
-      <c r="CN59" s="8"/>
+      <c r="CM59" s="20">
+        <v>357443.23684845888</v>
+      </c>
+      <c r="CN59" s="20">
+        <v>428034.28896223061</v>
+      </c>
       <c r="CO59" s="8"/>
       <c r="CP59" s="8"/>
       <c r="CQ59" s="8"/>
@@ -13149,7 +13233,7 @@
       <c r="EX59" s="8"/>
       <c r="EY59" s="8"/>
     </row>
-    <row r="60" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
@@ -13405,25 +13489,27 @@
       <c r="CG60" s="10">
         <v>104488.67086490923</v>
       </c>
-      <c r="CH60" s="22">
+      <c r="CH60" s="21">
         <v>160172.84904441197</v>
       </c>
-      <c r="CI60" s="22">
+      <c r="CI60" s="21">
         <v>142774.78080742166</v>
       </c>
-      <c r="CJ60" s="22">
+      <c r="CJ60" s="21">
         <v>208576.71785489187</v>
       </c>
-      <c r="CK60" s="22">
+      <c r="CK60" s="21">
         <v>117026.86090468692</v>
       </c>
-      <c r="CL60" s="22">
+      <c r="CL60" s="21">
         <v>178816.45506118602</v>
       </c>
-      <c r="CM60" s="22">
-        <v>163817.99003001524</v>
-      </c>
-      <c r="CN60" s="8"/>
+      <c r="CM60" s="21">
+        <v>163764.62203222883</v>
+      </c>
+      <c r="CN60" s="21">
+        <v>250238.48915726657</v>
+      </c>
       <c r="CO60" s="8"/>
       <c r="CP60" s="8"/>
       <c r="CQ60" s="8"/>
@@ -13488,7 +13574,7 @@
       <c r="EX60" s="8"/>
       <c r="EY60" s="8"/>
     </row>
-    <row r="61" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>12</v>
       </c>
@@ -13744,25 +13830,27 @@
       <c r="CG61" s="10">
         <v>64997.028026356165</v>
       </c>
-      <c r="CH61" s="22">
+      <c r="CH61" s="21">
         <v>59666.137902992668</v>
       </c>
-      <c r="CI61" s="22">
+      <c r="CI61" s="21">
         <v>94833.864421578619</v>
       </c>
-      <c r="CJ61" s="22">
+      <c r="CJ61" s="21">
         <v>99032.883268854886</v>
       </c>
-      <c r="CK61" s="22">
+      <c r="CK61" s="21">
         <v>60743.675585359277</v>
       </c>
-      <c r="CL61" s="22">
+      <c r="CL61" s="21">
         <v>53922.99355182641</v>
       </c>
-      <c r="CM61" s="22">
-        <v>79094.479417753289</v>
-      </c>
-      <c r="CN61" s="8"/>
+      <c r="CM61" s="21">
+        <v>79052.093568132797</v>
+      </c>
+      <c r="CN61" s="21">
+        <v>72635.694027021003</v>
+      </c>
       <c r="CO61" s="8"/>
       <c r="CP61" s="8"/>
       <c r="CQ61" s="8"/>
@@ -13827,7 +13915,7 @@
       <c r="EX61" s="8"/>
       <c r="EY61" s="8"/>
     </row>
-    <row r="62" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>13</v>
       </c>
@@ -14083,25 +14171,27 @@
       <c r="CG62" s="10">
         <v>950.51914479262462</v>
       </c>
-      <c r="CH62" s="22">
+      <c r="CH62" s="21">
         <v>1865.5212447310466</v>
       </c>
-      <c r="CI62" s="22">
+      <c r="CI62" s="21">
         <v>6325.994132191895</v>
       </c>
-      <c r="CJ62" s="22">
+      <c r="CJ62" s="21">
         <v>1760.5576222526179</v>
       </c>
-      <c r="CK62" s="22">
+      <c r="CK62" s="21">
         <v>1072.6384194708869</v>
       </c>
-      <c r="CL62" s="22">
+      <c r="CL62" s="21">
         <v>1458.8489264053167</v>
       </c>
-      <c r="CM62" s="22">
-        <v>5304.0749127680365</v>
-      </c>
-      <c r="CN62" s="8"/>
+      <c r="CM62" s="21">
+        <v>5223.2913886376546</v>
+      </c>
+      <c r="CN62" s="21">
+        <v>1762.2466375621134</v>
+      </c>
       <c r="CO62" s="8"/>
       <c r="CP62" s="8"/>
       <c r="CQ62" s="8"/>
@@ -14166,7 +14256,7 @@
       <c r="EX62" s="8"/>
       <c r="EY62" s="8"/>
     </row>
-    <row r="63" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>14</v>
       </c>
@@ -14422,25 +14512,27 @@
       <c r="CG63" s="10">
         <v>12913.728709175855</v>
       </c>
-      <c r="CH63" s="22">
+      <c r="CH63" s="21">
         <v>13277.048566524849</v>
       </c>
-      <c r="CI63" s="22">
+      <c r="CI63" s="21">
         <v>27669.243328168548</v>
       </c>
-      <c r="CJ63" s="22">
+      <c r="CJ63" s="21">
         <v>17951.900135642525</v>
       </c>
-      <c r="CK63" s="22">
+      <c r="CK63" s="21">
         <v>11884.579230822639</v>
       </c>
-      <c r="CL63" s="22">
+      <c r="CL63" s="21">
         <v>13735.593954455418</v>
       </c>
-      <c r="CM63" s="22">
-        <v>26707.18821043961</v>
-      </c>
-      <c r="CN63" s="8"/>
+      <c r="CM63" s="21">
+        <v>26735.455969477665</v>
+      </c>
+      <c r="CN63" s="21">
+        <v>18718.21426091246</v>
+      </c>
       <c r="CO63" s="8"/>
       <c r="CP63" s="8"/>
       <c r="CQ63" s="8"/>
@@ -14505,7 +14597,7 @@
       <c r="EX63" s="8"/>
       <c r="EY63" s="8"/>
     </row>
-    <row r="64" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>15</v>
       </c>
@@ -14761,25 +14853,27 @@
       <c r="CG64" s="10">
         <v>20890.51002903777</v>
       </c>
-      <c r="CH64" s="22">
+      <c r="CH64" s="21">
         <v>14774.486163937674</v>
       </c>
-      <c r="CI64" s="22">
+      <c r="CI64" s="21">
         <v>29544.550196187887</v>
       </c>
-      <c r="CJ64" s="22">
+      <c r="CJ64" s="21">
         <v>38376.407713727705</v>
       </c>
-      <c r="CK64" s="22">
+      <c r="CK64" s="21">
         <v>16157.609209600278</v>
       </c>
-      <c r="CL64" s="22">
+      <c r="CL64" s="21">
         <v>18066.902275613891</v>
       </c>
-      <c r="CM64" s="22">
-        <v>27598.35319581152</v>
-      </c>
-      <c r="CN64" s="8"/>
+      <c r="CM64" s="21">
+        <v>27613.862516707661</v>
+      </c>
+      <c r="CN64" s="21">
+        <v>33975.388935496951</v>
+      </c>
       <c r="CO64" s="8"/>
       <c r="CP64" s="8"/>
       <c r="CQ64" s="8"/>
@@ -14844,7 +14938,7 @@
       <c r="EX64" s="8"/>
       <c r="EY64" s="8"/>
     </row>
-    <row r="65" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>16</v>
       </c>
@@ -15100,25 +15194,27 @@
       <c r="CG65" s="10">
         <v>14997.787251932514</v>
       </c>
-      <c r="CH65" s="22">
+      <c r="CH65" s="21">
         <v>26311.348540178144</v>
       </c>
-      <c r="CI65" s="22">
+      <c r="CI65" s="21">
         <v>20265.339106199412</v>
       </c>
-      <c r="CJ65" s="22">
+      <c r="CJ65" s="21">
         <v>25095.265483051371</v>
       </c>
-      <c r="CK65" s="22">
+      <c r="CK65" s="21">
         <v>11311.772114574895</v>
       </c>
-      <c r="CL65" s="22">
+      <c r="CL65" s="21">
         <v>23723.397917153525</v>
       </c>
-      <c r="CM65" s="22">
-        <v>22161.6212443841</v>
-      </c>
-      <c r="CN65" s="8"/>
+      <c r="CM65" s="21">
+        <v>22302.656437617439</v>
+      </c>
+      <c r="CN65" s="21">
+        <v>32254.308761593387</v>
+      </c>
       <c r="CO65" s="8"/>
       <c r="CP65" s="8"/>
       <c r="CQ65" s="8"/>
@@ -15183,7 +15279,7 @@
       <c r="EX65" s="8"/>
       <c r="EY65" s="8"/>
     </row>
-    <row r="66" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -15439,25 +15535,27 @@
       <c r="CG66" s="10">
         <v>4654.0678750227034</v>
       </c>
-      <c r="CH66" s="22">
+      <c r="CH66" s="21">
         <v>6331.7011521165659</v>
       </c>
-      <c r="CI66" s="22">
+      <c r="CI66" s="21">
         <v>23702.349540994506</v>
       </c>
-      <c r="CJ66" s="22">
+      <c r="CJ66" s="21">
         <v>12532.130101439132</v>
       </c>
-      <c r="CK66" s="22">
+      <c r="CK66" s="21">
         <v>5702.0654277381836</v>
       </c>
-      <c r="CL66" s="22">
+      <c r="CL66" s="21">
         <v>8530.7756928420476</v>
       </c>
-      <c r="CM66" s="22">
-        <v>28159.973363663539</v>
-      </c>
-      <c r="CN66" s="8"/>
+      <c r="CM66" s="21">
+        <v>28252.807283144441</v>
+      </c>
+      <c r="CN66" s="21">
+        <v>12893.163198511573</v>
+      </c>
       <c r="CO66" s="8"/>
       <c r="CP66" s="8"/>
       <c r="CQ66" s="8"/>
@@ -15522,7 +15620,7 @@
       <c r="EX66" s="8"/>
       <c r="EY66" s="8"/>
     </row>
-    <row r="67" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>18</v>
       </c>
@@ -15778,25 +15876,27 @@
       <c r="CG67" s="10">
         <v>1278.1552774301097</v>
       </c>
-      <c r="CH67" s="22">
+      <c r="CH67" s="21">
         <v>3348.1457316493074</v>
       </c>
-      <c r="CI67" s="22">
+      <c r="CI67" s="21">
         <v>3396.8932467379964</v>
       </c>
-      <c r="CJ67" s="22">
+      <c r="CJ67" s="21">
         <v>4954.9113973890398</v>
       </c>
-      <c r="CK67" s="22">
+      <c r="CK67" s="21">
         <v>1499.2910057222664</v>
       </c>
-      <c r="CL67" s="22">
+      <c r="CL67" s="21">
         <v>3532.8428176766015</v>
       </c>
-      <c r="CM67" s="22">
-        <v>3516.1703454491962</v>
-      </c>
-      <c r="CN67" s="8"/>
+      <c r="CM67" s="21">
+        <v>3524.7514248196603</v>
+      </c>
+      <c r="CN67" s="21">
+        <v>4605.7454485452517</v>
+      </c>
       <c r="CO67" s="8"/>
       <c r="CP67" s="8"/>
       <c r="CQ67" s="8"/>
@@ -15861,7 +15961,7 @@
       <c r="EX67" s="8"/>
       <c r="EY67" s="8"/>
     </row>
-    <row r="68" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>19</v>
       </c>
@@ -16117,25 +16217,27 @@
       <c r="CG68" s="10">
         <v>609.95286444683245</v>
       </c>
-      <c r="CH68" s="22">
+      <c r="CH68" s="21">
         <v>566.5807730600003</v>
       </c>
-      <c r="CI68" s="22">
+      <c r="CI68" s="21">
         <v>938.94155418724984</v>
       </c>
-      <c r="CJ68" s="22">
+      <c r="CJ68" s="21">
         <v>641.54906687734956</v>
       </c>
-      <c r="CK68" s="22">
+      <c r="CK68" s="21">
         <v>358.74548933215561</v>
       </c>
-      <c r="CL68" s="22">
+      <c r="CL68" s="21">
         <v>466.7992903583476</v>
       </c>
-      <c r="CM68" s="22">
-        <v>971.45992070824195</v>
-      </c>
-      <c r="CN68" s="8"/>
+      <c r="CM68" s="21">
+        <v>973.6962276927045</v>
+      </c>
+      <c r="CN68" s="21">
+        <v>951.03853532132064</v>
+      </c>
       <c r="CO68" s="8"/>
       <c r="CP68" s="8"/>
       <c r="CQ68" s="8"/>
@@ -16200,7 +16302,7 @@
       <c r="EX68" s="8"/>
       <c r="EY68" s="8"/>
     </row>
-    <row r="69" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -16456,25 +16558,27 @@
       <c r="CG69" s="10">
         <v>290208.51088057383</v>
       </c>
-      <c r="CH69" s="22">
+      <c r="CH69" s="21">
         <v>106251.41290698391</v>
       </c>
-      <c r="CI69" s="22">
+      <c r="CI69" s="21">
         <v>253342.90791209645</v>
       </c>
-      <c r="CJ69" s="22">
+      <c r="CJ69" s="21">
         <v>110642.21684378968</v>
       </c>
-      <c r="CK69" s="22">
+      <c r="CK69" s="21">
         <v>381389.42434246163</v>
       </c>
-      <c r="CL69" s="22">
+      <c r="CL69" s="21">
         <v>138169.7218931489</v>
       </c>
-      <c r="CM69" s="22">
-        <v>343219.09695692931</v>
-      </c>
-      <c r="CN69" s="8"/>
+      <c r="CM69" s="21">
+        <v>344724.98799909552</v>
+      </c>
+      <c r="CN69" s="21">
+        <v>142723.69847793417</v>
+      </c>
       <c r="CO69" s="8"/>
       <c r="CP69" s="8"/>
       <c r="CQ69" s="8"/>
@@ -16539,7 +16643,7 @@
       <c r="EX69" s="8"/>
       <c r="EY69" s="8"/>
     </row>
-    <row r="70" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
@@ -16795,25 +16899,27 @@
       <c r="CG70" s="10">
         <v>71125.447272703634</v>
       </c>
-      <c r="CH70" s="22">
+      <c r="CH70" s="21">
         <v>75704.107237678501</v>
       </c>
-      <c r="CI70" s="22">
+      <c r="CI70" s="21">
         <v>82928.220131569469</v>
       </c>
-      <c r="CJ70" s="22">
+      <c r="CJ70" s="21">
         <v>83802.043548145259</v>
       </c>
-      <c r="CK70" s="22">
+      <c r="CK70" s="21">
         <v>88321.312472054502</v>
       </c>
-      <c r="CL70" s="22">
+      <c r="CL70" s="21">
         <v>76777.770300332544</v>
       </c>
-      <c r="CM70" s="22">
-        <v>83557.848344579863</v>
-      </c>
-      <c r="CN70" s="8"/>
+      <c r="CM70" s="21">
+        <v>83881.023063842847</v>
+      </c>
+      <c r="CN70" s="21">
+        <v>87116.724826360078</v>
+      </c>
       <c r="CO70" s="8"/>
       <c r="CP70" s="8"/>
       <c r="CQ70" s="8"/>
@@ -16878,7 +16984,7 @@
       <c r="EX70" s="8"/>
       <c r="EY70" s="8"/>
     </row>
-    <row r="71" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -17134,25 +17240,27 @@
       <c r="CG71" s="10">
         <v>15236.823963109804</v>
       </c>
-      <c r="CH71" s="22">
+      <c r="CH71" s="21">
         <v>15439.007102068086</v>
       </c>
-      <c r="CI71" s="22">
+      <c r="CI71" s="21">
         <v>14053.448367618659</v>
       </c>
-      <c r="CJ71" s="22">
+      <c r="CJ71" s="21">
         <v>12875.931520527207</v>
       </c>
-      <c r="CK71" s="22">
+      <c r="CK71" s="21">
         <v>13290.552569611473</v>
       </c>
-      <c r="CL71" s="22">
+      <c r="CL71" s="21">
         <v>13823.710821825029</v>
       </c>
-      <c r="CM71" s="22">
-        <v>13860.080287273884</v>
-      </c>
-      <c r="CN71" s="8"/>
+      <c r="CM71" s="21">
+        <v>13877.942367034806</v>
+      </c>
+      <c r="CN71" s="21">
+        <v>15250.769800601232</v>
+      </c>
       <c r="CO71" s="8"/>
       <c r="CP71" s="8"/>
       <c r="CQ71" s="8"/>
@@ -17217,7 +17325,7 @@
       <c r="EX71" s="8"/>
       <c r="EY71" s="8"/>
     </row>
-    <row r="72" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -17473,25 +17581,27 @@
       <c r="CG72" s="10">
         <v>55177.468773866582</v>
       </c>
-      <c r="CH72" s="22">
+      <c r="CH72" s="21">
         <v>59193.391635186905</v>
       </c>
-      <c r="CI72" s="22">
+      <c r="CI72" s="21">
         <v>89444.244725220778</v>
       </c>
-      <c r="CJ72" s="22">
+      <c r="CJ72" s="21">
         <v>82161.600544269924</v>
       </c>
-      <c r="CK72" s="22">
+      <c r="CK72" s="21">
         <v>49544.237856484586</v>
       </c>
-      <c r="CL72" s="22">
+      <c r="CL72" s="21">
         <v>53025.340515505181</v>
       </c>
-      <c r="CM72" s="22">
-        <v>95933.555549851531</v>
-      </c>
-      <c r="CN72" s="8"/>
+      <c r="CM72" s="21">
+        <v>95839.408056723361</v>
+      </c>
+      <c r="CN72" s="21">
+        <v>92120.763870591618</v>
+      </c>
       <c r="CO72" s="8"/>
       <c r="CP72" s="8"/>
       <c r="CQ72" s="8"/>
@@ -17556,7 +17666,7 @@
       <c r="EX72" s="8"/>
       <c r="EY72" s="8"/>
     </row>
-    <row r="73" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -17812,25 +17922,27 @@
       <c r="CG73" s="10">
         <v>76652.41980992227</v>
       </c>
-      <c r="CH73" s="22">
+      <c r="CH73" s="21">
         <v>181748.01478876657</v>
       </c>
-      <c r="CI73" s="22">
+      <c r="CI73" s="21">
         <v>120300.32611875168</v>
       </c>
-      <c r="CJ73" s="22">
+      <c r="CJ73" s="21">
         <v>73044.030977755741</v>
       </c>
-      <c r="CK73" s="22">
+      <c r="CK73" s="21">
         <v>94966.190585438817</v>
       </c>
-      <c r="CL73" s="22">
+      <c r="CL73" s="21">
         <v>235861.31293551967</v>
       </c>
-      <c r="CM73" s="22">
-        <v>175316.08612135935</v>
-      </c>
-      <c r="CN73" s="8"/>
+      <c r="CM73" s="21">
+        <v>175408.04623657514</v>
+      </c>
+      <c r="CN73" s="21">
+        <v>114084.60698585845</v>
+      </c>
       <c r="CO73" s="8"/>
       <c r="CP73" s="8"/>
       <c r="CQ73" s="8"/>
@@ -17895,7 +18007,7 @@
       <c r="EX73" s="8"/>
       <c r="EY73" s="8"/>
     </row>
-    <row r="74" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -18151,25 +18263,27 @@
       <c r="CG74" s="10">
         <v>20309.37171426537</v>
       </c>
-      <c r="CH74" s="22">
+      <c r="CH74" s="21">
         <v>34908.083189803729</v>
       </c>
-      <c r="CI74" s="22">
+      <c r="CI74" s="21">
         <v>11990.614896177276</v>
       </c>
-      <c r="CJ74" s="22">
+      <c r="CJ74" s="21">
         <v>11246.788708816512</v>
       </c>
-      <c r="CK74" s="22">
+      <c r="CK74" s="21">
         <v>20997.700219515973</v>
       </c>
-      <c r="CL74" s="22">
+      <c r="CL74" s="21">
         <v>36920.199096598168</v>
       </c>
-      <c r="CM74" s="22">
-        <v>11367.046259120865</v>
-      </c>
-      <c r="CN74" s="8"/>
+      <c r="CM74" s="21">
+        <v>11345.040434011045</v>
+      </c>
+      <c r="CN74" s="21">
+        <v>10542.176398095016</v>
+      </c>
       <c r="CO74" s="8"/>
       <c r="CP74" s="8"/>
       <c r="CQ74" s="8"/>
@@ -18234,7 +18348,7 @@
       <c r="EX74" s="8"/>
       <c r="EY74" s="8"/>
     </row>
-    <row r="75" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -18490,25 +18604,27 @@
       <c r="CG75" s="10">
         <v>44894.308439434128</v>
       </c>
-      <c r="CH75" s="22">
+      <c r="CH75" s="21">
         <v>45329.959883538701</v>
       </c>
-      <c r="CI75" s="22">
+      <c r="CI75" s="21">
         <v>38050.968899517553</v>
       </c>
-      <c r="CJ75" s="22">
+      <c r="CJ75" s="21">
         <v>49688.401021719044</v>
       </c>
-      <c r="CK75" s="22">
+      <c r="CK75" s="21">
         <v>37009.924259438812</v>
       </c>
-      <c r="CL75" s="22">
+      <c r="CL75" s="21">
         <v>45794.257163028444</v>
       </c>
-      <c r="CM75" s="22">
-        <v>41066.359214912838</v>
-      </c>
-      <c r="CN75" s="8"/>
+      <c r="CM75" s="21">
+        <v>41054.94091995887</v>
+      </c>
+      <c r="CN75" s="21">
+        <v>53834.135828618353</v>
+      </c>
       <c r="CO75" s="8"/>
       <c r="CP75" s="8"/>
       <c r="CQ75" s="8"/>
@@ -18573,7 +18689,7 @@
       <c r="EX75" s="8"/>
       <c r="EY75" s="8"/>
     </row>
-    <row r="76" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
@@ -18829,25 +18945,27 @@
       <c r="CG76" s="10">
         <v>73205.843858127846</v>
       </c>
-      <c r="CH76" s="22">
+      <c r="CH76" s="21">
         <v>61288.389890755287</v>
       </c>
-      <c r="CI76" s="22">
+      <c r="CI76" s="21">
         <v>79511.467237744248</v>
       </c>
-      <c r="CJ76" s="22">
+      <c r="CJ76" s="21">
         <v>86880.940254306741</v>
       </c>
-      <c r="CK76" s="22">
+      <c r="CK76" s="21">
         <v>70221.771561487796</v>
       </c>
-      <c r="CL76" s="22">
+      <c r="CL76" s="21">
         <v>60541.618045468727</v>
       </c>
-      <c r="CM76" s="22">
-        <v>84846.273374074066</v>
-      </c>
-      <c r="CN76" s="8"/>
+      <c r="CM76" s="21">
+        <v>84430.531576002671</v>
+      </c>
+      <c r="CN76" s="21">
+        <v>92630.931825381442</v>
+      </c>
       <c r="CO76" s="8"/>
       <c r="CP76" s="8"/>
       <c r="CQ76" s="8"/>
@@ -18912,7 +19030,7 @@
       <c r="EX76" s="8"/>
       <c r="EY76" s="8"/>
     </row>
-    <row r="77" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -19168,25 +19286,27 @@
       <c r="CG77" s="10">
         <v>27479.957967514856</v>
       </c>
-      <c r="CH77" s="22">
+      <c r="CH77" s="21">
         <v>13032.666116604174</v>
       </c>
-      <c r="CI77" s="22">
+      <c r="CI77" s="21">
         <v>17598.541192435103</v>
       </c>
-      <c r="CJ77" s="22">
+      <c r="CJ77" s="21">
         <v>48476.655931195608</v>
       </c>
-      <c r="CK77" s="22">
+      <c r="CK77" s="21">
         <v>48282.220936669168</v>
       </c>
-      <c r="CL77" s="22">
+      <c r="CL77" s="21">
         <v>21267.562432789327</v>
       </c>
-      <c r="CM77" s="22">
-        <v>21501.864866605923</v>
-      </c>
-      <c r="CN77" s="8"/>
+      <c r="CM77" s="21">
+        <v>21518.328925054211</v>
+      </c>
+      <c r="CN77" s="21">
+        <v>56913.248534763203</v>
+      </c>
       <c r="CO77" s="8"/>
       <c r="CP77" s="8"/>
       <c r="CQ77" s="8"/>
@@ -19251,7 +19371,7 @@
       <c r="EX77" s="8"/>
       <c r="EY77" s="8"/>
     </row>
-    <row r="78" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -19507,25 +19627,27 @@
       <c r="CG78" s="10">
         <v>15534.894349689021</v>
       </c>
-      <c r="CH78" s="22">
+      <c r="CH78" s="21">
         <v>15073.48849681522</v>
       </c>
-      <c r="CI78" s="22">
+      <c r="CI78" s="21">
         <v>12835.95396029808</v>
       </c>
-      <c r="CJ78" s="22">
+      <c r="CJ78" s="21">
         <v>15633.839054664673</v>
       </c>
-      <c r="CK78" s="22">
+      <c r="CK78" s="21">
         <v>12700.56835410727</v>
       </c>
-      <c r="CL78" s="22">
+      <c r="CL78" s="21">
         <v>18095.580365659171</v>
       </c>
-      <c r="CM78" s="22">
-        <v>18754.730460831386</v>
-      </c>
-      <c r="CN78" s="8"/>
+      <c r="CM78" s="21">
+        <v>18777.243664035643</v>
+      </c>
+      <c r="CN78" s="21">
+        <v>18362.793708772009</v>
+      </c>
       <c r="CO78" s="8"/>
       <c r="CP78" s="8"/>
       <c r="CQ78" s="8"/>
@@ -19590,7 +19712,7 @@
       <c r="EX78" s="8"/>
       <c r="EY78" s="8"/>
     </row>
-    <row r="79" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>30</v>
       </c>
@@ -19846,25 +19968,27 @@
       <c r="CG79" s="10">
         <v>25802.022218888611</v>
       </c>
-      <c r="CH79" s="22">
+      <c r="CH79" s="21">
         <v>21182.963089617166</v>
       </c>
-      <c r="CI79" s="22">
+      <c r="CI79" s="21">
         <v>39636.925089820928</v>
       </c>
-      <c r="CJ79" s="22">
+      <c r="CJ79" s="21">
         <v>49721.668776275685</v>
       </c>
-      <c r="CK79" s="22">
+      <c r="CK79" s="21">
         <v>107525.38684616117</v>
       </c>
-      <c r="CL79" s="22">
+      <c r="CL79" s="21">
         <v>54064.76859197329</v>
       </c>
-      <c r="CM79" s="22">
-        <v>34363.291757321538</v>
-      </c>
-      <c r="CN79" s="8"/>
+      <c r="CM79" s="21">
+        <v>34322.810658227274</v>
+      </c>
+      <c r="CN79" s="21">
+        <v>34503.013861685038</v>
+      </c>
       <c r="CO79" s="8"/>
       <c r="CP79" s="8"/>
       <c r="CQ79" s="8"/>
@@ -19929,7 +20053,7 @@
       <c r="EX79" s="8"/>
       <c r="EY79" s="8"/>
     </row>
-    <row r="80" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -20185,25 +20309,27 @@
       <c r="CG80" s="10">
         <v>11478.831851768706</v>
       </c>
-      <c r="CH80" s="22">
+      <c r="CH80" s="21">
         <v>17701.198513794145</v>
       </c>
-      <c r="CI80" s="22">
+      <c r="CI80" s="21">
         <v>20693.787451348231</v>
       </c>
-      <c r="CJ80" s="22">
+      <c r="CJ80" s="21">
         <v>11287.883563728159</v>
       </c>
-      <c r="CK80" s="22">
+      <c r="CK80" s="21">
         <v>10295.791064072004</v>
       </c>
-      <c r="CL80" s="22">
+      <c r="CL80" s="21">
         <v>16304.255043346275</v>
       </c>
-      <c r="CM80" s="22">
-        <v>22815.470106412478</v>
-      </c>
-      <c r="CN80" s="8"/>
+      <c r="CM80" s="21">
+        <v>22639.931958681802</v>
+      </c>
+      <c r="CN80" s="21">
+        <v>12583.900502531847</v>
+      </c>
       <c r="CO80" s="8"/>
       <c r="CP80" s="8"/>
       <c r="CQ80" s="8"/>
@@ -20268,7 +20394,7 @@
       <c r="EX80" s="8"/>
       <c r="EY80" s="8"/>
     </row>
-    <row r="81" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>32</v>
       </c>
@@ -20524,25 +20650,27 @@
       <c r="CG81" s="10">
         <v>13919.460217569618</v>
       </c>
-      <c r="CH81" s="22">
+      <c r="CH81" s="21">
         <v>11979.493570294624</v>
       </c>
-      <c r="CI81" s="22">
+      <c r="CI81" s="21">
         <v>17657.021775840127</v>
       </c>
-      <c r="CJ81" s="22">
+      <c r="CJ81" s="21">
         <v>21651.679460893141</v>
       </c>
-      <c r="CK81" s="22">
+      <c r="CK81" s="21">
         <v>12676.669202806999</v>
       </c>
-      <c r="CL81" s="22">
+      <c r="CL81" s="21">
         <v>17194.052257555501</v>
       </c>
-      <c r="CM81" s="22">
-        <v>18048.154531954067</v>
-      </c>
-      <c r="CN81" s="8"/>
+      <c r="CM81" s="21">
+        <v>18079.932617562252</v>
+      </c>
+      <c r="CN81" s="21">
+        <v>22798.018362119568</v>
+      </c>
       <c r="CO81" s="8"/>
       <c r="CP81" s="8"/>
       <c r="CQ81" s="8"/>
@@ -20607,7 +20735,7 @@
       <c r="EX81" s="8"/>
       <c r="EY81" s="8"/>
     </row>
-    <row r="82" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
@@ -20863,25 +20991,27 @@
       <c r="CG82" s="10">
         <v>3786.3721660715501</v>
       </c>
-      <c r="CH82" s="22">
+      <c r="CH82" s="21">
         <v>6390.4123308979615</v>
       </c>
-      <c r="CI82" s="22">
+      <c r="CI82" s="21">
         <v>1529.0483478605763</v>
       </c>
-      <c r="CJ82" s="22">
+      <c r="CJ82" s="21">
         <v>2799.9124779843328</v>
       </c>
-      <c r="CK82" s="22">
+      <c r="CK82" s="21">
         <v>5232.11328719621</v>
       </c>
-      <c r="CL82" s="22">
+      <c r="CL82" s="21">
         <v>2625.0336283896177</v>
       </c>
-      <c r="CM82" s="22">
-        <v>1666.3018202449425</v>
-      </c>
-      <c r="CN82" s="8"/>
+      <c r="CM82" s="21">
+        <v>1689.8455040767647</v>
+      </c>
+      <c r="CN82" s="21">
+        <v>9638.9026130472248</v>
+      </c>
       <c r="CO82" s="8"/>
       <c r="CP82" s="8"/>
       <c r="CQ82" s="8"/>
@@ -20946,7 +21076,7 @@
       <c r="EX82" s="8"/>
       <c r="EY82" s="8"/>
     </row>
-    <row r="83" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>34</v>
       </c>
@@ -21202,25 +21332,27 @@
       <c r="CG83" s="10">
         <v>38769.814659756805</v>
       </c>
-      <c r="CH83" s="22">
+      <c r="CH83" s="21">
         <v>32138.79115115618</v>
       </c>
-      <c r="CI83" s="22">
+      <c r="CI83" s="21">
         <v>10936.014223246824</v>
       </c>
-      <c r="CJ83" s="22">
+      <c r="CJ83" s="21">
         <v>20694.586501024791</v>
       </c>
-      <c r="CK83" s="22">
+      <c r="CK83" s="21">
         <v>31670.793520942461</v>
       </c>
-      <c r="CL83" s="22">
+      <c r="CL83" s="21">
         <v>28509.022670600945</v>
       </c>
-      <c r="CM83" s="22">
-        <v>10949.814731174529</v>
-      </c>
-      <c r="CN83" s="8"/>
+      <c r="CM83" s="21">
+        <v>10883.413187123244</v>
+      </c>
+      <c r="CN83" s="21">
+        <v>25583.451542194958</v>
+      </c>
       <c r="CO83" s="8"/>
       <c r="CP83" s="8"/>
       <c r="CQ83" s="8"/>
@@ -21285,7 +21417,7 @@
       <c r="EX83" s="8"/>
       <c r="EY83" s="8"/>
     </row>
-    <row r="84" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>35</v>
       </c>
@@ -21541,25 +21673,27 @@
       <c r="CG84" s="10">
         <v>35240.109968315381</v>
       </c>
-      <c r="CH84" s="22">
+      <c r="CH84" s="21">
         <v>35393.440673491103</v>
       </c>
-      <c r="CI84" s="22">
+      <c r="CI84" s="21">
         <v>27683.36758473474</v>
       </c>
-      <c r="CJ84" s="22">
+      <c r="CJ84" s="21">
         <v>34967.178356116216</v>
       </c>
-      <c r="CK84" s="22">
+      <c r="CK84" s="21">
         <v>29074.955182330224</v>
       </c>
-      <c r="CL84" s="22">
+      <c r="CL84" s="21">
         <v>33568.275625428112</v>
       </c>
-      <c r="CM84" s="22">
-        <v>32257.441262027816</v>
-      </c>
-      <c r="CN84" s="8"/>
+      <c r="CM84" s="21">
+        <v>32282.663587292944</v>
+      </c>
+      <c r="CN84" s="21">
+        <v>42935.072191700187</v>
+      </c>
       <c r="CO84" s="8"/>
       <c r="CP84" s="8"/>
       <c r="CQ84" s="8"/>
@@ -21624,7 +21758,7 @@
       <c r="EX84" s="8"/>
       <c r="EY84" s="8"/>
     </row>
-    <row r="85" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -21880,25 +22014,27 @@
       <c r="CG85" s="10">
         <v>15228.588275178296</v>
       </c>
-      <c r="CH85" s="22">
+      <c r="CH85" s="21">
         <v>19428.64402078875</v>
       </c>
-      <c r="CI85" s="22">
+      <c r="CI85" s="21">
         <v>18831.276745406034</v>
       </c>
-      <c r="CJ85" s="22">
+      <c r="CJ85" s="21">
         <v>18968.241383578603</v>
       </c>
-      <c r="CK85" s="22">
+      <c r="CK85" s="21">
         <v>13583.637585771525</v>
       </c>
-      <c r="CL85" s="22">
+      <c r="CL85" s="21">
         <v>16721.550249905551</v>
       </c>
-      <c r="CM85" s="22">
-        <v>17200.924227391453</v>
-      </c>
-      <c r="CN85" s="8"/>
+      <c r="CM85" s="21">
+        <v>17155.692839580064</v>
+      </c>
+      <c r="CN85" s="21">
+        <v>16652.343200019914</v>
+      </c>
       <c r="CO85" s="8"/>
       <c r="CP85" s="8"/>
       <c r="CQ85" s="8"/>
@@ -21963,7 +22099,7 @@
       <c r="EX85" s="8"/>
       <c r="EY85" s="8"/>
     </row>
-    <row r="86" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
@@ -22219,25 +22355,27 @@
       <c r="CG86" s="10">
         <v>12359.378663918675</v>
       </c>
-      <c r="CH86" s="22">
+      <c r="CH86" s="21">
         <v>18409.02299025828</v>
       </c>
-      <c r="CI86" s="22">
+      <c r="CI86" s="21">
         <v>25719.558888659249</v>
       </c>
-      <c r="CJ86" s="22">
+      <c r="CJ86" s="21">
         <v>14853.355756197288</v>
       </c>
-      <c r="CK86" s="22">
+      <c r="CK86" s="21">
         <v>16380.956201891757</v>
       </c>
-      <c r="CL86" s="22">
+      <c r="CL86" s="21">
         <v>21796.69876426156</v>
       </c>
-      <c r="CM86" s="22">
-        <v>27769.668820438957</v>
-      </c>
-      <c r="CN86" s="8"/>
+      <c r="CM86" s="21">
+        <v>27772.934284390474</v>
+      </c>
+      <c r="CN86" s="21">
+        <v>18298.400231200219</v>
+      </c>
       <c r="CO86" s="8"/>
       <c r="CP86" s="8"/>
       <c r="CQ86" s="8"/>
@@ -22302,7 +22440,7 @@
       <c r="EX86" s="8"/>
       <c r="EY86" s="8"/>
     </row>
-    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>38</v>
       </c>
@@ -22558,25 +22696,27 @@
       <c r="CG87" s="10">
         <v>6608.2800423842518</v>
       </c>
-      <c r="CH87" s="22">
+      <c r="CH87" s="21">
         <v>8315.7751570154378</v>
       </c>
-      <c r="CI87" s="22">
+      <c r="CI87" s="21">
         <v>6984.2796949420726</v>
       </c>
-      <c r="CJ87" s="22">
+      <c r="CJ87" s="21">
         <v>5333.6906370360239</v>
       </c>
-      <c r="CK87" s="22">
+      <c r="CK87" s="21">
         <v>6647.6167986716318</v>
       </c>
-      <c r="CL87" s="22">
+      <c r="CL87" s="21">
         <v>7562.4748578071303</v>
       </c>
-      <c r="CM87" s="22">
-        <v>7789.0067121348893</v>
-      </c>
-      <c r="CN87" s="8"/>
+      <c r="CM87" s="21">
+        <v>7775.6758582867315</v>
+      </c>
+      <c r="CN87" s="21">
+        <v>10090.437467042211</v>
+      </c>
       <c r="CO87" s="8"/>
       <c r="CP87" s="8"/>
       <c r="CQ87" s="8"/>
@@ -22641,7 +22781,7 @@
       <c r="EX87" s="8"/>
       <c r="EY87" s="8"/>
     </row>
-    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>39</v>
       </c>
@@ -22897,25 +23037,27 @@
       <c r="CG88" s="10">
         <v>241255.70483993669</v>
       </c>
-      <c r="CH88" s="22">
+      <c r="CH88" s="21">
         <v>321159.79324344115</v>
       </c>
-      <c r="CI88" s="22">
+      <c r="CI88" s="21">
         <v>308648.80502420821</v>
       </c>
-      <c r="CJ88" s="22">
+      <c r="CJ88" s="21">
         <v>322979.45878271828</v>
       </c>
-      <c r="CK88" s="22">
+      <c r="CK88" s="21">
         <v>239859.55816592686</v>
       </c>
-      <c r="CL88" s="22">
+      <c r="CL88" s="21">
         <v>355561.06337620848</v>
       </c>
-      <c r="CM88" s="22">
-        <v>303527.44368951378</v>
-      </c>
-      <c r="CN88" s="8"/>
+      <c r="CM88" s="21">
+        <v>303821.60251048079</v>
+      </c>
+      <c r="CN88" s="21">
+        <v>346515.16584099579</v>
+      </c>
       <c r="CO88" s="8"/>
       <c r="CP88" s="8"/>
       <c r="CQ88" s="8"/>
@@ -22980,7 +23122,7 @@
       <c r="EX88" s="8"/>
       <c r="EY88" s="8"/>
     </row>
-    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -23136,7 +23278,7 @@
       <c r="EX89" s="8"/>
       <c r="EY89" s="8"/>
     </row>
-    <row r="90" spans="1:155" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:155" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -23392,25 +23534,27 @@
       <c r="CG90" s="7">
         <v>1320054.0299760995</v>
       </c>
-      <c r="CH90" s="21">
+      <c r="CH90" s="20">
         <v>1386381.8751085582</v>
       </c>
-      <c r="CI90" s="21">
+      <c r="CI90" s="20">
         <v>1547828.7346011642</v>
       </c>
-      <c r="CJ90" s="21">
+      <c r="CJ90" s="20">
         <v>1486632.4267448697</v>
       </c>
-      <c r="CK90" s="21">
+      <c r="CK90" s="20">
         <v>1515428.6184003484</v>
       </c>
-      <c r="CL90" s="21">
+      <c r="CL90" s="20">
         <v>1556438.8781228696</v>
       </c>
-      <c r="CM90" s="21">
-        <v>1723141.7697351458</v>
-      </c>
-      <c r="CN90" s="8"/>
+      <c r="CM90" s="20">
+        <v>1724725.2330964953</v>
+      </c>
+      <c r="CN90" s="20">
+        <v>1651212.8450317429</v>
+      </c>
       <c r="CO90" s="8"/>
       <c r="CP90" s="8"/>
       <c r="CQ90" s="8"/>
@@ -23475,7 +23619,7 @@
       <c r="EX90" s="8"/>
       <c r="EY90" s="8"/>
     </row>
-    <row r="91" spans="1:155" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:155" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -23567,13 +23711,14 @@
       <c r="CK91" s="11"/>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
+      <c r="CN91" s="11"/>
     </row>
-    <row r="92" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -23729,7 +23874,7 @@
       <c r="EX93" s="8"/>
       <c r="EY93" s="8"/>
     </row>
-    <row r="94" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -23885,37 +24030,37 @@
       <c r="EX94" s="8"/>
       <c r="EY94" s="8"/>
     </row>
-    <row r="95" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="23" t="s">
         <v>57</v>
@@ -24047,12 +24192,13 @@
         <v>77</v>
       </c>
       <c r="CI103" s="23"/>
-      <c r="CJ103" s="4"/>
+      <c r="CJ103" s="23"/>
       <c r="CK103" s="4"/>
-      <c r="CL103" s="20"/>
-      <c r="CM103" s="20"/>
+      <c r="CL103" s="23"/>
+      <c r="CM103" s="23"/>
+      <c r="CN103" s="4"/>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>52</v>
       </c>
@@ -24314,15 +24460,18 @@
       <c r="CI104" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="CJ104" s="14"/>
+      <c r="CJ104" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="CK104" s="14"/>
       <c r="CL104" s="14"/>
-      <c r="CM104" s="6"/>
+      <c r="CM104" s="14"/>
+      <c r="CN104" s="14"/>
     </row>
-    <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -24582,13 +24731,15 @@
         <v>11.145672910452944</v>
       </c>
       <c r="CI106" s="16">
-        <v>13.149916405478862</v>
-      </c>
-      <c r="CJ106" s="16"/>
+        <v>13.186350423887532</v>
+      </c>
+      <c r="CJ106" s="16">
+        <v>16.583334131544888</v>
+      </c>
       <c r="CK106" s="16"/>
       <c r="CL106" s="16"/>
       <c r="CM106" s="16"/>
-      <c r="CN106" s="8"/>
+      <c r="CN106" s="16"/>
       <c r="CO106" s="8"/>
       <c r="CP106" s="8"/>
       <c r="CQ106" s="8"/>
@@ -24649,7 +24800,7 @@
       <c r="ET106" s="8"/>
       <c r="EU106" s="8"/>
     </row>
-    <row r="107" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -24909,13 +25060,15 @@
         <v>16.051759376947246</v>
       </c>
       <c r="CI107" s="16">
-        <v>22.979515375177883</v>
-      </c>
-      <c r="CJ107" s="16"/>
+        <v>22.939451579357197</v>
+      </c>
+      <c r="CJ107" s="16">
+        <v>32.278146405899719</v>
+      </c>
       <c r="CK107" s="16"/>
       <c r="CL107" s="16"/>
       <c r="CM107" s="16"/>
-      <c r="CN107" s="8"/>
+      <c r="CN107" s="16"/>
       <c r="CO107" s="8"/>
       <c r="CP107" s="8"/>
       <c r="CQ107" s="8"/>
@@ -24976,7 +25129,7 @@
       <c r="ET107" s="8"/>
       <c r="EU107" s="8"/>
     </row>
-    <row r="108" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>12</v>
       </c>
@@ -25236,13 +25389,15 @@
         <v>-5.0404205156275026</v>
       </c>
       <c r="CI108" s="16">
-        <v>-7.504583098390313</v>
-      </c>
-      <c r="CJ108" s="16"/>
+        <v>-7.5541503609886149</v>
+      </c>
+      <c r="CJ108" s="16">
+        <v>-17.335080796782549</v>
+      </c>
       <c r="CK108" s="16"/>
       <c r="CL108" s="16"/>
       <c r="CM108" s="16"/>
-      <c r="CN108" s="8"/>
+      <c r="CN108" s="16"/>
       <c r="CO108" s="8"/>
       <c r="CP108" s="8"/>
       <c r="CQ108" s="8"/>
@@ -25303,7 +25458,7 @@
       <c r="ET108" s="8"/>
       <c r="EU108" s="8"/>
     </row>
-    <row r="109" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>13</v>
       </c>
@@ -25563,13 +25718,15 @@
         <v>-13.146182855594347</v>
       </c>
       <c r="CI109" s="16">
-        <v>-1.0757795936390124</v>
-      </c>
-      <c r="CJ109" s="16"/>
+        <v>-1.7500439611817598</v>
+      </c>
+      <c r="CJ109" s="16">
+        <v>16.187027362303525</v>
+      </c>
       <c r="CK109" s="16"/>
       <c r="CL109" s="16"/>
       <c r="CM109" s="16"/>
-      <c r="CN109" s="8"/>
+      <c r="CN109" s="16"/>
       <c r="CO109" s="8"/>
       <c r="CP109" s="8"/>
       <c r="CQ109" s="8"/>
@@ -25630,7 +25787,7 @@
       <c r="ET109" s="8"/>
       <c r="EU109" s="8"/>
     </row>
-    <row r="110" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>14</v>
       </c>
@@ -25890,13 +26047,15 @@
         <v>11.078598943470922</v>
       </c>
       <c r="CI110" s="16">
-        <v>8.1119808691231725</v>
-      </c>
-      <c r="CJ110" s="16"/>
+        <v>8.2264101156711291</v>
+      </c>
+      <c r="CJ110" s="16">
+        <v>21.211517888830528</v>
+      </c>
       <c r="CK110" s="16"/>
       <c r="CL110" s="16"/>
       <c r="CM110" s="16"/>
-      <c r="CN110" s="8"/>
+      <c r="CN110" s="16"/>
       <c r="CO110" s="8"/>
       <c r="CP110" s="8"/>
       <c r="CQ110" s="8"/>
@@ -25957,7 +26116,7 @@
       <c r="ET110" s="8"/>
       <c r="EU110" s="8"/>
     </row>
-    <row r="111" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>15</v>
       </c>
@@ -26217,13 +26376,15 @@
         <v>29.965219931861299</v>
       </c>
       <c r="CI111" s="16">
-        <v>3.3295539932324516</v>
-      </c>
-      <c r="CJ111" s="16"/>
+        <v>3.3876216322529871</v>
+      </c>
+      <c r="CJ111" s="16">
+        <v>1.0988040641988732</v>
+      </c>
       <c r="CK111" s="16"/>
       <c r="CL111" s="16"/>
       <c r="CM111" s="16"/>
-      <c r="CN111" s="8"/>
+      <c r="CN111" s="16"/>
       <c r="CO111" s="8"/>
       <c r="CP111" s="8"/>
       <c r="CQ111" s="8"/>
@@ -26284,7 +26445,7 @@
       <c r="ET111" s="8"/>
       <c r="EU111" s="8"/>
     </row>
-    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>16</v>
       </c>
@@ -26544,13 +26705,15 @@
         <v>-4.1726182982607867</v>
       </c>
       <c r="CI112" s="16">
-        <v>20.966863969106569</v>
-      </c>
-      <c r="CJ112" s="16"/>
+        <v>21.736689644159</v>
+      </c>
+      <c r="CJ112" s="16">
+        <v>46.771537998073711</v>
+      </c>
       <c r="CK112" s="16"/>
       <c r="CL112" s="16"/>
       <c r="CM112" s="16"/>
-      <c r="CN112" s="8"/>
+      <c r="CN112" s="16"/>
       <c r="CO112" s="8"/>
       <c r="CP112" s="8"/>
       <c r="CQ112" s="8"/>
@@ -26611,7 +26774,7 @@
       <c r="ET112" s="8"/>
       <c r="EU112" s="8"/>
     </row>
-    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>17</v>
       </c>
@@ -26871,13 +27034,15 @@
         <v>43.351532845600417</v>
       </c>
       <c r="CI113" s="16">
-        <v>30.475524529326492</v>
-      </c>
-      <c r="CJ113" s="16"/>
+        <v>30.90565825786237</v>
+      </c>
+      <c r="CJ113" s="16">
+        <v>17.243598093115907</v>
+      </c>
       <c r="CK113" s="16"/>
       <c r="CL113" s="16"/>
       <c r="CM113" s="16"/>
-      <c r="CN113" s="8"/>
+      <c r="CN113" s="16"/>
       <c r="CO113" s="8"/>
       <c r="CP113" s="8"/>
       <c r="CQ113" s="8"/>
@@ -26938,7 +27103,7 @@
       <c r="ET113" s="8"/>
       <c r="EU113" s="8"/>
     </row>
-    <row r="114" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>18</v>
       </c>
@@ -27198,13 +27363,15 @@
         <v>11.325799618430921</v>
       </c>
       <c r="CI114" s="16">
-        <v>15.675771938313517</v>
-      </c>
-      <c r="CJ114" s="16"/>
+        <v>15.847498249134034</v>
+      </c>
+      <c r="CJ114" s="16">
+        <v>4.6991405612969714</v>
+      </c>
       <c r="CK114" s="16"/>
       <c r="CL114" s="16"/>
       <c r="CM114" s="16"/>
-      <c r="CN114" s="8"/>
+      <c r="CN114" s="16"/>
       <c r="CO114" s="8"/>
       <c r="CP114" s="8"/>
       <c r="CQ114" s="8"/>
@@ -27265,7 +27432,7 @@
       <c r="ET114" s="8"/>
       <c r="EU114" s="8"/>
     </row>
-    <row r="115" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>19</v>
       </c>
@@ -27525,13 +27692,15 @@
         <v>-12.078712233178067</v>
       </c>
       <c r="CI115" s="16">
-        <v>18.003754659467646</v>
-      </c>
-      <c r="CJ115" s="16"/>
+        <v>18.375531052403574</v>
+      </c>
+      <c r="CJ115" s="16">
+        <v>72.193042560865393</v>
+      </c>
       <c r="CK115" s="16"/>
       <c r="CL115" s="16"/>
       <c r="CM115" s="16"/>
-      <c r="CN115" s="8"/>
+      <c r="CN115" s="16"/>
       <c r="CO115" s="8"/>
       <c r="CP115" s="8"/>
       <c r="CQ115" s="8"/>
@@ -27592,7 +27761,7 @@
       <c r="ET115" s="8"/>
       <c r="EU115" s="8"/>
     </row>
-    <row r="116" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -27852,13 +28021,15 @@
         <v>120.03876724403008</v>
       </c>
       <c r="CI116" s="16">
-        <v>136.05886126186118</v>
-      </c>
-      <c r="CJ116" s="16"/>
+        <v>137.09458138276926</v>
+      </c>
+      <c r="CJ116" s="16">
+        <v>99.679590872485363</v>
+      </c>
       <c r="CK116" s="16"/>
       <c r="CL116" s="16"/>
       <c r="CM116" s="16"/>
-      <c r="CN116" s="8"/>
+      <c r="CN116" s="16"/>
       <c r="CO116" s="8"/>
       <c r="CP116" s="8"/>
       <c r="CQ116" s="8"/>
@@ -27919,7 +28090,7 @@
       <c r="ET116" s="8"/>
       <c r="EU116" s="8"/>
     </row>
-    <row r="117" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>22</v>
       </c>
@@ -28179,13 +28350,15 @@
         <v>13.233758345835483</v>
       </c>
       <c r="CI117" s="16">
-        <v>10.71718004003958</v>
-      </c>
-      <c r="CJ117" s="16"/>
+        <v>11.145398265926303</v>
+      </c>
+      <c r="CJ117" s="16">
+        <v>17.998293710101649</v>
+      </c>
       <c r="CK117" s="16"/>
       <c r="CL117" s="16"/>
       <c r="CM117" s="16"/>
-      <c r="CN117" s="8"/>
+      <c r="CN117" s="16"/>
       <c r="CO117" s="8"/>
       <c r="CP117" s="8"/>
       <c r="CQ117" s="8"/>
@@ -28246,7 +28419,7 @@
       <c r="ET117" s="8"/>
       <c r="EU117" s="8"/>
     </row>
-    <row r="118" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>23</v>
       </c>
@@ -28506,13 +28679,15 @@
         <v>4.0154549131998323</v>
       </c>
       <c r="CI118" s="16">
-        <v>13.620870137277109</v>
-      </c>
-      <c r="CJ118" s="16"/>
+        <v>13.767298224476647</v>
+      </c>
+      <c r="CJ118" s="16">
+        <v>40.142164666882451</v>
+      </c>
       <c r="CK118" s="16"/>
       <c r="CL118" s="16"/>
       <c r="CM118" s="16"/>
-      <c r="CN118" s="8"/>
+      <c r="CN118" s="16"/>
       <c r="CO118" s="8"/>
       <c r="CP118" s="8"/>
       <c r="CQ118" s="8"/>
@@ -28573,7 +28748,7 @@
       <c r="ET118" s="8"/>
       <c r="EU118" s="8"/>
     </row>
-    <row r="119" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>24</v>
       </c>
@@ -28833,13 +29008,15 @@
         <v>12.977926318497325</v>
       </c>
       <c r="CI119" s="16">
-        <v>25.855007803780225</v>
-      </c>
-      <c r="CJ119" s="16"/>
+        <v>25.69557411006403</v>
+      </c>
+      <c r="CJ119" s="16">
+        <v>12.206560421024278</v>
+      </c>
       <c r="CK119" s="16"/>
       <c r="CL119" s="16"/>
       <c r="CM119" s="16"/>
-      <c r="CN119" s="8"/>
+      <c r="CN119" s="16"/>
       <c r="CO119" s="8"/>
       <c r="CP119" s="8"/>
       <c r="CQ119" s="8"/>
@@ -28900,7 +29077,7 @@
       <c r="ET119" s="8"/>
       <c r="EU119" s="8"/>
     </row>
-    <row r="120" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -29160,13 +29337,15 @@
         <v>39.852235629574977</v>
       </c>
       <c r="CI120" s="16">
-        <v>60.546341765478104</v>
-      </c>
-      <c r="CJ120" s="16"/>
+        <v>60.630554574541208</v>
+      </c>
+      <c r="CJ120" s="16">
+        <v>76.818406388480213</v>
+      </c>
       <c r="CK120" s="16"/>
       <c r="CL120" s="16"/>
       <c r="CM120" s="16"/>
-      <c r="CN120" s="8"/>
+      <c r="CN120" s="16"/>
       <c r="CO120" s="8"/>
       <c r="CP120" s="8"/>
       <c r="CQ120" s="8"/>
@@ -29227,7 +29406,7 @@
       <c r="ET120" s="8"/>
       <c r="EU120" s="8"/>
     </row>
-    <row r="121" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -29487,13 +29666,15 @@
         <v>18.56718971392381</v>
       </c>
       <c r="CI121" s="16">
-        <v>11.87820423209898</v>
-      </c>
-      <c r="CJ121" s="16"/>
+        <v>11.945420732243534</v>
+      </c>
+      <c r="CJ121" s="16">
+        <v>11.295177158599515</v>
+      </c>
       <c r="CK121" s="16"/>
       <c r="CL121" s="16"/>
       <c r="CM121" s="16"/>
-      <c r="CN121" s="8"/>
+      <c r="CN121" s="16"/>
       <c r="CO121" s="8"/>
       <c r="CP121" s="8"/>
       <c r="CQ121" s="8"/>
@@ -29554,7 +29735,7 @@
       <c r="ET121" s="8"/>
       <c r="EU121" s="8"/>
     </row>
-    <row r="122" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>26</v>
       </c>
@@ -29814,13 +29995,15 @@
         <v>11.609217226955607</v>
       </c>
       <c r="CI122" s="16">
-        <v>23.480366611254937</v>
-      </c>
-      <c r="CJ122" s="16"/>
+        <v>23.446033515408459</v>
+      </c>
+      <c r="CJ122" s="16">
+        <v>31.564311144206016</v>
+      </c>
       <c r="CK122" s="16"/>
       <c r="CL122" s="16"/>
       <c r="CM122" s="16"/>
-      <c r="CN122" s="8"/>
+      <c r="CN122" s="16"/>
       <c r="CO122" s="8"/>
       <c r="CP122" s="8"/>
       <c r="CQ122" s="8"/>
@@ -29881,7 +30064,7 @@
       <c r="ET122" s="8"/>
       <c r="EU122" s="8"/>
     </row>
-    <row r="123" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>27</v>
       </c>
@@ -30141,13 +30324,15 @@
         <v>25.538388720845489</v>
       </c>
       <c r="CI123" s="16">
-        <v>25.761193674666117</v>
-      </c>
-      <c r="CJ123" s="16"/>
+        <v>25.314950525226095</v>
+      </c>
+      <c r="CJ123" s="16">
+        <v>24.994509188411556</v>
+      </c>
       <c r="CK123" s="16"/>
       <c r="CL123" s="16"/>
       <c r="CM123" s="16"/>
-      <c r="CN123" s="8"/>
+      <c r="CN123" s="16"/>
       <c r="CO123" s="8"/>
       <c r="CP123" s="8"/>
       <c r="CQ123" s="8"/>
@@ -30208,7 +30393,7 @@
       <c r="ET123" s="8"/>
       <c r="EU123" s="8"/>
     </row>
-    <row r="124" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -30468,13 +30653,15 @@
         <v>64.84650465332129</v>
       </c>
       <c r="CI124" s="16">
-        <v>44.484807807769698</v>
-      </c>
-      <c r="CJ124" s="16"/>
+        <v>44.595440366173108</v>
+      </c>
+      <c r="CJ124" s="16">
+        <v>35.330785809071585</v>
+      </c>
       <c r="CK124" s="16"/>
       <c r="CL124" s="16"/>
       <c r="CM124" s="16"/>
-      <c r="CN124" s="8"/>
+      <c r="CN124" s="16"/>
       <c r="CO124" s="8"/>
       <c r="CP124" s="8"/>
       <c r="CQ124" s="8"/>
@@ -30535,7 +30722,7 @@
       <c r="ET124" s="8"/>
       <c r="EU124" s="8"/>
     </row>
-    <row r="125" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>29</v>
       </c>
@@ -30795,13 +30982,15 @@
         <v>35.313863342783577</v>
       </c>
       <c r="CI125" s="16">
-        <v>75.071791920009616</v>
-      </c>
-      <c r="CJ125" s="16"/>
+        <v>75.077940301801306</v>
+      </c>
+      <c r="CJ125" s="16">
+        <v>42.329116765578362</v>
+      </c>
       <c r="CK125" s="16"/>
       <c r="CL125" s="16"/>
       <c r="CM125" s="16"/>
-      <c r="CN125" s="8"/>
+      <c r="CN125" s="16"/>
       <c r="CO125" s="8"/>
       <c r="CP125" s="8"/>
       <c r="CQ125" s="8"/>
@@ -30862,7 +31051,7 @@
       <c r="ET125" s="8"/>
       <c r="EU125" s="8"/>
     </row>
-    <row r="126" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>30</v>
       </c>
@@ -31122,13 +31311,15 @@
         <v>170.04907491102824</v>
       </c>
       <c r="CI126" s="16">
-        <v>-7.6974708988611411</v>
-      </c>
-      <c r="CJ126" s="16"/>
+        <v>-7.7760500671411137</v>
+      </c>
+      <c r="CJ126" s="16">
+        <v>-24.906279724924588</v>
+      </c>
       <c r="CK126" s="16"/>
       <c r="CL126" s="16"/>
       <c r="CM126" s="16"/>
-      <c r="CN126" s="8"/>
+      <c r="CN126" s="16"/>
       <c r="CO126" s="8"/>
       <c r="CP126" s="8"/>
       <c r="CQ126" s="8"/>
@@ -31189,7 +31380,7 @@
       <c r="ET126" s="8"/>
       <c r="EU126" s="8"/>
     </row>
-    <row r="127" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>31</v>
       </c>
@@ -31449,13 +31640,15 @@
         <v>17.514475710446504</v>
       </c>
       <c r="CI127" s="16">
-        <v>33.43224541667783</v>
-      </c>
-      <c r="CJ127" s="16"/>
+        <v>33.249221373608918</v>
+      </c>
+      <c r="CJ127" s="16">
+        <v>37.208037747082045</v>
+      </c>
       <c r="CK127" s="16"/>
       <c r="CL127" s="16"/>
       <c r="CM127" s="16"/>
-      <c r="CN127" s="8"/>
+      <c r="CN127" s="16"/>
       <c r="CO127" s="8"/>
       <c r="CP127" s="8"/>
       <c r="CQ127" s="8"/>
@@ -31516,7 +31709,7 @@
       <c r="ET127" s="8"/>
       <c r="EU127" s="8"/>
     </row>
-    <row r="128" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>32</v>
       </c>
@@ -31776,13 +31969,15 @@
         <v>86.393603387414799</v>
       </c>
       <c r="CI128" s="16">
-        <v>28.546404934371623</v>
-      </c>
-      <c r="CJ128" s="16"/>
+        <v>28.587453827084772</v>
+      </c>
+      <c r="CJ128" s="16">
+        <v>34.355005295794399</v>
+      </c>
       <c r="CK128" s="16"/>
       <c r="CL128" s="16"/>
       <c r="CM128" s="16"/>
-      <c r="CN128" s="8"/>
+      <c r="CN128" s="16"/>
       <c r="CO128" s="8"/>
       <c r="CP128" s="8"/>
       <c r="CQ128" s="8"/>
@@ -31843,7 +32038,7 @@
       <c r="ET128" s="8"/>
       <c r="EU128" s="8"/>
     </row>
-    <row r="129" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
@@ -32103,13 +32298,15 @@
         <v>-45.411230460708737</v>
       </c>
       <c r="CI129" s="16">
-        <v>22.54444273446687</v>
-      </c>
-      <c r="CJ129" s="16"/>
+        <v>24.275910335372998</v>
+      </c>
+      <c r="CJ129" s="16">
+        <v>224.20816766411565</v>
+      </c>
       <c r="CK129" s="16"/>
       <c r="CL129" s="16"/>
       <c r="CM129" s="16"/>
-      <c r="CN129" s="8"/>
+      <c r="CN129" s="16"/>
       <c r="CO129" s="8"/>
       <c r="CP129" s="8"/>
       <c r="CQ129" s="8"/>
@@ -32170,7 +32367,7 @@
       <c r="ET129" s="8"/>
       <c r="EU129" s="8"/>
     </row>
-    <row r="130" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>34</v>
       </c>
@@ -32430,13 +32627,15 @@
         <v>12.632425749083566</v>
       </c>
       <c r="CI130" s="16">
-        <v>12.592347735655494</v>
-      </c>
-      <c r="CJ130" s="16"/>
+        <v>11.909568536046436</v>
+      </c>
+      <c r="CJ130" s="16">
+        <v>16.424182799936361</v>
+      </c>
       <c r="CK130" s="16"/>
       <c r="CL130" s="16"/>
       <c r="CM130" s="16"/>
-      <c r="CN130" s="8"/>
+      <c r="CN130" s="16"/>
       <c r="CO130" s="8"/>
       <c r="CP130" s="8"/>
       <c r="CQ130" s="8"/>
@@ -32497,7 +32696,7 @@
       <c r="ET130" s="8"/>
       <c r="EU130" s="8"/>
     </row>
-    <row r="131" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>35</v>
       </c>
@@ -32757,13 +32956,15 @@
         <v>15.367522645356374</v>
       </c>
       <c r="CI131" s="16">
-        <v>17.115437152624978</v>
-      </c>
-      <c r="CJ131" s="16"/>
+        <v>17.170299540071341</v>
+      </c>
+      <c r="CJ131" s="16">
+        <v>17.799175079418035</v>
+      </c>
       <c r="CK131" s="16"/>
       <c r="CL131" s="16"/>
       <c r="CM131" s="16"/>
-      <c r="CN131" s="8"/>
+      <c r="CN131" s="16"/>
       <c r="CO131" s="8"/>
       <c r="CP131" s="8"/>
       <c r="CQ131" s="8"/>
@@ -32824,7 +33025,7 @@
       <c r="ET131" s="8"/>
       <c r="EU131" s="8"/>
     </row>
-    <row r="132" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>36</v>
       </c>
@@ -33084,13 +33285,15 @@
         <v>1.5409528172284297</v>
       </c>
       <c r="CI132" s="16">
-        <v>9.4331705808175883</v>
-      </c>
-      <c r="CJ132" s="16"/>
+        <v>9.3335160497781402</v>
+      </c>
+      <c r="CJ132" s="16">
+        <v>7.2165670927760033</v>
+      </c>
       <c r="CK132" s="16"/>
       <c r="CL132" s="16"/>
       <c r="CM132" s="16"/>
-      <c r="CN132" s="8"/>
+      <c r="CN132" s="16"/>
       <c r="CO132" s="8"/>
       <c r="CP132" s="8"/>
       <c r="CQ132" s="8"/>
@@ -33151,7 +33354,7 @@
       <c r="ET132" s="8"/>
       <c r="EU132" s="8"/>
     </row>
-    <row r="133" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -33411,13 +33614,15 @@
         <v>29.252244055631905</v>
       </c>
       <c r="CI133" s="16">
-        <v>17.273825909901078</v>
-      </c>
-      <c r="CJ133" s="16"/>
+        <v>17.287616259848761</v>
+      </c>
+      <c r="CJ133" s="16">
+        <v>36.895185688159557</v>
+      </c>
       <c r="CK133" s="16"/>
       <c r="CL133" s="16"/>
       <c r="CM133" s="16"/>
-      <c r="CN133" s="8"/>
+      <c r="CN133" s="16"/>
       <c r="CO133" s="8"/>
       <c r="CP133" s="8"/>
       <c r="CQ133" s="8"/>
@@ -33478,7 +33683,7 @@
       <c r="ET133" s="8"/>
       <c r="EU133" s="8"/>
     </row>
-    <row r="134" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>38</v>
       </c>
@@ -33738,13 +33943,15 @@
         <v>5.2437069493302317</v>
       </c>
       <c r="CI134" s="16">
-        <v>29.98789825950675</v>
-      </c>
-      <c r="CJ134" s="16"/>
+        <v>29.765424491314093</v>
+      </c>
+      <c r="CJ134" s="16">
+        <v>118.08467553620844</v>
+      </c>
       <c r="CK134" s="16"/>
       <c r="CL134" s="16"/>
       <c r="CM134" s="16"/>
-      <c r="CN134" s="8"/>
+      <c r="CN134" s="16"/>
       <c r="CO134" s="8"/>
       <c r="CP134" s="8"/>
       <c r="CQ134" s="8"/>
@@ -33805,7 +34012,7 @@
       <c r="ET134" s="8"/>
       <c r="EU134" s="8"/>
     </row>
-    <row r="135" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>39</v>
       </c>
@@ -34065,13 +34272,15 @@
         <v>20.5513233918482</v>
       </c>
       <c r="CI135" s="16">
-        <v>13.974116084848575</v>
-      </c>
-      <c r="CJ135" s="16"/>
+        <v>14.172975544564707</v>
+      </c>
+      <c r="CJ135" s="16">
+        <v>33.669318214020052</v>
+      </c>
       <c r="CK135" s="16"/>
       <c r="CL135" s="16"/>
       <c r="CM135" s="16"/>
-      <c r="CN135" s="8"/>
+      <c r="CN135" s="16"/>
       <c r="CO135" s="8"/>
       <c r="CP135" s="8"/>
       <c r="CQ135" s="8"/>
@@ -34132,7 +34341,7 @@
       <c r="ET135" s="8"/>
       <c r="EU135" s="8"/>
     </row>
-    <row r="136" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -34223,7 +34432,7 @@
       <c r="CK136" s="16"/>
       <c r="CL136" s="16"/>
       <c r="CM136" s="16"/>
-      <c r="CN136" s="8"/>
+      <c r="CN136" s="16"/>
       <c r="CO136" s="8"/>
       <c r="CP136" s="8"/>
       <c r="CQ136" s="8"/>
@@ -34284,7 +34493,7 @@
       <c r="ET136" s="8"/>
       <c r="EU136" s="8"/>
     </row>
-    <row r="137" spans="1:151" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:151" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
@@ -34544,13 +34753,15 @@
         <v>34.082237078767633</v>
       </c>
       <c r="CI137" s="16">
-        <v>36.745293871713955</v>
-      </c>
-      <c r="CJ137" s="16"/>
+        <v>36.927641880775099</v>
+      </c>
+      <c r="CJ137" s="16">
+        <v>37.733501539678912</v>
+      </c>
       <c r="CK137" s="16"/>
       <c r="CL137" s="16"/>
       <c r="CM137" s="16"/>
-      <c r="CN137" s="8"/>
+      <c r="CN137" s="16"/>
       <c r="CO137" s="8"/>
       <c r="CP137" s="8"/>
       <c r="CQ137" s="8"/>
@@ -34611,7 +34822,7 @@
       <c r="ET137" s="8"/>
       <c r="EU137" s="8"/>
     </row>
-    <row r="138" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -34703,13 +34914,14 @@
       <c r="CK138" s="11"/>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
+      <c r="CN138" s="11"/>
     </row>
-    <row r="139" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>0</v>
       </c>
@@ -34864,7 +35076,7 @@
       <c r="ET140" s="8"/>
       <c r="EU140" s="8"/>
     </row>
-    <row r="141" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -35016,37 +35228,37 @@
       <c r="ET141" s="8"/>
       <c r="EU141" s="8"/>
     </row>
-    <row r="142" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="23" t="s">
         <v>57</v>
@@ -35178,12 +35390,13 @@
         <v>77</v>
       </c>
       <c r="CI150" s="23"/>
-      <c r="CJ150" s="4"/>
+      <c r="CJ150" s="23"/>
       <c r="CK150" s="4"/>
-      <c r="CL150" s="20"/>
-      <c r="CM150" s="20"/>
+      <c r="CL150" s="23"/>
+      <c r="CM150" s="23"/>
+      <c r="CN150" s="4"/>
     </row>
-    <row r="151" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>52</v>
       </c>
@@ -35445,15 +35658,18 @@
       <c r="CI151" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CJ151" s="6"/>
+      <c r="CJ151" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CK151" s="6"/>
       <c r="CL151" s="6"/>
       <c r="CM151" s="6"/>
+      <c r="CN151" s="6"/>
     </row>
-    <row r="152" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
@@ -35713,13 +35929,15 @@
         <v>5.5675937741784196</v>
       </c>
       <c r="CI153" s="16">
-        <v>2.2547747020770856</v>
-      </c>
-      <c r="CJ153" s="16"/>
+        <v>2.2868037708625195</v>
+      </c>
+      <c r="CJ153" s="16">
+        <v>4.6737400380895195</v>
+      </c>
       <c r="CK153" s="16"/>
       <c r="CL153" s="16"/>
       <c r="CM153" s="16"/>
-      <c r="CN153" s="8"/>
+      <c r="CN153" s="16"/>
       <c r="CO153" s="8"/>
       <c r="CP153" s="8"/>
       <c r="CQ153" s="8"/>
@@ -35780,7 +35998,7 @@
       <c r="ET153" s="8"/>
       <c r="EU153" s="8"/>
     </row>
-    <row r="154" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -36040,13 +36258,15 @@
         <v>11.639679338915073</v>
       </c>
       <c r="CI154" s="16">
-        <v>14.738743847890888</v>
-      </c>
-      <c r="CJ154" s="16"/>
+        <v>14.701364699077217</v>
+      </c>
+      <c r="CJ154" s="16">
+        <v>19.974315317090685</v>
+      </c>
       <c r="CK154" s="16"/>
       <c r="CL154" s="16"/>
       <c r="CM154" s="16"/>
-      <c r="CN154" s="8"/>
+      <c r="CN154" s="16"/>
       <c r="CO154" s="8"/>
       <c r="CP154" s="8"/>
       <c r="CQ154" s="8"/>
@@ -36107,7 +36327,7 @@
       <c r="ET154" s="8"/>
       <c r="EU154" s="8"/>
     </row>
-    <row r="155" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>12</v>
       </c>
@@ -36367,13 +36587,15 @@
         <v>-9.6254668946457826</v>
       </c>
       <c r="CI155" s="16">
-        <v>-16.596798095094783</v>
-      </c>
-      <c r="CJ155" s="16"/>
+        <v>-16.641492941054111</v>
+      </c>
+      <c r="CJ155" s="16">
+        <v>-26.654973954631501</v>
+      </c>
       <c r="CK155" s="16"/>
       <c r="CL155" s="16"/>
       <c r="CM155" s="16"/>
-      <c r="CN155" s="8"/>
+      <c r="CN155" s="16"/>
       <c r="CO155" s="8"/>
       <c r="CP155" s="8"/>
       <c r="CQ155" s="8"/>
@@ -36434,7 +36656,7 @@
       <c r="ET155" s="8"/>
       <c r="EU155" s="8"/>
     </row>
-    <row r="156" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>13</v>
       </c>
@@ -36694,13 +36916,15 @@
         <v>-21.799393572939991</v>
       </c>
       <c r="CI156" s="16">
-        <v>-16.154286552740984</v>
-      </c>
-      <c r="CJ156" s="16"/>
+        <v>-17.431295706437282</v>
+      </c>
+      <c r="CJ156" s="16">
+        <v>9.5936383345090803E-2</v>
+      </c>
       <c r="CK156" s="16"/>
       <c r="CL156" s="16"/>
       <c r="CM156" s="16"/>
-      <c r="CN156" s="8"/>
+      <c r="CN156" s="16"/>
       <c r="CO156" s="8"/>
       <c r="CP156" s="8"/>
       <c r="CQ156" s="8"/>
@@ -36761,7 +36985,7 @@
       <c r="ET156" s="8"/>
       <c r="EU156" s="8"/>
     </row>
-    <row r="157" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>14</v>
       </c>
@@ -37021,13 +37245,15 @@
         <v>3.4536695835148947</v>
       </c>
       <c r="CI157" s="16">
-        <v>-3.4769838347893085</v>
-      </c>
-      <c r="CJ157" s="16"/>
+        <v>-3.3748207264498831</v>
+      </c>
+      <c r="CJ157" s="16">
+        <v>4.2687075990828447</v>
+      </c>
       <c r="CK157" s="16"/>
       <c r="CL157" s="16"/>
       <c r="CM157" s="16"/>
-      <c r="CN157" s="8"/>
+      <c r="CN157" s="16"/>
       <c r="CO157" s="8"/>
       <c r="CP157" s="8"/>
       <c r="CQ157" s="8"/>
@@ -37088,7 +37314,7 @@
       <c r="ET157" s="8"/>
       <c r="EU157" s="8"/>
     </row>
-    <row r="158" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>15</v>
       </c>
@@ -37348,13 +37574,15 @@
         <v>22.28447118325181</v>
       </c>
       <c r="CI158" s="16">
-        <v>-6.5873299388645989</v>
-      </c>
-      <c r="CJ158" s="16"/>
+        <v>-6.5348352459579644</v>
+      </c>
+      <c r="CJ158" s="16">
+        <v>-11.468032159394795</v>
+      </c>
       <c r="CK158" s="16"/>
       <c r="CL158" s="16"/>
       <c r="CM158" s="16"/>
-      <c r="CN158" s="8"/>
+      <c r="CN158" s="16"/>
       <c r="CO158" s="8"/>
       <c r="CP158" s="8"/>
       <c r="CQ158" s="8"/>
@@ -37415,7 +37643,7 @@
       <c r="ET158" s="8"/>
       <c r="EU158" s="8"/>
     </row>
-    <row r="159" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>16</v>
       </c>
@@ -37675,13 +37903,15 @@
         <v>-9.8358722247654669</v>
       </c>
       <c r="CI159" s="16">
-        <v>9.3572682314730713</v>
-      </c>
-      <c r="CJ159" s="16"/>
+        <v>10.053211153988471</v>
+      </c>
+      <c r="CJ159" s="16">
+        <v>28.527465801774554</v>
+      </c>
       <c r="CK159" s="16"/>
       <c r="CL159" s="16"/>
       <c r="CM159" s="16"/>
-      <c r="CN159" s="8"/>
+      <c r="CN159" s="16"/>
       <c r="CO159" s="8"/>
       <c r="CP159" s="8"/>
       <c r="CQ159" s="8"/>
@@ -37742,7 +37972,7 @@
       <c r="ET159" s="8"/>
       <c r="EU159" s="8"/>
     </row>
-    <row r="160" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>17</v>
       </c>
@@ -38002,13 +38232,15 @@
         <v>34.731180260937833</v>
       </c>
       <c r="CI160" s="16">
-        <v>18.80667490351253</v>
-      </c>
-      <c r="CJ160" s="16"/>
+        <v>19.198340376677294</v>
+      </c>
+      <c r="CJ160" s="16">
+        <v>2.8808597911936857</v>
+      </c>
       <c r="CK160" s="16"/>
       <c r="CL160" s="16"/>
       <c r="CM160" s="16"/>
-      <c r="CN160" s="8"/>
+      <c r="CN160" s="16"/>
       <c r="CO160" s="8"/>
       <c r="CP160" s="8"/>
       <c r="CQ160" s="8"/>
@@ -38069,7 +38301,7 @@
       <c r="ET160" s="8"/>
       <c r="EU160" s="8"/>
     </row>
-    <row r="161" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>18</v>
       </c>
@@ -38329,13 +38561,15 @@
         <v>5.5163992499308421</v>
       </c>
       <c r="CI161" s="16">
-        <v>3.5113584692642519</v>
-      </c>
-      <c r="CJ161" s="16"/>
+        <v>3.7639739843000655</v>
+      </c>
+      <c r="CJ161" s="16">
+        <v>-7.0468656417908733</v>
+      </c>
       <c r="CK161" s="16"/>
       <c r="CL161" s="16"/>
       <c r="CM161" s="16"/>
-      <c r="CN161" s="8"/>
+      <c r="CN161" s="16"/>
       <c r="CO161" s="8"/>
       <c r="CP161" s="8"/>
       <c r="CQ161" s="8"/>
@@ -38396,7 +38630,7 @@
       <c r="ET161" s="8"/>
       <c r="EU161" s="8"/>
     </row>
-    <row r="162" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>19</v>
       </c>
@@ -38656,13 +38890,15 @@
         <v>-17.611166394290251</v>
       </c>
       <c r="CI162" s="16">
-        <v>3.4633003913795477</v>
-      </c>
-      <c r="CJ162" s="16"/>
+        <v>3.7014735742032769</v>
+      </c>
+      <c r="CJ162" s="16">
+        <v>48.240966189907795</v>
+      </c>
       <c r="CK162" s="16"/>
       <c r="CL162" s="16"/>
       <c r="CM162" s="16"/>
-      <c r="CN162" s="8"/>
+      <c r="CN162" s="16"/>
       <c r="CO162" s="8"/>
       <c r="CP162" s="8"/>
       <c r="CQ162" s="8"/>
@@ -38723,7 +38959,7 @@
       <c r="ET162" s="8"/>
       <c r="EU162" s="8"/>
     </row>
-    <row r="163" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -38983,13 +39219,15 @@
         <v>30.040361923570259</v>
       </c>
       <c r="CI163" s="16">
-        <v>35.476102246374154</v>
-      </c>
-      <c r="CJ163" s="16"/>
+        <v>36.070510455617864</v>
+      </c>
+      <c r="CJ163" s="16">
+        <v>28.99569671442751</v>
+      </c>
       <c r="CK163" s="16"/>
       <c r="CL163" s="16"/>
       <c r="CM163" s="16"/>
-      <c r="CN163" s="8"/>
+      <c r="CN163" s="16"/>
       <c r="CO163" s="8"/>
       <c r="CP163" s="8"/>
       <c r="CQ163" s="8"/>
@@ -39050,7 +39288,7 @@
       <c r="ET163" s="8"/>
       <c r="EU163" s="8"/>
     </row>
-    <row r="164" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>22</v>
       </c>
@@ -39310,13 +39548,15 @@
         <v>1.418236211785981</v>
       </c>
       <c r="CI164" s="16">
-        <v>0.75924481679632549</v>
-      </c>
-      <c r="CJ164" s="16"/>
+        <v>1.1489489714860781</v>
+      </c>
+      <c r="CJ164" s="16">
+        <v>3.9553704633831472</v>
+      </c>
       <c r="CK164" s="16"/>
       <c r="CL164" s="16"/>
       <c r="CM164" s="16"/>
-      <c r="CN164" s="8"/>
+      <c r="CN164" s="16"/>
       <c r="CO164" s="8"/>
       <c r="CP164" s="8"/>
       <c r="CQ164" s="8"/>
@@ -39377,7 +39617,7 @@
       <c r="ET164" s="8"/>
       <c r="EU164" s="8"/>
     </row>
-    <row r="165" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>23</v>
       </c>
@@ -39637,13 +39877,15 @@
         <v>-10.462436279511039</v>
       </c>
       <c r="CI165" s="16">
-        <v>-1.3759475630929501</v>
-      </c>
-      <c r="CJ165" s="16"/>
+        <v>-1.2488465178998069</v>
+      </c>
+      <c r="CJ165" s="16">
+        <v>18.444011419973648</v>
+      </c>
       <c r="CK165" s="16"/>
       <c r="CL165" s="16"/>
       <c r="CM165" s="16"/>
-      <c r="CN165" s="8"/>
+      <c r="CN165" s="16"/>
       <c r="CO165" s="8"/>
       <c r="CP165" s="8"/>
       <c r="CQ165" s="8"/>
@@ -39704,7 +39946,7 @@
       <c r="ET165" s="8"/>
       <c r="EU165" s="8"/>
     </row>
-    <row r="166" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>24</v>
       </c>
@@ -39964,13 +40206,15 @@
         <v>-10.420168450045679</v>
       </c>
       <c r="CI166" s="16">
-        <v>7.2551463144066872</v>
-      </c>
-      <c r="CJ166" s="16"/>
+        <v>7.1498880125255653</v>
+      </c>
+      <c r="CJ166" s="16">
+        <v>12.121432956938989</v>
+      </c>
       <c r="CK166" s="16"/>
       <c r="CL166" s="16"/>
       <c r="CM166" s="16"/>
-      <c r="CN166" s="8"/>
+      <c r="CN166" s="16"/>
       <c r="CO166" s="8"/>
       <c r="CP166" s="8"/>
       <c r="CQ166" s="8"/>
@@ -40031,7 +40275,7 @@
       <c r="ET166" s="8"/>
       <c r="EU166" s="8"/>
     </row>
-    <row r="167" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -40291,13 +40535,15 @@
         <v>29.773804247405593</v>
       </c>
       <c r="CI167" s="16">
-        <v>45.732012354064722</v>
-      </c>
-      <c r="CJ167" s="16"/>
+        <v>45.808454470377058</v>
+      </c>
+      <c r="CJ167" s="16">
+        <v>56.186077710581003</v>
+      </c>
       <c r="CK167" s="16"/>
       <c r="CL167" s="16"/>
       <c r="CM167" s="16"/>
-      <c r="CN167" s="8"/>
+      <c r="CN167" s="16"/>
       <c r="CO167" s="8"/>
       <c r="CP167" s="8"/>
       <c r="CQ167" s="8"/>
@@ -40358,7 +40604,7 @@
       <c r="ET167" s="8"/>
       <c r="EU167" s="8"/>
     </row>
-    <row r="168" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>25</v>
       </c>
@@ -40618,13 +40864,15 @@
         <v>5.7640400816454758</v>
       </c>
       <c r="CI168" s="16">
-        <v>-5.2004725567094283</v>
-      </c>
-      <c r="CJ168" s="16"/>
+        <v>-5.3839979663765689</v>
+      </c>
+      <c r="CJ168" s="16">
+        <v>-6.2650088746589461</v>
+      </c>
       <c r="CK168" s="16"/>
       <c r="CL168" s="16"/>
       <c r="CM168" s="16"/>
-      <c r="CN168" s="8"/>
+      <c r="CN168" s="16"/>
       <c r="CO168" s="8"/>
       <c r="CP168" s="8"/>
       <c r="CQ168" s="8"/>
@@ -40685,7 +40933,7 @@
       <c r="ET168" s="8"/>
       <c r="EU168" s="8"/>
     </row>
-    <row r="169" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>26</v>
       </c>
@@ -40945,13 +41193,15 @@
         <v>1.0242613950742765</v>
       </c>
       <c r="CI169" s="16">
-        <v>7.9246084990848118</v>
-      </c>
-      <c r="CJ169" s="16"/>
+        <v>7.8946006036640028</v>
+      </c>
+      <c r="CJ169" s="16">
+        <v>8.3434659229368009</v>
+      </c>
       <c r="CK169" s="16"/>
       <c r="CL169" s="16"/>
       <c r="CM169" s="16"/>
-      <c r="CN169" s="8"/>
+      <c r="CN169" s="16"/>
       <c r="CO169" s="8"/>
       <c r="CP169" s="8"/>
       <c r="CQ169" s="8"/>
@@ -41012,7 +41262,7 @@
       <c r="ET169" s="8"/>
       <c r="EU169" s="8"/>
     </row>
-    <row r="170" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>27</v>
       </c>
@@ -41272,13 +41522,15 @@
         <v>-1.2184556432591194</v>
       </c>
       <c r="CI170" s="16">
-        <v>6.709480181491827</v>
-      </c>
-      <c r="CJ170" s="16"/>
+        <v>6.1866099433810007</v>
+      </c>
+      <c r="CJ170" s="16">
+        <v>6.6182427978381355</v>
+      </c>
       <c r="CK170" s="16"/>
       <c r="CL170" s="16"/>
       <c r="CM170" s="16"/>
-      <c r="CN170" s="8"/>
+      <c r="CN170" s="16"/>
       <c r="CO170" s="8"/>
       <c r="CP170" s="8"/>
       <c r="CQ170" s="8"/>
@@ -41339,7 +41591,7 @@
       <c r="ET170" s="8"/>
       <c r="EU170" s="8"/>
     </row>
-    <row r="171" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>28</v>
       </c>
@@ -41599,13 +41851,15 @@
         <v>63.186582411510898</v>
       </c>
       <c r="CI171" s="16">
-        <v>22.179813835073432</v>
-      </c>
-      <c r="CJ171" s="16"/>
+        <v>22.273367376064471</v>
+      </c>
+      <c r="CJ171" s="16">
+        <v>17.403412924236989</v>
+      </c>
       <c r="CK171" s="16"/>
       <c r="CL171" s="16"/>
       <c r="CM171" s="16"/>
-      <c r="CN171" s="8"/>
+      <c r="CN171" s="16"/>
       <c r="CO171" s="8"/>
       <c r="CP171" s="8"/>
       <c r="CQ171" s="8"/>
@@ -41666,7 +41920,7 @@
       <c r="ET171" s="8"/>
       <c r="EU171" s="8"/>
     </row>
-    <row r="172" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>29</v>
       </c>
@@ -41926,13 +42180,15 @@
         <v>20.049054135560368</v>
       </c>
       <c r="CI172" s="16">
-        <v>46.110920301211934</v>
-      </c>
-      <c r="CJ172" s="16"/>
+        <v>46.286312042829991</v>
+      </c>
+      <c r="CJ172" s="16">
+        <v>17.455435255316232</v>
+      </c>
       <c r="CK172" s="16"/>
       <c r="CL172" s="16"/>
       <c r="CM172" s="16"/>
-      <c r="CN172" s="8"/>
+      <c r="CN172" s="16"/>
       <c r="CO172" s="8"/>
       <c r="CP172" s="8"/>
       <c r="CQ172" s="8"/>
@@ -41993,7 +42249,7 @@
       <c r="ET172" s="8"/>
       <c r="EU172" s="8"/>
     </row>
-    <row r="173" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>30</v>
       </c>
@@ -42253,13 +42509,15 @@
         <v>155.22760136646392</v>
       </c>
       <c r="CI173" s="16">
-        <v>-13.304849759533184</v>
-      </c>
-      <c r="CJ173" s="16"/>
+        <v>-13.406979526165003</v>
+      </c>
+      <c r="CJ173" s="16">
+        <v>-30.607691352974285</v>
+      </c>
       <c r="CK173" s="16"/>
       <c r="CL173" s="16"/>
       <c r="CM173" s="16"/>
-      <c r="CN173" s="8"/>
+      <c r="CN173" s="16"/>
       <c r="CO173" s="8"/>
       <c r="CP173" s="8"/>
       <c r="CQ173" s="8"/>
@@ -42320,7 +42578,7 @@
       <c r="ET173" s="8"/>
       <c r="EU173" s="8"/>
     </row>
-    <row r="174" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>31</v>
       </c>
@@ -42580,13 +42838,15 @@
         <v>-7.8918016164795972</v>
       </c>
       <c r="CI174" s="16">
-        <v>10.252751750023492</v>
-      </c>
-      <c r="CJ174" s="16"/>
+        <v>9.404486790583988</v>
+      </c>
+      <c r="CJ174" s="16">
+        <v>11.481487485999907</v>
+      </c>
       <c r="CK174" s="16"/>
       <c r="CL174" s="16"/>
       <c r="CM174" s="16"/>
-      <c r="CN174" s="8"/>
+      <c r="CN174" s="16"/>
       <c r="CO174" s="8"/>
       <c r="CP174" s="8"/>
       <c r="CQ174" s="8"/>
@@ -42647,7 +42907,7 @@
       <c r="ET174" s="8"/>
       <c r="EU174" s="8"/>
     </row>
-    <row r="175" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>32</v>
       </c>
@@ -42907,13 +43167,15 @@
         <v>43.529041162402251</v>
       </c>
       <c r="CI175" s="16">
-        <v>2.2151683397090238</v>
-      </c>
-      <c r="CJ175" s="16"/>
+        <v>2.395142550601534</v>
+      </c>
+      <c r="CJ175" s="16">
+        <v>5.2944571957890076</v>
+      </c>
       <c r="CK175" s="16"/>
       <c r="CL175" s="16"/>
       <c r="CM175" s="16"/>
-      <c r="CN175" s="8"/>
+      <c r="CN175" s="16"/>
       <c r="CO175" s="8"/>
       <c r="CP175" s="8"/>
       <c r="CQ175" s="8"/>
@@ -42974,7 +43236,7 @@
       <c r="ET175" s="8"/>
       <c r="EU175" s="8"/>
     </row>
-    <row r="176" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>33</v>
       </c>
@@ -43234,13 +43496,15 @@
         <v>-58.922312169162396</v>
       </c>
       <c r="CI176" s="16">
-        <v>8.9763984622467632</v>
-      </c>
-      <c r="CJ176" s="16"/>
+        <v>10.516159050246742</v>
+      </c>
+      <c r="CJ176" s="16">
+        <v>244.25728264143123</v>
+      </c>
       <c r="CK176" s="16"/>
       <c r="CL176" s="16"/>
       <c r="CM176" s="16"/>
-      <c r="CN176" s="8"/>
+      <c r="CN176" s="16"/>
       <c r="CO176" s="8"/>
       <c r="CP176" s="8"/>
       <c r="CQ176" s="8"/>
@@ -43301,7 +43565,7 @@
       <c r="ET176" s="8"/>
       <c r="EU176" s="8"/>
     </row>
-    <row r="177" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -43561,13 +43825,15 @@
         <v>-11.294041718879825</v>
       </c>
       <c r="CI177" s="16">
-        <v>0.12619321487686364</v>
-      </c>
-      <c r="CJ177" s="16"/>
+        <v>-0.48098909757968045</v>
+      </c>
+      <c r="CJ177" s="16">
+        <v>23.623883670872445</v>
+      </c>
       <c r="CK177" s="16"/>
       <c r="CL177" s="16"/>
       <c r="CM177" s="16"/>
-      <c r="CN177" s="8"/>
+      <c r="CN177" s="16"/>
       <c r="CO177" s="8"/>
       <c r="CP177" s="8"/>
       <c r="CQ177" s="8"/>
@@ -43628,7 +43894,7 @@
       <c r="ET177" s="8"/>
       <c r="EU177" s="8"/>
     </row>
-    <row r="178" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>35</v>
       </c>
@@ -43888,13 +44154,15 @@
         <v>-5.1567889793489314</v>
       </c>
       <c r="CI178" s="16">
-        <v>16.522822461149289</v>
-      </c>
-      <c r="CJ178" s="16"/>
+        <v>16.613932493871758</v>
+      </c>
+      <c r="CJ178" s="16">
+        <v>22.786779517742488</v>
+      </c>
       <c r="CK178" s="16"/>
       <c r="CL178" s="16"/>
       <c r="CM178" s="16"/>
-      <c r="CN178" s="8"/>
+      <c r="CN178" s="16"/>
       <c r="CO178" s="8"/>
       <c r="CP178" s="8"/>
       <c r="CQ178" s="8"/>
@@ -43955,7 +44223,7 @@
       <c r="ET178" s="8"/>
       <c r="EU178" s="8"/>
     </row>
-    <row r="179" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>36</v>
       </c>
@@ -44215,13 +44483,15 @@
         <v>-13.933518818845997</v>
       </c>
       <c r="CI179" s="16">
-        <v>-8.6576844472975694</v>
-      </c>
-      <c r="CJ179" s="16"/>
+        <v>-8.8978773371525932</v>
+      </c>
+      <c r="CJ179" s="16">
+        <v>-12.209345804527942</v>
+      </c>
       <c r="CK179" s="16"/>
       <c r="CL179" s="16"/>
       <c r="CM179" s="16"/>
-      <c r="CN179" s="8"/>
+      <c r="CN179" s="16"/>
       <c r="CO179" s="8"/>
       <c r="CP179" s="8"/>
       <c r="CQ179" s="8"/>
@@ -44282,7 +44552,7 @@
       <c r="ET179" s="8"/>
       <c r="EU179" s="8"/>
     </row>
-    <row r="180" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>37</v>
       </c>
@@ -44542,13 +44812,15 @@
         <v>18.402257283267986</v>
       </c>
       <c r="CI180" s="16">
-        <v>7.9710151354255316</v>
-      </c>
-      <c r="CJ180" s="16"/>
+        <v>7.983711558274976</v>
+      </c>
+      <c r="CJ180" s="16">
+        <v>23.193711451808127</v>
+      </c>
       <c r="CK180" s="16"/>
       <c r="CL180" s="16"/>
       <c r="CM180" s="16"/>
-      <c r="CN180" s="8"/>
+      <c r="CN180" s="16"/>
       <c r="CO180" s="8"/>
       <c r="CP180" s="8"/>
       <c r="CQ180" s="8"/>
@@ -44609,7 +44881,7 @@
       <c r="ET180" s="8"/>
       <c r="EU180" s="8"/>
     </row>
-    <row r="181" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>38</v>
       </c>
@@ -44869,13 +45141,15 @@
         <v>-9.0586900798153636</v>
       </c>
       <c r="CI181" s="16">
-        <v>11.5219758134198</v>
-      </c>
-      <c r="CJ181" s="16"/>
+        <v>11.331106397668719</v>
+      </c>
+      <c r="CJ181" s="16">
+        <v>89.183028295198454</v>
+      </c>
       <c r="CK181" s="16"/>
       <c r="CL181" s="16"/>
       <c r="CM181" s="16"/>
-      <c r="CN181" s="8"/>
+      <c r="CN181" s="16"/>
       <c r="CO181" s="8"/>
       <c r="CP181" s="8"/>
       <c r="CQ181" s="8"/>
@@ -44936,7 +45210,7 @@
       <c r="ET181" s="8"/>
       <c r="EU181" s="8"/>
     </row>
-    <row r="182" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>39</v>
       </c>
@@ -45196,13 +45470,15 @@
         <v>10.711574380262164</v>
       </c>
       <c r="CI182" s="16">
-        <v>-1.6592843553347763</v>
-      </c>
-      <c r="CJ182" s="16"/>
+        <v>-1.563979006284768</v>
+      </c>
+      <c r="CJ182" s="16">
+        <v>7.2870600337809606</v>
+      </c>
       <c r="CK182" s="16"/>
       <c r="CL182" s="16"/>
       <c r="CM182" s="16"/>
-      <c r="CN182" s="8"/>
+      <c r="CN182" s="16"/>
       <c r="CO182" s="8"/>
       <c r="CP182" s="8"/>
       <c r="CQ182" s="8"/>
@@ -45263,7 +45539,7 @@
       <c r="ET182" s="8"/>
       <c r="EU182" s="8"/>
     </row>
-    <row r="183" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
@@ -45354,7 +45630,7 @@
       <c r="CK183" s="16"/>
       <c r="CL183" s="16"/>
       <c r="CM183" s="16"/>
-      <c r="CN183" s="8"/>
+      <c r="CN183" s="16"/>
       <c r="CO183" s="8"/>
       <c r="CP183" s="8"/>
       <c r="CQ183" s="8"/>
@@ -45415,7 +45691,7 @@
       <c r="ET183" s="8"/>
       <c r="EU183" s="8"/>
     </row>
-    <row r="184" spans="1:151" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:151" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>40</v>
       </c>
@@ -45675,13 +45951,15 @@
         <v>12.266245402335159</v>
       </c>
       <c r="CI184" s="16">
-        <v>11.326384580859667</v>
-      </c>
-      <c r="CJ184" s="16"/>
+        <v>11.428686814042948</v>
+      </c>
+      <c r="CJ184" s="16">
+        <v>11.070686696054281</v>
+      </c>
       <c r="CK184" s="16"/>
       <c r="CL184" s="16"/>
       <c r="CM184" s="16"/>
-      <c r="CN184" s="8"/>
+      <c r="CN184" s="16"/>
       <c r="CO184" s="8"/>
       <c r="CP184" s="8"/>
       <c r="CQ184" s="8"/>
@@ -45742,7 +46020,7 @@
       <c r="ET184" s="8"/>
       <c r="EU184" s="8"/>
     </row>
-    <row r="185" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -45834,13 +46112,14 @@
       <c r="CK185" s="11"/>
       <c r="CL185" s="11"/>
       <c r="CM185" s="11"/>
+      <c r="CN185" s="11"/>
     </row>
-    <row r="186" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
         <v>0</v>
       </c>
@@ -45995,7 +46274,7 @@
       <c r="ET187" s="8"/>
       <c r="EU187" s="8"/>
     </row>
-    <row r="188" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -46147,159 +46426,159 @@
       <c r="ET188" s="8"/>
       <c r="EU188" s="8"/>
     </row>
-    <row r="189" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="194" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
-      <c r="B196" s="24">
+      <c r="B196" s="22">
         <v>2000</v>
       </c>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24">
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22">
         <v>2001</v>
       </c>
-      <c r="G196" s="24"/>
-      <c r="H196" s="24"/>
-      <c r="I196" s="24"/>
-      <c r="J196" s="24">
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="22"/>
+      <c r="J196" s="22">
         <v>2002</v>
       </c>
-      <c r="K196" s="24"/>
-      <c r="L196" s="24"/>
-      <c r="M196" s="24"/>
-      <c r="N196" s="24">
+      <c r="K196" s="22"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="22"/>
+      <c r="N196" s="22">
         <v>2003</v>
       </c>
-      <c r="O196" s="24"/>
-      <c r="P196" s="24"/>
-      <c r="Q196" s="24"/>
-      <c r="R196" s="24">
+      <c r="O196" s="22"/>
+      <c r="P196" s="22"/>
+      <c r="Q196" s="22"/>
+      <c r="R196" s="22">
         <v>2004</v>
       </c>
-      <c r="S196" s="24"/>
-      <c r="T196" s="24"/>
-      <c r="U196" s="24"/>
-      <c r="V196" s="24">
+      <c r="S196" s="22"/>
+      <c r="T196" s="22"/>
+      <c r="U196" s="22"/>
+      <c r="V196" s="22">
         <v>2005</v>
       </c>
-      <c r="W196" s="24"/>
-      <c r="X196" s="24"/>
-      <c r="Y196" s="24"/>
-      <c r="Z196" s="24">
+      <c r="W196" s="22"/>
+      <c r="X196" s="22"/>
+      <c r="Y196" s="22"/>
+      <c r="Z196" s="22">
         <v>2006</v>
       </c>
-      <c r="AA196" s="24"/>
-      <c r="AB196" s="24"/>
-      <c r="AC196" s="24"/>
-      <c r="AD196" s="24">
+      <c r="AA196" s="22"/>
+      <c r="AB196" s="22"/>
+      <c r="AC196" s="22"/>
+      <c r="AD196" s="22">
         <v>2007</v>
       </c>
-      <c r="AE196" s="24"/>
-      <c r="AF196" s="24"/>
-      <c r="AG196" s="24"/>
-      <c r="AH196" s="24">
+      <c r="AE196" s="22"/>
+      <c r="AF196" s="22"/>
+      <c r="AG196" s="22"/>
+      <c r="AH196" s="22">
         <v>2008</v>
       </c>
-      <c r="AI196" s="24"/>
-      <c r="AJ196" s="24"/>
-      <c r="AK196" s="24"/>
-      <c r="AL196" s="24">
+      <c r="AI196" s="22"/>
+      <c r="AJ196" s="22"/>
+      <c r="AK196" s="22"/>
+      <c r="AL196" s="22">
         <v>2009</v>
       </c>
-      <c r="AM196" s="24"/>
-      <c r="AN196" s="24"/>
-      <c r="AO196" s="24"/>
-      <c r="AP196" s="24">
+      <c r="AM196" s="22"/>
+      <c r="AN196" s="22"/>
+      <c r="AO196" s="22"/>
+      <c r="AP196" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ196" s="24"/>
-      <c r="AR196" s="24"/>
-      <c r="AS196" s="24"/>
-      <c r="AT196" s="24">
+      <c r="AQ196" s="22"/>
+      <c r="AR196" s="22"/>
+      <c r="AS196" s="22"/>
+      <c r="AT196" s="22">
         <v>2011</v>
       </c>
-      <c r="AU196" s="24"/>
-      <c r="AV196" s="24"/>
-      <c r="AW196" s="24"/>
-      <c r="AX196" s="24">
+      <c r="AU196" s="22"/>
+      <c r="AV196" s="22"/>
+      <c r="AW196" s="22"/>
+      <c r="AX196" s="22">
         <v>2012</v>
       </c>
-      <c r="AY196" s="24"/>
-      <c r="AZ196" s="24"/>
-      <c r="BA196" s="24"/>
-      <c r="BB196" s="24">
+      <c r="AY196" s="22"/>
+      <c r="AZ196" s="22"/>
+      <c r="BA196" s="22"/>
+      <c r="BB196" s="22">
         <v>2013</v>
       </c>
-      <c r="BC196" s="24"/>
-      <c r="BD196" s="24"/>
-      <c r="BE196" s="24"/>
-      <c r="BF196" s="24">
+      <c r="BC196" s="22"/>
+      <c r="BD196" s="22"/>
+      <c r="BE196" s="22"/>
+      <c r="BF196" s="22">
         <v>2014</v>
       </c>
-      <c r="BG196" s="24"/>
-      <c r="BH196" s="24"/>
-      <c r="BI196" s="24"/>
-      <c r="BJ196" s="24">
+      <c r="BG196" s="22"/>
+      <c r="BH196" s="22"/>
+      <c r="BI196" s="22"/>
+      <c r="BJ196" s="22">
         <v>2015</v>
       </c>
-      <c r="BK196" s="24"/>
-      <c r="BL196" s="24"/>
-      <c r="BM196" s="24"/>
-      <c r="BN196" s="24">
+      <c r="BK196" s="22"/>
+      <c r="BL196" s="22"/>
+      <c r="BM196" s="22"/>
+      <c r="BN196" s="22">
         <v>2016</v>
       </c>
-      <c r="BO196" s="24"/>
-      <c r="BP196" s="24"/>
-      <c r="BQ196" s="24"/>
-      <c r="BR196" s="24">
+      <c r="BO196" s="22"/>
+      <c r="BP196" s="22"/>
+      <c r="BQ196" s="22"/>
+      <c r="BR196" s="22">
         <v>2017</v>
       </c>
-      <c r="BS196" s="24"/>
-      <c r="BT196" s="24"/>
-      <c r="BU196" s="24"/>
-      <c r="BV196" s="24">
+      <c r="BS196" s="22"/>
+      <c r="BT196" s="22"/>
+      <c r="BU196" s="22"/>
+      <c r="BV196" s="22">
         <v>2018</v>
       </c>
-      <c r="BW196" s="24"/>
-      <c r="BX196" s="24"/>
-      <c r="BY196" s="24"/>
-      <c r="BZ196" s="24">
+      <c r="BW196" s="22"/>
+      <c r="BX196" s="22"/>
+      <c r="BY196" s="22"/>
+      <c r="BZ196" s="22">
         <v>2019</v>
       </c>
-      <c r="CA196" s="24"/>
-      <c r="CB196" s="24"/>
-      <c r="CC196" s="24"/>
-      <c r="CD196" s="24">
+      <c r="CA196" s="22"/>
+      <c r="CB196" s="22"/>
+      <c r="CC196" s="22"/>
+      <c r="CD196" s="22">
         <v>2020</v>
       </c>
-      <c r="CE196" s="24"/>
-      <c r="CF196" s="24"/>
-      <c r="CG196" s="24"/>
+      <c r="CE196" s="22"/>
+      <c r="CF196" s="22"/>
+      <c r="CG196" s="22"/>
       <c r="CH196" s="23">
         <v>2021</v>
       </c>
@@ -46310,8 +46589,9 @@
         <v>2022</v>
       </c>
       <c r="CM196" s="23"/>
+      <c r="CN196" s="23"/>
     </row>
-    <row r="197" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>52</v>
       </c>
@@ -46585,11 +46865,14 @@
       <c r="CM197" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="CN197" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="198" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:155" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
     </row>
-    <row r="199" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>20</v>
       </c>
@@ -46861,9 +47144,11 @@
         <v>100.69532574457337</v>
       </c>
       <c r="CM199" s="16">
-        <v>102.12281358263857</v>
-      </c>
-      <c r="CN199" s="8"/>
+        <v>102.12370888346962</v>
+      </c>
+      <c r="CN199" s="16">
+        <v>82.886924681295369</v>
+      </c>
       <c r="CO199" s="8"/>
       <c r="CP199" s="8"/>
       <c r="CQ199" s="8"/>
@@ -46928,7 +47213,7 @@
       <c r="EX199" s="8"/>
       <c r="EY199" s="8"/>
     </row>
-    <row r="200" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>11</v>
       </c>
@@ -47202,7 +47487,9 @@
       <c r="CM200" s="16">
         <v>121.35191624562141</v>
       </c>
-      <c r="CN200" s="8"/>
+      <c r="CN200" s="16">
+        <v>80.081118539953209</v>
+      </c>
       <c r="CO200" s="8"/>
       <c r="CP200" s="8"/>
       <c r="CQ200" s="8"/>
@@ -47267,7 +47554,7 @@
       <c r="EX200" s="8"/>
       <c r="EY200" s="8"/>
     </row>
-    <row r="201" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>12</v>
       </c>
@@ -47539,9 +47826,11 @@
         <v>106.54021407768485</v>
       </c>
       <c r="CM201" s="16">
-        <v>87.522129374202763</v>
-      </c>
-      <c r="CN201" s="8"/>
+        <v>87.522129374202791</v>
+      </c>
+      <c r="CN201" s="16">
+        <v>85.076891410621684</v>
+      </c>
       <c r="CO201" s="8"/>
       <c r="CP201" s="8"/>
       <c r="CQ201" s="8"/>
@@ -47606,7 +47895,7 @@
       <c r="EX201" s="8"/>
       <c r="EY201" s="8"/>
     </row>
-    <row r="202" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>13</v>
       </c>
@@ -47878,9 +48167,11 @@
         <v>133.09147298329779</v>
       </c>
       <c r="CM202" s="16">
-        <v>59.599549098168069</v>
-      </c>
-      <c r="CN202" s="8"/>
+        <v>60.108805472321173</v>
+      </c>
+      <c r="CN202" s="16">
+        <v>152.62600378037132</v>
+      </c>
       <c r="CO202" s="8"/>
       <c r="CP202" s="8"/>
       <c r="CQ202" s="8"/>
@@ -47945,7 +48236,7 @@
       <c r="EX202" s="8"/>
       <c r="EY202" s="8"/>
     </row>
-    <row r="203" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>14</v>
       </c>
@@ -48219,7 +48510,9 @@
       <c r="CM203" s="16">
         <v>81.985664857183522</v>
       </c>
-      <c r="CN203" s="8"/>
+      <c r="CN203" s="16">
+        <v>113.19480499005982</v>
+      </c>
       <c r="CO203" s="8"/>
       <c r="CP203" s="8"/>
       <c r="CQ203" s="8"/>
@@ -48284,7 +48577,7 @@
       <c r="EX203" s="8"/>
       <c r="EY203" s="8"/>
     </row>
-    <row r="204" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>15</v>
       </c>
@@ -48558,7 +48851,9 @@
       <c r="CM204" s="16">
         <v>104.40702102925505</v>
       </c>
-      <c r="CN204" s="8"/>
+      <c r="CN204" s="16">
+        <v>73.16228016128909</v>
+      </c>
       <c r="CO204" s="8"/>
       <c r="CP204" s="8"/>
       <c r="CQ204" s="8"/>
@@ -48623,7 +48918,7 @@
       <c r="EX204" s="8"/>
       <c r="EY204" s="8"/>
     </row>
-    <row r="205" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>16</v>
       </c>
@@ -48895,9 +49190,11 @@
         <v>94.253329065369513</v>
       </c>
       <c r="CM205" s="16">
-        <v>97.337666634600865</v>
-      </c>
-      <c r="CN205" s="8"/>
+        <v>97.337666634600879</v>
+      </c>
+      <c r="CN205" s="16">
+        <v>69.608132474072988</v>
+      </c>
       <c r="CO205" s="8"/>
       <c r="CP205" s="8"/>
       <c r="CQ205" s="8"/>
@@ -48962,7 +49259,7 @@
       <c r="EX205" s="8"/>
       <c r="EY205" s="8"/>
     </row>
-    <row r="206" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>17</v>
       </c>
@@ -49236,7 +49533,9 @@
       <c r="CM206" s="16">
         <v>60.957358635218526</v>
       </c>
-      <c r="CN206" s="8"/>
+      <c r="CN206" s="16">
+        <v>127.51760098404978</v>
+      </c>
       <c r="CO206" s="8"/>
       <c r="CP206" s="8"/>
       <c r="CQ206" s="8"/>
@@ -49301,7 +49600,7 @@
       <c r="EX206" s="8"/>
       <c r="EY206" s="8"/>
     </row>
-    <row r="207" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>18</v>
       </c>
@@ -49573,9 +49872,11 @@
         <v>93.518964172988532</v>
       </c>
       <c r="CM207" s="16">
-        <v>99.570465862629987</v>
-      </c>
-      <c r="CN207" s="8"/>
+        <v>99.475516865276333</v>
+      </c>
+      <c r="CN207" s="16">
+        <v>85.972169253919645</v>
+      </c>
       <c r="CO207" s="8"/>
       <c r="CP207" s="8"/>
       <c r="CQ207" s="8"/>
@@ -49640,7 +49941,7 @@
       <c r="EX207" s="8"/>
       <c r="EY207" s="8"/>
     </row>
-    <row r="208" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>19</v>
       </c>
@@ -49912,9 +50213,11 @@
         <v>126.46237382534447</v>
       </c>
       <c r="CM208" s="16">
-        <v>80.827672812241204</v>
-      </c>
-      <c r="CN208" s="8"/>
+        <v>80.896100862075386</v>
+      </c>
+      <c r="CN208" s="16">
+        <v>105.91488811397529</v>
+      </c>
       <c r="CO208" s="8"/>
       <c r="CP208" s="8"/>
       <c r="CQ208" s="8"/>
@@ -49979,7 +50282,7 @@
       <c r="EX208" s="8"/>
       <c r="EY208" s="8"/>
     </row>
-    <row r="209" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -50253,7 +50556,9 @@
       <c r="CM209" s="16">
         <v>150.40642927661125</v>
       </c>
-      <c r="CN209" s="8"/>
+      <c r="CN209" s="16">
+        <v>326.34952410022271</v>
+      </c>
       <c r="CO209" s="8"/>
       <c r="CP209" s="8"/>
       <c r="CQ209" s="8"/>
@@ -50318,7 +50623,7 @@
       <c r="EX209" s="8"/>
       <c r="EY209" s="8"/>
     </row>
-    <row r="210" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>22</v>
       </c>
@@ -50592,7 +50897,9 @@
       <c r="CM210" s="16">
         <v>109.76837015220444</v>
       </c>
-      <c r="CN210" s="8"/>
+      <c r="CN210" s="16">
+        <v>109.7398976442695</v>
+      </c>
       <c r="CO210" s="8"/>
       <c r="CP210" s="8"/>
       <c r="CQ210" s="8"/>
@@ -50657,7 +50964,7 @@
       <c r="EX210" s="8"/>
       <c r="EY210" s="8"/>
     </row>
-    <row r="211" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>23</v>
       </c>
@@ -50931,7 +51238,9 @@
       <c r="CM211" s="16">
         <v>111.26791593533763</v>
       </c>
-      <c r="CN211" s="8"/>
+      <c r="CN211" s="16">
+        <v>136.68116718797657</v>
+      </c>
       <c r="CO211" s="8"/>
       <c r="CP211" s="8"/>
       <c r="CQ211" s="8"/>
@@ -50996,7 +51305,7 @@
       <c r="EX211" s="8"/>
       <c r="EY211" s="8"/>
     </row>
-    <row r="212" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>24</v>
       </c>
@@ -51268,9 +51577,11 @@
         <v>158.7425915612119</v>
       </c>
       <c r="CM212" s="16">
-        <v>134.51509424514236</v>
-      </c>
-      <c r="CN212" s="8"/>
+        <v>134.47666293110504</v>
+      </c>
+      <c r="CN212" s="16">
+        <v>150.19690550995401</v>
+      </c>
       <c r="CO212" s="8"/>
       <c r="CP212" s="8"/>
       <c r="CQ212" s="8"/>
@@ -51335,7 +51646,7 @@
       <c r="EX212" s="8"/>
       <c r="EY212" s="8"/>
     </row>
-    <row r="213" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -51609,7 +51920,9 @@
       <c r="CM213" s="16">
         <v>83.754804781762232</v>
       </c>
-      <c r="CN213" s="8"/>
+      <c r="CN213" s="16">
+        <v>129.3070986530366</v>
+      </c>
       <c r="CO213" s="8"/>
       <c r="CP213" s="8"/>
       <c r="CQ213" s="8"/>
@@ -51674,7 +51987,7 @@
       <c r="EX213" s="8"/>
       <c r="EY213" s="8"/>
     </row>
-    <row r="214" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>25</v>
       </c>
@@ -51946,9 +52259,11 @@
         <v>58.626349847617995</v>
       </c>
       <c r="CM214" s="16">
-        <v>175.75766751607586</v>
-      </c>
-      <c r="CN214" s="8"/>
+        <v>176.2043824891299</v>
+      </c>
+      <c r="CN214" s="16">
+        <v>170.24503219975961</v>
+      </c>
       <c r="CO214" s="8"/>
       <c r="CP214" s="8"/>
       <c r="CQ214" s="8"/>
@@ -52013,7 +52328,7 @@
       <c r="EX214" s="8"/>
       <c r="EY214" s="8"/>
     </row>
-    <row r="215" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>26</v>
       </c>
@@ -52287,7 +52602,9 @@
       <c r="CM215" s="16">
         <v>116.80465295026004</v>
       </c>
-      <c r="CN215" s="8"/>
+      <c r="CN215" s="16">
+        <v>100.60970717132803</v>
+      </c>
       <c r="CO215" s="8"/>
       <c r="CP215" s="8"/>
       <c r="CQ215" s="8"/>
@@ -52352,7 +52669,7 @@
       <c r="EX215" s="8"/>
       <c r="EY215" s="8"/>
     </row>
-    <row r="216" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>27</v>
       </c>
@@ -52624,9 +52941,11 @@
         <v>136.44328247450528</v>
       </c>
       <c r="CM216" s="16">
-        <v>120.75265682685658</v>
-      </c>
-      <c r="CN216" s="8"/>
+        <v>120.91667029838511</v>
+      </c>
+      <c r="CN216" s="16">
+        <v>114.90618687543821</v>
+      </c>
       <c r="CO216" s="8"/>
       <c r="CP216" s="8"/>
       <c r="CQ216" s="8"/>
@@ -52691,7 +53010,7 @@
       <c r="EX216" s="8"/>
       <c r="EY216" s="8"/>
     </row>
-    <row r="217" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>28</v>
       </c>
@@ -52965,7 +53284,9 @@
       <c r="CM217" s="16">
         <v>238.23363877838958</v>
       </c>
-      <c r="CN217" s="8"/>
+      <c r="CN217" s="16">
+        <v>104.69022032829176</v>
+      </c>
       <c r="CO217" s="8"/>
       <c r="CP217" s="8"/>
       <c r="CQ217" s="8"/>
@@ -53030,7 +53351,7 @@
       <c r="EX217" s="8"/>
       <c r="EY217" s="8"/>
     </row>
-    <row r="218" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>29</v>
       </c>
@@ -53302,9 +53623,11 @@
         <v>116.56938353508251</v>
       </c>
       <c r="CM218" s="16">
-        <v>133.97503131134437</v>
-      </c>
-      <c r="CN218" s="8"/>
+        <v>133.81909978361787</v>
+      </c>
+      <c r="CN218" s="16">
+        <v>134.91294927809236</v>
+      </c>
       <c r="CO218" s="8"/>
       <c r="CP218" s="8"/>
       <c r="CQ218" s="8"/>
@@ -53369,7 +53692,7 @@
       <c r="EX218" s="8"/>
       <c r="EY218" s="8"/>
     </row>
-    <row r="219" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>30</v>
       </c>
@@ -53641,9 +53964,11 @@
         <v>139.437336304642</v>
       </c>
       <c r="CM219" s="16">
-        <v>73.108742293520294</v>
-      </c>
-      <c r="CN219" s="8"/>
+        <v>73.132655914917422</v>
+      </c>
+      <c r="CN219" s="16">
+        <v>95.379684882745835</v>
+      </c>
       <c r="CO219" s="8"/>
       <c r="CP219" s="8"/>
       <c r="CQ219" s="8"/>
@@ -53708,7 +54033,7 @@
       <c r="EX219" s="8"/>
       <c r="EY219" s="8"/>
     </row>
-    <row r="220" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>31</v>
       </c>
@@ -53980,9 +54305,11 @@
         <v>110.97348731002066</v>
       </c>
       <c r="CM220" s="16">
-        <v>95.251949940287062</v>
-      </c>
-      <c r="CN220" s="8"/>
+        <v>95.858816985901512</v>
+      </c>
+      <c r="CN220" s="16">
+        <v>166.02192595098705</v>
+      </c>
       <c r="CO220" s="8"/>
       <c r="CP220" s="8"/>
       <c r="CQ220" s="8"/>
@@ -54047,7 +54374,7 @@
       <c r="EX220" s="8"/>
       <c r="EY220" s="8"/>
     </row>
-    <row r="221" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>32</v>
       </c>
@@ -54319,9 +54646,11 @@
         <v>172.45766397027683</v>
       </c>
       <c r="CM221" s="16">
-        <v>195.81558239596256</v>
-      </c>
-      <c r="CN221" s="8"/>
+        <v>195.53382844894236</v>
+      </c>
+      <c r="CN221" s="16">
+        <v>120.86413340385143</v>
+      </c>
       <c r="CO221" s="8"/>
       <c r="CP221" s="8"/>
       <c r="CQ221" s="8"/>
@@ -54386,7 +54715,7 @@
       <c r="EX221" s="8"/>
       <c r="EY221" s="8"/>
     </row>
-    <row r="222" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>33</v>
       </c>
@@ -54658,9 +54987,11 @@
         <v>68.457852732766966</v>
       </c>
       <c r="CM222" s="16">
-        <v>131.26421873635019</v>
-      </c>
-      <c r="CN222" s="8"/>
+        <v>131.26421873634885</v>
+      </c>
+      <c r="CN222" s="16">
+        <v>256.49094890231356</v>
+      </c>
       <c r="CO222" s="8"/>
       <c r="CP222" s="8"/>
       <c r="CQ222" s="8"/>
@@ -54725,7 +55056,7 @@
       <c r="EX222" s="8"/>
       <c r="EY222" s="8"/>
     </row>
-    <row r="223" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>34</v>
       </c>
@@ -54997,9 +55328,11 @@
         <v>116.31822258063009</v>
       </c>
       <c r="CM223" s="16">
-        <v>301.75859235030913</v>
-      </c>
-      <c r="CN223" s="8"/>
+        <v>301.75859235030617</v>
+      </c>
+      <c r="CN223" s="16">
+        <v>145.24522902780024</v>
+      </c>
       <c r="CO223" s="8"/>
       <c r="CP223" s="8"/>
       <c r="CQ223" s="8"/>
@@ -55064,7 +55397,7 @@
       <c r="EX223" s="8"/>
       <c r="EY223" s="8"/>
     </row>
-    <row r="224" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>35</v>
       </c>
@@ -55336,9 +55669,11 @@
         <v>126.67151045296465</v>
       </c>
       <c r="CM224" s="16">
-        <v>142.318618377506</v>
-      </c>
-      <c r="CN224" s="8"/>
+        <v>142.27404202576531</v>
+      </c>
+      <c r="CN224" s="16">
+        <v>111.12445445111685</v>
+      </c>
       <c r="CO224" s="8"/>
       <c r="CP224" s="8"/>
       <c r="CQ224" s="8"/>
@@ -55403,7 +55738,7 @@
       <c r="EX224" s="8"/>
       <c r="EY224" s="8"/>
     </row>
-    <row r="225" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>36</v>
       </c>
@@ -55675,9 +56010,11 @@
         <v>89.754977994738752</v>
       </c>
       <c r="CM225" s="16">
-        <v>99.147428755019376</v>
-      </c>
-      <c r="CN225" s="8"/>
+        <v>99.318307343420344</v>
+      </c>
+      <c r="CN225" s="16">
+        <v>124.77236696962142</v>
+      </c>
       <c r="CO225" s="8"/>
       <c r="CP225" s="8"/>
       <c r="CQ225" s="8"/>
@@ -55742,7 +56079,7 @@
       <c r="EX225" s="8"/>
       <c r="EY225" s="8"/>
     </row>
-    <row r="226" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>37</v>
       </c>
@@ -56016,7 +56353,9 @@
       <c r="CM226" s="16">
         <v>69.790559984479614</v>
       </c>
-      <c r="CN226" s="8"/>
+      <c r="CN226" s="16">
+        <v>137.36969521979765</v>
+      </c>
       <c r="CO226" s="8"/>
       <c r="CP226" s="8"/>
       <c r="CQ226" s="8"/>
@@ -56081,7 +56420,7 @@
       <c r="EX226" s="8"/>
       <c r="EY226" s="8"/>
     </row>
-    <row r="227" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>38</v>
       </c>
@@ -56355,7 +56694,9 @@
       <c r="CM227" s="16">
         <v>109.08432801336278</v>
       </c>
-      <c r="CN227" s="8"/>
+      <c r="CN227" s="16">
+        <v>135.18299340918588</v>
+      </c>
       <c r="CO227" s="8"/>
       <c r="CP227" s="8"/>
       <c r="CQ227" s="8"/>
@@ -56420,7 +56761,7 @@
       <c r="EX227" s="8"/>
       <c r="EY227" s="8"/>
     </row>
-    <row r="228" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>39</v>
       </c>
@@ -56692,9 +57033,11 @@
         <v>106.08830230053574</v>
       </c>
       <c r="CM228" s="16">
-        <v>130.02109273310759</v>
-      </c>
-      <c r="CN228" s="8"/>
+        <v>130.12184506677897</v>
+      </c>
+      <c r="CN228" s="16">
+        <v>168.97785615578286</v>
+      </c>
       <c r="CO228" s="8"/>
       <c r="CP228" s="8"/>
       <c r="CQ228" s="8"/>
@@ -56759,7 +57102,7 @@
       <c r="EX228" s="8"/>
       <c r="EY228" s="8"/>
     </row>
-    <row r="229" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
@@ -56850,7 +57193,7 @@
       <c r="CK229" s="16"/>
       <c r="CL229" s="16"/>
       <c r="CM229" s="16"/>
-      <c r="CN229" s="8"/>
+      <c r="CN229" s="16"/>
       <c r="CO229" s="8"/>
       <c r="CP229" s="8"/>
       <c r="CQ229" s="8"/>
@@ -56915,7 +57258,7 @@
       <c r="EX229" s="8"/>
       <c r="EY229" s="8"/>
     </row>
-    <row r="230" spans="1:155" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:155" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>40</v>
       </c>
@@ -57187,9 +57530,11 @@
         <v>121.50535441529919</v>
       </c>
       <c r="CM230" s="16">
-        <v>122.6729594814956</v>
-      </c>
-      <c r="CN230" s="8"/>
+        <v>122.72376648227372</v>
+      </c>
+      <c r="CN230" s="16">
+        <v>140.61380914890648</v>
+      </c>
       <c r="CO230" s="8"/>
       <c r="CP230" s="8"/>
       <c r="CQ230" s="8"/>
@@ -57254,7 +57599,7 @@
       <c r="EX230" s="8"/>
       <c r="EY230" s="8"/>
     </row>
-    <row r="231" spans="1:155" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:155" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -57346,173 +57691,174 @@
       <c r="CK231" s="11"/>
       <c r="CL231" s="11"/>
       <c r="CM231" s="11"/>
+      <c r="CN231" s="11"/>
     </row>
-    <row r="232" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A233" s="17"/>
     </row>
-    <row r="235" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="239" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="241" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="24">
+      <c r="B243" s="22">
         <v>2000</v>
       </c>
-      <c r="C243" s="24"/>
-      <c r="D243" s="24"/>
-      <c r="E243" s="24"/>
-      <c r="F243" s="24">
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22">
         <v>2001</v>
       </c>
-      <c r="G243" s="24"/>
-      <c r="H243" s="24"/>
-      <c r="I243" s="24"/>
-      <c r="J243" s="24">
+      <c r="G243" s="22"/>
+      <c r="H243" s="22"/>
+      <c r="I243" s="22"/>
+      <c r="J243" s="22">
         <v>2002</v>
       </c>
-      <c r="K243" s="24"/>
-      <c r="L243" s="24"/>
-      <c r="M243" s="24"/>
-      <c r="N243" s="24">
+      <c r="K243" s="22"/>
+      <c r="L243" s="22"/>
+      <c r="M243" s="22"/>
+      <c r="N243" s="22">
         <v>2003</v>
       </c>
-      <c r="O243" s="24"/>
-      <c r="P243" s="24"/>
-      <c r="Q243" s="24"/>
-      <c r="R243" s="24">
+      <c r="O243" s="22"/>
+      <c r="P243" s="22"/>
+      <c r="Q243" s="22"/>
+      <c r="R243" s="22">
         <v>2004</v>
       </c>
-      <c r="S243" s="24"/>
-      <c r="T243" s="24"/>
-      <c r="U243" s="24"/>
-      <c r="V243" s="24">
+      <c r="S243" s="22"/>
+      <c r="T243" s="22"/>
+      <c r="U243" s="22"/>
+      <c r="V243" s="22">
         <v>2005</v>
       </c>
-      <c r="W243" s="24"/>
-      <c r="X243" s="24"/>
-      <c r="Y243" s="24"/>
-      <c r="Z243" s="24">
+      <c r="W243" s="22"/>
+      <c r="X243" s="22"/>
+      <c r="Y243" s="22"/>
+      <c r="Z243" s="22">
         <v>2006</v>
       </c>
-      <c r="AA243" s="24"/>
-      <c r="AB243" s="24"/>
-      <c r="AC243" s="24"/>
-      <c r="AD243" s="24">
+      <c r="AA243" s="22"/>
+      <c r="AB243" s="22"/>
+      <c r="AC243" s="22"/>
+      <c r="AD243" s="22">
         <v>2007</v>
       </c>
-      <c r="AE243" s="24"/>
-      <c r="AF243" s="24"/>
-      <c r="AG243" s="24"/>
-      <c r="AH243" s="24">
+      <c r="AE243" s="22"/>
+      <c r="AF243" s="22"/>
+      <c r="AG243" s="22"/>
+      <c r="AH243" s="22">
         <v>2008</v>
       </c>
-      <c r="AI243" s="24"/>
-      <c r="AJ243" s="24"/>
-      <c r="AK243" s="24"/>
-      <c r="AL243" s="24">
+      <c r="AI243" s="22"/>
+      <c r="AJ243" s="22"/>
+      <c r="AK243" s="22"/>
+      <c r="AL243" s="22">
         <v>2009</v>
       </c>
-      <c r="AM243" s="24"/>
-      <c r="AN243" s="24"/>
-      <c r="AO243" s="24"/>
-      <c r="AP243" s="24">
+      <c r="AM243" s="22"/>
+      <c r="AN243" s="22"/>
+      <c r="AO243" s="22"/>
+      <c r="AP243" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ243" s="24"/>
-      <c r="AR243" s="24"/>
-      <c r="AS243" s="24"/>
-      <c r="AT243" s="24">
+      <c r="AQ243" s="22"/>
+      <c r="AR243" s="22"/>
+      <c r="AS243" s="22"/>
+      <c r="AT243" s="22">
         <v>2011</v>
       </c>
-      <c r="AU243" s="24"/>
-      <c r="AV243" s="24"/>
-      <c r="AW243" s="24"/>
-      <c r="AX243" s="24">
+      <c r="AU243" s="22"/>
+      <c r="AV243" s="22"/>
+      <c r="AW243" s="22"/>
+      <c r="AX243" s="22">
         <v>2012</v>
       </c>
-      <c r="AY243" s="24"/>
-      <c r="AZ243" s="24"/>
-      <c r="BA243" s="24"/>
-      <c r="BB243" s="24">
+      <c r="AY243" s="22"/>
+      <c r="AZ243" s="22"/>
+      <c r="BA243" s="22"/>
+      <c r="BB243" s="22">
         <v>2013</v>
       </c>
-      <c r="BC243" s="24"/>
-      <c r="BD243" s="24"/>
-      <c r="BE243" s="24"/>
-      <c r="BF243" s="24">
+      <c r="BC243" s="22"/>
+      <c r="BD243" s="22"/>
+      <c r="BE243" s="22"/>
+      <c r="BF243" s="22">
         <v>2014</v>
       </c>
-      <c r="BG243" s="24"/>
-      <c r="BH243" s="24"/>
-      <c r="BI243" s="24"/>
-      <c r="BJ243" s="24">
+      <c r="BG243" s="22"/>
+      <c r="BH243" s="22"/>
+      <c r="BI243" s="22"/>
+      <c r="BJ243" s="22">
         <v>2015</v>
       </c>
-      <c r="BK243" s="24"/>
-      <c r="BL243" s="24"/>
-      <c r="BM243" s="24"/>
-      <c r="BN243" s="24">
+      <c r="BK243" s="22"/>
+      <c r="BL243" s="22"/>
+      <c r="BM243" s="22"/>
+      <c r="BN243" s="22">
         <v>2016</v>
       </c>
-      <c r="BO243" s="24"/>
-      <c r="BP243" s="24"/>
-      <c r="BQ243" s="24"/>
-      <c r="BR243" s="24">
+      <c r="BO243" s="22"/>
+      <c r="BP243" s="22"/>
+      <c r="BQ243" s="22"/>
+      <c r="BR243" s="22">
         <v>2017</v>
       </c>
-      <c r="BS243" s="24"/>
-      <c r="BT243" s="24"/>
-      <c r="BU243" s="24"/>
-      <c r="BV243" s="24">
+      <c r="BS243" s="22"/>
+      <c r="BT243" s="22"/>
+      <c r="BU243" s="22"/>
+      <c r="BV243" s="22">
         <v>2018</v>
       </c>
-      <c r="BW243" s="24"/>
-      <c r="BX243" s="24"/>
-      <c r="BY243" s="24"/>
-      <c r="BZ243" s="24">
+      <c r="BW243" s="22"/>
+      <c r="BX243" s="22"/>
+      <c r="BY243" s="22"/>
+      <c r="BZ243" s="22">
         <v>2019</v>
       </c>
-      <c r="CA243" s="24"/>
-      <c r="CB243" s="24"/>
-      <c r="CC243" s="24"/>
-      <c r="CD243" s="24">
+      <c r="CA243" s="22"/>
+      <c r="CB243" s="22"/>
+      <c r="CC243" s="22"/>
+      <c r="CD243" s="22">
         <v>2020</v>
       </c>
-      <c r="CE243" s="24"/>
-      <c r="CF243" s="24"/>
-      <c r="CG243" s="24"/>
+      <c r="CE243" s="22"/>
+      <c r="CF243" s="22"/>
+      <c r="CG243" s="22"/>
       <c r="CH243" s="23">
         <v>2021</v>
       </c>
@@ -57523,8 +57869,9 @@
         <v>2022</v>
       </c>
       <c r="CM243" s="23"/>
+      <c r="CN243" s="23"/>
     </row>
-    <row r="244" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>52</v>
       </c>
@@ -57798,11 +58145,14 @@
       <c r="CM244" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="CN244" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="245" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:155" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>20</v>
       </c>
@@ -58074,9 +58424,11 @@
         <v>16.093657585280528</v>
       </c>
       <c r="CM246" s="16">
-        <v>17.263306888865603</v>
-      </c>
-      <c r="CN246" s="8"/>
+        <v>17.245868501276444</v>
+      </c>
+      <c r="CN246" s="16">
+        <v>15.280358929260348</v>
+      </c>
       <c r="CO246" s="8"/>
       <c r="CP246" s="8"/>
       <c r="CQ246" s="8"/>
@@ -58141,7 +58493,7 @@
       <c r="EX246" s="8"/>
       <c r="EY246" s="8"/>
     </row>
-    <row r="247" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>11</v>
       </c>
@@ -58413,9 +58765,11 @@
         <v>8.6322354449383152</v>
       </c>
       <c r="CM247" s="16">
-        <v>9.4045577758011749</v>
-      </c>
-      <c r="CN247" s="8"/>
+        <v>9.3889739245927437</v>
+      </c>
+      <c r="CN247" s="16">
+        <v>8.630842833785211</v>
+      </c>
       <c r="CO247" s="8"/>
       <c r="CP247" s="8"/>
       <c r="CQ247" s="8"/>
@@ -58480,7 +58834,7 @@
       <c r="EX247" s="8"/>
       <c r="EY247" s="8"/>
     </row>
-    <row r="248" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>12</v>
       </c>
@@ -58752,9 +59106,11 @@
         <v>3.0378062569221926</v>
       </c>
       <c r="CM248" s="16">
-        <v>3.2748709777492988</v>
-      </c>
-      <c r="CN248" s="8"/>
+        <v>3.2687571672153908</v>
+      </c>
+      <c r="CN248" s="16">
+        <v>2.6615257479285832</v>
+      </c>
       <c r="CO248" s="8"/>
       <c r="CP248" s="8"/>
       <c r="CQ248" s="8"/>
@@ -58819,7 +59175,7 @@
       <c r="EX248" s="8"/>
       <c r="EY248" s="8"/>
     </row>
-    <row r="249" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>13</v>
       </c>
@@ -59091,9 +59447,11 @@
         <v>0.1026675184010051</v>
       </c>
       <c r="CM249" s="16">
-        <v>0.14954874421570824</v>
-      </c>
-      <c r="CN249" s="8"/>
+        <v>0.14833162646225959</v>
+      </c>
+      <c r="CN249" s="16">
+        <v>0.11584150526685263</v>
+      </c>
       <c r="CO249" s="8"/>
       <c r="CP249" s="8"/>
       <c r="CQ249" s="8"/>
@@ -59158,7 +59516,7 @@
       <c r="EX249" s="8"/>
       <c r="EY249" s="8"/>
     </row>
-    <row r="250" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>14</v>
       </c>
@@ -59430,9 +59788,11 @@
         <v>0.73394265553987248</v>
       </c>
       <c r="CM250" s="16">
-        <v>1.0358484895059188</v>
-      </c>
-      <c r="CN250" s="8"/>
+        <v>1.0355639547336526</v>
+      </c>
+      <c r="CN250" s="16">
+        <v>0.91255674237929674</v>
+      </c>
       <c r="CO250" s="8"/>
       <c r="CP250" s="8"/>
       <c r="CQ250" s="8"/>
@@ -59497,7 +59857,7 @@
       <c r="EX250" s="8"/>
       <c r="EY250" s="8"/>
     </row>
-    <row r="251" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>15</v>
       </c>
@@ -59769,9 +60129,11 @@
         <v>1.4397830132228546</v>
       </c>
       <c r="CM251" s="16">
-        <v>1.3631480293239053</v>
-      </c>
-      <c r="CN251" s="8"/>
+        <v>1.3620977324207419</v>
+      </c>
+      <c r="CN251" s="16">
+        <v>1.0705837265948774</v>
+      </c>
       <c r="CO251" s="8"/>
       <c r="CP251" s="8"/>
       <c r="CQ251" s="8"/>
@@ -59836,7 +60198,7 @@
       <c r="EX251" s="8"/>
       <c r="EY251" s="8"/>
     </row>
-    <row r="252" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>16</v>
       </c>
@@ -60108,9 +60470,11 @@
         <v>1.1823501342248532</v>
       </c>
       <c r="CM252" s="16">
-        <v>1.020499054403083</v>
-      </c>
-      <c r="CN252" s="8"/>
+        <v>1.0256257893716727</v>
+      </c>
+      <c r="CN252" s="16">
+        <v>0.96697821410061391</v>
+      </c>
       <c r="CO252" s="8"/>
       <c r="CP252" s="8"/>
       <c r="CQ252" s="8"/>
@@ -60175,7 +60539,7 @@
       <c r="EX252" s="8"/>
       <c r="EY252" s="8"/>
     </row>
-    <row r="253" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>17</v>
       </c>
@@ -60447,9 +60811,11 @@
         <v>0.75895605972969471</v>
       </c>
       <c r="CM253" s="16">
-        <v>0.81206076339668321</v>
-      </c>
-      <c r="CN253" s="8"/>
+        <v>0.8136528582755973</v>
+      </c>
+      <c r="CN253" s="16">
+        <v>0.70810650159736344</v>
+      </c>
       <c r="CO253" s="8"/>
       <c r="CP253" s="8"/>
       <c r="CQ253" s="8"/>
@@ -60514,7 +60880,7 @@
       <c r="EX253" s="8"/>
       <c r="EY253" s="8"/>
     </row>
-    <row r="254" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>18</v>
       </c>
@@ -60786,9 +61152,11 @@
         <v>0.17470145266740358</v>
       </c>
       <c r="CM254" s="16">
-        <v>0.16562679314234149</v>
-      </c>
-      <c r="CN254" s="8"/>
+        <v>0.16565177975518586</v>
+      </c>
+      <c r="CN254" s="16">
+        <v>0.17054020669787501</v>
+      </c>
       <c r="CO254" s="8"/>
       <c r="CP254" s="8"/>
       <c r="CQ254" s="8"/>
@@ -60853,7 +61221,7 @@
       <c r="EX254" s="8"/>
       <c r="EY254" s="8"/>
     </row>
-    <row r="255" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>19</v>
       </c>
@@ -61125,9 +61493,11 @@
         <v>3.1215049634340949E-2</v>
       </c>
       <c r="CM255" s="16">
-        <v>3.7146261327492318E-2</v>
-      </c>
-      <c r="CN255" s="8"/>
+        <v>3.721366844919631E-2</v>
+      </c>
+      <c r="CN255" s="16">
+        <v>4.3383450909670218E-2</v>
+      </c>
       <c r="CO255" s="8"/>
       <c r="CP255" s="8"/>
       <c r="CQ255" s="8"/>
@@ -61192,7 +61562,7 @@
       <c r="EX255" s="8"/>
       <c r="EY255" s="8"/>
     </row>
-    <row r="256" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -61464,9 +61834,11 @@
         <v>16.191517290641979</v>
       </c>
       <c r="CM256" s="16">
-        <v>24.421255792605784</v>
-      </c>
-      <c r="CN256" s="8"/>
+        <v>24.495740539751846</v>
+      </c>
+      <c r="CN256" s="16">
+        <v>20.060790542670681</v>
+      </c>
       <c r="CO256" s="8"/>
       <c r="CP256" s="8"/>
       <c r="CQ256" s="8"/>
@@ -61531,7 +61903,7 @@
       <c r="EX256" s="8"/>
       <c r="EY256" s="8"/>
     </row>
-    <row r="257" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>22</v>
       </c>
@@ -61803,9 +62175,11 @@
         <v>4.4185043777368191</v>
       </c>
       <c r="CM257" s="16">
-        <v>4.3390495657558175</v>
-      </c>
-      <c r="CN257" s="8"/>
+        <v>4.3500308977618101</v>
+      </c>
+      <c r="CN257" s="16">
+        <v>4.1175137568438505</v>
+      </c>
       <c r="CO257" s="8"/>
       <c r="CP257" s="8"/>
       <c r="CQ257" s="8"/>
@@ -61870,7 +62244,7 @@
       <c r="EX257" s="8"/>
       <c r="EY257" s="8"/>
     </row>
-    <row r="258" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>23</v>
       </c>
@@ -62142,9 +62516,11 @@
         <v>0.74421295864970949</v>
       </c>
       <c r="CM258" s="16">
-        <v>0.72956811767487129</v>
-      </c>
-      <c r="CN258" s="8"/>
+        <v>0.72953551759602331</v>
+      </c>
+      <c r="CN258" s="16">
+        <v>0.89777893878688153</v>
+      </c>
       <c r="CO258" s="8"/>
       <c r="CP258" s="8"/>
       <c r="CQ258" s="8"/>
@@ -62209,7 +62585,7 @@
       <c r="EX258" s="8"/>
       <c r="EY258" s="8"/>
     </row>
-    <row r="259" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>24</v>
       </c>
@@ -62481,9 +62857,11 @@
         <v>4.4509164828458463</v>
       </c>
       <c r="CM259" s="16">
-        <v>6.1048037639566672</v>
-      </c>
-      <c r="CN259" s="8"/>
+        <v>6.0889506371782884</v>
+      </c>
+      <c r="CN259" s="16">
+        <v>5.9591934504384794</v>
+      </c>
       <c r="CO259" s="8"/>
       <c r="CP259" s="8"/>
       <c r="CQ259" s="8"/>
@@ -62548,7 +62926,7 @@
       <c r="EX259" s="8"/>
       <c r="EY259" s="8"/>
     </row>
-    <row r="260" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>10</v>
       </c>
@@ -62820,9 +63198,11 @@
         <v>13.470783730152569</v>
       </c>
       <c r="CM260" s="16">
-        <v>6.9464296939313677</v>
-      </c>
-      <c r="CN260" s="8"/>
+        <v>6.9408178796157998</v>
+      </c>
+      <c r="CN260" s="16">
+        <v>6.3535782980478182</v>
+      </c>
       <c r="CO260" s="8"/>
       <c r="CP260" s="8"/>
       <c r="CQ260" s="8"/>
@@ -62887,7 +63267,7 @@
       <c r="EX260" s="8"/>
       <c r="EY260" s="8"/>
     </row>
-    <row r="261" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>25</v>
       </c>
@@ -63159,9 +63539,11 @@
         <v>1.1445358555479357</v>
       </c>
       <c r="CM261" s="16">
-        <v>0.94513110205632445</v>
-      </c>
-      <c r="CN261" s="8"/>
+        <v>0.94443954003999764</v>
+      </c>
+      <c r="CN261" s="16">
+        <v>0.77298967885673309</v>
+      </c>
       <c r="CO261" s="8"/>
       <c r="CP261" s="8"/>
       <c r="CQ261" s="8"/>
@@ -63226,7 +63608,7 @@
       <c r="EX261" s="8"/>
       <c r="EY261" s="8"/>
     </row>
-    <row r="262" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>26</v>
       </c>
@@ -63498,9 +63880,11 @@
         <v>2.7426286637228325</v>
       </c>
       <c r="CM262" s="16">
-        <v>2.2692194234688641</v>
-      </c>
-      <c r="CN262" s="8"/>
+        <v>2.2655673747993506</v>
+      </c>
+      <c r="CN262" s="16">
+        <v>2.3327414123847938</v>
+      </c>
       <c r="CO262" s="8"/>
       <c r="CP262" s="8"/>
       <c r="CQ262" s="8"/>
@@ -63565,7 +63949,7 @@
       <c r="EX262" s="8"/>
       <c r="EY262" s="8"/>
     </row>
-    <row r="263" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>27</v>
       </c>
@@ -63837,9 +64221,11 @@
         <v>4.3679604328447974</v>
       </c>
       <c r="CM263" s="16">
-        <v>4.8468503874072786</v>
-      </c>
-      <c r="CN263" s="8"/>
+        <v>4.8232204272818713</v>
+      </c>
+      <c r="CN263" s="16">
+        <v>4.5842512729409872</v>
+      </c>
       <c r="CO263" s="8"/>
       <c r="CP263" s="8"/>
       <c r="CQ263" s="8"/>
@@ -63904,7 +64290,7 @@
       <c r="EX263" s="8"/>
       <c r="EY263" s="8"/>
     </row>
-    <row r="264" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>28</v>
       </c>
@@ -64176,9 +64562,11 @@
         <v>2.427273072561611</v>
       </c>
       <c r="CM264" s="16">
-        <v>2.4233121485163012</v>
-      </c>
-      <c r="CN264" s="8"/>
+        <v>2.4219380658867684</v>
+      </c>
+      <c r="CN264" s="16">
+        <v>2.566187927330815</v>
+      </c>
       <c r="CO264" s="8"/>
       <c r="CP264" s="8"/>
       <c r="CQ264" s="8"/>
@@ -64243,7 +64631,7 @@
       <c r="EX264" s="8"/>
       <c r="EY264" s="8"/>
     </row>
-    <row r="265" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>29</v>
       </c>
@@ -64515,9 +64903,11 @@
         <v>1.1153971467432857</v>
       </c>
       <c r="CM265" s="16">
-        <v>1.1886796873290879</v>
-      </c>
-      <c r="CN265" s="8"/>
+        <v>1.1871383997327256</v>
+      </c>
+      <c r="CN265" s="16">
+        <v>1.0669924835332107</v>
+      </c>
       <c r="CO265" s="8"/>
       <c r="CP265" s="8"/>
       <c r="CQ265" s="8"/>
@@ -64582,7 +64972,7 @@
       <c r="EX265" s="8"/>
       <c r="EY265" s="8"/>
     </row>
-    <row r="266" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>30</v>
       </c>
@@ -64854,9 +65244,11 @@
         <v>3.9862629142224701</v>
       </c>
       <c r="CM266" s="16">
-        <v>1.1884864080800694</v>
-      </c>
-      <c r="CN266" s="8"/>
+        <v>1.1858932508334468</v>
+      </c>
+      <c r="CN266" s="16">
+        <v>1.417365587799823</v>
+      </c>
       <c r="CO266" s="8"/>
       <c r="CP266" s="8"/>
       <c r="CQ266" s="8"/>
@@ -64921,7 +65313,7 @@
       <c r="EX266" s="8"/>
       <c r="EY266" s="8"/>
     </row>
-    <row r="267" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>31</v>
       </c>
@@ -65193,9 +65585,11 @@
         <v>0.95673730242915</v>
       </c>
       <c r="CM267" s="16">
-        <v>1.0280954662386754</v>
-      </c>
-      <c r="CN267" s="8"/>
+        <v>1.0253180181873054</v>
+      </c>
+      <c r="CN267" s="16">
+        <v>0.89980767211072354</v>
+      </c>
       <c r="CO267" s="8"/>
       <c r="CP267" s="8"/>
       <c r="CQ267" s="8"/>
@@ -65260,7 +65654,7 @@
       <c r="EX267" s="8"/>
       <c r="EY267" s="8"/>
     </row>
-    <row r="268" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>32</v>
       </c>
@@ -65532,9 +65926,11 @@
         <v>1.5679537725910582</v>
       </c>
       <c r="CM268" s="16">
-        <v>1.6718996108456441</v>
-      </c>
-      <c r="CN268" s="8"/>
+        <v>1.6702063031217618</v>
+      </c>
+      <c r="CN268" s="16">
+        <v>1.186761667218996</v>
+      </c>
       <c r="CO268" s="8"/>
       <c r="CP268" s="8"/>
       <c r="CQ268" s="8"/>
@@ -65599,7 +65995,7 @@
       <c r="EX268" s="8"/>
       <c r="EY268" s="8"/>
     </row>
-    <row r="269" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>33</v>
       </c>
@@ -65871,9 +66267,11 @@
         <v>9.5023420014489324E-2</v>
       </c>
       <c r="CM269" s="16">
-        <v>0.10347374650289305</v>
-      </c>
-      <c r="CN269" s="8"/>
+        <v>0.10479601437749519</v>
+      </c>
+      <c r="CN269" s="16">
+        <v>1.0648013793375961</v>
+      </c>
       <c r="CO269" s="8"/>
       <c r="CP269" s="8"/>
       <c r="CQ269" s="8"/>
@@ -65938,7 +66336,7 @@
       <c r="EX269" s="8"/>
       <c r="EY269" s="8"/>
     </row>
-    <row r="270" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>34</v>
       </c>
@@ -66210,9 +66608,11 @@
         <v>1.7534871983529681</v>
       </c>
       <c r="CM270" s="16">
-        <v>1.5631352734618569</v>
-      </c>
-      <c r="CN270" s="8"/>
+        <v>1.5515871340045371</v>
+      </c>
+      <c r="CN270" s="16">
+        <v>1.6004052973519522</v>
+      </c>
       <c r="CO270" s="8"/>
       <c r="CP270" s="8"/>
       <c r="CQ270" s="8"/>
@@ -66277,7 +66677,7 @@
       <c r="EX270" s="8"/>
       <c r="EY270" s="8"/>
     </row>
-    <row r="271" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>35</v>
       </c>
@@ -66549,9 +66949,11 @@
         <v>2.2484358157933224</v>
       </c>
       <c r="CM271" s="16">
-        <v>2.1718097641555496</v>
-      </c>
-      <c r="CN271" s="8"/>
+        <v>2.1699335649455525</v>
+      </c>
+      <c r="CN271" s="16">
+        <v>2.0549005469897454</v>
+      </c>
       <c r="CO271" s="8"/>
       <c r="CP271" s="8"/>
       <c r="CQ271" s="8"/>
@@ -66616,7 +67018,7 @@
       <c r="EX271" s="8"/>
       <c r="EY271" s="8"/>
     </row>
-    <row r="272" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>36</v>
       </c>
@@ -66888,9 +67290,11 @@
         <v>0.79361084875925847</v>
       </c>
       <c r="CM272" s="16">
-        <v>0.80679534878417059</v>
-      </c>
-      <c r="CN272" s="8"/>
+        <v>0.80498720678599756</v>
+      </c>
+      <c r="CN272" s="16">
+        <v>0.89487574144424054</v>
+      </c>
       <c r="CO272" s="8"/>
       <c r="CP272" s="8"/>
       <c r="CQ272" s="8"/>
@@ -66955,7 +67359,7 @@
       <c r="EX272" s="8"/>
       <c r="EY272" s="8"/>
     </row>
-    <row r="273" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>37</v>
       </c>
@@ -67227,9 +67631,11 @@
         <v>1.1047280142881541</v>
       </c>
       <c r="CM273" s="16">
-        <v>0.91684839832430898</v>
-      </c>
-      <c r="CN273" s="8"/>
+        <v>0.91573509105159945</v>
+      </c>
+      <c r="CN273" s="16">
+        <v>1.0826124709238583</v>
+      </c>
       <c r="CO273" s="8"/>
       <c r="CP273" s="8"/>
       <c r="CQ273" s="8"/>
@@ -67294,7 +67700,7 @@
       <c r="EX273" s="8"/>
       <c r="EY273" s="8"/>
     </row>
-    <row r="274" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>38</v>
       </c>
@@ -67566,9 +67972,11 @@
         <v>0.38044686513173964</v>
       </c>
       <c r="CM274" s="16">
-        <v>0.40195236278652818</v>
-      </c>
-      <c r="CN274" s="8"/>
+        <v>0.40073005478954321</v>
+      </c>
+      <c r="CN274" s="16">
+        <v>0.58749073596352164</v>
+      </c>
       <c r="CO274" s="8"/>
       <c r="CP274" s="8"/>
       <c r="CQ274" s="8"/>
@@ -67633,7 +68041,7 @@
       <c r="EX274" s="8"/>
       <c r="EY274" s="8"/>
     </row>
-    <row r="275" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>39</v>
       </c>
@@ -67905,9 +68313,11 @@
         <v>19.945926251689492</v>
       </c>
       <c r="CM275" s="16">
-        <v>18.669897049252342</v>
-      </c>
-      <c r="CN275" s="8"/>
+        <v>18.677565580981835</v>
+      </c>
+      <c r="CN275" s="16">
+        <v>25.218602209764935</v>
+      </c>
       <c r="CO275" s="8"/>
       <c r="CP275" s="8"/>
       <c r="CQ275" s="8"/>
@@ -67972,7 +68382,7 @@
       <c r="EX275" s="8"/>
       <c r="EY275" s="8"/>
     </row>
-    <row r="276" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
@@ -68128,7 +68538,7 @@
       <c r="EX276" s="8"/>
       <c r="EY276" s="8"/>
     </row>
-    <row r="277" spans="1:155" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:155" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>40</v>
       </c>
@@ -68402,7 +68812,9 @@
       <c r="CM277" s="16">
         <v>100</v>
       </c>
-      <c r="CN277" s="8"/>
+      <c r="CN277" s="16">
+        <v>100</v>
+      </c>
       <c r="CO277" s="8"/>
       <c r="CP277" s="8"/>
       <c r="CQ277" s="8"/>
@@ -68467,7 +68879,7 @@
       <c r="EX277" s="8"/>
       <c r="EY277" s="8"/>
     </row>
-    <row r="278" spans="1:155" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:155" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -68559,13 +68971,14 @@
       <c r="CK278" s="11"/>
       <c r="CL278" s="11"/>
       <c r="CM278" s="11"/>
+      <c r="CN278" s="11"/>
     </row>
-    <row r="279" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -68721,7 +69134,7 @@
       <c r="EX280" s="8"/>
       <c r="EY280" s="8"/>
     </row>
-    <row r="281" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
@@ -68877,164 +69290,164 @@
       <c r="EX281" s="8"/>
       <c r="EY281" s="8"/>
     </row>
-    <row r="282" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="286" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="288" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
-      <c r="B290" s="24">
+      <c r="B290" s="22">
         <v>2000</v>
       </c>
-      <c r="C290" s="24"/>
-      <c r="D290" s="24"/>
-      <c r="E290" s="24"/>
-      <c r="F290" s="24">
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22">
         <v>2001</v>
       </c>
-      <c r="G290" s="24"/>
-      <c r="H290" s="24"/>
-      <c r="I290" s="24"/>
-      <c r="J290" s="24">
+      <c r="G290" s="22"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="22"/>
+      <c r="J290" s="22">
         <v>2002</v>
       </c>
-      <c r="K290" s="24"/>
-      <c r="L290" s="24"/>
-      <c r="M290" s="24"/>
-      <c r="N290" s="24">
+      <c r="K290" s="22"/>
+      <c r="L290" s="22"/>
+      <c r="M290" s="22"/>
+      <c r="N290" s="22">
         <v>2003</v>
       </c>
-      <c r="O290" s="24"/>
-      <c r="P290" s="24"/>
-      <c r="Q290" s="24"/>
-      <c r="R290" s="24">
+      <c r="O290" s="22"/>
+      <c r="P290" s="22"/>
+      <c r="Q290" s="22"/>
+      <c r="R290" s="22">
         <v>2004</v>
       </c>
-      <c r="S290" s="24"/>
-      <c r="T290" s="24"/>
-      <c r="U290" s="24"/>
-      <c r="V290" s="24">
+      <c r="S290" s="22"/>
+      <c r="T290" s="22"/>
+      <c r="U290" s="22"/>
+      <c r="V290" s="22">
         <v>2005</v>
       </c>
-      <c r="W290" s="24"/>
-      <c r="X290" s="24"/>
-      <c r="Y290" s="24"/>
-      <c r="Z290" s="24">
+      <c r="W290" s="22"/>
+      <c r="X290" s="22"/>
+      <c r="Y290" s="22"/>
+      <c r="Z290" s="22">
         <v>2006</v>
       </c>
-      <c r="AA290" s="24"/>
-      <c r="AB290" s="24"/>
-      <c r="AC290" s="24"/>
-      <c r="AD290" s="24">
+      <c r="AA290" s="22"/>
+      <c r="AB290" s="22"/>
+      <c r="AC290" s="22"/>
+      <c r="AD290" s="22">
         <v>2007</v>
       </c>
-      <c r="AE290" s="24"/>
-      <c r="AF290" s="24"/>
-      <c r="AG290" s="24"/>
-      <c r="AH290" s="24">
+      <c r="AE290" s="22"/>
+      <c r="AF290" s="22"/>
+      <c r="AG290" s="22"/>
+      <c r="AH290" s="22">
         <v>2008</v>
       </c>
-      <c r="AI290" s="24"/>
-      <c r="AJ290" s="24"/>
-      <c r="AK290" s="24"/>
-      <c r="AL290" s="24">
+      <c r="AI290" s="22"/>
+      <c r="AJ290" s="22"/>
+      <c r="AK290" s="22"/>
+      <c r="AL290" s="22">
         <v>2009</v>
       </c>
-      <c r="AM290" s="24"/>
-      <c r="AN290" s="24"/>
-      <c r="AO290" s="24"/>
-      <c r="AP290" s="24">
+      <c r="AM290" s="22"/>
+      <c r="AN290" s="22"/>
+      <c r="AO290" s="22"/>
+      <c r="AP290" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ290" s="24"/>
-      <c r="AR290" s="24"/>
-      <c r="AS290" s="24"/>
-      <c r="AT290" s="24">
+      <c r="AQ290" s="22"/>
+      <c r="AR290" s="22"/>
+      <c r="AS290" s="22"/>
+      <c r="AT290" s="22">
         <v>2011</v>
       </c>
-      <c r="AU290" s="24"/>
-      <c r="AV290" s="24"/>
-      <c r="AW290" s="24"/>
-      <c r="AX290" s="24">
+      <c r="AU290" s="22"/>
+      <c r="AV290" s="22"/>
+      <c r="AW290" s="22"/>
+      <c r="AX290" s="22">
         <v>2012</v>
       </c>
-      <c r="AY290" s="24"/>
-      <c r="AZ290" s="24"/>
-      <c r="BA290" s="24"/>
-      <c r="BB290" s="24">
+      <c r="AY290" s="22"/>
+      <c r="AZ290" s="22"/>
+      <c r="BA290" s="22"/>
+      <c r="BB290" s="22">
         <v>2013</v>
       </c>
-      <c r="BC290" s="24"/>
-      <c r="BD290" s="24"/>
-      <c r="BE290" s="24"/>
-      <c r="BF290" s="24">
+      <c r="BC290" s="22"/>
+      <c r="BD290" s="22"/>
+      <c r="BE290" s="22"/>
+      <c r="BF290" s="22">
         <v>2014</v>
       </c>
-      <c r="BG290" s="24"/>
-      <c r="BH290" s="24"/>
-      <c r="BI290" s="24"/>
-      <c r="BJ290" s="24">
+      <c r="BG290" s="22"/>
+      <c r="BH290" s="22"/>
+      <c r="BI290" s="22"/>
+      <c r="BJ290" s="22">
         <v>2015</v>
       </c>
-      <c r="BK290" s="24"/>
-      <c r="BL290" s="24"/>
-      <c r="BM290" s="24"/>
-      <c r="BN290" s="24">
+      <c r="BK290" s="22"/>
+      <c r="BL290" s="22"/>
+      <c r="BM290" s="22"/>
+      <c r="BN290" s="22">
         <v>2016</v>
       </c>
-      <c r="BO290" s="24"/>
-      <c r="BP290" s="24"/>
-      <c r="BQ290" s="24"/>
-      <c r="BR290" s="24">
+      <c r="BO290" s="22"/>
+      <c r="BP290" s="22"/>
+      <c r="BQ290" s="22"/>
+      <c r="BR290" s="22">
         <v>2017</v>
       </c>
-      <c r="BS290" s="24"/>
-      <c r="BT290" s="24"/>
-      <c r="BU290" s="24"/>
-      <c r="BV290" s="24">
+      <c r="BS290" s="22"/>
+      <c r="BT290" s="22"/>
+      <c r="BU290" s="22"/>
+      <c r="BV290" s="22">
         <v>2018</v>
       </c>
-      <c r="BW290" s="24"/>
-      <c r="BX290" s="24"/>
-      <c r="BY290" s="24"/>
-      <c r="BZ290" s="24">
+      <c r="BW290" s="22"/>
+      <c r="BX290" s="22"/>
+      <c r="BY290" s="22"/>
+      <c r="BZ290" s="22">
         <v>2019</v>
       </c>
-      <c r="CA290" s="24"/>
-      <c r="CB290" s="24"/>
-      <c r="CC290" s="24"/>
-      <c r="CD290" s="24">
+      <c r="CA290" s="22"/>
+      <c r="CB290" s="22"/>
+      <c r="CC290" s="22"/>
+      <c r="CD290" s="22">
         <v>2020</v>
       </c>
-      <c r="CE290" s="24"/>
-      <c r="CF290" s="24"/>
-      <c r="CG290" s="24"/>
+      <c r="CE290" s="22"/>
+      <c r="CF290" s="22"/>
+      <c r="CG290" s="22"/>
       <c r="CH290" s="23">
         <v>2021</v>
       </c>
@@ -69045,8 +69458,9 @@
         <v>2022</v>
       </c>
       <c r="CM290" s="23"/>
+      <c r="CN290" s="23"/>
     </row>
-    <row r="291" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>52</v>
       </c>
@@ -69320,11 +69734,14 @@
       <c r="CM291" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="CN291" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="292" spans="1:155" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:155" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
     </row>
-    <row r="293" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>20</v>
       </c>
@@ -69596,9 +70013,11 @@
         <v>19.419626028106499</v>
       </c>
       <c r="CM293" s="16">
-        <v>20.73719742142378</v>
-      </c>
-      <c r="CN293" s="8"/>
+        <v>20.724648192612172</v>
+      </c>
+      <c r="CN293" s="16">
+        <v>25.922417588388015</v>
+      </c>
       <c r="CO293" s="8"/>
       <c r="CP293" s="8"/>
       <c r="CQ293" s="8"/>
@@ -69663,7 +70082,7 @@
       <c r="EX293" s="8"/>
       <c r="EY293" s="8"/>
     </row>
-    <row r="294" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>11</v>
       </c>
@@ -69935,9 +70354,11 @@
         <v>11.488819610882899</v>
       </c>
       <c r="CM294" s="16">
-        <v>9.5069362780982747</v>
-      </c>
-      <c r="CN294" s="8"/>
+        <v>9.4951137079506331</v>
+      </c>
+      <c r="CN294" s="16">
+        <v>15.154829367406961</v>
+      </c>
       <c r="CO294" s="8"/>
       <c r="CP294" s="8"/>
       <c r="CQ294" s="8"/>
@@ -70002,7 +70423,7 @@
       <c r="EX294" s="8"/>
       <c r="EY294" s="8"/>
     </row>
-    <row r="295" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>12</v>
       </c>
@@ -70274,9 +70695,11 @@
         <v>3.4645108336576502</v>
       </c>
       <c r="CM295" s="16">
-        <v>4.5901318630277554</v>
-      </c>
-      <c r="CN295" s="8"/>
+        <v>4.5834601391090084</v>
+      </c>
+      <c r="CN295" s="16">
+        <v>4.3989298075999796</v>
+      </c>
       <c r="CO295" s="8"/>
       <c r="CP295" s="8"/>
       <c r="CQ295" s="8"/>
@@ -70341,7 +70764,7 @@
       <c r="EX295" s="8"/>
       <c r="EY295" s="8"/>
     </row>
-    <row r="296" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>13</v>
       </c>
@@ -70613,9 +71036,11 @@
         <v>9.3729920712643036E-2</v>
       </c>
       <c r="CM296" s="16">
-        <v>0.30781419184001879</v>
-      </c>
-      <c r="CN296" s="8"/>
+        <v>0.30284773994174063</v>
+      </c>
+      <c r="CN296" s="16">
+        <v>0.10672437795432943</v>
+      </c>
       <c r="CO296" s="8"/>
       <c r="CP296" s="8"/>
       <c r="CQ296" s="8"/>
@@ -70680,7 +71105,7 @@
       <c r="EX296" s="8"/>
       <c r="EY296" s="8"/>
     </row>
-    <row r="297" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
         <v>14</v>
       </c>
@@ -70952,9 +71377,11 @@
         <v>0.88250133991905411</v>
       </c>
       <c r="CM297" s="16">
-        <v>1.5499124146090786</v>
-      </c>
-      <c r="CN297" s="8"/>
+        <v>1.5501284179322878</v>
+      </c>
+      <c r="CN297" s="16">
+        <v>1.1336039637308311</v>
+      </c>
       <c r="CO297" s="8"/>
       <c r="CP297" s="8"/>
       <c r="CQ297" s="8"/>
@@ -71019,7 +71446,7 @@
       <c r="EX297" s="8"/>
       <c r="EY297" s="8"/>
     </row>
-    <row r="298" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>15</v>
       </c>
@@ -71291,9 +71718,11 @@
         <v>1.1607845659447502</v>
       </c>
       <c r="CM298" s="16">
-        <v>1.6016298647355931</v>
-      </c>
-      <c r="CN298" s="8"/>
+        <v>1.6010586490423726</v>
+      </c>
+      <c r="CN298" s="16">
+        <v>2.057602024943296</v>
+      </c>
       <c r="CO298" s="8"/>
       <c r="CP298" s="8"/>
       <c r="CQ298" s="8"/>
@@ -71358,7 +71787,7 @@
       <c r="EX298" s="8"/>
       <c r="EY298" s="8"/>
     </row>
-    <row r="299" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>16</v>
       </c>
@@ -71630,9 +72059,11 @@
         <v>1.5242100573692257</v>
       </c>
       <c r="CM299" s="16">
-        <v>1.2861171166311194</v>
-      </c>
-      <c r="CN299" s="8"/>
+        <v>1.2931135933795226</v>
+      </c>
+      <c r="CN299" s="16">
+        <v>1.9533707516049108</v>
+      </c>
       <c r="CO299" s="8"/>
       <c r="CP299" s="8"/>
       <c r="CQ299" s="8"/>
@@ -71697,7 +72128,7 @@
       <c r="EX299" s="8"/>
       <c r="EY299" s="8"/>
     </row>
-    <row r="300" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>17</v>
       </c>
@@ -71969,9 +72400,11 @@
         <v>0.54809577251954278</v>
       </c>
       <c r="CM300" s="16">
-        <v>1.6342226657294627</v>
-      </c>
-      <c r="CN300" s="8"/>
+        <v>1.6381048262638684</v>
+      </c>
+      <c r="CN300" s="16">
+        <v>0.78082987528259651</v>
+      </c>
       <c r="CO300" s="8"/>
       <c r="CP300" s="8"/>
       <c r="CQ300" s="8"/>
@@ -72036,7 +72469,7 @@
       <c r="EX300" s="8"/>
       <c r="EY300" s="8"/>
     </row>
-    <row r="301" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>18</v>
       </c>
@@ -72308,9 +72741,11 @@
         <v>0.22698243196914727</v>
       </c>
       <c r="CM301" s="16">
-        <v>0.20405577806808353</v>
-      </c>
-      <c r="CN301" s="8"/>
+        <v>0.20436596839784604</v>
+      </c>
+      <c r="CN301" s="16">
+        <v>0.27893105739840046</v>
+      </c>
       <c r="CO301" s="8"/>
       <c r="CP301" s="8"/>
       <c r="CQ301" s="8"/>
@@ -72375,7 +72810,7 @@
       <c r="EX301" s="8"/>
       <c r="EY301" s="8"/>
     </row>
-    <row r="302" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>19</v>
       </c>
@@ -72647,9 +73082,11 @@
         <v>2.9991495131586991E-2</v>
       </c>
       <c r="CM302" s="16">
-        <v>5.6377248684393477E-2</v>
-      </c>
-      <c r="CN302" s="8"/>
+        <v>5.6455150594890612E-2</v>
+      </c>
+      <c r="CN302" s="16">
+        <v>5.7596362466707789E-2</v>
+      </c>
       <c r="CO302" s="8"/>
       <c r="CP302" s="8"/>
       <c r="CQ302" s="8"/>
@@ -72714,7 +73151,7 @@
       <c r="EX302" s="8"/>
       <c r="EY302" s="8"/>
     </row>
-    <row r="303" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>21</v>
       </c>
@@ -72986,9 +73423,11 @@
         <v>8.8772982887569203</v>
       </c>
       <c r="CM303" s="16">
-        <v>19.918215841850525</v>
-      </c>
-      <c r="CN303" s="8"/>
+        <v>19.987240946210981</v>
+      </c>
+      <c r="CN303" s="16">
+        <v>8.64356759986266</v>
+      </c>
       <c r="CO303" s="8"/>
       <c r="CP303" s="8"/>
       <c r="CQ303" s="8"/>
@@ -73053,7 +73492,7 @@
       <c r="EX303" s="8"/>
       <c r="EY303" s="8"/>
     </row>
-    <row r="304" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>22</v>
       </c>
@@ -73325,9 +73764,11 @@
         <v>4.9329126494790296</v>
       </c>
       <c r="CM304" s="16">
-        <v>4.8491569186105368</v>
-      </c>
-      <c r="CN304" s="8"/>
+        <v>4.8634426779532047</v>
+      </c>
+      <c r="CN304" s="16">
+        <v>5.2759233970642558</v>
+      </c>
       <c r="CO304" s="8"/>
       <c r="CP304" s="8"/>
       <c r="CQ304" s="8"/>
@@ -73392,7 +73833,7 @@
       <c r="EX304" s="8"/>
       <c r="EY304" s="8"/>
     </row>
-    <row r="305" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>23</v>
       </c>
@@ -73664,9 +74105,11 @@
         <v>0.88816278082805289</v>
       </c>
       <c r="CM305" s="16">
-        <v>0.80434938846640791</v>
-      </c>
-      <c r="CN305" s="8"/>
+        <v>0.80464656634720666</v>
+      </c>
+      <c r="CN305" s="16">
+        <v>0.92361017215246111</v>
+      </c>
       <c r="CO305" s="8"/>
       <c r="CP305" s="8"/>
       <c r="CQ305" s="8"/>
@@ -73731,7 +74174,7 @@
       <c r="EX305" s="8"/>
       <c r="EY305" s="8"/>
     </row>
-    <row r="306" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>24</v>
       </c>
@@ -74003,9 +74446,11 @@
         <v>3.4068373169562531</v>
       </c>
       <c r="CM306" s="16">
-        <v>5.5673628969366185</v>
-      </c>
-      <c r="CN306" s="8"/>
+        <v>5.5567928280760137</v>
+      </c>
+      <c r="CN306" s="16">
+        <v>5.5789757297352356</v>
+      </c>
       <c r="CO306" s="8"/>
       <c r="CP306" s="8"/>
       <c r="CQ306" s="8"/>
@@ -74070,7 +74515,7 @@
       <c r="EX306" s="8"/>
       <c r="EY306" s="8"/>
     </row>
-    <row r="307" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -74342,9 +74787,11 @@
         <v>15.153907824506305</v>
       </c>
       <c r="CM307" s="16">
-        <v>10.174211385306165</v>
-      </c>
-      <c r="CN307" s="8"/>
+        <v>10.17020235284987</v>
+      </c>
+      <c r="CN307" s="16">
+        <v>6.9091399893794607</v>
+      </c>
       <c r="CO307" s="8"/>
       <c r="CP307" s="8"/>
       <c r="CQ307" s="8"/>
@@ -74409,7 +74856,7 @@
       <c r="EX307" s="8"/>
       <c r="EY307" s="8"/>
     </row>
-    <row r="308" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>25</v>
       </c>
@@ -74681,9 +75128,11 @@
         <v>2.3720943761778472</v>
       </c>
       <c r="CM308" s="16">
-        <v>0.65966982280674602</v>
-      </c>
-      <c r="CN308" s="8"/>
+        <v>0.65778827933320505</v>
+      </c>
+      <c r="CN308" s="16">
+        <v>0.63845048382556358</v>
+      </c>
       <c r="CO308" s="8"/>
       <c r="CP308" s="8"/>
       <c r="CQ308" s="8"/>
@@ -74748,7 +75197,7 @@
       <c r="EX308" s="8"/>
       <c r="EY308" s="8"/>
     </row>
-    <row r="309" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>26</v>
       </c>
@@ -75020,9 +75469,11 @@
         <v>2.9422457769917849</v>
       </c>
       <c r="CM309" s="16">
-        <v>2.3832257993040762</v>
-      </c>
-      <c r="CN309" s="8"/>
+        <v>2.380375733603123</v>
+      </c>
+      <c r="CN309" s="16">
+        <v>3.2602784062997916</v>
+      </c>
       <c r="CO309" s="8"/>
       <c r="CP309" s="8"/>
       <c r="CQ309" s="8"/>
@@ -75087,7 +75538,7 @@
       <c r="EX309" s="8"/>
       <c r="EY309" s="8"/>
     </row>
-    <row r="310" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>27</v>
       </c>
@@ -75359,9 +75810,11 @@
         <v>3.8897523633234119</v>
       </c>
       <c r="CM310" s="16">
-        <v>4.9239287715203659</v>
-      </c>
-      <c r="CN310" s="8"/>
+        <v>4.8953033188028359</v>
+      </c>
+      <c r="CN310" s="16">
+        <v>5.609872288971971</v>
+      </c>
       <c r="CO310" s="8"/>
       <c r="CP310" s="8"/>
       <c r="CQ310" s="8"/>
@@ -75426,7 +75879,7 @@
       <c r="EX310" s="8"/>
       <c r="EY310" s="8"/>
     </row>
-    <row r="311" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>28</v>
       </c>
@@ -75698,9 +76151,11 @@
         <v>1.3664245176424081</v>
       </c>
       <c r="CM311" s="16">
-        <v>1.2478291249309599</v>
-      </c>
-      <c r="CN311" s="8"/>
+        <v>1.2476380882084712</v>
+      </c>
+      <c r="CN311" s="16">
+        <v>3.4467542271129257</v>
+      </c>
       <c r="CO311" s="8"/>
       <c r="CP311" s="8"/>
       <c r="CQ311" s="8"/>
@@ -75765,7 +76220,7 @@
       <c r="EX311" s="8"/>
       <c r="EY311" s="8"/>
     </row>
-    <row r="312" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>29</v>
       </c>
@@ -76037,9 +76492,11 @@
         <v>1.1626271111579529</v>
       </c>
       <c r="CM312" s="16">
-        <v>1.0884032173228595</v>
-      </c>
-      <c r="CN312" s="8"/>
+        <v>1.0887092798151861</v>
+      </c>
+      <c r="CN312" s="16">
+        <v>1.112079146187783</v>
+      </c>
       <c r="CO312" s="8"/>
       <c r="CP312" s="8"/>
       <c r="CQ312" s="8"/>
@@ -76104,7 +76561,7 @@
       <c r="EX312" s="8"/>
       <c r="EY312" s="8"/>
     </row>
-    <row r="313" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>30</v>
       </c>
@@ -76376,9 +76833,11 @@
         <v>3.4736197708693619</v>
       </c>
       <c r="CM313" s="16">
-        <v>1.9942231313099281</v>
-      </c>
-      <c r="CN313" s="8"/>
+        <v>1.9900451387613562</v>
+      </c>
+      <c r="CN313" s="16">
+        <v>2.0895558053281591</v>
+      </c>
       <c r="CO313" s="8"/>
       <c r="CP313" s="8"/>
       <c r="CQ313" s="8"/>
@@ -76443,7 +76902,7 @@
       <c r="EX313" s="8"/>
       <c r="EY313" s="8"/>
     </row>
-    <row r="314" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>31</v>
       </c>
@@ -76715,9 +77174,11 @@
         <v>1.047535837900033</v>
       </c>
       <c r="CM314" s="16">
-        <v>1.3240622743373758</v>
-      </c>
-      <c r="CN314" s="8"/>
+        <v>1.3126689123713386</v>
+      </c>
+      <c r="CN314" s="16">
+        <v>0.76210044879404593</v>
+      </c>
       <c r="CO314" s="8"/>
       <c r="CP314" s="8"/>
       <c r="CQ314" s="8"/>
@@ -76782,7 +77243,7 @@
       <c r="EX314" s="8"/>
       <c r="EY314" s="8"/>
     </row>
-    <row r="315" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>32</v>
       </c>
@@ -77054,9 +77515,11 @@
         <v>1.1047046240769984</v>
       </c>
       <c r="CM315" s="16">
-        <v>1.0473981217882116</v>
-      </c>
-      <c r="CN315" s="8"/>
+        <v>1.0482790110922389</v>
+      </c>
+      <c r="CN315" s="16">
+        <v>1.3806832008796115</v>
+      </c>
       <c r="CO315" s="8"/>
       <c r="CP315" s="8"/>
       <c r="CQ315" s="8"/>
@@ -77121,7 +77584,7 @@
       <c r="EX315" s="8"/>
       <c r="EY315" s="8"/>
     </row>
-    <row r="316" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>33</v>
       </c>
@@ -77393,9 +77856,11 @@
         <v>0.1686563902564242</v>
       </c>
       <c r="CM316" s="16">
-        <v>9.6701377072477335E-2</v>
-      </c>
-      <c r="CN316" s="8"/>
+        <v>9.7977664595472455E-2</v>
+      </c>
+      <c r="CN316" s="16">
+        <v>0.58374682840248415</v>
+      </c>
       <c r="CO316" s="8"/>
       <c r="CP316" s="8"/>
       <c r="CQ316" s="8"/>
@@ -77460,7 +77925,7 @@
       <c r="EX316" s="8"/>
       <c r="EY316" s="8"/>
     </row>
-    <row r="317" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>34</v>
       </c>
@@ -77732,9 +78197,11 @@
         <v>1.8316827645030314</v>
       </c>
       <c r="CM317" s="16">
-        <v>0.63545640431301031</v>
-      </c>
-      <c r="CN317" s="8"/>
+        <v>0.63102301620436352</v>
+      </c>
+      <c r="CN317" s="16">
+        <v>1.5493733360403419</v>
+      </c>
       <c r="CO317" s="8"/>
       <c r="CP317" s="8"/>
       <c r="CQ317" s="8"/>
@@ -77799,7 +78266,7 @@
       <c r="EX317" s="8"/>
       <c r="EY317" s="8"/>
     </row>
-    <row r="318" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>35</v>
       </c>
@@ -78071,9 +78538,11 @@
         <v>2.1567358729764483</v>
       </c>
       <c r="CM318" s="16">
-        <v>1.8720131929124972</v>
-      </c>
-      <c r="CN318" s="8"/>
+        <v>1.8717569017839484</v>
+      </c>
+      <c r="CN318" s="16">
+        <v>2.6002142801205501</v>
+      </c>
       <c r="CO318" s="8"/>
       <c r="CP318" s="8"/>
       <c r="CQ318" s="8"/>
@@ -78138,7 +78607,7 @@
       <c r="EX318" s="8"/>
       <c r="EY318" s="8"/>
     </row>
-    <row r="319" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>36</v>
       </c>
@@ -78410,9 +78879,11 @@
         <v>1.0743467337485453</v>
       </c>
       <c r="CM319" s="16">
-        <v>0.99823035628898416</v>
-      </c>
-      <c r="CN319" s="8"/>
+        <v>0.99469135781004914</v>
+      </c>
+      <c r="CN319" s="16">
+        <v>1.0084916217872437</v>
+      </c>
       <c r="CO319" s="8"/>
       <c r="CP319" s="8"/>
       <c r="CQ319" s="8"/>
@@ -78477,7 +78948,7 @@
       <c r="EX319" s="8"/>
       <c r="EY319" s="8"/>
     </row>
-    <row r="320" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>37</v>
       </c>
@@ -78749,9 +79220,11 @@
         <v>1.4004211196876095</v>
       </c>
       <c r="CM320" s="16">
-        <v>1.6115719152178218</v>
-      </c>
-      <c r="CN320" s="8"/>
+        <v>1.6102816698824647</v>
+      </c>
+      <c r="CN320" s="16">
+        <v>1.1081793777378501</v>
+      </c>
       <c r="CO320" s="8"/>
       <c r="CP320" s="8"/>
       <c r="CQ320" s="8"/>
@@ -78816,7 +79289,7 @@
       <c r="EX320" s="8"/>
       <c r="EY320" s="8"/>
     </row>
-    <row r="321" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>38</v>
       </c>
@@ -79088,9 +79561,11 @@
         <v>0.4858831891251516</v>
       </c>
       <c r="CM321" s="16">
-        <v>0.45202355656041537</v>
-      </c>
-      <c r="CN321" s="8"/>
+        <v>0.45083562929769561</v>
+      </c>
+      <c r="CN321" s="16">
+        <v>0.61109247650312659</v>
+      </c>
       <c r="CO321" s="8"/>
       <c r="CP321" s="8"/>
       <c r="CQ321" s="8"/>
@@ -79155,7 +79630,7 @@
       <c r="EX321" s="8"/>
       <c r="EY321" s="8"/>
     </row>
-    <row r="322" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>39</v>
       </c>
@@ -79427,9 +79902,11 @@
         <v>22.844524662929906</v>
       </c>
       <c r="CM322" s="16">
-        <v>17.614769081720262</v>
-      </c>
-      <c r="CN322" s="8"/>
+        <v>17.615652434388807</v>
+      </c>
+      <c r="CN322" s="16">
+        <v>20.98549359542648</v>
+      </c>
       <c r="CO322" s="8"/>
       <c r="CP322" s="8"/>
       <c r="CQ322" s="8"/>
@@ -79494,7 +79971,7 @@
       <c r="EX322" s="8"/>
       <c r="EY322" s="8"/>
     </row>
-    <row r="323" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
@@ -79650,7 +80127,7 @@
       <c r="EX323" s="8"/>
       <c r="EY323" s="8"/>
     </row>
-    <row r="324" spans="1:155" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:155" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>40</v>
       </c>
@@ -79924,7 +80401,9 @@
       <c r="CM324" s="16">
         <v>100</v>
       </c>
-      <c r="CN324" s="8"/>
+      <c r="CN324" s="16">
+        <v>100</v>
+      </c>
       <c r="CO324" s="8"/>
       <c r="CP324" s="8"/>
       <c r="CQ324" s="8"/>
@@ -79989,7 +80468,7 @@
       <c r="EX324" s="8"/>
       <c r="EY324" s="8"/>
     </row>
-    <row r="325" spans="1:155" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:155" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -80081,13 +80560,14 @@
       <c r="CK325" s="11"/>
       <c r="CL325" s="11"/>
       <c r="CM325" s="11"/>
+      <c r="CN325" s="11"/>
     </row>
-    <row r="326" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A326" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:155" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:155" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -80179,7 +80659,7 @@
       <c r="CK327" s="1"/>
       <c r="CL327" s="1"/>
       <c r="CM327" s="1"/>
-      <c r="CN327" s="18"/>
+      <c r="CN327" s="1"/>
       <c r="CO327" s="18"/>
       <c r="CP327" s="18"/>
       <c r="CQ327" s="18"/>
@@ -80244,7 +80724,7 @@
       <c r="EX327" s="18"/>
       <c r="EY327" s="18"/>
     </row>
-    <row r="328" spans="1:155" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:155" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -80336,7 +80816,7 @@
       <c r="CK328" s="1"/>
       <c r="CL328" s="1"/>
       <c r="CM328" s="1"/>
-      <c r="CN328" s="18"/>
+      <c r="CN328" s="1"/>
       <c r="CO328" s="18"/>
       <c r="CP328" s="18"/>
       <c r="CQ328" s="18"/>
@@ -80402,43 +80882,108 @@
       <c r="EY328" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="BZ290:CC290"/>
-    <mergeCell ref="BR290:BU290"/>
-    <mergeCell ref="BV290:BY290"/>
-    <mergeCell ref="BZ196:CC196"/>
-    <mergeCell ref="BR196:BU196"/>
-    <mergeCell ref="BV196:BY196"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AP150:AS150"/>
-    <mergeCell ref="AT150:AW150"/>
-    <mergeCell ref="AX150:BA150"/>
-    <mergeCell ref="BB150:BE150"/>
-    <mergeCell ref="BF150:BI150"/>
-    <mergeCell ref="BJ150:BM150"/>
-    <mergeCell ref="BF56:BI56"/>
-    <mergeCell ref="BJ56:BM56"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AL150:AO150"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH56:AK56"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="AP56:AS56"/>
-    <mergeCell ref="AT56:AW56"/>
-    <mergeCell ref="AX56:BA56"/>
-    <mergeCell ref="BB56:BE56"/>
+  <mergeCells count="161">
+    <mergeCell ref="CL243:CN243"/>
+    <mergeCell ref="CL290:CN290"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD150:CG150"/>
+    <mergeCell ref="CH196:CK196"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CH290:CK290"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD290:CG290"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CD196:CG196"/>
+    <mergeCell ref="CD56:CG56"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH56:CK56"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL56:CN56"/>
+    <mergeCell ref="CH103:CJ103"/>
+    <mergeCell ref="CL103:CM103"/>
+    <mergeCell ref="CH150:CJ150"/>
+    <mergeCell ref="CL150:CM150"/>
+    <mergeCell ref="CL196:CN196"/>
+    <mergeCell ref="BN150:BQ150"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BN56:BQ56"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ150:CC150"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BR56:BU56"/>
+    <mergeCell ref="BV56:BY56"/>
+    <mergeCell ref="BZ56:CC56"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BR150:BU150"/>
+    <mergeCell ref="BV150:BY150"/>
+    <mergeCell ref="AX290:BA290"/>
+    <mergeCell ref="BB290:BE290"/>
+    <mergeCell ref="BF290:BI290"/>
+    <mergeCell ref="BJ290:BM290"/>
+    <mergeCell ref="BN290:BQ290"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="F290:I290"/>
+    <mergeCell ref="J290:M290"/>
+    <mergeCell ref="N290:Q290"/>
+    <mergeCell ref="R290:U290"/>
+    <mergeCell ref="V290:Y290"/>
+    <mergeCell ref="Z290:AC290"/>
+    <mergeCell ref="AD290:AG290"/>
+    <mergeCell ref="AH290:AK290"/>
+    <mergeCell ref="AL290:AO290"/>
+    <mergeCell ref="AP290:AS290"/>
+    <mergeCell ref="AT290:AW290"/>
+    <mergeCell ref="BF196:BI196"/>
+    <mergeCell ref="BJ196:BM196"/>
+    <mergeCell ref="BN196:BQ196"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="AL196:AO196"/>
+    <mergeCell ref="AP196:AS196"/>
+    <mergeCell ref="AT196:AW196"/>
+    <mergeCell ref="AX196:BA196"/>
+    <mergeCell ref="BB196:BE196"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="J150:M150"/>
+    <mergeCell ref="N150:Q150"/>
+    <mergeCell ref="R150:U150"/>
+    <mergeCell ref="V150:Y150"/>
+    <mergeCell ref="Z150:AC150"/>
+    <mergeCell ref="AD150:AG150"/>
+    <mergeCell ref="AH150:AK150"/>
     <mergeCell ref="B196:E196"/>
     <mergeCell ref="F196:I196"/>
     <mergeCell ref="J196:M196"/>
@@ -80463,142 +81008,89 @@
     <mergeCell ref="V56:Y56"/>
     <mergeCell ref="Z56:AC56"/>
     <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="J150:M150"/>
-    <mergeCell ref="N150:Q150"/>
-    <mergeCell ref="R150:U150"/>
-    <mergeCell ref="V150:Y150"/>
-    <mergeCell ref="Z150:AC150"/>
-    <mergeCell ref="AD150:AG150"/>
-    <mergeCell ref="AH150:AK150"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL290:AO290"/>
-    <mergeCell ref="AP290:AS290"/>
-    <mergeCell ref="AT290:AW290"/>
-    <mergeCell ref="BF196:BI196"/>
-    <mergeCell ref="BJ196:BM196"/>
-    <mergeCell ref="BN196:BQ196"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="AL196:AO196"/>
-    <mergeCell ref="AP196:AS196"/>
-    <mergeCell ref="AT196:AW196"/>
-    <mergeCell ref="AX196:BA196"/>
-    <mergeCell ref="BB196:BE196"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="F290:I290"/>
-    <mergeCell ref="J290:M290"/>
-    <mergeCell ref="N290:Q290"/>
-    <mergeCell ref="R290:U290"/>
-    <mergeCell ref="V290:Y290"/>
-    <mergeCell ref="Z290:AC290"/>
-    <mergeCell ref="AD290:AG290"/>
-    <mergeCell ref="AH290:AK290"/>
-    <mergeCell ref="AX290:BA290"/>
-    <mergeCell ref="BB290:BE290"/>
-    <mergeCell ref="BF290:BI290"/>
-    <mergeCell ref="BJ290:BM290"/>
-    <mergeCell ref="BN290:BQ290"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BN150:BQ150"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BN56:BQ56"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ150:CC150"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BR56:BU56"/>
-    <mergeCell ref="BV56:BY56"/>
-    <mergeCell ref="BZ56:CC56"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BR150:BU150"/>
-    <mergeCell ref="BV150:BY150"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD150:CG150"/>
-    <mergeCell ref="CH196:CK196"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CH290:CK290"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD290:CG290"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CD196:CG196"/>
-    <mergeCell ref="CD56:CG56"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL56:CM56"/>
-    <mergeCell ref="CH103:CI103"/>
-    <mergeCell ref="CH150:CI150"/>
-    <mergeCell ref="CL196:CM196"/>
-    <mergeCell ref="CL243:CM243"/>
-    <mergeCell ref="CL290:CM290"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH56:CK56"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="AP56:AS56"/>
+    <mergeCell ref="AT56:AW56"/>
+    <mergeCell ref="AX56:BA56"/>
+    <mergeCell ref="BB56:BE56"/>
+    <mergeCell ref="AP150:AS150"/>
+    <mergeCell ref="AT150:AW150"/>
+    <mergeCell ref="AX150:BA150"/>
+    <mergeCell ref="BB150:BE150"/>
+    <mergeCell ref="BF150:BI150"/>
+    <mergeCell ref="BJ150:BM150"/>
+    <mergeCell ref="BF56:BI56"/>
+    <mergeCell ref="BJ56:BM56"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AL150:AO150"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="BZ290:CC290"/>
+    <mergeCell ref="BR290:BU290"/>
+    <mergeCell ref="BV290:BY290"/>
+    <mergeCell ref="BZ196:CC196"/>
+    <mergeCell ref="BR196:BU196"/>
+    <mergeCell ref="BV196:BY196"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
   </mergeCells>
   <conditionalFormatting sqref="BR106:BU137 BR153:BU184 BR199:BU230">
-    <cfRule type="cellIs" dxfId="7" priority="57" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="64" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV106:BY137 BV153:BY184 BV199:BY230">
-    <cfRule type="cellIs" dxfId="6" priority="39" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="46" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ106:CG137 BZ153:CG184 BZ199:CG230">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH106:CN137 CH153:CN184">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL199:CM230">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH106:CM137 CH153:CM184">
+  <conditionalFormatting sqref="CH106:CN137">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH199:CI230 CL199:CM230">
+  <conditionalFormatting sqref="CH153:CN184">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ199:CK230">
+  <conditionalFormatting sqref="CN199:CN230">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH106:CL137">
+  <conditionalFormatting sqref="CH199:CI230">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH153:CL184">
+  <conditionalFormatting sqref="CJ199:CK230">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -80607,12 +81099,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="47" max="90" man="1"/>
-    <brk id="94" max="90" man="1"/>
-    <brk id="141" max="90" man="1"/>
-    <brk id="188" max="90" man="1"/>
-    <brk id="234" max="90" man="1"/>
-    <brk id="281" max="90" man="1"/>
+    <brk id="47" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
+    <brk id="141" max="91" man="1"/>
+    <brk id="188" max="91" man="1"/>
+    <brk id="234" max="91" man="1"/>
+    <brk id="281" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>